--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/DAR 2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D801FF-B1D5-714A-954F-9B9B4A433C9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F737A4D-D964-894B-A381-2DFB43CDBAF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="214">
   <si>
     <t>BRANCH</t>
   </si>
@@ -568,6 +568,105 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>R-03-02-0123</t>
+  </si>
+  <si>
+    <t>R-03-02-0124</t>
+  </si>
+  <si>
+    <t>R-03-02-0125</t>
+  </si>
+  <si>
+    <t>ALICIA CRUZ -VS- RENATO L GOJAR ET.AL</t>
+  </si>
+  <si>
+    <t>BRGY. AKLE, SAN ILDEFONSO,BULACAN</t>
+  </si>
+  <si>
+    <t>ERLINDA MATIAS REP BY ROMULO SUMBILLO</t>
+  </si>
+  <si>
+    <t>CA branch 1</t>
+  </si>
+  <si>
+    <t>R-03-02-0126</t>
+  </si>
+  <si>
+    <t>R-03-02-0127</t>
+  </si>
+  <si>
+    <t>R-03-02-0128</t>
+  </si>
+  <si>
+    <t>R-03-02-0129</t>
+  </si>
+  <si>
+    <t>R-03-02-0130</t>
+  </si>
+  <si>
+    <t>R-03-02-0131</t>
+  </si>
+  <si>
+    <t>R-03-02-0132</t>
+  </si>
+  <si>
+    <t>R-03-02-0133</t>
+  </si>
+  <si>
+    <t>R-03-02-0134</t>
+  </si>
+  <si>
+    <t>R-03-02-0135</t>
+  </si>
+  <si>
+    <t>R-03-02-0136</t>
+  </si>
+  <si>
+    <t>R-03-02-0137</t>
+  </si>
+  <si>
+    <t>R-03-02-0138</t>
+  </si>
+  <si>
+    <t>R-03-02-0139</t>
+  </si>
+  <si>
+    <t>R-03-02-0140</t>
+  </si>
+  <si>
+    <t>R-03-02-0141</t>
+  </si>
+  <si>
+    <t>R-03-02-0142</t>
+  </si>
+  <si>
+    <t>R-03-02-0143</t>
+  </si>
+  <si>
+    <t>R-03-02-0144</t>
+  </si>
+  <si>
+    <t>R-03-02-0145</t>
+  </si>
+  <si>
+    <t>R-03-02-0146</t>
+  </si>
+  <si>
+    <t>R-03-02-0147</t>
+  </si>
+  <si>
+    <t>R-03-02-0148</t>
+  </si>
+  <si>
+    <t>R-03-02-0149</t>
+  </si>
+  <si>
+    <t>R-03-02-0150</t>
+  </si>
+  <si>
+    <t>R-03-02-0151</t>
   </si>
 </sst>
 </file>
@@ -662,7 +761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -672,9 +771,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1001,11 +1097,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7760DDDF-B585-9445-B146-2DD762F6C209}">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C123" sqref="C123"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1043,1479 +1139,3056 @@
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="6"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="6"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="6"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="6"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="6"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="6"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="6"/>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="6"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="6"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="6"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="6"/>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="6"/>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="6"/>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="6"/>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="6"/>
-      <c r="C16" s="8" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="6"/>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="6"/>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="6"/>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="6"/>
-      <c r="C20" s="8" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="6"/>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="6"/>
-      <c r="C22" s="8" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="6"/>
-      <c r="C23" s="8" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="6"/>
-      <c r="C24" s="8" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="6"/>
-      <c r="C25" s="8" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="6"/>
-      <c r="C26" s="8" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="6"/>
-      <c r="C27" s="8" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="6"/>
-      <c r="C28" s="8" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="6"/>
-      <c r="C29" s="8" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="6"/>
-      <c r="C30" s="8" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="6"/>
-      <c r="C31" s="8" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="6"/>
-      <c r="C32" s="8" t="s">
+      <c r="B32" s="5"/>
+      <c r="C32" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="6"/>
-      <c r="C33" s="8" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="6"/>
-      <c r="C34" s="8" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="6"/>
-      <c r="C35" s="8" t="s">
+      <c r="B35" s="5"/>
+      <c r="C35" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="6"/>
-      <c r="C36" s="8" t="s">
+      <c r="B36" s="5"/>
+      <c r="C36" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="6"/>
-      <c r="C37" s="8" t="s">
+      <c r="B37" s="5"/>
+      <c r="C37" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="6"/>
-      <c r="C38" s="8" t="s">
+      <c r="B38" s="5"/>
+      <c r="C38" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="6"/>
-      <c r="C39" s="8" t="s">
+      <c r="B39" s="5"/>
+      <c r="C39" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="6"/>
-      <c r="C40" s="8" t="s">
+      <c r="B40" s="5"/>
+      <c r="C40" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="6"/>
-      <c r="C41" s="8" t="s">
+      <c r="B41" s="5"/>
+      <c r="C41" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="6"/>
-      <c r="C42" s="8" t="s">
+      <c r="B42" s="5"/>
+      <c r="C42" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="6"/>
-      <c r="C43" s="8" t="s">
+      <c r="B43" s="5"/>
+      <c r="C43" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="6"/>
-      <c r="C44" s="8" t="s">
+      <c r="B44" s="5"/>
+      <c r="C44" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="6"/>
-      <c r="C45" s="8" t="s">
+      <c r="B45" s="5"/>
+      <c r="C45" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="6"/>
-      <c r="C46" s="8" t="s">
+      <c r="B46" s="5"/>
+      <c r="C46" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="6"/>
-      <c r="C47" s="8" t="s">
+      <c r="B47" s="5"/>
+      <c r="C47" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="6"/>
-      <c r="C48" s="8" t="s">
+      <c r="B48" s="5"/>
+      <c r="C48" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="6"/>
-      <c r="C49" s="8" t="s">
+      <c r="B49" s="5"/>
+      <c r="C49" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="6"/>
-      <c r="C50" s="8" t="s">
+      <c r="B50" s="5"/>
+      <c r="C50" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="6"/>
-      <c r="C51" s="8" t="s">
+      <c r="B51" s="5"/>
+      <c r="C51" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="6"/>
-      <c r="C52" s="8" t="s">
+      <c r="B52" s="5"/>
+      <c r="C52" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B53" s="6"/>
-      <c r="C53" s="8" t="s">
+      <c r="B53" s="5"/>
+      <c r="C53" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="6"/>
-      <c r="C54" s="8" t="s">
+      <c r="B54" s="5"/>
+      <c r="C54" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="6"/>
-      <c r="C55" s="8" t="s">
+      <c r="B55" s="5"/>
+      <c r="C55" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="6"/>
-      <c r="C56" s="8" t="s">
+      <c r="B56" s="5"/>
+      <c r="C56" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="6"/>
-      <c r="C57" s="8" t="s">
+      <c r="B57" s="5"/>
+      <c r="C57" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B58" s="6"/>
-      <c r="C58" s="8" t="s">
+      <c r="B58" s="5"/>
+      <c r="C58" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B59" s="6"/>
-      <c r="C59" s="8" t="s">
+      <c r="B59" s="5"/>
+      <c r="C59" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B60" s="6"/>
-      <c r="C60" s="8" t="s">
+      <c r="B60" s="5"/>
+      <c r="C60" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B61" s="6"/>
-      <c r="C61" s="8" t="s">
+      <c r="B61" s="5"/>
+      <c r="C61" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B62" s="6"/>
-      <c r="C62" s="8" t="s">
+      <c r="B62" s="5"/>
+      <c r="C62" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B63" s="6"/>
-      <c r="C63" s="8" t="s">
+      <c r="B63" s="5"/>
+      <c r="C63" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B64" s="6"/>
-      <c r="C64" s="8" t="s">
+      <c r="B64" s="5"/>
+      <c r="C64" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B65" s="6"/>
-      <c r="C65" s="8" t="s">
+      <c r="B65" s="5"/>
+      <c r="C65" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B66" s="6"/>
-      <c r="C66" s="8" t="s">
+      <c r="B66" s="5"/>
+      <c r="C66" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
     </row>
     <row r="67" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B67" s="6"/>
-      <c r="C67" s="8" t="s">
+      <c r="B67" s="5"/>
+      <c r="C67" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
     </row>
     <row r="68" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B68" s="6"/>
-      <c r="C68" s="8" t="s">
+      <c r="B68" s="5"/>
+      <c r="C68" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
     </row>
     <row r="69" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B69" s="6"/>
-      <c r="C69" s="8" t="s">
+      <c r="B69" s="5"/>
+      <c r="C69" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
     </row>
     <row r="70" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B70" s="6"/>
-      <c r="C70" s="8" t="s">
+      <c r="B70" s="5"/>
+      <c r="C70" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
     </row>
     <row r="71" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B71" s="6"/>
-      <c r="C71" s="8" t="s">
+      <c r="B71" s="5"/>
+      <c r="C71" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
     </row>
     <row r="72" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B72" s="6"/>
-      <c r="C72" s="8" t="s">
+      <c r="B72" s="5"/>
+      <c r="C72" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
     </row>
     <row r="73" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B73" s="6"/>
-      <c r="C73" s="8" t="s">
+      <c r="B73" s="5"/>
+      <c r="C73" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
     </row>
     <row r="74" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B74" s="6"/>
-      <c r="C74" s="8" t="s">
+      <c r="B74" s="5"/>
+      <c r="C74" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
     </row>
     <row r="75" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B75" s="6"/>
-      <c r="C75" s="8" t="s">
+      <c r="B75" s="5"/>
+      <c r="C75" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
     </row>
     <row r="76" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B76" s="6"/>
-      <c r="C76" s="8" t="s">
+      <c r="B76" s="5"/>
+      <c r="C76" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
     </row>
     <row r="77" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B77" s="6"/>
-      <c r="C77" s="8" t="s">
+      <c r="B77" s="5"/>
+      <c r="C77" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
     </row>
     <row r="78" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B78" s="6"/>
-      <c r="C78" s="8" t="s">
+      <c r="B78" s="5"/>
+      <c r="C78" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
     </row>
     <row r="79" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B79" s="6"/>
-      <c r="C79" s="8" t="s">
+      <c r="B79" s="5"/>
+      <c r="C79" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
     </row>
     <row r="80" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B80" s="6"/>
-      <c r="C80" s="8" t="s">
+      <c r="B80" s="5"/>
+      <c r="C80" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
     </row>
     <row r="81" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B81" s="6"/>
-      <c r="C81" s="8" t="s">
+      <c r="B81" s="5"/>
+      <c r="C81" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
     </row>
     <row r="82" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B82" s="6"/>
-      <c r="C82" s="8" t="s">
+      <c r="B82" s="5"/>
+      <c r="C82" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
     </row>
     <row r="83" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B83" s="6"/>
-      <c r="C83" s="8" t="s">
+      <c r="B83" s="5"/>
+      <c r="C83" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
     </row>
     <row r="84" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B84" s="6"/>
-      <c r="C84" s="8" t="s">
+      <c r="B84" s="5"/>
+      <c r="C84" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
     </row>
     <row r="85" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B85" s="6"/>
-      <c r="C85" s="8" t="s">
+      <c r="B85" s="5"/>
+      <c r="C85" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
     </row>
     <row r="86" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B86" s="6"/>
-      <c r="C86" s="8" t="s">
+      <c r="B86" s="5"/>
+      <c r="C86" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
     </row>
     <row r="87" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B87" s="6"/>
-      <c r="C87" s="8" t="s">
+      <c r="B87" s="5"/>
+      <c r="C87" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
     </row>
     <row r="88" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B88" s="6"/>
-      <c r="C88" s="8" t="s">
+      <c r="B88" s="5"/>
+      <c r="C88" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
     </row>
     <row r="89" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B89" s="6"/>
-      <c r="C89" s="8" t="s">
+      <c r="B89" s="5"/>
+      <c r="C89" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
     </row>
     <row r="90" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B90" s="6"/>
-      <c r="C90" s="8" t="s">
+      <c r="B90" s="5"/>
+      <c r="C90" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
     </row>
     <row r="91" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B91" s="6"/>
-      <c r="C91" s="8" t="s">
+      <c r="B91" s="5"/>
+      <c r="C91" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
     </row>
     <row r="92" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B92" s="6"/>
-      <c r="C92" s="8" t="s">
+      <c r="B92" s="5"/>
+      <c r="C92" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
     </row>
     <row r="93" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B93" s="6"/>
-      <c r="C93" s="8" t="s">
+      <c r="B93" s="5"/>
+      <c r="C93" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
     </row>
     <row r="94" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B94" s="6"/>
-      <c r="C94" s="8" t="s">
+      <c r="B94" s="5"/>
+      <c r="C94" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
     </row>
     <row r="95" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B95" s="6"/>
-      <c r="C95" s="8" t="s">
+      <c r="B95" s="5"/>
+      <c r="C95" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
     </row>
     <row r="96" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B96" s="6"/>
-      <c r="C96" s="8" t="s">
+      <c r="B96" s="5"/>
+      <c r="C96" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
     </row>
     <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B97" s="6"/>
-      <c r="C97" s="8" t="s">
+      <c r="B97" s="5"/>
+      <c r="C97" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
     </row>
     <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B98" s="6"/>
-      <c r="C98" s="8" t="s">
+      <c r="B98" s="5"/>
+      <c r="C98" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
     </row>
     <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B99" s="6"/>
-      <c r="C99" s="8" t="s">
+      <c r="B99" s="5"/>
+      <c r="C99" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
     </row>
     <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B100" s="6"/>
-      <c r="C100" s="8" t="s">
+      <c r="B100" s="5"/>
+      <c r="C100" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B101" s="6"/>
-      <c r="C101" s="8" t="s">
+      <c r="B101" s="5"/>
+      <c r="C101" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
     </row>
     <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B102" s="6"/>
-      <c r="C102" s="8" t="s">
+      <c r="B102" s="5"/>
+      <c r="C102" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D102" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
     </row>
     <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B103" s="6"/>
-      <c r="C103" s="8" t="s">
+      <c r="B103" s="5"/>
+      <c r="C103" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
     </row>
     <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B104" s="6"/>
-      <c r="C104" s="8" t="s">
+      <c r="B104" s="5"/>
+      <c r="C104" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D104" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
     </row>
     <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>179</v>
       </c>
-      <c r="B105" s="6"/>
-      <c r="C105" s="8" t="s">
+      <c r="B105" s="5"/>
+      <c r="C105" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D105" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
     </row>
     <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B106" s="6"/>
-      <c r="C106" s="8" t="s">
+      <c r="B106" s="5"/>
+      <c r="C106" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D106" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
     </row>
     <row r="107" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B107" s="6"/>
-      <c r="C107" s="8" t="s">
+      <c r="B107" s="5"/>
+      <c r="C107" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D107" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
     </row>
     <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B108" s="6"/>
-      <c r="C108" s="8" t="s">
+      <c r="B108" s="5"/>
+      <c r="C108" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D108" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E108" s="6" t="s">
+      <c r="E108" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F108" s="6" t="s">
+      <c r="F108" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G108" s="6" t="s">
+      <c r="G108" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="H108" s="6"/>
+      <c r="H108" s="5"/>
     </row>
     <row r="109" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="B109" s="6"/>
-      <c r="C109" s="8" t="s">
+      <c r="B109" s="5">
+        <v>1</v>
+      </c>
+      <c r="C109" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D109" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6" t="s">
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="H109" s="7" t="s">
+      <c r="H109" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B110" s="6"/>
-      <c r="C110" s="8" t="s">
+      <c r="B110" s="5">
+        <v>2</v>
+      </c>
+      <c r="C110" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E110" s="6" t="s">
+      <c r="E110" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F110" s="6" t="s">
+      <c r="F110" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G110" s="6" t="s">
+      <c r="G110" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="H110" s="7" t="s">
+      <c r="H110" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B111" s="6"/>
-      <c r="C111" s="8" t="s">
+      <c r="B111" s="5">
+        <v>2</v>
+      </c>
+      <c r="C111" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D111" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6" t="s">
+      <c r="E111" s="5"/>
+      <c r="F111" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="G111" s="6" t="s">
+      <c r="G111" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="H111" s="7" t="s">
+      <c r="H111" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B112" s="6"/>
-      <c r="C112" s="8" t="s">
+      <c r="B112" s="5"/>
+      <c r="C112" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D112" s="6" t="s">
+      <c r="D112" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
-    </row>
-    <row r="113" spans="2:8" ht="54" x14ac:dyDescent="0.35">
-      <c r="B113" s="9" t="s">
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+    </row>
+    <row r="113" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+      <c r="B113" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="C113" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="D113" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
-    </row>
-    <row r="114" spans="2:8" ht="54" x14ac:dyDescent="0.35">
-      <c r="B114" s="9" t="s">
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+    </row>
+    <row r="114" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+      <c r="B114" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C114" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="D114" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
-    </row>
-    <row r="115" spans="2:8" ht="54" x14ac:dyDescent="0.35">
-      <c r="B115" s="9" t="s">
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+    </row>
+    <row r="115" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+      <c r="B115" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C115" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="D115" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
-    </row>
-    <row r="116" spans="2:8" ht="54" x14ac:dyDescent="0.35">
-      <c r="B116" s="9" t="s">
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+    </row>
+    <row r="116" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+      <c r="B116" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C116" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D116" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="6"/>
-    </row>
-    <row r="117" spans="2:8" ht="54" x14ac:dyDescent="0.35">
-      <c r="B117" s="9" t="s">
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+    </row>
+    <row r="117" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+      <c r="B117" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="C117" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="D117" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="6"/>
-    </row>
-    <row r="118" spans="2:8" ht="54" x14ac:dyDescent="0.35">
-      <c r="B118" s="9" t="s">
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+    </row>
+    <row r="118" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+      <c r="B118" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C118" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D118" s="7" t="s">
+      <c r="D118" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
-    </row>
-    <row r="119" spans="2:8" ht="54" x14ac:dyDescent="0.35">
-      <c r="B119" s="9" t="s">
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+    </row>
+    <row r="119" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+      <c r="B119" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="C119" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="D119" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-    </row>
-    <row r="120" spans="2:8" ht="54" x14ac:dyDescent="0.35">
-      <c r="B120" s="9" t="s">
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+    </row>
+    <row r="120" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+      <c r="B120" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="C120" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="D120" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C121" s="4" t="s">
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+    </row>
+    <row r="121" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B121" s="5"/>
+      <c r="C121" s="7" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C122" s="4" t="s">
+      <c r="D121" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+    </row>
+    <row r="122" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B122" s="5"/>
+      <c r="C122" s="7" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C123" s="4" t="s">
+      <c r="D122" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+    </row>
+    <row r="123" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B123" s="5"/>
+      <c r="C123" s="7" t="s">
         <v>128</v>
       </c>
+      <c r="D123" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+    </row>
+    <row r="124" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B124" s="5"/>
+      <c r="C124" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+    </row>
+    <row r="125" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B125" s="5"/>
+      <c r="C125" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+    </row>
+    <row r="126" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B126" s="5"/>
+      <c r="C126" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>187</v>
+      </c>
+      <c r="B127" s="5"/>
+      <c r="C127" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>187</v>
+      </c>
+      <c r="B128" s="5"/>
+      <c r="C128" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>187</v>
+      </c>
+      <c r="B129" s="5"/>
+      <c r="C129" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>187</v>
+      </c>
+      <c r="B130" s="5"/>
+      <c r="C130" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>187</v>
+      </c>
+      <c r="B131" s="5"/>
+      <c r="C131" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>187</v>
+      </c>
+      <c r="B132" s="5"/>
+      <c r="C132" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>187</v>
+      </c>
+      <c r="B133" s="5"/>
+      <c r="C133" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>187</v>
+      </c>
+      <c r="B134" s="5"/>
+      <c r="C134" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>187</v>
+      </c>
+      <c r="B135" s="5"/>
+      <c r="C135" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>187</v>
+      </c>
+      <c r="B136" s="5"/>
+      <c r="C136" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>187</v>
+      </c>
+      <c r="B137" s="5"/>
+      <c r="C137" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>187</v>
+      </c>
+      <c r="B138" s="5"/>
+      <c r="C138" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>187</v>
+      </c>
+      <c r="B139" s="5"/>
+      <c r="C139" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>187</v>
+      </c>
+      <c r="B140" s="5"/>
+      <c r="C140" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>187</v>
+      </c>
+      <c r="B141" s="5"/>
+      <c r="C141" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>187</v>
+      </c>
+      <c r="B142" s="5"/>
+      <c r="C142" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>187</v>
+      </c>
+      <c r="B143" s="5"/>
+      <c r="C143" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>187</v>
+      </c>
+      <c r="B144" s="5"/>
+      <c r="C144" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>187</v>
+      </c>
+      <c r="B145" s="5"/>
+      <c r="C145" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>187</v>
+      </c>
+      <c r="B146" s="5"/>
+      <c r="C146" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>187</v>
+      </c>
+      <c r="B147" s="5"/>
+      <c r="C147" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>187</v>
+      </c>
+      <c r="B148" s="5"/>
+      <c r="C148" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>187</v>
+      </c>
+      <c r="B149" s="5"/>
+      <c r="C149" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>187</v>
+      </c>
+      <c r="B150" s="5"/>
+      <c r="C150" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>187</v>
+      </c>
+      <c r="B151" s="5"/>
+      <c r="C151" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>187</v>
+      </c>
+      <c r="B152" s="5"/>
+      <c r="C152" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="5"/>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5"/>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5"/>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5"/>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5"/>
+      <c r="H177" s="5"/>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5"/>
+      <c r="H178" s="5"/>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="5"/>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="5"/>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5"/>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="5"/>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B183" s="5"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5"/>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B184" s="5"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="5"/>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="5"/>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="5"/>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B187" s="5"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="5"/>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B188" s="5"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="5"/>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B189" s="5"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="5"/>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B190" s="5"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="5"/>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B191" s="5"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5"/>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B192" s="5"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B193" s="5"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="5"/>
+      <c r="H193" s="5"/>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B194" s="5"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B195" s="5"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B197" s="5"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="5"/>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B198" s="5"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="5"/>
+      <c r="H198" s="5"/>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B199" s="5"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="5"/>
+      <c r="H199" s="5"/>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B200" s="5"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="5"/>
+      <c r="H200" s="5"/>
+    </row>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B201" s="5"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="5"/>
+    </row>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B202" s="5"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
+      <c r="E202" s="5"/>
+      <c r="F202" s="5"/>
+      <c r="G202" s="5"/>
+      <c r="H202" s="5"/>
+    </row>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B203" s="5"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="5"/>
+      <c r="H203" s="5"/>
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B204" s="5"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
+      <c r="G204" s="5"/>
+      <c r="H204" s="5"/>
+    </row>
+    <row r="205" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B205" s="5"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="5"/>
+    </row>
+    <row r="206" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B206" s="5"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="5"/>
+      <c r="H206" s="5"/>
+    </row>
+    <row r="207" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B207" s="5"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
+      <c r="G207" s="5"/>
+      <c r="H207" s="5"/>
+    </row>
+    <row r="208" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B208" s="5"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="5"/>
+      <c r="F208" s="5"/>
+      <c r="G208" s="5"/>
+      <c r="H208" s="5"/>
+    </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B209" s="5"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
+      <c r="F209" s="5"/>
+      <c r="G209" s="5"/>
+      <c r="H209" s="5"/>
+    </row>
+    <row r="210" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B210" s="5"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="5"/>
+      <c r="H210" s="5"/>
+    </row>
+    <row r="211" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B211" s="5"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="5"/>
+      <c r="H211" s="5"/>
+    </row>
+    <row r="212" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B212" s="5"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5"/>
+      <c r="H212" s="5"/>
+    </row>
+    <row r="213" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B213" s="5"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
+    </row>
+    <row r="214" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B214" s="5"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
+      <c r="G214" s="5"/>
+      <c r="H214" s="5"/>
+    </row>
+    <row r="215" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B215" s="5"/>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="5"/>
+      <c r="F215" s="5"/>
+      <c r="G215" s="5"/>
+      <c r="H215" s="5"/>
+    </row>
+    <row r="216" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B216" s="5"/>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="5"/>
+      <c r="F216" s="5"/>
+      <c r="G216" s="5"/>
+      <c r="H216" s="5"/>
+    </row>
+    <row r="217" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B217" s="5"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
+      <c r="G217" s="5"/>
+      <c r="H217" s="5"/>
+    </row>
+    <row r="218" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B218" s="5"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="5"/>
+      <c r="F218" s="5"/>
+      <c r="G218" s="5"/>
+      <c r="H218" s="5"/>
+    </row>
+    <row r="219" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B219" s="5"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5"/>
+      <c r="H219" s="5"/>
+    </row>
+    <row r="220" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B220" s="5"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
+      <c r="F220" s="5"/>
+      <c r="G220" s="5"/>
+      <c r="H220" s="5"/>
+    </row>
+    <row r="221" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B221" s="5"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="5"/>
+      <c r="F221" s="5"/>
+      <c r="G221" s="5"/>
+      <c r="H221" s="5"/>
+    </row>
+    <row r="222" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B222" s="5"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="5"/>
+      <c r="F222" s="5"/>
+      <c r="G222" s="5"/>
+      <c r="H222" s="5"/>
+    </row>
+    <row r="223" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B223" s="5"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="5"/>
+      <c r="F223" s="5"/>
+      <c r="G223" s="5"/>
+      <c r="H223" s="5"/>
+    </row>
+    <row r="224" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B224" s="5"/>
+      <c r="C224" s="5"/>
+      <c r="D224" s="5"/>
+      <c r="E224" s="5"/>
+      <c r="F224" s="5"/>
+      <c r="G224" s="5"/>
+      <c r="H224" s="5"/>
+    </row>
+    <row r="225" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B225" s="5"/>
+      <c r="C225" s="5"/>
+      <c r="D225" s="5"/>
+      <c r="E225" s="5"/>
+      <c r="F225" s="5"/>
+      <c r="G225" s="5"/>
+      <c r="H225" s="5"/>
+    </row>
+    <row r="226" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B226" s="5"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="5"/>
+      <c r="E226" s="5"/>
+      <c r="F226" s="5"/>
+      <c r="G226" s="5"/>
+      <c r="H226" s="5"/>
+    </row>
+    <row r="227" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B227" s="5"/>
+      <c r="C227" s="5"/>
+      <c r="D227" s="5"/>
+      <c r="E227" s="5"/>
+      <c r="F227" s="5"/>
+      <c r="G227" s="5"/>
+      <c r="H227" s="5"/>
+    </row>
+    <row r="228" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B228" s="5"/>
+      <c r="C228" s="5"/>
+      <c r="D228" s="5"/>
+      <c r="E228" s="5"/>
+      <c r="F228" s="5"/>
+      <c r="G228" s="5"/>
+      <c r="H228" s="5"/>
+    </row>
+    <row r="229" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B229" s="5"/>
+      <c r="C229" s="5"/>
+      <c r="D229" s="5"/>
+      <c r="E229" s="5"/>
+      <c r="F229" s="5"/>
+      <c r="G229" s="5"/>
+      <c r="H229" s="5"/>
+    </row>
+    <row r="230" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B230" s="5"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="5"/>
+      <c r="E230" s="5"/>
+      <c r="F230" s="5"/>
+      <c r="G230" s="5"/>
+      <c r="H230" s="5"/>
+    </row>
+    <row r="231" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B231" s="5"/>
+      <c r="C231" s="5"/>
+      <c r="D231" s="5"/>
+      <c r="E231" s="5"/>
+      <c r="F231" s="5"/>
+      <c r="G231" s="5"/>
+      <c r="H231" s="5"/>
+    </row>
+    <row r="232" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B232" s="5"/>
+      <c r="C232" s="5"/>
+      <c r="D232" s="5"/>
+      <c r="E232" s="5"/>
+      <c r="F232" s="5"/>
+      <c r="G232" s="5"/>
+      <c r="H232" s="5"/>
+    </row>
+    <row r="233" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B233" s="5"/>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5"/>
+      <c r="E233" s="5"/>
+      <c r="F233" s="5"/>
+      <c r="G233" s="5"/>
+      <c r="H233" s="5"/>
+    </row>
+    <row r="234" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B234" s="5"/>
+      <c r="C234" s="5"/>
+      <c r="D234" s="5"/>
+      <c r="E234" s="5"/>
+      <c r="F234" s="5"/>
+      <c r="G234" s="5"/>
+      <c r="H234" s="5"/>
+    </row>
+    <row r="235" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B235" s="5"/>
+      <c r="C235" s="5"/>
+      <c r="D235" s="5"/>
+      <c r="E235" s="5"/>
+      <c r="F235" s="5"/>
+      <c r="G235" s="5"/>
+      <c r="H235" s="5"/>
+    </row>
+    <row r="236" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B236" s="5"/>
+      <c r="C236" s="5"/>
+      <c r="D236" s="5"/>
+      <c r="E236" s="5"/>
+      <c r="F236" s="5"/>
+      <c r="G236" s="5"/>
+      <c r="H236" s="5"/>
+    </row>
+    <row r="237" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B237" s="5"/>
+      <c r="C237" s="5"/>
+      <c r="D237" s="5"/>
+      <c r="E237" s="5"/>
+      <c r="F237" s="5"/>
+      <c r="G237" s="5"/>
+      <c r="H237" s="5"/>
+    </row>
+    <row r="238" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B238" s="5"/>
+      <c r="C238" s="5"/>
+      <c r="D238" s="5"/>
+      <c r="E238" s="5"/>
+      <c r="F238" s="5"/>
+      <c r="G238" s="5"/>
+      <c r="H238" s="5"/>
+    </row>
+    <row r="239" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B239" s="5"/>
+      <c r="C239" s="5"/>
+      <c r="D239" s="5"/>
+      <c r="E239" s="5"/>
+      <c r="F239" s="5"/>
+      <c r="G239" s="5"/>
+      <c r="H239" s="5"/>
+    </row>
+    <row r="240" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B240" s="5"/>
+      <c r="C240" s="5"/>
+      <c r="D240" s="5"/>
+      <c r="E240" s="5"/>
+      <c r="F240" s="5"/>
+      <c r="G240" s="5"/>
+      <c r="H240" s="5"/>
+    </row>
+    <row r="241" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B241" s="5"/>
+      <c r="C241" s="5"/>
+      <c r="D241" s="5"/>
+      <c r="E241" s="5"/>
+      <c r="F241" s="5"/>
+      <c r="G241" s="5"/>
+      <c r="H241" s="5"/>
+    </row>
+    <row r="242" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B242" s="5"/>
+      <c r="C242" s="5"/>
+      <c r="D242" s="5"/>
+      <c r="E242" s="5"/>
+      <c r="F242" s="5"/>
+      <c r="G242" s="5"/>
+      <c r="H242" s="5"/>
+    </row>
+    <row r="243" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B243" s="5"/>
+      <c r="C243" s="5"/>
+      <c r="D243" s="5"/>
+      <c r="E243" s="5"/>
+      <c r="F243" s="5"/>
+      <c r="G243" s="5"/>
+      <c r="H243" s="5"/>
+    </row>
+    <row r="244" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B244" s="5"/>
+      <c r="C244" s="5"/>
+      <c r="D244" s="5"/>
+      <c r="E244" s="5"/>
+      <c r="F244" s="5"/>
+      <c r="G244" s="5"/>
+      <c r="H244" s="5"/>
+    </row>
+    <row r="245" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B245" s="5"/>
+      <c r="C245" s="5"/>
+      <c r="D245" s="5"/>
+      <c r="E245" s="5"/>
+      <c r="F245" s="5"/>
+      <c r="G245" s="5"/>
+      <c r="H245" s="5"/>
+    </row>
+    <row r="246" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B246" s="5"/>
+      <c r="C246" s="5"/>
+      <c r="D246" s="5"/>
+      <c r="E246" s="5"/>
+      <c r="F246" s="5"/>
+      <c r="G246" s="5"/>
+      <c r="H246" s="5"/>
+    </row>
+    <row r="247" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B247" s="5"/>
+      <c r="C247" s="5"/>
+      <c r="D247" s="5"/>
+      <c r="E247" s="5"/>
+      <c r="F247" s="5"/>
+      <c r="G247" s="5"/>
+      <c r="H247" s="5"/>
+    </row>
+    <row r="248" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B248" s="5"/>
+      <c r="C248" s="5"/>
+      <c r="D248" s="5"/>
+      <c r="E248" s="5"/>
+      <c r="F248" s="5"/>
+      <c r="G248" s="5"/>
+      <c r="H248" s="5"/>
+    </row>
+    <row r="249" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B249" s="5"/>
+      <c r="C249" s="5"/>
+      <c r="D249" s="5"/>
+      <c r="E249" s="5"/>
+      <c r="F249" s="5"/>
+      <c r="G249" s="5"/>
+      <c r="H249" s="5"/>
+    </row>
+    <row r="250" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B250" s="5"/>
+      <c r="C250" s="5"/>
+      <c r="D250" s="5"/>
+      <c r="E250" s="5"/>
+      <c r="F250" s="5"/>
+      <c r="G250" s="5"/>
+      <c r="H250" s="5"/>
+    </row>
+    <row r="251" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B251" s="5"/>
+      <c r="C251" s="5"/>
+      <c r="D251" s="5"/>
+      <c r="E251" s="5"/>
+      <c r="F251" s="5"/>
+      <c r="G251" s="5"/>
+      <c r="H251" s="5"/>
+    </row>
+    <row r="252" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B252" s="5"/>
+      <c r="C252" s="5"/>
+      <c r="D252" s="5"/>
+      <c r="E252" s="5"/>
+      <c r="F252" s="5"/>
+      <c r="G252" s="5"/>
+      <c r="H252" s="5"/>
+    </row>
+    <row r="253" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B253" s="5"/>
+      <c r="C253" s="5"/>
+      <c r="D253" s="5"/>
+      <c r="E253" s="5"/>
+      <c r="F253" s="5"/>
+      <c r="G253" s="5"/>
+      <c r="H253" s="5"/>
+    </row>
+    <row r="254" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B254" s="5"/>
+      <c r="C254" s="5"/>
+      <c r="D254" s="5"/>
+      <c r="E254" s="5"/>
+      <c r="F254" s="5"/>
+      <c r="G254" s="5"/>
+      <c r="H254" s="5"/>
+    </row>
+    <row r="255" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B255" s="5"/>
+      <c r="C255" s="5"/>
+      <c r="D255" s="5"/>
+      <c r="E255" s="5"/>
+      <c r="F255" s="5"/>
+      <c r="G255" s="5"/>
+      <c r="H255" s="5"/>
+    </row>
+    <row r="256" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B256" s="5"/>
+      <c r="C256" s="5"/>
+      <c r="D256" s="5"/>
+      <c r="E256" s="5"/>
+      <c r="F256" s="5"/>
+      <c r="G256" s="5"/>
+      <c r="H256" s="5"/>
+    </row>
+    <row r="257" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B257" s="5"/>
+      <c r="C257" s="5"/>
+      <c r="D257" s="5"/>
+      <c r="E257" s="5"/>
+      <c r="F257" s="5"/>
+      <c r="G257" s="5"/>
+      <c r="H257" s="5"/>
+    </row>
+    <row r="258" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B258" s="5"/>
+      <c r="C258" s="5"/>
+      <c r="D258" s="5"/>
+      <c r="E258" s="5"/>
+      <c r="F258" s="5"/>
+      <c r="G258" s="5"/>
+      <c r="H258" s="5"/>
+    </row>
+    <row r="259" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B259" s="5"/>
+      <c r="C259" s="5"/>
+      <c r="D259" s="5"/>
+      <c r="E259" s="5"/>
+      <c r="F259" s="5"/>
+      <c r="G259" s="5"/>
+      <c r="H259" s="5"/>
+    </row>
+    <row r="260" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B260" s="5"/>
+      <c r="C260" s="5"/>
+      <c r="D260" s="5"/>
+      <c r="E260" s="5"/>
+      <c r="F260" s="5"/>
+      <c r="G260" s="5"/>
+      <c r="H260" s="5"/>
+    </row>
+    <row r="261" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B261" s="5"/>
+      <c r="C261" s="5"/>
+      <c r="D261" s="5"/>
+      <c r="E261" s="5"/>
+      <c r="F261" s="5"/>
+      <c r="G261" s="5"/>
+      <c r="H261" s="5"/>
+    </row>
+    <row r="262" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B262" s="5"/>
+      <c r="C262" s="5"/>
+      <c r="D262" s="5"/>
+      <c r="E262" s="5"/>
+      <c r="F262" s="5"/>
+      <c r="G262" s="5"/>
+      <c r="H262" s="5"/>
+    </row>
+    <row r="263" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B263" s="5"/>
+      <c r="C263" s="5"/>
+      <c r="D263" s="5"/>
+      <c r="E263" s="5"/>
+      <c r="F263" s="5"/>
+      <c r="G263" s="5"/>
+      <c r="H263" s="5"/>
+    </row>
+    <row r="264" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B264" s="5"/>
+      <c r="C264" s="5"/>
+      <c r="D264" s="5"/>
+      <c r="E264" s="5"/>
+      <c r="F264" s="5"/>
+      <c r="G264" s="5"/>
+      <c r="H264" s="5"/>
+    </row>
+    <row r="265" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B265" s="5"/>
+      <c r="C265" s="5"/>
+      <c r="D265" s="5"/>
+      <c r="E265" s="5"/>
+      <c r="F265" s="5"/>
+      <c r="G265" s="5"/>
+      <c r="H265" s="5"/>
+    </row>
+    <row r="266" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B266" s="5"/>
+      <c r="C266" s="5"/>
+      <c r="D266" s="5"/>
+      <c r="E266" s="5"/>
+      <c r="F266" s="5"/>
+      <c r="G266" s="5"/>
+      <c r="H266" s="5"/>
+    </row>
+    <row r="267" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B267" s="5"/>
+      <c r="C267" s="5"/>
+      <c r="D267" s="5"/>
+      <c r="E267" s="5"/>
+      <c r="F267" s="5"/>
+      <c r="G267" s="5"/>
+      <c r="H267" s="5"/>
+    </row>
+    <row r="268" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B268" s="5"/>
+      <c r="C268" s="5"/>
+      <c r="D268" s="5"/>
+      <c r="E268" s="5"/>
+      <c r="F268" s="5"/>
+      <c r="G268" s="5"/>
+      <c r="H268" s="5"/>
+    </row>
+    <row r="269" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B269" s="5"/>
+      <c r="C269" s="5"/>
+      <c r="D269" s="5"/>
+      <c r="E269" s="5"/>
+      <c r="F269" s="5"/>
+      <c r="G269" s="5"/>
+      <c r="H269" s="5"/>
+    </row>
+    <row r="270" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B270" s="5"/>
+      <c r="C270" s="5"/>
+      <c r="D270" s="5"/>
+      <c r="E270" s="5"/>
+      <c r="F270" s="5"/>
+      <c r="G270" s="5"/>
+      <c r="H270" s="5"/>
+    </row>
+    <row r="271" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B271" s="5"/>
+      <c r="C271" s="5"/>
+      <c r="D271" s="5"/>
+      <c r="E271" s="5"/>
+      <c r="F271" s="5"/>
+      <c r="G271" s="5"/>
+      <c r="H271" s="5"/>
+    </row>
+    <row r="272" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B272" s="5"/>
+      <c r="C272" s="5"/>
+      <c r="D272" s="5"/>
+      <c r="E272" s="5"/>
+      <c r="F272" s="5"/>
+      <c r="G272" s="5"/>
+      <c r="H272" s="5"/>
+    </row>
+    <row r="273" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B273" s="5"/>
+      <c r="C273" s="5"/>
+      <c r="D273" s="5"/>
+      <c r="E273" s="5"/>
+      <c r="F273" s="5"/>
+      <c r="G273" s="5"/>
+      <c r="H273" s="5"/>
+    </row>
+    <row r="274" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B274" s="5"/>
+      <c r="C274" s="5"/>
+      <c r="D274" s="5"/>
+      <c r="E274" s="5"/>
+      <c r="F274" s="5"/>
+      <c r="G274" s="5"/>
+      <c r="H274" s="5"/>
+    </row>
+    <row r="275" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B275" s="5"/>
+      <c r="C275" s="5"/>
+      <c r="D275" s="5"/>
+      <c r="E275" s="5"/>
+      <c r="F275" s="5"/>
+      <c r="G275" s="5"/>
+      <c r="H275" s="5"/>
+    </row>
+    <row r="276" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B276" s="5"/>
+      <c r="C276" s="5"/>
+      <c r="D276" s="5"/>
+      <c r="E276" s="5"/>
+      <c r="F276" s="5"/>
+      <c r="G276" s="5"/>
+      <c r="H276" s="5"/>
+    </row>
+    <row r="277" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B277" s="5"/>
+      <c r="C277" s="5"/>
+      <c r="D277" s="5"/>
+      <c r="E277" s="5"/>
+      <c r="F277" s="5"/>
+      <c r="G277" s="5"/>
+      <c r="H277" s="5"/>
+    </row>
+    <row r="278" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B278" s="5"/>
+      <c r="C278" s="5"/>
+      <c r="D278" s="5"/>
+      <c r="E278" s="5"/>
+      <c r="F278" s="5"/>
+      <c r="G278" s="5"/>
+      <c r="H278" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/DAR 2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F737A4D-D964-894B-A381-2DFB43CDBAF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357E3D6B-F01F-7C47-B9F4-184C691AA368}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="217">
   <si>
     <t>BRANCH</t>
   </si>
@@ -582,9 +582,6 @@
     <t>ALICIA CRUZ -VS- RENATO L GOJAR ET.AL</t>
   </si>
   <si>
-    <t>BRGY. AKLE, SAN ILDEFONSO,BULACAN</t>
-  </si>
-  <si>
     <t>ERLINDA MATIAS REP BY ROMULO SUMBILLO</t>
   </si>
   <si>
@@ -667,6 +664,18 @@
   </si>
   <si>
     <t>R-03-02-0151</t>
+  </si>
+  <si>
+    <t>BRGY. ALAGAO, SAN ILDEFONSO,BULACAN</t>
+  </si>
+  <si>
+    <t>28,137 SQM</t>
+  </si>
+  <si>
+    <t>TCT NO. RT-20775(T-298034)</t>
+  </si>
+  <si>
+    <t>DECLARATION OF NULLITY/SALE AWARD</t>
   </si>
 </sst>
 </file>
@@ -761,7 +770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -783,6 +792,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1100,8 +1112,8 @@
   <dimension ref="A1:H278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G124" sqref="G124"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2612,12 +2624,18 @@
       <c r="D121" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
+      <c r="E121" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="122" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B122" s="5"/>
@@ -2628,8 +2646,8 @@
         <v>184</v>
       </c>
       <c r="E122" s="5"/>
-      <c r="F122" s="5" t="s">
-        <v>185</v>
+      <c r="F122" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
@@ -2643,8 +2661,8 @@
         <v>184</v>
       </c>
       <c r="E123" s="5"/>
-      <c r="F123" s="5" t="s">
-        <v>185</v>
+      <c r="F123" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
@@ -2658,8 +2676,8 @@
         <v>184</v>
       </c>
       <c r="E124" s="5"/>
-      <c r="F124" s="5" t="s">
-        <v>185</v>
+      <c r="F124" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
@@ -2673,8 +2691,8 @@
         <v>184</v>
       </c>
       <c r="E125" s="5"/>
-      <c r="F125" s="5" t="s">
-        <v>185</v>
+      <c r="F125" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
@@ -2685,7 +2703,7 @@
         <v>183</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
@@ -2694,11 +2712,11 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B127" s="5"/>
       <c r="C127" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -2708,11 +2726,11 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -2722,11 +2740,11 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B129" s="5"/>
       <c r="C129" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -2736,11 +2754,11 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B130" s="5"/>
       <c r="C130" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -2750,11 +2768,11 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B131" s="5"/>
       <c r="C131" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -2764,11 +2782,11 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -2778,11 +2796,11 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B133" s="5"/>
       <c r="C133" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -2792,11 +2810,11 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -2806,11 +2824,11 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B135" s="5"/>
       <c r="C135" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -2820,11 +2838,11 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -2834,11 +2852,11 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B137" s="5"/>
       <c r="C137" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -2848,11 +2866,11 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B138" s="5"/>
       <c r="C138" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -2862,11 +2880,11 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B139" s="5"/>
       <c r="C139" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -2876,11 +2894,11 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B140" s="5"/>
       <c r="C140" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -2890,11 +2908,11 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -2904,11 +2922,11 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B142" s="5"/>
       <c r="C142" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -2918,11 +2936,11 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B143" s="5"/>
       <c r="C143" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -2932,11 +2950,11 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B144" s="5"/>
       <c r="C144" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -2946,11 +2964,11 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B145" s="5"/>
       <c r="C145" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -2960,11 +2978,11 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B146" s="5"/>
       <c r="C146" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -2974,11 +2992,11 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B147" s="5"/>
       <c r="C147" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -2988,11 +3006,11 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B148" s="5"/>
       <c r="C148" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -3002,11 +3020,11 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B149" s="5"/>
       <c r="C149" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -3016,11 +3034,11 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B150" s="5"/>
       <c r="C150" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -3030,11 +3048,11 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B151" s="5"/>
       <c r="C151" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -3044,11 +3062,11 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B152" s="5"/>
       <c r="C152" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357E3D6B-F01F-7C47-B9F4-184C691AA368}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971D7B63-B657-BF4D-A1BC-B203B95C6909}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -1113,7 +1113,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E121" sqref="E121"/>
+      <selection pane="bottomLeft" activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971D7B63-B657-BF4D-A1BC-B203B95C6909}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2067C9FB-B8E4-CB46-8CBD-6ECDC5642DEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="217">
   <si>
     <t>BRANCH</t>
   </si>
@@ -770,7 +770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -794,6 +794,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1112,8 +1115,8 @@
   <dimension ref="A1:H278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C121" sqref="C121"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2624,7 +2627,7 @@
       <c r="D121" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E121" s="9" t="s">
+      <c r="E121" s="10" t="s">
         <v>214</v>
       </c>
       <c r="F121" s="6" t="s">
@@ -2649,8 +2652,12 @@
       <c r="F122" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
+      <c r="G122" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="H122" s="6" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="123" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B123" s="5"/>
@@ -2664,8 +2671,12 @@
       <c r="F123" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
+      <c r="G123" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="124" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B124" s="5"/>
@@ -2679,8 +2690,12 @@
       <c r="F124" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
+      <c r="G124" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="125" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B125" s="5"/>
@@ -2694,8 +2709,12 @@
       <c r="F125" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="G125" s="5"/>
-      <c r="H125" s="5"/>
+      <c r="G125" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="126" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B126" s="5"/>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2067C9FB-B8E4-CB46-8CBD-6ECDC5642DEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982CABCC-8345-2545-860C-23A058B03BF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="216">
   <si>
     <t>BRANCH</t>
   </si>
@@ -586,9 +586,6 @@
   </si>
   <si>
     <t>CA branch 1</t>
-  </si>
-  <si>
-    <t>R-03-02-0126</t>
   </si>
   <si>
     <t>R-03-02-0127</t>
@@ -1115,8 +1112,8 @@
   <dimension ref="A1:H278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G121" sqref="G121"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2628,116 +2625,118 @@
         <v>184</v>
       </c>
       <c r="E121" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G121" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="F121" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="G121" s="9" t="s">
+      <c r="H121" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="H121" s="6" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B122" s="5"/>
       <c r="C122" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>184</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G122" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="H122" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="H122" s="6" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B123" s="5"/>
       <c r="C123" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>184</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G123" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="H123" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="H123" s="6" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B124" s="5"/>
       <c r="C124" s="7" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>184</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G124" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="H124" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="H124" s="6" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B125" s="5"/>
       <c r="C125" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>184</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G125" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="H125" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="H125" s="6" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B126" s="5"/>
       <c r="C126" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>186</v>
       </c>
       <c r="B127" s="5"/>
       <c r="C127" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D127" s="5"/>
+        <v>183</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>185</v>
+      </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
@@ -2749,7 +2748,7 @@
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -2763,7 +2762,7 @@
       </c>
       <c r="B129" s="5"/>
       <c r="C129" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -2777,7 +2776,7 @@
       </c>
       <c r="B130" s="5"/>
       <c r="C130" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -2791,7 +2790,7 @@
       </c>
       <c r="B131" s="5"/>
       <c r="C131" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -2805,7 +2804,7 @@
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -2819,7 +2818,7 @@
       </c>
       <c r="B133" s="5"/>
       <c r="C133" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -2833,7 +2832,7 @@
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -2847,7 +2846,7 @@
       </c>
       <c r="B135" s="5"/>
       <c r="C135" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -2861,7 +2860,7 @@
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -2875,7 +2874,7 @@
       </c>
       <c r="B137" s="5"/>
       <c r="C137" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -2889,7 +2888,7 @@
       </c>
       <c r="B138" s="5"/>
       <c r="C138" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -2903,7 +2902,7 @@
       </c>
       <c r="B139" s="5"/>
       <c r="C139" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -2917,7 +2916,7 @@
       </c>
       <c r="B140" s="5"/>
       <c r="C140" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -2931,7 +2930,7 @@
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -2945,7 +2944,7 @@
       </c>
       <c r="B142" s="5"/>
       <c r="C142" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -2959,7 +2958,7 @@
       </c>
       <c r="B143" s="5"/>
       <c r="C143" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -2973,7 +2972,7 @@
       </c>
       <c r="B144" s="5"/>
       <c r="C144" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -2987,7 +2986,7 @@
       </c>
       <c r="B145" s="5"/>
       <c r="C145" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -3001,7 +3000,7 @@
       </c>
       <c r="B146" s="5"/>
       <c r="C146" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -3015,7 +3014,7 @@
       </c>
       <c r="B147" s="5"/>
       <c r="C147" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -3029,7 +3028,7 @@
       </c>
       <c r="B148" s="5"/>
       <c r="C148" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -3043,7 +3042,7 @@
       </c>
       <c r="B149" s="5"/>
       <c r="C149" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -3057,7 +3056,7 @@
       </c>
       <c r="B150" s="5"/>
       <c r="C150" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -3071,7 +3070,7 @@
       </c>
       <c r="B151" s="5"/>
       <c r="C151" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -3085,7 +3084,7 @@
       </c>
       <c r="B152" s="5"/>
       <c r="C152" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982CABCC-8345-2545-860C-23A058B03BF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC423F21-AFDF-CE42-B106-D8A900908F16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -1112,8 +1112,8 @@
   <dimension ref="A1:H278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E123" sqref="E123"/>
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC423F21-AFDF-CE42-B106-D8A900908F16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11DCCB0-C9A4-964E-99B9-85DC86E4F6E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
+    <workbookView xWindow="0" yWindow="820" windowWidth="28800" windowHeight="16200" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
   <sheets>
     <sheet name="LIST OF COMPLAIN 2021" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="294">
   <si>
     <t>BRANCH</t>
   </si>
@@ -673,6 +673,240 @@
   </si>
   <si>
     <t>DECLARATION OF NULLITY/SALE AWARD</t>
+  </si>
+  <si>
+    <t>R-03-02-0152</t>
+  </si>
+  <si>
+    <t>R-03-02-0153</t>
+  </si>
+  <si>
+    <t>R-03-02-0154</t>
+  </si>
+  <si>
+    <t>R-03-02-0155</t>
+  </si>
+  <si>
+    <t>R-03-02-0156</t>
+  </si>
+  <si>
+    <t>R-03-02-0157</t>
+  </si>
+  <si>
+    <t>R-03-02-0158</t>
+  </si>
+  <si>
+    <t>R-03-02-0159</t>
+  </si>
+  <si>
+    <t>R-03-02-0160</t>
+  </si>
+  <si>
+    <t>R-03-02-0161</t>
+  </si>
+  <si>
+    <t>R-03-02-0162</t>
+  </si>
+  <si>
+    <t>R-03-02-0163</t>
+  </si>
+  <si>
+    <t>R-03-02-0164</t>
+  </si>
+  <si>
+    <t>R-03-02-0165</t>
+  </si>
+  <si>
+    <t>R-03-02-0166</t>
+  </si>
+  <si>
+    <t>R-03-02-0167</t>
+  </si>
+  <si>
+    <t>R-03-02-0168</t>
+  </si>
+  <si>
+    <t>R-03-02-0169</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>FELIZA S. DE GUZMAN -VS- RODOLFO BANTOG</t>
+  </si>
+  <si>
+    <t>DULONG MALABON, PULILAN, BULACAN</t>
+  </si>
+  <si>
+    <t>FREE PATENT NO. 031418-17-27761</t>
+  </si>
+  <si>
+    <t>MAINTENANCE,FIXING LHC WITH TRO</t>
+  </si>
+  <si>
+    <t>VICENTE VERGEL DE DIOS -VS- PARO</t>
+  </si>
+  <si>
+    <t>EDWIN,ROLANDO &amp; LUISITO ALL SURNAMED AJOSE &amp; WILLIAM AUREAL -VS- AURELIA AMOROTO</t>
+  </si>
+  <si>
+    <t>MYRA BAILON VICENTE ET.AL -VS- LOLITA ABELLA</t>
+  </si>
+  <si>
+    <t>VACANT</t>
+  </si>
+  <si>
+    <t>ATTY. LOLITA ABELLA -VS- HEIRS OF MARIO VICENTE REP. BY MYRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FROMENCIO MERCADO VS.  EDGARDO SANTOS </t>
+  </si>
+  <si>
+    <t>JOSE MANALAYSAY VS. PARO ET AL.,</t>
+  </si>
+  <si>
+    <t>ZENAIDA CASTILLO MANALAYSAY VS. PARPO ET AL.,</t>
+  </si>
+  <si>
+    <t>HRS. OF JUANA DEL ROSARIO VS. VIVENCIO IGNACIO</t>
+  </si>
+  <si>
+    <t>RESERVED</t>
+  </si>
+  <si>
+    <t>R-03-02-0170</t>
+  </si>
+  <si>
+    <t>R-03-02-0171</t>
+  </si>
+  <si>
+    <t>R-03-02-0172</t>
+  </si>
+  <si>
+    <t>R-03-02-0173</t>
+  </si>
+  <si>
+    <t>R-03-02-0174</t>
+  </si>
+  <si>
+    <t>R-03-02-0175</t>
+  </si>
+  <si>
+    <t>R-03-02-0176</t>
+  </si>
+  <si>
+    <t>R-03-02-0177</t>
+  </si>
+  <si>
+    <t>R-03-02-0178</t>
+  </si>
+  <si>
+    <t>R-03-02-0179</t>
+  </si>
+  <si>
+    <t>R-03-02-0180</t>
+  </si>
+  <si>
+    <t>R-03-02-0181</t>
+  </si>
+  <si>
+    <t>R-03-02-0182</t>
+  </si>
+  <si>
+    <t>R-03-02-0183</t>
+  </si>
+  <si>
+    <t>R-03-02-0184</t>
+  </si>
+  <si>
+    <t>R-03-02-0185</t>
+  </si>
+  <si>
+    <t>R-03-02-0186</t>
+  </si>
+  <si>
+    <t>R-03-02-0187</t>
+  </si>
+  <si>
+    <t>R-03-02-0188</t>
+  </si>
+  <si>
+    <t>R-03-02-0189</t>
+  </si>
+  <si>
+    <t>R-03-02-0190</t>
+  </si>
+  <si>
+    <t>R-03-02-0191</t>
+  </si>
+  <si>
+    <t>R-03-02-0192</t>
+  </si>
+  <si>
+    <t>R-03-02-0193</t>
+  </si>
+  <si>
+    <t>R-03-02-0194</t>
+  </si>
+  <si>
+    <t>R-03-02-0195</t>
+  </si>
+  <si>
+    <t>R-03-02-0196</t>
+  </si>
+  <si>
+    <t>R-03-02-0197</t>
+  </si>
+  <si>
+    <t>R-03-02-0198</t>
+  </si>
+  <si>
+    <t>R-03-02-0199</t>
+  </si>
+  <si>
+    <t>MARCH</t>
+  </si>
+  <si>
+    <t>EP NO. A 117813</t>
+  </si>
+  <si>
+    <t>BUGA, SAN MIGUEL,BULACAN</t>
+  </si>
+  <si>
+    <t>EP NO. A 117812</t>
+  </si>
+  <si>
+    <t>EP NO. A 117814</t>
+  </si>
+  <si>
+    <t>EP NO. A 117848</t>
+  </si>
+  <si>
+    <t>ROMERO VARILLA REP. BY MA. DIGNA S. CALIWAG</t>
+  </si>
+  <si>
+    <t>STA. LUCIA, SAN MIGUEL, BULACAN</t>
+  </si>
+  <si>
+    <t>TCT NO. 6863</t>
+  </si>
+  <si>
+    <t>ISSUANCE OF 2ND OWNERS DUPLICATE</t>
+  </si>
+  <si>
+    <t>HRS OF VIRGGILIO MAGTALAS REP. BY RITA MAGTALAS VS PARPO</t>
+  </si>
+  <si>
+    <t>TCT NO. 9948 AND TCT NO. 9499</t>
+  </si>
+  <si>
+    <t>JULIANA SUDARIA -VS- CORAZON QUIAMBAO ET.AL</t>
+  </si>
+  <si>
+    <t>DEPOSIT OF LEASE RENTALS</t>
+  </si>
+  <si>
+    <t>STA RITA BATA, SAN MIGUEL,BUL</t>
   </si>
 </sst>
 </file>
@@ -767,7 +1001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -794,6 +1028,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1112,8 +1357,8 @@
   <dimension ref="A1:H278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E143" sqref="E143"/>
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G171" sqref="G171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1150,23 +1395,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
       <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="15" t="s">
+        <v>247</v>
+      </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="5"/>
+    <row r="3" spans="2:8" ht="61" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="14" t="s">
+        <v>240</v>
+      </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1183,133 +1434,181 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="5"/>
+    <row r="5" spans="2:8" ht="31" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="14" t="s">
+        <v>241</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="5"/>
+    <row r="6" spans="2:8" ht="31" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="14" t="s">
+        <v>241</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="5"/>
+    <row r="7" spans="2:8" ht="31" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="14" t="s">
+        <v>241</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="5"/>
+    <row r="8" spans="2:8" ht="31" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="14" t="s">
+        <v>241</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="5"/>
+    <row r="9" spans="2:8" ht="31" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="14" t="s">
+        <v>241</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="5"/>
+    <row r="10" spans="2:8" ht="31" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="14" t="s">
+        <v>241</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="5"/>
+    <row r="11" spans="2:8" ht="31" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="14" t="s">
+        <v>241</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="5"/>
+    <row r="12" spans="2:8" ht="31" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="14" t="s">
+        <v>241</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="5"/>
+    <row r="13" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="15" t="s">
+        <v>244</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="5"/>
+    <row r="14" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="15" t="s">
+        <v>245</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="5"/>
+    <row r="15" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="15" t="s">
+        <v>246</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="13" t="s">
+        <v>154</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -1320,7 +1619,9 @@
       <c r="C17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -1331,7 +1632,9 @@
       <c r="C18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -1342,7 +1645,9 @@
       <c r="C19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -1353,7 +1658,9 @@
       <c r="C20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -1364,179 +1671,243 @@
       <c r="C21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="5"/>
+    <row r="22" spans="2:8" ht="46" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="14" t="s">
+        <v>243</v>
+      </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="5"/>
+    <row r="23" spans="2:8" ht="46" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="14" t="s">
+        <v>243</v>
+      </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="5"/>
+    <row r="24" spans="2:8" ht="46" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="14" t="s">
+        <v>243</v>
+      </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="5"/>
+    <row r="25" spans="2:8" ht="46" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="14" t="s">
+        <v>243</v>
+      </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="5"/>
+    <row r="26" spans="2:8" ht="46" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="14" t="s">
+        <v>243</v>
+      </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="5"/>
+    <row r="27" spans="2:8" ht="46" x14ac:dyDescent="0.2">
+      <c r="B27" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="14" t="s">
+        <v>243</v>
+      </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="5"/>
+    <row r="28" spans="2:8" ht="46" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="14" t="s">
+        <v>243</v>
+      </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="5"/>
+    <row r="29" spans="2:8" ht="46" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C29" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="14" t="s">
+        <v>243</v>
+      </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="5"/>
+    <row r="30" spans="2:8" ht="46" x14ac:dyDescent="0.2">
+      <c r="B30" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="14" t="s">
+        <v>243</v>
+      </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="5"/>
+    <row r="31" spans="2:8" ht="46" x14ac:dyDescent="0.2">
+      <c r="B31" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="5"/>
+      <c r="D31" s="14" t="s">
+        <v>243</v>
+      </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="5"/>
+    <row r="32" spans="2:8" ht="46" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C32" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="5"/>
+      <c r="D32" s="14" t="s">
+        <v>243</v>
+      </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="5"/>
+    <row r="33" spans="2:8" ht="46" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C33" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="5"/>
+      <c r="D33" s="14" t="s">
+        <v>243</v>
+      </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="5"/>
+    <row r="34" spans="2:8" ht="46" x14ac:dyDescent="0.2">
+      <c r="B34" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C34" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="5"/>
+      <c r="D34" s="14" t="s">
+        <v>243</v>
+      </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="5"/>
+    <row r="35" spans="2:8" ht="46" x14ac:dyDescent="0.2">
+      <c r="B35" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C35" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="5"/>
+      <c r="D35" s="14" t="s">
+        <v>243</v>
+      </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="5"/>
+    <row r="36" spans="2:8" ht="46" x14ac:dyDescent="0.2">
+      <c r="B36" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C36" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="D36" s="14" t="s">
+        <v>243</v>
+      </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="5"/>
+      <c r="B37" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C37" s="7" t="s">
         <v>42</v>
       </c>
@@ -1547,7 +1918,9 @@
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="5"/>
+      <c r="B38" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C38" s="7" t="s">
         <v>43</v>
       </c>
@@ -1558,7 +1931,9 @@
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="5"/>
+      <c r="B39" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C39" s="7" t="s">
         <v>44</v>
       </c>
@@ -1569,7 +1944,9 @@
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="5"/>
+      <c r="B40" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C40" s="7" t="s">
         <v>45</v>
       </c>
@@ -1580,7 +1957,9 @@
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="5"/>
+      <c r="B41" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C41" s="7" t="s">
         <v>46</v>
       </c>
@@ -1591,7 +1970,9 @@
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="5"/>
+      <c r="B42" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C42" s="7" t="s">
         <v>47</v>
       </c>
@@ -1602,7 +1983,9 @@
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="5"/>
+      <c r="B43" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C43" s="7" t="s">
         <v>48</v>
       </c>
@@ -1613,7 +1996,9 @@
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="5"/>
+      <c r="B44" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C44" s="7" t="s">
         <v>49</v>
       </c>
@@ -1624,7 +2009,9 @@
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="5"/>
+      <c r="B45" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C45" s="7" t="s">
         <v>50</v>
       </c>
@@ -1635,7 +2022,9 @@
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="5"/>
+      <c r="B46" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C46" s="7" t="s">
         <v>51</v>
       </c>
@@ -1646,7 +2035,9 @@
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="5"/>
+      <c r="B47" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C47" s="7" t="s">
         <v>52</v>
       </c>
@@ -1657,7 +2048,9 @@
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="5"/>
+      <c r="B48" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C48" s="7" t="s">
         <v>53</v>
       </c>
@@ -1668,7 +2061,9 @@
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="5"/>
+      <c r="B49" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C49" s="7" t="s">
         <v>54</v>
       </c>
@@ -1679,7 +2074,9 @@
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="5"/>
+      <c r="B50" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C50" s="7" t="s">
         <v>55</v>
       </c>
@@ -1690,7 +2087,9 @@
       <c r="H50" s="5"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="5"/>
+      <c r="B51" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C51" s="7" t="s">
         <v>56</v>
       </c>
@@ -1701,7 +2100,9 @@
       <c r="H51" s="5"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="5"/>
+      <c r="B52" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C52" s="7" t="s">
         <v>57</v>
       </c>
@@ -1712,7 +2113,9 @@
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B53" s="5"/>
+      <c r="B53" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C53" s="7" t="s">
         <v>58</v>
       </c>
@@ -1723,7 +2126,9 @@
       <c r="H53" s="5"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="5"/>
+      <c r="B54" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C54" s="7" t="s">
         <v>59</v>
       </c>
@@ -1734,7 +2139,9 @@
       <c r="H54" s="5"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="5"/>
+      <c r="B55" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C55" s="7" t="s">
         <v>60</v>
       </c>
@@ -1745,7 +2152,9 @@
       <c r="H55" s="5"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="5"/>
+      <c r="B56" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C56" s="7" t="s">
         <v>61</v>
       </c>
@@ -1756,7 +2165,9 @@
       <c r="H56" s="5"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="5"/>
+      <c r="B57" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C57" s="7" t="s">
         <v>62</v>
       </c>
@@ -1767,7 +2178,9 @@
       <c r="H57" s="5"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B58" s="5"/>
+      <c r="B58" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C58" s="7" t="s">
         <v>63</v>
       </c>
@@ -1778,7 +2191,9 @@
       <c r="H58" s="5"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B59" s="5"/>
+      <c r="B59" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C59" s="7" t="s">
         <v>64</v>
       </c>
@@ -1789,7 +2204,9 @@
       <c r="H59" s="5"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B60" s="5"/>
+      <c r="B60" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C60" s="7" t="s">
         <v>65</v>
       </c>
@@ -1800,7 +2217,9 @@
       <c r="H60" s="5"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B61" s="5"/>
+      <c r="B61" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C61" s="7" t="s">
         <v>66</v>
       </c>
@@ -1811,7 +2230,9 @@
       <c r="H61" s="5"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B62" s="5"/>
+      <c r="B62" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C62" s="7" t="s">
         <v>67</v>
       </c>
@@ -1822,7 +2243,9 @@
       <c r="H62" s="5"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B63" s="5"/>
+      <c r="B63" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C63" s="7" t="s">
         <v>68</v>
       </c>
@@ -1833,7 +2256,9 @@
       <c r="H63" s="5"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B64" s="5"/>
+      <c r="B64" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C64" s="7" t="s">
         <v>69</v>
       </c>
@@ -1843,8 +2268,10 @@
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B65" s="5"/>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B65" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C65" s="7" t="s">
         <v>70</v>
       </c>
@@ -1854,8 +2281,10 @@
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B66" s="5"/>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B66" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C66" s="7" t="s">
         <v>71</v>
       </c>
@@ -1865,7 +2294,10 @@
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
     </row>
-    <row r="67" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>26</v>
+      </c>
       <c r="B67" s="5"/>
       <c r="C67" s="7" t="s">
         <v>72</v>
@@ -1878,7 +2310,10 @@
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
     </row>
-    <row r="68" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>27</v>
+      </c>
       <c r="B68" s="5"/>
       <c r="C68" s="7" t="s">
         <v>73</v>
@@ -1891,7 +2326,10 @@
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
     </row>
-    <row r="69" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>28</v>
+      </c>
       <c r="B69" s="5"/>
       <c r="C69" s="7" t="s">
         <v>74</v>
@@ -1904,7 +2342,10 @@
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
     </row>
-    <row r="70" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>29</v>
+      </c>
       <c r="B70" s="5"/>
       <c r="C70" s="7" t="s">
         <v>75</v>
@@ -1917,7 +2358,10 @@
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
     </row>
-    <row r="71" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>30</v>
+      </c>
       <c r="B71" s="5"/>
       <c r="C71" s="7" t="s">
         <v>76</v>
@@ -1930,7 +2374,10 @@
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
     </row>
-    <row r="72" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>31</v>
+      </c>
       <c r="B72" s="5"/>
       <c r="C72" s="7" t="s">
         <v>77</v>
@@ -1943,7 +2390,10 @@
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
     </row>
-    <row r="73" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>32</v>
+      </c>
       <c r="B73" s="5"/>
       <c r="C73" s="7" t="s">
         <v>78</v>
@@ -1956,7 +2406,10 @@
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
     </row>
-    <row r="74" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>33</v>
+      </c>
       <c r="B74" s="5"/>
       <c r="C74" s="7" t="s">
         <v>79</v>
@@ -1969,7 +2422,10 @@
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
     </row>
-    <row r="75" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>34</v>
+      </c>
       <c r="B75" s="5"/>
       <c r="C75" s="7" t="s">
         <v>80</v>
@@ -1982,7 +2438,10 @@
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
     </row>
-    <row r="76" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>35</v>
+      </c>
       <c r="B76" s="5"/>
       <c r="C76" s="7" t="s">
         <v>81</v>
@@ -1995,7 +2454,10 @@
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
     </row>
-    <row r="77" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>36</v>
+      </c>
       <c r="B77" s="5"/>
       <c r="C77" s="7" t="s">
         <v>82</v>
@@ -2008,7 +2470,10 @@
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
     </row>
-    <row r="78" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>37</v>
+      </c>
       <c r="B78" s="5"/>
       <c r="C78" s="7" t="s">
         <v>83</v>
@@ -2021,7 +2486,10 @@
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
     </row>
-    <row r="79" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>38</v>
+      </c>
       <c r="B79" s="5"/>
       <c r="C79" s="7" t="s">
         <v>84</v>
@@ -2034,7 +2502,10 @@
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
     </row>
-    <row r="80" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>39</v>
+      </c>
       <c r="B80" s="5"/>
       <c r="C80" s="7" t="s">
         <v>85</v>
@@ -2047,7 +2518,10 @@
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
     </row>
-    <row r="81" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>40</v>
+      </c>
       <c r="B81" s="5"/>
       <c r="C81" s="7" t="s">
         <v>86</v>
@@ -2060,7 +2534,10 @@
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
     </row>
-    <row r="82" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>41</v>
+      </c>
       <c r="B82" s="5"/>
       <c r="C82" s="7" t="s">
         <v>87</v>
@@ -2073,7 +2550,10 @@
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
     </row>
-    <row r="83" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>42</v>
+      </c>
       <c r="B83" s="5"/>
       <c r="C83" s="7" t="s">
         <v>88</v>
@@ -2086,7 +2566,10 @@
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
     </row>
-    <row r="84" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>43</v>
+      </c>
       <c r="B84" s="5"/>
       <c r="C84" s="7" t="s">
         <v>89</v>
@@ -2099,7 +2582,10 @@
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
     </row>
-    <row r="85" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>44</v>
+      </c>
       <c r="B85" s="5"/>
       <c r="C85" s="7" t="s">
         <v>90</v>
@@ -2112,7 +2598,10 @@
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
     </row>
-    <row r="86" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>45</v>
+      </c>
       <c r="B86" s="5"/>
       <c r="C86" s="7" t="s">
         <v>91</v>
@@ -2125,7 +2614,10 @@
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
     </row>
-    <row r="87" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>46</v>
+      </c>
       <c r="B87" s="5"/>
       <c r="C87" s="7" t="s">
         <v>92</v>
@@ -2138,7 +2630,10 @@
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
     </row>
-    <row r="88" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>47</v>
+      </c>
       <c r="B88" s="5"/>
       <c r="C88" s="7" t="s">
         <v>93</v>
@@ -2151,7 +2646,10 @@
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
     </row>
-    <row r="89" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>48</v>
+      </c>
       <c r="B89" s="5"/>
       <c r="C89" s="7" t="s">
         <v>94</v>
@@ -2164,7 +2662,10 @@
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
     </row>
-    <row r="90" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>49</v>
+      </c>
       <c r="B90" s="5"/>
       <c r="C90" s="7" t="s">
         <v>95</v>
@@ -2177,7 +2678,10 @@
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
     </row>
-    <row r="91" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>248</v>
+      </c>
       <c r="B91" s="5"/>
       <c r="C91" s="7" t="s">
         <v>96</v>
@@ -2190,7 +2694,10 @@
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
     </row>
-    <row r="92" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>248</v>
+      </c>
       <c r="B92" s="5"/>
       <c r="C92" s="7" t="s">
         <v>97</v>
@@ -2203,7 +2710,10 @@
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
     </row>
-    <row r="93" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>248</v>
+      </c>
       <c r="B93" s="5"/>
       <c r="C93" s="7" t="s">
         <v>98</v>
@@ -2216,7 +2726,10 @@
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
     </row>
-    <row r="94" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>248</v>
+      </c>
       <c r="B94" s="5"/>
       <c r="C94" s="7" t="s">
         <v>99</v>
@@ -2229,7 +2742,10 @@
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
     </row>
-    <row r="95" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>248</v>
+      </c>
       <c r="B95" s="5"/>
       <c r="C95" s="7" t="s">
         <v>100</v>
@@ -2242,7 +2758,10 @@
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
     </row>
-    <row r="96" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>248</v>
+      </c>
       <c r="B96" s="5"/>
       <c r="C96" s="7" t="s">
         <v>101</v>
@@ -2256,6 +2775,9 @@
       <c r="H96" s="5"/>
     </row>
     <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>248</v>
+      </c>
       <c r="B97" s="5"/>
       <c r="C97" s="7" t="s">
         <v>102</v>
@@ -2269,6 +2791,9 @@
       <c r="H97" s="5"/>
     </row>
     <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>248</v>
+      </c>
       <c r="B98" s="5"/>
       <c r="C98" s="7" t="s">
         <v>103</v>
@@ -2282,6 +2807,9 @@
       <c r="H98" s="5"/>
     </row>
     <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>248</v>
+      </c>
       <c r="B99" s="5"/>
       <c r="C99" s="7" t="s">
         <v>104</v>
@@ -2295,6 +2823,9 @@
       <c r="H99" s="5"/>
     </row>
     <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>248</v>
+      </c>
       <c r="B100" s="5"/>
       <c r="C100" s="7" t="s">
         <v>105</v>
@@ -2308,6 +2839,9 @@
       <c r="H100" s="5"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>248</v>
+      </c>
       <c r="B101" s="5"/>
       <c r="C101" s="7" t="s">
         <v>106</v>
@@ -2321,6 +2855,9 @@
       <c r="H101" s="5"/>
     </row>
     <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>248</v>
+      </c>
       <c r="B102" s="5"/>
       <c r="C102" s="7" t="s">
         <v>107</v>
@@ -2334,6 +2871,9 @@
       <c r="H102" s="5"/>
     </row>
     <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>248</v>
+      </c>
       <c r="B103" s="5"/>
       <c r="C103" s="7" t="s">
         <v>108</v>
@@ -2347,6 +2887,9 @@
       <c r="H103" s="5"/>
     </row>
     <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>248</v>
+      </c>
       <c r="B104" s="5"/>
       <c r="C104" s="7" t="s">
         <v>109</v>
@@ -2617,7 +3160,9 @@
       <c r="H120" s="5"/>
     </row>
     <row r="121" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B121" s="5"/>
+      <c r="B121" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C121" s="7" t="s">
         <v>126</v>
       </c>
@@ -2638,14 +3183,18 @@
       </c>
     </row>
     <row r="122" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B122" s="5"/>
+      <c r="B122" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C122" s="7" t="s">
         <v>126</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E122" s="5"/>
+      <c r="E122" s="10" t="s">
+        <v>213</v>
+      </c>
       <c r="F122" s="6" t="s">
         <v>212</v>
       </c>
@@ -2657,14 +3206,18 @@
       </c>
     </row>
     <row r="123" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B123" s="5"/>
+      <c r="B123" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C123" s="7" t="s">
         <v>127</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E123" s="5"/>
+      <c r="E123" s="10" t="s">
+        <v>213</v>
+      </c>
       <c r="F123" s="6" t="s">
         <v>212</v>
       </c>
@@ -2676,14 +3229,18 @@
       </c>
     </row>
     <row r="124" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B124" s="5"/>
+      <c r="B124" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C124" s="7" t="s">
         <v>128</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E124" s="5"/>
+      <c r="E124" s="10" t="s">
+        <v>213</v>
+      </c>
       <c r="F124" s="6" t="s">
         <v>212</v>
       </c>
@@ -2695,14 +3252,18 @@
       </c>
     </row>
     <row r="125" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B125" s="5"/>
+      <c r="B125" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C125" s="7" t="s">
         <v>181</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E125" s="5"/>
+      <c r="E125" s="10" t="s">
+        <v>213</v>
+      </c>
       <c r="F125" s="6" t="s">
         <v>212</v>
       </c>
@@ -2714,32 +3275,47 @@
       </c>
     </row>
     <row r="126" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B126" s="5"/>
+      <c r="B126" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C126" s="7" t="s">
         <v>182</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
+      <c r="E126" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G126" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="H126" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="127" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>186</v>
-      </c>
-      <c r="B127" s="5"/>
+      <c r="B127" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C127" s="7" t="s">
         <v>183</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
+      <c r="E127" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="H127" s="5"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -3092,439 +3668,726 @@
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B153" s="5"/>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B154" s="5"/>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
-      <c r="G154" s="5"/>
+    <row r="153" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B153" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E153" s="12">
+        <v>36933</v>
+      </c>
+      <c r="F153" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="G153" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="H153" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B154" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E154" s="12">
+        <v>7688</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>280</v>
+      </c>
       <c r="H154" s="5"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B155" s="5"/>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5"/>
+    <row r="155" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B155" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E155" s="12">
+        <v>30000</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>283</v>
+      </c>
       <c r="H155" s="5"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B156" s="5"/>
-      <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
-      <c r="G156" s="5"/>
+    <row r="156" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B156" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E156" s="12">
+        <v>14987</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>284</v>
+      </c>
       <c r="H156" s="5"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B157" s="5"/>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
-      <c r="G157" s="5"/>
+    <row r="157" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B157" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E157" s="12">
+        <v>7688</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G157" s="5" t="s">
+        <v>282</v>
+      </c>
       <c r="H157" s="5"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B158" s="5"/>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5"/>
-      <c r="G158" s="5"/>
-      <c r="H158" s="5"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C158" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E158" s="12">
+        <v>17284</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="H158" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B159" s="5"/>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
+      <c r="C159" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>289</v>
+      </c>
       <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
-      <c r="G159" s="5"/>
+      <c r="F159" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G159" s="6" t="s">
+        <v>290</v>
+      </c>
       <c r="H159" s="5"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B160" s="5"/>
-      <c r="C160" s="5"/>
+      <c r="C160" s="7" t="s">
+        <v>223</v>
+      </c>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B161" s="5"/>
-      <c r="C161" s="5"/>
+      <c r="C161" s="7" t="s">
+        <v>224</v>
+      </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B162" s="5"/>
-      <c r="C162" s="5"/>
+      <c r="C162" s="7" t="s">
+        <v>225</v>
+      </c>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
       <c r="H162" s="5"/>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B163" s="5"/>
-      <c r="C163" s="5"/>
+      <c r="C163" s="7" t="s">
+        <v>226</v>
+      </c>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B164" s="5"/>
-      <c r="C164" s="5"/>
+      <c r="C164" s="7" t="s">
+        <v>227</v>
+      </c>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B165" s="5"/>
-      <c r="C165" s="5"/>
+      <c r="C165" s="7" t="s">
+        <v>228</v>
+      </c>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
       <c r="H165" s="5"/>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B166" s="5"/>
-      <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
+      <c r="C166" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>291</v>
+      </c>
       <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
+      <c r="F166" s="5" t="s">
+        <v>293</v>
+      </c>
       <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-    </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H166" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B167" s="5"/>
-      <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
+      <c r="C167" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>291</v>
+      </c>
       <c r="E167" s="5"/>
-      <c r="F167" s="5"/>
+      <c r="F167" s="5" t="s">
+        <v>293</v>
+      </c>
       <c r="G167" s="5"/>
-      <c r="H167" s="5"/>
-    </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H167" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B168" s="5"/>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
+      <c r="C168" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>291</v>
+      </c>
       <c r="E168" s="5"/>
-      <c r="F168" s="5"/>
+      <c r="F168" s="5" t="s">
+        <v>293</v>
+      </c>
       <c r="G168" s="5"/>
-      <c r="H168" s="5"/>
-    </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H168" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B169" s="5"/>
-      <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
+      <c r="C169" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>291</v>
+      </c>
       <c r="E169" s="5"/>
-      <c r="F169" s="5"/>
+      <c r="F169" s="5" t="s">
+        <v>293</v>
+      </c>
       <c r="G169" s="5"/>
-      <c r="H169" s="5"/>
-    </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H169" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B170" s="5"/>
-      <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
+      <c r="C170" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>291</v>
+      </c>
       <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
+      <c r="F170" s="5" t="s">
+        <v>293</v>
+      </c>
       <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-    </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H170" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>1</v>
+      </c>
       <c r="B171" s="5"/>
-      <c r="C171" s="5"/>
+      <c r="C171" s="7" t="s">
+        <v>249</v>
+      </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>2</v>
+      </c>
       <c r="B172" s="5"/>
-      <c r="C172" s="5"/>
+      <c r="C172" s="7" t="s">
+        <v>250</v>
+      </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
       <c r="H172" s="5"/>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>3</v>
+      </c>
       <c r="B173" s="5"/>
-      <c r="C173" s="5"/>
+      <c r="C173" s="7" t="s">
+        <v>251</v>
+      </c>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
       <c r="H173" s="5"/>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>4</v>
+      </c>
       <c r="B174" s="5"/>
-      <c r="C174" s="5"/>
+      <c r="C174" s="7" t="s">
+        <v>252</v>
+      </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
       <c r="H174" s="5"/>
     </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>5</v>
+      </c>
       <c r="B175" s="5"/>
-      <c r="C175" s="5"/>
+      <c r="C175" s="7" t="s">
+        <v>253</v>
+      </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
       <c r="H175" s="5"/>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>6</v>
+      </c>
       <c r="B176" s="5"/>
-      <c r="C176" s="5"/>
+      <c r="C176" s="7" t="s">
+        <v>254</v>
+      </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>7</v>
+      </c>
       <c r="B177" s="5"/>
-      <c r="C177" s="5"/>
+      <c r="C177" s="7" t="s">
+        <v>255</v>
+      </c>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
       <c r="H177" s="5"/>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>8</v>
+      </c>
       <c r="B178" s="5"/>
-      <c r="C178" s="5"/>
+      <c r="C178" s="7" t="s">
+        <v>256</v>
+      </c>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
       <c r="H178" s="5"/>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>9</v>
+      </c>
       <c r="B179" s="5"/>
-      <c r="C179" s="5"/>
+      <c r="C179" s="7" t="s">
+        <v>257</v>
+      </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
       <c r="H179" s="5"/>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>10</v>
+      </c>
       <c r="B180" s="5"/>
-      <c r="C180" s="5"/>
+      <c r="C180" s="7" t="s">
+        <v>258</v>
+      </c>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>11</v>
+      </c>
       <c r="B181" s="5"/>
-      <c r="C181" s="5"/>
+      <c r="C181" s="7" t="s">
+        <v>259</v>
+      </c>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>12</v>
+      </c>
       <c r="B182" s="5"/>
-      <c r="C182" s="5"/>
+      <c r="C182" s="7" t="s">
+        <v>260</v>
+      </c>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>13</v>
+      </c>
       <c r="B183" s="5"/>
-      <c r="C183" s="5"/>
+      <c r="C183" s="7" t="s">
+        <v>261</v>
+      </c>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>14</v>
+      </c>
       <c r="B184" s="5"/>
-      <c r="C184" s="5"/>
+      <c r="C184" s="7" t="s">
+        <v>262</v>
+      </c>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>15</v>
+      </c>
       <c r="B185" s="5"/>
-      <c r="C185" s="5"/>
+      <c r="C185" s="7" t="s">
+        <v>263</v>
+      </c>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>16</v>
+      </c>
       <c r="B186" s="5"/>
-      <c r="C186" s="5"/>
+      <c r="C186" s="7" t="s">
+        <v>264</v>
+      </c>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
       <c r="H186" s="5"/>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>17</v>
+      </c>
       <c r="B187" s="5"/>
-      <c r="C187" s="5"/>
+      <c r="C187" s="7" t="s">
+        <v>265</v>
+      </c>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>18</v>
+      </c>
       <c r="B188" s="5"/>
-      <c r="C188" s="5"/>
+      <c r="C188" s="7" t="s">
+        <v>266</v>
+      </c>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
       <c r="G188" s="5"/>
       <c r="H188" s="5"/>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>19</v>
+      </c>
       <c r="B189" s="5"/>
-      <c r="C189" s="5"/>
+      <c r="C189" s="7" t="s">
+        <v>267</v>
+      </c>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
       <c r="H189" s="5"/>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>20</v>
+      </c>
       <c r="B190" s="5"/>
-      <c r="C190" s="5"/>
+      <c r="C190" s="7" t="s">
+        <v>268</v>
+      </c>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
       <c r="H190" s="5"/>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>21</v>
+      </c>
       <c r="B191" s="5"/>
-      <c r="C191" s="5"/>
+      <c r="C191" s="7" t="s">
+        <v>269</v>
+      </c>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
       <c r="H191" s="5"/>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>22</v>
+      </c>
       <c r="B192" s="5"/>
-      <c r="C192" s="5"/>
+      <c r="C192" s="7" t="s">
+        <v>270</v>
+      </c>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>23</v>
+      </c>
       <c r="B193" s="5"/>
-      <c r="C193" s="5"/>
+      <c r="C193" s="7" t="s">
+        <v>271</v>
+      </c>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
     </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>24</v>
+      </c>
       <c r="B194" s="5"/>
-      <c r="C194" s="5"/>
+      <c r="C194" s="7" t="s">
+        <v>272</v>
+      </c>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
     </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>25</v>
+      </c>
       <c r="B195" s="5"/>
-      <c r="C195" s="5"/>
+      <c r="C195" s="7" t="s">
+        <v>273</v>
+      </c>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
       <c r="H195" s="5"/>
     </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>26</v>
+      </c>
       <c r="B196" s="5"/>
-      <c r="C196" s="5"/>
+      <c r="C196" s="7" t="s">
+        <v>274</v>
+      </c>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
       <c r="H196" s="5"/>
     </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>27</v>
+      </c>
       <c r="B197" s="5"/>
-      <c r="C197" s="5"/>
+      <c r="C197" s="7" t="s">
+        <v>275</v>
+      </c>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
     </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>28</v>
+      </c>
       <c r="B198" s="5"/>
-      <c r="C198" s="5"/>
+      <c r="C198" s="7" t="s">
+        <v>276</v>
+      </c>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
     </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>29</v>
+      </c>
       <c r="B199" s="5"/>
-      <c r="C199" s="5"/>
+      <c r="C199" s="7" t="s">
+        <v>277</v>
+      </c>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
       <c r="G199" s="5"/>
       <c r="H199" s="5"/>
     </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>30</v>
+      </c>
       <c r="B200" s="5"/>
-      <c r="C200" s="5"/>
+      <c r="C200" s="7" t="s">
+        <v>278</v>
+      </c>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
       <c r="H200" s="5"/>
     </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>279</v>
+      </c>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
@@ -3533,7 +4396,7 @@
       <c r="G201" s="5"/>
       <c r="H201" s="5"/>
     </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
@@ -3542,7 +4405,7 @@
       <c r="G202" s="5"/>
       <c r="H202" s="5"/>
     </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
@@ -3551,7 +4414,7 @@
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
     </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
@@ -3560,7 +4423,7 @@
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
     </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
@@ -3569,7 +4432,7 @@
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
     </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
@@ -3578,7 +4441,7 @@
       <c r="G206" s="5"/>
       <c r="H206" s="5"/>
     </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
@@ -3587,7 +4450,7 @@
       <c r="G207" s="5"/>
       <c r="H207" s="5"/>
     </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11DCCB0-C9A4-964E-99B9-85DC86E4F6E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2154297E-99EB-0A4A-B0FA-2AB2DD53A350}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="820" windowWidth="28800" windowHeight="16200" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
   <sheets>
     <sheet name="LIST OF COMPLAIN 2021" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="329">
   <si>
     <t>BRANCH</t>
   </si>
@@ -907,13 +908,118 @@
   </si>
   <si>
     <t>STA RITA BATA, SAN MIGUEL,BUL</t>
+  </si>
+  <si>
+    <t>ESTATEA OF MARIA -VS- ALVEO LAND</t>
+  </si>
+  <si>
+    <t>R-03-02-0104-A</t>
+  </si>
+  <si>
+    <t>AVELINO CABUHAT -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>LOIDA BATAS -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>AMELIA DE GUZMAN -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>EDWIN MANALILI -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>ARMANDO DE MESA -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>ARELIO DE MESA -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>ANALIE RAMOS-VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>ROSENDO CABUHAT -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>JUAN FABIAN -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>Docket Number :</t>
+  </si>
+  <si>
+    <t>Case Title : (Parties)</t>
+  </si>
+  <si>
+    <t>Date Raffled</t>
+  </si>
+  <si>
+    <t>Actual Status :</t>
+  </si>
+  <si>
+    <t>New Pending</t>
+  </si>
+  <si>
+    <t>ii</t>
+  </si>
+  <si>
+    <t>R-03-02-0200</t>
+  </si>
+  <si>
+    <t>R-03-02-0201</t>
+  </si>
+  <si>
+    <t>R-03-02-0202</t>
+  </si>
+  <si>
+    <t>R-03-02-0203</t>
+  </si>
+  <si>
+    <t>R-03-02-0204</t>
+  </si>
+  <si>
+    <t>R-03-02-0205</t>
+  </si>
+  <si>
+    <t>R-03-02-0206</t>
+  </si>
+  <si>
+    <t>R-03-02-0207</t>
+  </si>
+  <si>
+    <t>R-03-02-0208</t>
+  </si>
+  <si>
+    <t>R-03-02-0209</t>
+  </si>
+  <si>
+    <t>R-03-02-0210</t>
+  </si>
+  <si>
+    <t>R-03-02-0211</t>
+  </si>
+  <si>
+    <t>R-03-02-0212</t>
+  </si>
+  <si>
+    <t>R-03-02-0213</t>
+  </si>
+  <si>
+    <t>ANNALISSA S. MANAHAN- MANGLAPUZ -VS- KWONG YI CHUA ET.AL</t>
+  </si>
+  <si>
+    <t>SITIO MULAWIN, TARCAN,BALIUAG,BULACAN</t>
+  </si>
+  <si>
+    <t>TCT NO. T-67471</t>
+  </si>
+  <si>
+    <t>MAINTENACE FOR PEACEFUL POSSESSION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -953,6 +1059,91 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF464646"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF464646"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -974,7 +1165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -997,11 +1188,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1039,6 +1291,72 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1354,11 +1672,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7760DDDF-B585-9445-B146-2DD762F6C209}">
-  <dimension ref="A1:H278"/>
+  <dimension ref="A1:H279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G171" sqref="G171"/>
+      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H202" sqref="H202:H215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2903,15 +3221,12 @@
       <c r="H104" s="5"/>
     </row>
     <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>179</v>
-      </c>
       <c r="B105" s="5"/>
       <c r="C105" s="7" t="s">
-        <v>110</v>
+        <v>295</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>163</v>
+        <v>294</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -2919,9 +3234,12 @@
       <c r="H105" s="5"/>
     </row>
     <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>179</v>
+      </c>
       <c r="B106" s="5"/>
       <c r="C106" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>163</v>
@@ -2934,7 +3252,7 @@
     <row r="107" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="B107" s="5"/>
       <c r="C107" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>163</v>
@@ -2947,59 +3265,49 @@
     <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="B108" s="5"/>
       <c r="C108" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E108" s="5" t="s">
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+    </row>
+    <row r="109" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="B109" s="5"/>
+      <c r="C109" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E109" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F108" s="5" t="s">
+      <c r="F109" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G108" s="5" t="s">
+      <c r="G109" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="H108" s="5"/>
-    </row>
-    <row r="109" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="B109" s="5">
-        <v>1</v>
-      </c>
-      <c r="C109" s="7" t="s">
+      <c r="H109" s="5"/>
+    </row>
+    <row r="110" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="B110" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C110" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D110" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5" t="s">
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="H109" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B110" s="5">
-        <v>2</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="H110" s="6" t="s">
         <v>170</v>
@@ -3010,56 +3318,64 @@
         <v>2</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E111" s="5"/>
+        <v>115</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="F111" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H111" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B112" s="5"/>
+    <row r="112" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B112" s="5">
+        <v>2</v>
+      </c>
       <c r="C112" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B113" s="5"/>
+      <c r="C113" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D113" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
-    </row>
-    <row r="113" spans="1:8" ht="54" x14ac:dyDescent="0.35">
-      <c r="B113" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
     </row>
-    <row r="114" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:8" ht="54" x14ac:dyDescent="0.35">
       <c r="B114" s="8" t="s">
         <v>180</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>178</v>
@@ -3069,12 +3385,12 @@
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
     </row>
-    <row r="115" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:8" ht="54" x14ac:dyDescent="0.35">
       <c r="B115" s="8" t="s">
         <v>180</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>178</v>
@@ -3084,12 +3400,12 @@
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
     </row>
-    <row r="116" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:8" ht="54" x14ac:dyDescent="0.35">
       <c r="B116" s="8" t="s">
         <v>180</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>178</v>
@@ -3099,12 +3415,12 @@
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
     </row>
-    <row r="117" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:8" ht="54" x14ac:dyDescent="0.35">
       <c r="B117" s="8" t="s">
         <v>180</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>178</v>
@@ -3114,12 +3430,12 @@
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
     </row>
-    <row r="118" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:8" ht="54" x14ac:dyDescent="0.35">
       <c r="B118" s="8" t="s">
         <v>180</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>178</v>
@@ -3129,12 +3445,12 @@
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
     </row>
-    <row r="119" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:8" ht="54" x14ac:dyDescent="0.35">
       <c r="B119" s="8" t="s">
         <v>180</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>178</v>
@@ -3144,12 +3460,12 @@
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
     </row>
-    <row r="120" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:8" ht="54" x14ac:dyDescent="0.35">
       <c r="B120" s="8" t="s">
         <v>180</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>178</v>
@@ -3159,30 +3475,22 @@
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
     </row>
-    <row r="121" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B121" s="5" t="s">
-        <v>234</v>
+    <row r="121" spans="2:8" ht="54" x14ac:dyDescent="0.35">
+      <c r="B121" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="F121" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="G121" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="H121" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+    </row>
+    <row r="122" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B122" s="5" t="s">
         <v>234</v>
       </c>
@@ -3205,12 +3513,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B123" s="5" t="s">
         <v>234</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>184</v>
@@ -3228,12 +3536,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B124" s="5" t="s">
         <v>234</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>184</v>
@@ -3251,12 +3559,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B125" s="5" t="s">
         <v>234</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>184</v>
@@ -3274,12 +3582,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B126" s="5" t="s">
         <v>234</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>184</v>
@@ -3297,39 +3605,48 @@
         <v>215</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B127" s="5" t="s">
         <v>234</v>
       </c>
       <c r="C127" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B128" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C128" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D127" s="6" t="s">
+      <c r="D128" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="E127" s="5" t="s">
+      <c r="E128" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F127" s="5" t="s">
+      <c r="F128" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G127" s="5" t="s">
+      <c r="G128" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="H127" s="5"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>186</v>
-      </c>
-      <c r="B128" s="5"/>
-      <c r="C128" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
       <c r="H128" s="5"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -3338,7 +3655,7 @@
       </c>
       <c r="B129" s="5"/>
       <c r="C129" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -3352,7 +3669,7 @@
       </c>
       <c r="B130" s="5"/>
       <c r="C130" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -3366,7 +3683,7 @@
       </c>
       <c r="B131" s="5"/>
       <c r="C131" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -3380,7 +3697,7 @@
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -3394,7 +3711,7 @@
       </c>
       <c r="B133" s="5"/>
       <c r="C133" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -3408,7 +3725,7 @@
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -3422,7 +3739,7 @@
       </c>
       <c r="B135" s="5"/>
       <c r="C135" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -3436,7 +3753,7 @@
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -3450,7 +3767,7 @@
       </c>
       <c r="B137" s="5"/>
       <c r="C137" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -3464,7 +3781,7 @@
       </c>
       <c r="B138" s="5"/>
       <c r="C138" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -3478,7 +3795,7 @@
       </c>
       <c r="B139" s="5"/>
       <c r="C139" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -3492,7 +3809,7 @@
       </c>
       <c r="B140" s="5"/>
       <c r="C140" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -3506,7 +3823,7 @@
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -3520,7 +3837,7 @@
       </c>
       <c r="B142" s="5"/>
       <c r="C142" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -3534,7 +3851,7 @@
       </c>
       <c r="B143" s="5"/>
       <c r="C143" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -3548,7 +3865,7 @@
       </c>
       <c r="B144" s="5"/>
       <c r="C144" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -3562,7 +3879,7 @@
       </c>
       <c r="B145" s="5"/>
       <c r="C145" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -3576,7 +3893,7 @@
       </c>
       <c r="B146" s="5"/>
       <c r="C146" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -3590,7 +3907,7 @@
       </c>
       <c r="B147" s="5"/>
       <c r="C147" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -3604,7 +3921,7 @@
       </c>
       <c r="B148" s="5"/>
       <c r="C148" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -3618,7 +3935,7 @@
       </c>
       <c r="B149" s="5"/>
       <c r="C149" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -3632,7 +3949,7 @@
       </c>
       <c r="B150" s="5"/>
       <c r="C150" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -3646,7 +3963,7 @@
       </c>
       <c r="B151" s="5"/>
       <c r="C151" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -3660,7 +3977,7 @@
       </c>
       <c r="B152" s="5"/>
       <c r="C152" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -3668,68 +3985,61 @@
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
     </row>
-    <row r="153" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B153" s="5" t="s">
-        <v>234</v>
-      </c>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>186</v>
+      </c>
+      <c r="B153" s="5"/>
       <c r="C153" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E153" s="12">
-        <v>36933</v>
-      </c>
-      <c r="F153" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="G153" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="H153" s="6" t="s">
-        <v>238</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
     </row>
     <row r="154" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B154" s="5" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E154" s="12">
-        <v>7688</v>
-      </c>
-      <c r="F154" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="G154" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="H154" s="5"/>
+        <v>36933</v>
+      </c>
+      <c r="F154" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="H154" s="6" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="155" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B155" s="5" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>239</v>
       </c>
       <c r="E155" s="12">
-        <v>30000</v>
+        <v>7688</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>281</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H155" s="5"/>
     </row>
@@ -3738,96 +4048,106 @@
         <v>234</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>239</v>
       </c>
       <c r="E156" s="12">
-        <v>14987</v>
+        <v>30000</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>281</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H156" s="5"/>
     </row>
     <row r="157" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B157" s="5" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>239</v>
       </c>
       <c r="E157" s="12">
-        <v>7688</v>
+        <v>14987</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>281</v>
       </c>
       <c r="G157" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="H157" s="5"/>
+    </row>
+    <row r="158" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B158" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E158" s="12">
+        <v>7688</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G158" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="H157" s="5"/>
-    </row>
-    <row r="158" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B158" s="5"/>
-      <c r="C158" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="E158" s="12">
-        <v>17284</v>
-      </c>
-      <c r="F158" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G158" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="H158" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="H158" s="5"/>
+    </row>
+    <row r="159" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B159" s="5"/>
       <c r="C159" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="E159" s="5"/>
-      <c r="F159" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="G159" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="H159" s="5"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+      <c r="E159" s="12">
+        <v>17284</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G159" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="H159" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B160" s="5"/>
       <c r="C160" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D160" s="5"/>
+        <v>222</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>289</v>
+      </c>
       <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="5"/>
+      <c r="F160" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G160" s="6" t="s">
+        <v>290</v>
+      </c>
       <c r="H160" s="5"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B161" s="5"/>
       <c r="C161" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -3838,7 +4158,7 @@
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B162" s="5"/>
       <c r="C162" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -3849,7 +4169,7 @@
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B163" s="5"/>
       <c r="C163" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -3860,7 +4180,7 @@
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B164" s="5"/>
       <c r="C164" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -3871,7 +4191,7 @@
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B165" s="5"/>
       <c r="C165" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -3879,27 +4199,23 @@
       <c r="G165" s="5"/>
       <c r="H165" s="5"/>
     </row>
-    <row r="166" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B166" s="5"/>
       <c r="C166" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+    </row>
+    <row r="167" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B167" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C167" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="D166" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="G166" s="5"/>
-      <c r="H166" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B167" s="5"/>
-      <c r="C167" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>291</v>
@@ -3914,9 +4230,11 @@
       </c>
     </row>
     <row r="168" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B168" s="5"/>
+      <c r="B168" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C168" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D168" s="6" t="s">
         <v>291</v>
@@ -3931,9 +4249,11 @@
       </c>
     </row>
     <row r="169" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B169" s="5"/>
+      <c r="B169" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C169" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D169" s="6" t="s">
         <v>291</v>
@@ -3948,9 +4268,11 @@
       </c>
     </row>
     <row r="170" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B170" s="5"/>
+      <c r="B170" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C170" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D170" s="6" t="s">
         <v>291</v>
@@ -3964,27 +4286,32 @@
         <v>292</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A171">
-        <v>1</v>
-      </c>
-      <c r="B171" s="5"/>
+    <row r="171" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B171" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C171" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="D171" s="5"/>
+        <v>233</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>291</v>
+      </c>
       <c r="E171" s="5"/>
-      <c r="F171" s="5"/>
+      <c r="F171" s="5" t="s">
+        <v>293</v>
+      </c>
       <c r="G171" s="5"/>
-      <c r="H171" s="5"/>
+      <c r="H171" s="5" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B172" s="5"/>
       <c r="C172" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -3994,11 +4321,11 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B173" s="5"/>
       <c r="C173" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -4008,11 +4335,11 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B174" s="5"/>
       <c r="C174" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -4022,11 +4349,11 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B175" s="5"/>
       <c r="C175" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -4036,11 +4363,11 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B176" s="5"/>
       <c r="C176" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -4050,11 +4377,11 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B177" s="5"/>
       <c r="C177" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -4064,11 +4391,11 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B178" s="5"/>
       <c r="C178" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -4078,11 +4405,11 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B179" s="5"/>
       <c r="C179" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -4092,11 +4419,11 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B180" s="5"/>
       <c r="C180" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -4106,11 +4433,11 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B181" s="5"/>
       <c r="C181" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -4120,11 +4447,11 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B182" s="5"/>
       <c r="C182" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -4134,11 +4461,11 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B183" s="5"/>
       <c r="C183" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
@@ -4148,11 +4475,11 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B184" s="5"/>
       <c r="C184" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
@@ -4162,11 +4489,11 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B185" s="5"/>
       <c r="C185" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
@@ -4176,11 +4503,11 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B186" s="5"/>
       <c r="C186" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -4190,11 +4517,11 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B187" s="5"/>
       <c r="C187" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -4204,11 +4531,11 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B188" s="5"/>
       <c r="C188" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
@@ -4218,11 +4545,11 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B189" s="5"/>
       <c r="C189" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
@@ -4232,11 +4559,11 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B190" s="5"/>
       <c r="C190" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
@@ -4246,11 +4573,11 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B191" s="5"/>
       <c r="C191" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
@@ -4260,11 +4587,11 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B192" s="5"/>
       <c r="C192" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
@@ -4274,11 +4601,11 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B193" s="5"/>
       <c r="C193" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
@@ -4288,11 +4615,11 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B194" s="5"/>
       <c r="C194" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
@@ -4302,11 +4629,11 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B195" s="5"/>
       <c r="C195" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
@@ -4316,11 +4643,11 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B196" s="5"/>
       <c r="C196" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
@@ -4330,11 +4657,11 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B197" s="5"/>
       <c r="C197" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
@@ -4344,11 +4671,11 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B198" s="5"/>
       <c r="C198" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
@@ -4358,11 +4685,11 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B199" s="5"/>
       <c r="C199" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
@@ -4372,11 +4699,11 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B200" s="5"/>
       <c r="C200" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
@@ -4385,142 +4712,287 @@
       <c r="H200" s="5"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>279</v>
+      <c r="A201">
+        <v>30</v>
       </c>
       <c r="B201" s="5"/>
-      <c r="C201" s="5"/>
+      <c r="C201" s="7" t="s">
+        <v>278</v>
+      </c>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
       <c r="H201" s="5"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>279</v>
+      </c>
       <c r="B202" s="5"/>
-      <c r="C202" s="5"/>
-      <c r="D202" s="5"/>
+      <c r="C202" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D202" s="37" t="s">
+        <v>325</v>
+      </c>
       <c r="E202" s="5"/>
-      <c r="F202" s="5"/>
-      <c r="G202" s="5"/>
-      <c r="H202" s="5"/>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F202" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G202" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="H202" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B203" s="5"/>
-      <c r="C203" s="5"/>
-      <c r="D203" s="5"/>
+      <c r="C203" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D203" s="37" t="s">
+        <v>325</v>
+      </c>
       <c r="E203" s="5"/>
-      <c r="F203" s="5"/>
-      <c r="G203" s="5"/>
-      <c r="H203" s="5"/>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F203" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G203" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="H203" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B204" s="5"/>
-      <c r="C204" s="5"/>
-      <c r="D204" s="5"/>
+      <c r="C204" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="D204" s="37" t="s">
+        <v>325</v>
+      </c>
       <c r="E204" s="5"/>
-      <c r="F204" s="5"/>
-      <c r="G204" s="5"/>
-      <c r="H204" s="5"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F204" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G204" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="H204" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B205" s="5"/>
-      <c r="C205" s="5"/>
-      <c r="D205" s="5"/>
+      <c r="C205" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="D205" s="37" t="s">
+        <v>325</v>
+      </c>
       <c r="E205" s="5"/>
-      <c r="F205" s="5"/>
-      <c r="G205" s="5"/>
-      <c r="H205" s="5"/>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F205" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G205" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="H205" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B206" s="5"/>
-      <c r="C206" s="5"/>
-      <c r="D206" s="5"/>
+      <c r="C206" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D206" s="37" t="s">
+        <v>325</v>
+      </c>
       <c r="E206" s="5"/>
-      <c r="F206" s="5"/>
-      <c r="G206" s="5"/>
-      <c r="H206" s="5"/>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F206" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G206" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="H206" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B207" s="5"/>
-      <c r="C207" s="5"/>
-      <c r="D207" s="5"/>
+      <c r="C207" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="D207" s="37" t="s">
+        <v>325</v>
+      </c>
       <c r="E207" s="5"/>
-      <c r="F207" s="5"/>
-      <c r="G207" s="5"/>
-      <c r="H207" s="5"/>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F207" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G207" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="H207" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B208" s="5"/>
-      <c r="C208" s="5"/>
-      <c r="D208" s="5"/>
+      <c r="C208" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D208" s="37" t="s">
+        <v>325</v>
+      </c>
       <c r="E208" s="5"/>
-      <c r="F208" s="5"/>
-      <c r="G208" s="5"/>
-      <c r="H208" s="5"/>
-    </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F208" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G208" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="H208" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="209" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B209" s="5"/>
-      <c r="C209" s="5"/>
-      <c r="D209" s="5"/>
+      <c r="C209" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D209" s="37" t="s">
+        <v>325</v>
+      </c>
       <c r="E209" s="5"/>
-      <c r="F209" s="5"/>
-      <c r="G209" s="5"/>
-      <c r="H209" s="5"/>
-    </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F209" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G209" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="H209" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B210" s="5"/>
-      <c r="C210" s="5"/>
-      <c r="D210" s="5"/>
+      <c r="C210" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D210" s="37" t="s">
+        <v>325</v>
+      </c>
       <c r="E210" s="5"/>
-      <c r="F210" s="5"/>
-      <c r="G210" s="5"/>
-      <c r="H210" s="5"/>
-    </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F210" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G210" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="H210" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B211" s="5"/>
-      <c r="C211" s="5"/>
-      <c r="D211" s="5"/>
+      <c r="C211" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="D211" s="37" t="s">
+        <v>325</v>
+      </c>
       <c r="E211" s="5"/>
-      <c r="F211" s="5"/>
-      <c r="G211" s="5"/>
-      <c r="H211" s="5"/>
-    </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F211" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G211" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="H211" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B212" s="5"/>
-      <c r="C212" s="5"/>
-      <c r="D212" s="5"/>
+      <c r="C212" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="D212" s="37" t="s">
+        <v>325</v>
+      </c>
       <c r="E212" s="5"/>
-      <c r="F212" s="5"/>
-      <c r="G212" s="5"/>
-      <c r="H212" s="5"/>
-    </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F212" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G212" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="H212" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B213" s="5"/>
-      <c r="C213" s="5"/>
-      <c r="D213" s="5"/>
+      <c r="C213" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D213" s="37" t="s">
+        <v>325</v>
+      </c>
       <c r="E213" s="5"/>
-      <c r="F213" s="5"/>
-      <c r="G213" s="5"/>
-      <c r="H213" s="5"/>
-    </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F213" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G213" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="H213" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B214" s="5"/>
-      <c r="C214" s="5"/>
-      <c r="D214" s="5"/>
+      <c r="C214" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D214" s="37" t="s">
+        <v>325</v>
+      </c>
       <c r="E214" s="5"/>
-      <c r="F214" s="5"/>
-      <c r="G214" s="5"/>
-      <c r="H214" s="5"/>
-    </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F214" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G214" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="H214" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B215" s="5"/>
-      <c r="C215" s="5"/>
-      <c r="D215" s="5"/>
+      <c r="C215" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D215" s="37" t="s">
+        <v>325</v>
+      </c>
       <c r="E215" s="5"/>
-      <c r="F215" s="5"/>
-      <c r="G215" s="5"/>
-      <c r="H215" s="5"/>
+      <c r="F215" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G215" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="H215" s="6" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="216" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B216" s="5"/>
@@ -5089,8 +5561,1259 @@
       <c r="G278" s="5"/>
       <c r="H278" s="5"/>
     </row>
+    <row r="279" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B279" s="5"/>
+      <c r="C279" s="5"/>
+      <c r="D279" s="5"/>
+      <c r="E279" s="5"/>
+      <c r="F279" s="5"/>
+      <c r="G279" s="5"/>
+      <c r="H279" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB41847-D60B-224E-931E-11ACE6477476}">
+  <dimension ref="A1:E74"/>
+  <sheetViews>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection sqref="A1:E71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="44" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="37.5" style="35" customWidth="1"/>
+    <col min="3" max="3" width="43" style="17" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="40.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="26">
+        <v>44197</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="31">
+        <v>2</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" s="26">
+        <v>44197</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="31">
+        <v>3</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="26">
+        <v>44197</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="30">
+        <v>4</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="26">
+        <v>44197</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="31">
+        <v>5</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" s="26">
+        <v>44197</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="31">
+        <v>6</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" s="26">
+        <v>44197</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="31">
+        <v>7</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D8" s="26">
+        <v>44197</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="31">
+        <v>8</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="26">
+        <v>44197</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="31">
+        <v>9</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D10" s="26">
+        <v>44197</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="31">
+        <v>10</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="26">
+        <v>44197</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="31">
+        <v>11</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="26">
+        <v>44197</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="31">
+        <v>12</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="26">
+        <v>44197</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="31">
+        <v>13</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="26">
+        <v>44197</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="31">
+        <v>14</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="26">
+        <v>44197</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="31">
+        <v>15</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="26">
+        <v>44197</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="31">
+        <v>16</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D17" s="26">
+        <v>44197</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="31">
+        <v>17</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="26">
+        <v>44197</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="31">
+        <v>18</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D19" s="26">
+        <v>44197</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="31">
+        <v>19</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D20" s="26">
+        <v>44197</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="31">
+        <v>20</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D21" s="26">
+        <v>44197</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="31">
+        <v>21</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D22" s="26">
+        <v>44197</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="31">
+        <v>22</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D23" s="26">
+        <v>44197</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="31">
+        <v>23</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D24" s="26">
+        <v>44197</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="31">
+        <v>24</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D25" s="26">
+        <v>44197</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="31">
+        <v>25</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D26" s="26">
+        <v>44197</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="31">
+        <v>26</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D27" s="26">
+        <v>44197</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="31">
+        <v>27</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D28" s="26">
+        <v>44197</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="31">
+        <v>28</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D29" s="26">
+        <v>44197</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="31">
+        <v>29</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D30" s="26">
+        <v>44197</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D31" s="26">
+        <v>44197</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="31">
+        <v>31</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="31">
+        <v>32</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="31">
+        <v>33</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="31">
+        <v>34</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D35" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="31">
+        <v>35</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="31">
+        <v>36</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="31">
+        <v>37</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D38" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="31">
+        <v>38</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D39" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="31">
+        <v>39</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="D40" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="31">
+        <v>40</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D41" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="31">
+        <v>41</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D42" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="31">
+        <v>42</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D43" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="31">
+        <v>43</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="D44" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="31">
+        <v>44</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="D45" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="31">
+        <v>45</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="D46" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="31">
+        <v>46</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="D47" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="31">
+        <v>47</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="D48" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="31">
+        <v>48</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="31">
+        <v>49</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="31">
+        <v>50</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="31">
+        <v>51</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="31">
+        <v>52</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="31">
+        <v>53</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="31">
+        <v>54</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="31">
+        <v>55</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="31">
+        <v>56</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="31">
+        <v>57</v>
+      </c>
+      <c r="B58" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D58" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="31">
+        <v>58</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="31">
+        <v>59</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D60" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="31">
+        <v>60</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="31">
+        <v>61</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="31">
+        <v>62</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="D63" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="31">
+        <v>63</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="D64" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="31">
+        <v>64</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D65" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="31">
+        <v>65</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D66" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="31">
+        <v>66</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="D67" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="31">
+        <v>67</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="D68" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="31">
+        <v>68</v>
+      </c>
+      <c r="B69" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="D69" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="31">
+        <v>69</v>
+      </c>
+      <c r="B70" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="D70" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="31">
+        <v>70</v>
+      </c>
+      <c r="B71" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="D71" s="26">
+        <v>44228</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="34"/>
+    </row>
+    <row r="73" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="34"/>
+    </row>
+    <row r="74" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2154297E-99EB-0A4A-B0FA-2AB2DD53A350}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE7CD8F-9993-6C48-BF68-22733C68B274}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -1352,11 +1352,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1675,8 +1675,8 @@
   <dimension ref="A1:H279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H202" sqref="H202:H215"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L129" sqref="L129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4733,7 +4733,7 @@
       <c r="C202" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="D202" s="37" t="s">
+      <c r="D202" s="36" t="s">
         <v>325</v>
       </c>
       <c r="E202" s="5"/>
@@ -4752,7 +4752,7 @@
       <c r="C203" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="D203" s="37" t="s">
+      <c r="D203" s="36" t="s">
         <v>325</v>
       </c>
       <c r="E203" s="5"/>
@@ -4771,7 +4771,7 @@
       <c r="C204" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="D204" s="37" t="s">
+      <c r="D204" s="36" t="s">
         <v>325</v>
       </c>
       <c r="E204" s="5"/>
@@ -4790,7 +4790,7 @@
       <c r="C205" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D205" s="37" t="s">
+      <c r="D205" s="36" t="s">
         <v>325</v>
       </c>
       <c r="E205" s="5"/>
@@ -4809,7 +4809,7 @@
       <c r="C206" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="D206" s="37" t="s">
+      <c r="D206" s="36" t="s">
         <v>325</v>
       </c>
       <c r="E206" s="5"/>
@@ -4828,7 +4828,7 @@
       <c r="C207" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="D207" s="37" t="s">
+      <c r="D207" s="36" t="s">
         <v>325</v>
       </c>
       <c r="E207" s="5"/>
@@ -4847,7 +4847,7 @@
       <c r="C208" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="D208" s="37" t="s">
+      <c r="D208" s="36" t="s">
         <v>325</v>
       </c>
       <c r="E208" s="5"/>
@@ -4866,7 +4866,7 @@
       <c r="C209" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="D209" s="37" t="s">
+      <c r="D209" s="36" t="s">
         <v>325</v>
       </c>
       <c r="E209" s="5"/>
@@ -4885,7 +4885,7 @@
       <c r="C210" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="D210" s="37" t="s">
+      <c r="D210" s="36" t="s">
         <v>325</v>
       </c>
       <c r="E210" s="5"/>
@@ -4904,7 +4904,7 @@
       <c r="C211" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="D211" s="37" t="s">
+      <c r="D211" s="36" t="s">
         <v>325</v>
       </c>
       <c r="E211" s="5"/>
@@ -4923,7 +4923,7 @@
       <c r="C212" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="D212" s="37" t="s">
+      <c r="D212" s="36" t="s">
         <v>325</v>
       </c>
       <c r="E212" s="5"/>
@@ -4942,7 +4942,7 @@
       <c r="C213" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="D213" s="37" t="s">
+      <c r="D213" s="36" t="s">
         <v>325</v>
       </c>
       <c r="E213" s="5"/>
@@ -4961,7 +4961,7 @@
       <c r="C214" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="D214" s="37" t="s">
+      <c r="D214" s="36" t="s">
         <v>325</v>
       </c>
       <c r="E214" s="5"/>
@@ -4980,7 +4980,7 @@
       <c r="C215" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="D215" s="37" t="s">
+      <c r="D215" s="36" t="s">
         <v>325</v>
       </c>
       <c r="E215" s="5"/>
@@ -5596,10 +5596,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="27" t="s">
         <v>306</v>
       </c>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE7CD8F-9993-6C48-BF68-22733C68B274}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D50A19-F5F5-A14A-8B1C-A7501B15F8AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="392">
   <si>
     <t>BRANCH</t>
   </si>
@@ -1013,6 +1013,195 @@
   </si>
   <si>
     <t>MAINTENACE FOR PEACEFUL POSSESSION</t>
+  </si>
+  <si>
+    <t>R-03-02-0214</t>
+  </si>
+  <si>
+    <t>R-03-02-0215</t>
+  </si>
+  <si>
+    <t>R-03-02-0216</t>
+  </si>
+  <si>
+    <t>R-03-02-0217</t>
+  </si>
+  <si>
+    <t>R-03-02-0218</t>
+  </si>
+  <si>
+    <t>R-03-02-0219</t>
+  </si>
+  <si>
+    <t>R-03-02-0220</t>
+  </si>
+  <si>
+    <t>R-03-02-0221</t>
+  </si>
+  <si>
+    <t>R-03-02-0222</t>
+  </si>
+  <si>
+    <t>R-03-02-0223</t>
+  </si>
+  <si>
+    <t>R-03-02-0224</t>
+  </si>
+  <si>
+    <t>R-03-02-0225</t>
+  </si>
+  <si>
+    <t>R-03-02-0226</t>
+  </si>
+  <si>
+    <t>R-03-02-0227</t>
+  </si>
+  <si>
+    <t>R-03-02-0228</t>
+  </si>
+  <si>
+    <t>R-03-02-0229</t>
+  </si>
+  <si>
+    <t>R-03-02-0230</t>
+  </si>
+  <si>
+    <t>R-03-02-0231</t>
+  </si>
+  <si>
+    <t>R-03-02-0232</t>
+  </si>
+  <si>
+    <t>R-03-02-0233</t>
+  </si>
+  <si>
+    <t>R-03-02-0234</t>
+  </si>
+  <si>
+    <t>R-03-02-0235</t>
+  </si>
+  <si>
+    <t>R-03-02-0236</t>
+  </si>
+  <si>
+    <t>R-03-02-0237</t>
+  </si>
+  <si>
+    <t>R-03-02-0238</t>
+  </si>
+  <si>
+    <t>R-03-02-0239</t>
+  </si>
+  <si>
+    <t>R-03-02-0240</t>
+  </si>
+  <si>
+    <t>R-03-02-0241</t>
+  </si>
+  <si>
+    <t>R-03-02-0242</t>
+  </si>
+  <si>
+    <t>R-03-02-0243</t>
+  </si>
+  <si>
+    <t>R-03-02-0244</t>
+  </si>
+  <si>
+    <t>R-03-02-0245</t>
+  </si>
+  <si>
+    <t>R-03-02-0246</t>
+  </si>
+  <si>
+    <t>R-03-02-0247</t>
+  </si>
+  <si>
+    <t>R-03-02-0248</t>
+  </si>
+  <si>
+    <t>R-03-02-0249</t>
+  </si>
+  <si>
+    <t>R-03-02-0250</t>
+  </si>
+  <si>
+    <t>R-03-02-0251</t>
+  </si>
+  <si>
+    <t>R-03-02-0252</t>
+  </si>
+  <si>
+    <t>R-03-02-0253</t>
+  </si>
+  <si>
+    <t>R-03-02-0254</t>
+  </si>
+  <si>
+    <t>R-03-02-0255</t>
+  </si>
+  <si>
+    <t>R-03-02-0256</t>
+  </si>
+  <si>
+    <t>R-03-02-0257</t>
+  </si>
+  <si>
+    <t>R-03-02-0258</t>
+  </si>
+  <si>
+    <t>R-03-02-0259</t>
+  </si>
+  <si>
+    <t>R-03-02-0260</t>
+  </si>
+  <si>
+    <t>R-03-02-0261</t>
+  </si>
+  <si>
+    <t>R-03-02-0262</t>
+  </si>
+  <si>
+    <t>R-03-02-0263</t>
+  </si>
+  <si>
+    <t>R-03-02-0264</t>
+  </si>
+  <si>
+    <t>R-03-02-0265</t>
+  </si>
+  <si>
+    <t>R-03-02-0266</t>
+  </si>
+  <si>
+    <t>R-03-02-0267</t>
+  </si>
+  <si>
+    <t>R-03-02-0268</t>
+  </si>
+  <si>
+    <t>R-03-02-0269</t>
+  </si>
+  <si>
+    <t>R-03-02-0270</t>
+  </si>
+  <si>
+    <t>R-03-02-0271</t>
+  </si>
+  <si>
+    <t>R-03-02-0272</t>
+  </si>
+  <si>
+    <t>R-03-02-0273</t>
+  </si>
+  <si>
+    <t>R-03-02-0274</t>
+  </si>
+  <si>
+    <t>ALBERTO SANTOS -VS- PARO</t>
+  </si>
+  <si>
+    <t>NOEMICIA SANTOS -VS- PARO</t>
   </si>
 </sst>
 </file>
@@ -1675,8 +1864,8 @@
   <dimension ref="A1:H279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L129" sqref="L129"/>
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B202" sqref="B202:B219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4729,7 +4918,9 @@
       <c r="A202" t="s">
         <v>279</v>
       </c>
-      <c r="B202" s="5"/>
+      <c r="B202" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C202" s="10" t="s">
         <v>311</v>
       </c>
@@ -4748,7 +4939,9 @@
       </c>
     </row>
     <row r="203" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B203" s="5"/>
+      <c r="B203" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C203" s="10" t="s">
         <v>312</v>
       </c>
@@ -4767,7 +4960,9 @@
       </c>
     </row>
     <row r="204" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B204" s="5"/>
+      <c r="B204" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C204" s="10" t="s">
         <v>313</v>
       </c>
@@ -4786,7 +4981,9 @@
       </c>
     </row>
     <row r="205" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B205" s="5"/>
+      <c r="B205" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C205" s="10" t="s">
         <v>314</v>
       </c>
@@ -4805,7 +5002,9 @@
       </c>
     </row>
     <row r="206" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B206" s="5"/>
+      <c r="B206" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C206" s="10" t="s">
         <v>315</v>
       </c>
@@ -4824,7 +5023,9 @@
       </c>
     </row>
     <row r="207" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B207" s="5"/>
+      <c r="B207" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C207" s="10" t="s">
         <v>316</v>
       </c>
@@ -4843,7 +5044,9 @@
       </c>
     </row>
     <row r="208" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B208" s="5"/>
+      <c r="B208" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C208" s="10" t="s">
         <v>317</v>
       </c>
@@ -4862,7 +5065,9 @@
       </c>
     </row>
     <row r="209" spans="2:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B209" s="5"/>
+      <c r="B209" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C209" s="10" t="s">
         <v>318</v>
       </c>
@@ -4881,7 +5086,9 @@
       </c>
     </row>
     <row r="210" spans="2:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B210" s="5"/>
+      <c r="B210" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C210" s="10" t="s">
         <v>319</v>
       </c>
@@ -4900,7 +5107,9 @@
       </c>
     </row>
     <row r="211" spans="2:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B211" s="5"/>
+      <c r="B211" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C211" s="10" t="s">
         <v>320</v>
       </c>
@@ -4919,7 +5128,9 @@
       </c>
     </row>
     <row r="212" spans="2:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B212" s="5"/>
+      <c r="B212" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C212" s="10" t="s">
         <v>321</v>
       </c>
@@ -4938,7 +5149,9 @@
       </c>
     </row>
     <row r="213" spans="2:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B213" s="5"/>
+      <c r="B213" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C213" s="10" t="s">
         <v>322</v>
       </c>
@@ -4957,7 +5170,9 @@
       </c>
     </row>
     <row r="214" spans="2:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B214" s="5"/>
+      <c r="B214" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C214" s="10" t="s">
         <v>323</v>
       </c>
@@ -4976,7 +5191,9 @@
       </c>
     </row>
     <row r="215" spans="2:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B215" s="5"/>
+      <c r="B215" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C215" s="10" t="s">
         <v>324</v>
       </c>
@@ -4995,36 +5212,60 @@
       </c>
     </row>
     <row r="216" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B216" s="5"/>
-      <c r="C216" s="5"/>
-      <c r="D216" s="5"/>
+      <c r="B216" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C216" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>390</v>
+      </c>
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
       <c r="H216" s="5"/>
     </row>
     <row r="217" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B217" s="5"/>
-      <c r="C217" s="5"/>
-      <c r="D217" s="5"/>
+      <c r="B217" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>390</v>
+      </c>
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
       <c r="H217" s="5"/>
     </row>
     <row r="218" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B218" s="5"/>
-      <c r="C218" s="5"/>
-      <c r="D218" s="5"/>
+      <c r="B218" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C218" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>390</v>
+      </c>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
       <c r="H218" s="5"/>
     </row>
     <row r="219" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B219" s="5"/>
-      <c r="C219" s="5"/>
-      <c r="D219" s="5"/>
+      <c r="B219" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C219" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>391</v>
+      </c>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
@@ -5032,7 +5273,9 @@
     </row>
     <row r="220" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B220" s="5"/>
-      <c r="C220" s="5"/>
+      <c r="C220" s="10" t="s">
+        <v>333</v>
+      </c>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
@@ -5041,7 +5284,9 @@
     </row>
     <row r="221" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B221" s="5"/>
-      <c r="C221" s="5"/>
+      <c r="C221" s="10" t="s">
+        <v>334</v>
+      </c>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
@@ -5050,7 +5295,9 @@
     </row>
     <row r="222" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B222" s="5"/>
-      <c r="C222" s="5"/>
+      <c r="C222" s="10" t="s">
+        <v>335</v>
+      </c>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
@@ -5059,7 +5306,9 @@
     </row>
     <row r="223" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B223" s="5"/>
-      <c r="C223" s="5"/>
+      <c r="C223" s="10" t="s">
+        <v>336</v>
+      </c>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
@@ -5068,7 +5317,9 @@
     </row>
     <row r="224" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B224" s="5"/>
-      <c r="C224" s="5"/>
+      <c r="C224" s="10" t="s">
+        <v>337</v>
+      </c>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
@@ -5077,7 +5328,9 @@
     </row>
     <row r="225" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B225" s="5"/>
-      <c r="C225" s="5"/>
+      <c r="C225" s="10" t="s">
+        <v>338</v>
+      </c>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
@@ -5086,7 +5339,9 @@
     </row>
     <row r="226" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B226" s="5"/>
-      <c r="C226" s="5"/>
+      <c r="C226" s="10" t="s">
+        <v>339</v>
+      </c>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
@@ -5095,7 +5350,9 @@
     </row>
     <row r="227" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B227" s="5"/>
-      <c r="C227" s="5"/>
+      <c r="C227" s="10" t="s">
+        <v>340</v>
+      </c>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
@@ -5104,7 +5361,9 @@
     </row>
     <row r="228" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B228" s="5"/>
-      <c r="C228" s="5"/>
+      <c r="C228" s="10" t="s">
+        <v>341</v>
+      </c>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
@@ -5113,7 +5372,9 @@
     </row>
     <row r="229" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B229" s="5"/>
-      <c r="C229" s="5"/>
+      <c r="C229" s="10" t="s">
+        <v>342</v>
+      </c>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
@@ -5122,7 +5383,9 @@
     </row>
     <row r="230" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B230" s="5"/>
-      <c r="C230" s="5"/>
+      <c r="C230" s="10" t="s">
+        <v>343</v>
+      </c>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
       <c r="F230" s="5"/>
@@ -5131,7 +5394,9 @@
     </row>
     <row r="231" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B231" s="5"/>
-      <c r="C231" s="5"/>
+      <c r="C231" s="10" t="s">
+        <v>344</v>
+      </c>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
@@ -5140,7 +5405,9 @@
     </row>
     <row r="232" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B232" s="5"/>
-      <c r="C232" s="5"/>
+      <c r="C232" s="10" t="s">
+        <v>345</v>
+      </c>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
       <c r="F232" s="5"/>
@@ -5149,7 +5416,9 @@
     </row>
     <row r="233" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B233" s="5"/>
-      <c r="C233" s="5"/>
+      <c r="C233" s="10" t="s">
+        <v>346</v>
+      </c>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
       <c r="F233" s="5"/>
@@ -5158,7 +5427,9 @@
     </row>
     <row r="234" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B234" s="5"/>
-      <c r="C234" s="5"/>
+      <c r="C234" s="10" t="s">
+        <v>347</v>
+      </c>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
       <c r="F234" s="5"/>
@@ -5167,7 +5438,9 @@
     </row>
     <row r="235" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B235" s="5"/>
-      <c r="C235" s="5"/>
+      <c r="C235" s="10" t="s">
+        <v>348</v>
+      </c>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
       <c r="F235" s="5"/>
@@ -5176,7 +5449,9 @@
     </row>
     <row r="236" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B236" s="5"/>
-      <c r="C236" s="5"/>
+      <c r="C236" s="10" t="s">
+        <v>349</v>
+      </c>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
       <c r="F236" s="5"/>
@@ -5185,7 +5460,9 @@
     </row>
     <row r="237" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B237" s="5"/>
-      <c r="C237" s="5"/>
+      <c r="C237" s="10" t="s">
+        <v>350</v>
+      </c>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
       <c r="F237" s="5"/>
@@ -5194,7 +5471,9 @@
     </row>
     <row r="238" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B238" s="5"/>
-      <c r="C238" s="5"/>
+      <c r="C238" s="10" t="s">
+        <v>351</v>
+      </c>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
       <c r="F238" s="5"/>
@@ -5203,7 +5482,9 @@
     </row>
     <row r="239" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B239" s="5"/>
-      <c r="C239" s="5"/>
+      <c r="C239" s="10" t="s">
+        <v>352</v>
+      </c>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
@@ -5212,7 +5493,9 @@
     </row>
     <row r="240" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B240" s="5"/>
-      <c r="C240" s="5"/>
+      <c r="C240" s="10" t="s">
+        <v>353</v>
+      </c>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
       <c r="F240" s="5"/>
@@ -5221,7 +5504,9 @@
     </row>
     <row r="241" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B241" s="5"/>
-      <c r="C241" s="5"/>
+      <c r="C241" s="10" t="s">
+        <v>354</v>
+      </c>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
       <c r="F241" s="5"/>
@@ -5230,7 +5515,9 @@
     </row>
     <row r="242" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B242" s="5"/>
-      <c r="C242" s="5"/>
+      <c r="C242" s="10" t="s">
+        <v>355</v>
+      </c>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
       <c r="F242" s="5"/>
@@ -5239,7 +5526,9 @@
     </row>
     <row r="243" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B243" s="5"/>
-      <c r="C243" s="5"/>
+      <c r="C243" s="10" t="s">
+        <v>356</v>
+      </c>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
       <c r="F243" s="5"/>
@@ -5248,7 +5537,9 @@
     </row>
     <row r="244" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B244" s="5"/>
-      <c r="C244" s="5"/>
+      <c r="C244" s="10" t="s">
+        <v>357</v>
+      </c>
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
       <c r="F244" s="5"/>
@@ -5257,7 +5548,9 @@
     </row>
     <row r="245" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B245" s="5"/>
-      <c r="C245" s="5"/>
+      <c r="C245" s="10" t="s">
+        <v>358</v>
+      </c>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
       <c r="F245" s="5"/>
@@ -5266,7 +5559,9 @@
     </row>
     <row r="246" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B246" s="5"/>
-      <c r="C246" s="5"/>
+      <c r="C246" s="10" t="s">
+        <v>359</v>
+      </c>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
       <c r="F246" s="5"/>
@@ -5275,7 +5570,9 @@
     </row>
     <row r="247" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B247" s="5"/>
-      <c r="C247" s="5"/>
+      <c r="C247" s="10" t="s">
+        <v>360</v>
+      </c>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
       <c r="F247" s="5"/>
@@ -5284,7 +5581,9 @@
     </row>
     <row r="248" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B248" s="5"/>
-      <c r="C248" s="5"/>
+      <c r="C248" s="10" t="s">
+        <v>361</v>
+      </c>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
       <c r="F248" s="5"/>
@@ -5293,7 +5592,9 @@
     </row>
     <row r="249" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B249" s="5"/>
-      <c r="C249" s="5"/>
+      <c r="C249" s="10" t="s">
+        <v>362</v>
+      </c>
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
       <c r="F249" s="5"/>
@@ -5302,7 +5603,9 @@
     </row>
     <row r="250" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B250" s="5"/>
-      <c r="C250" s="5"/>
+      <c r="C250" s="10" t="s">
+        <v>363</v>
+      </c>
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
       <c r="F250" s="5"/>
@@ -5311,7 +5614,9 @@
     </row>
     <row r="251" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B251" s="5"/>
-      <c r="C251" s="5"/>
+      <c r="C251" s="10" t="s">
+        <v>364</v>
+      </c>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
       <c r="F251" s="5"/>
@@ -5320,7 +5625,9 @@
     </row>
     <row r="252" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B252" s="5"/>
-      <c r="C252" s="5"/>
+      <c r="C252" s="10" t="s">
+        <v>365</v>
+      </c>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
@@ -5329,7 +5636,9 @@
     </row>
     <row r="253" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B253" s="5"/>
-      <c r="C253" s="5"/>
+      <c r="C253" s="10" t="s">
+        <v>366</v>
+      </c>
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
       <c r="F253" s="5"/>
@@ -5338,7 +5647,9 @@
     </row>
     <row r="254" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B254" s="5"/>
-      <c r="C254" s="5"/>
+      <c r="C254" s="10" t="s">
+        <v>367</v>
+      </c>
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
       <c r="F254" s="5"/>
@@ -5347,7 +5658,9 @@
     </row>
     <row r="255" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B255" s="5"/>
-      <c r="C255" s="5"/>
+      <c r="C255" s="10" t="s">
+        <v>368</v>
+      </c>
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
       <c r="F255" s="5"/>
@@ -5356,7 +5669,9 @@
     </row>
     <row r="256" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B256" s="5"/>
-      <c r="C256" s="5"/>
+      <c r="C256" s="10" t="s">
+        <v>369</v>
+      </c>
       <c r="D256" s="5"/>
       <c r="E256" s="5"/>
       <c r="F256" s="5"/>
@@ -5365,7 +5680,9 @@
     </row>
     <row r="257" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B257" s="5"/>
-      <c r="C257" s="5"/>
+      <c r="C257" s="10" t="s">
+        <v>370</v>
+      </c>
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
       <c r="F257" s="5"/>
@@ -5374,7 +5691,9 @@
     </row>
     <row r="258" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B258" s="5"/>
-      <c r="C258" s="5"/>
+      <c r="C258" s="10" t="s">
+        <v>371</v>
+      </c>
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
       <c r="F258" s="5"/>
@@ -5383,7 +5702,9 @@
     </row>
     <row r="259" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B259" s="5"/>
-      <c r="C259" s="5"/>
+      <c r="C259" s="10" t="s">
+        <v>372</v>
+      </c>
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
       <c r="F259" s="5"/>
@@ -5392,7 +5713,9 @@
     </row>
     <row r="260" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B260" s="5"/>
-      <c r="C260" s="5"/>
+      <c r="C260" s="10" t="s">
+        <v>373</v>
+      </c>
       <c r="D260" s="5"/>
       <c r="E260" s="5"/>
       <c r="F260" s="5"/>
@@ -5401,7 +5724,9 @@
     </row>
     <row r="261" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B261" s="5"/>
-      <c r="C261" s="5"/>
+      <c r="C261" s="10" t="s">
+        <v>374</v>
+      </c>
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
       <c r="F261" s="5"/>
@@ -5410,7 +5735,9 @@
     </row>
     <row r="262" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B262" s="5"/>
-      <c r="C262" s="5"/>
+      <c r="C262" s="10" t="s">
+        <v>375</v>
+      </c>
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
       <c r="F262" s="5"/>
@@ -5419,7 +5746,9 @@
     </row>
     <row r="263" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B263" s="5"/>
-      <c r="C263" s="5"/>
+      <c r="C263" s="10" t="s">
+        <v>376</v>
+      </c>
       <c r="D263" s="5"/>
       <c r="E263" s="5"/>
       <c r="F263" s="5"/>
@@ -5428,7 +5757,9 @@
     </row>
     <row r="264" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B264" s="5"/>
-      <c r="C264" s="5"/>
+      <c r="C264" s="10" t="s">
+        <v>377</v>
+      </c>
       <c r="D264" s="5"/>
       <c r="E264" s="5"/>
       <c r="F264" s="5"/>
@@ -5437,7 +5768,9 @@
     </row>
     <row r="265" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B265" s="5"/>
-      <c r="C265" s="5"/>
+      <c r="C265" s="10" t="s">
+        <v>378</v>
+      </c>
       <c r="D265" s="5"/>
       <c r="E265" s="5"/>
       <c r="F265" s="5"/>
@@ -5446,7 +5779,9 @@
     </row>
     <row r="266" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B266" s="5"/>
-      <c r="C266" s="5"/>
+      <c r="C266" s="10" t="s">
+        <v>379</v>
+      </c>
       <c r="D266" s="5"/>
       <c r="E266" s="5"/>
       <c r="F266" s="5"/>
@@ -5455,7 +5790,9 @@
     </row>
     <row r="267" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B267" s="5"/>
-      <c r="C267" s="5"/>
+      <c r="C267" s="10" t="s">
+        <v>380</v>
+      </c>
       <c r="D267" s="5"/>
       <c r="E267" s="5"/>
       <c r="F267" s="5"/>
@@ -5464,7 +5801,9 @@
     </row>
     <row r="268" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B268" s="5"/>
-      <c r="C268" s="5"/>
+      <c r="C268" s="10" t="s">
+        <v>381</v>
+      </c>
       <c r="D268" s="5"/>
       <c r="E268" s="5"/>
       <c r="F268" s="5"/>
@@ -5473,7 +5812,9 @@
     </row>
     <row r="269" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B269" s="5"/>
-      <c r="C269" s="5"/>
+      <c r="C269" s="10" t="s">
+        <v>382</v>
+      </c>
       <c r="D269" s="5"/>
       <c r="E269" s="5"/>
       <c r="F269" s="5"/>
@@ -5482,7 +5823,9 @@
     </row>
     <row r="270" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B270" s="5"/>
-      <c r="C270" s="5"/>
+      <c r="C270" s="10" t="s">
+        <v>383</v>
+      </c>
       <c r="D270" s="5"/>
       <c r="E270" s="5"/>
       <c r="F270" s="5"/>
@@ -5491,7 +5834,9 @@
     </row>
     <row r="271" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B271" s="5"/>
-      <c r="C271" s="5"/>
+      <c r="C271" s="10" t="s">
+        <v>384</v>
+      </c>
       <c r="D271" s="5"/>
       <c r="E271" s="5"/>
       <c r="F271" s="5"/>
@@ -5500,7 +5845,9 @@
     </row>
     <row r="272" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B272" s="5"/>
-      <c r="C272" s="5"/>
+      <c r="C272" s="10" t="s">
+        <v>385</v>
+      </c>
       <c r="D272" s="5"/>
       <c r="E272" s="5"/>
       <c r="F272" s="5"/>
@@ -5509,7 +5856,9 @@
     </row>
     <row r="273" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B273" s="5"/>
-      <c r="C273" s="5"/>
+      <c r="C273" s="10" t="s">
+        <v>386</v>
+      </c>
       <c r="D273" s="5"/>
       <c r="E273" s="5"/>
       <c r="F273" s="5"/>
@@ -5518,7 +5867,9 @@
     </row>
     <row r="274" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B274" s="5"/>
-      <c r="C274" s="5"/>
+      <c r="C274" s="10" t="s">
+        <v>387</v>
+      </c>
       <c r="D274" s="5"/>
       <c r="E274" s="5"/>
       <c r="F274" s="5"/>
@@ -5527,7 +5878,9 @@
     </row>
     <row r="275" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B275" s="5"/>
-      <c r="C275" s="5"/>
+      <c r="C275" s="10" t="s">
+        <v>388</v>
+      </c>
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
       <c r="F275" s="5"/>
@@ -5536,7 +5889,9 @@
     </row>
     <row r="276" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B276" s="5"/>
-      <c r="C276" s="5"/>
+      <c r="C276" s="10" t="s">
+        <v>389</v>
+      </c>
       <c r="D276" s="5"/>
       <c r="E276" s="5"/>
       <c r="F276" s="5"/>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D50A19-F5F5-A14A-8B1C-A7501B15F8AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C3B831-6528-4045-9595-EA147D929AA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="403">
   <si>
     <t>BRANCH</t>
   </si>
@@ -37,9 +37,6 @@
     <t>CASE TITLE</t>
   </si>
   <si>
-    <t>AREA</t>
-  </si>
-  <si>
     <t>LOCATION</t>
   </si>
   <si>
@@ -1202,6 +1199,42 @@
   </si>
   <si>
     <t>NOEMICIA SANTOS -VS- PARO</t>
+  </si>
+  <si>
+    <t>SPS MARIO VALDERAMA AND ANA DEVERA VALDERAMA REP. BY JOSE ALLAN L. VALDERAMA -VS- ROD,PARPO,MARPO</t>
+  </si>
+  <si>
+    <t>IN THE MATTER OF ISSUANCE OF SECOND OWNER'S DUPLICATE COPY OF TCT</t>
+  </si>
+  <si>
+    <t>CLOA T-5633</t>
+  </si>
+  <si>
+    <t>PINACPINACAN , SAN RAFAEL, BULACAN</t>
+  </si>
+  <si>
+    <t>AREA(SQM)</t>
+  </si>
+  <si>
+    <t>DATE FILED</t>
+  </si>
+  <si>
+    <t>HRS OF JAVIER GONZALES REP. BY MA. DAISY D. DOMINGO -VS- PARO .ETAL</t>
+  </si>
+  <si>
+    <t>MARCELINO MARCELO -VS- PARO</t>
+  </si>
+  <si>
+    <t>CORRECTION</t>
+  </si>
+  <si>
+    <t>EP NO. 00783375</t>
+  </si>
+  <si>
+    <t>BAMBANG, BULAKAN, BULACAN</t>
+  </si>
+  <si>
+    <t>HEIRS OF EUGENIO F. DAYAO ET,AL -VS- ALBERT GATMAITAN</t>
   </si>
 </sst>
 </file>
@@ -1442,7 +1475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1546,6 +1579,10 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1863,9 +1900,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7760DDDF-B585-9445-B146-2DD762F6C209}">
   <dimension ref="A1:H279"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B202" sqref="B202:B219"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F215" sqref="F215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1879,7 +1916,10 @@
     <col min="8" max="8" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="39" t="s">
+        <v>396</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1890,50 +1930,50 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
       <c r="C2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="2:8" ht="61" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="61" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1941,180 +1981,180 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="2:8" ht="31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="31" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="2:8" ht="31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="31" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="2:8" ht="31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="31" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="2:8" ht="31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="31" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="2:8" ht="31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="31" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="2:8" ht="31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="31" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="2:8" ht="31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="31" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="2:8" ht="31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="31" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -2124,10 +2164,10 @@
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
       <c r="C17" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -2137,10 +2177,10 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
       <c r="C18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -2150,10 +2190,10 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
       <c r="C19" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -2163,10 +2203,10 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
       <c r="C20" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -2176,10 +2216,10 @@
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
       <c r="C21" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -2188,13 +2228,13 @@
     </row>
     <row r="22" spans="2:8" ht="46" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -2203,13 +2243,13 @@
     </row>
     <row r="23" spans="2:8" ht="46" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -2218,13 +2258,13 @@
     </row>
     <row r="24" spans="2:8" ht="46" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -2233,13 +2273,13 @@
     </row>
     <row r="25" spans="2:8" ht="46" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -2248,13 +2288,13 @@
     </row>
     <row r="26" spans="2:8" ht="46" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -2263,13 +2303,13 @@
     </row>
     <row r="27" spans="2:8" ht="46" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -2278,13 +2318,13 @@
     </row>
     <row r="28" spans="2:8" ht="46" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -2293,13 +2333,13 @@
     </row>
     <row r="29" spans="2:8" ht="46" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -2308,13 +2348,13 @@
     </row>
     <row r="30" spans="2:8" ht="46" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -2323,13 +2363,13 @@
     </row>
     <row r="31" spans="2:8" ht="46" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -2338,13 +2378,13 @@
     </row>
     <row r="32" spans="2:8" ht="46" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -2353,13 +2393,13 @@
     </row>
     <row r="33" spans="2:8" ht="46" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -2368,13 +2408,13 @@
     </row>
     <row r="34" spans="2:8" ht="46" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -2383,13 +2423,13 @@
     </row>
     <row r="35" spans="2:8" ht="46" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -2398,13 +2438,13 @@
     </row>
     <row r="36" spans="2:8" ht="46" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -2413,10 +2453,10 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -2426,10 +2466,10 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -2439,10 +2479,10 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -2452,10 +2492,10 @@
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -2465,10 +2505,10 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -2478,10 +2518,10 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -2491,10 +2531,10 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -2504,10 +2544,10 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -2517,10 +2557,10 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -2530,10 +2570,10 @@
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -2543,10 +2583,10 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -2556,10 +2596,10 @@
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -2569,10 +2609,10 @@
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -2582,10 +2622,10 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -2595,10 +2635,10 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -2608,10 +2648,10 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -2621,10 +2661,10 @@
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -2634,10 +2674,10 @@
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -2647,10 +2687,10 @@
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -2660,10 +2700,10 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -2673,10 +2713,10 @@
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -2686,10 +2726,10 @@
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -2699,10 +2739,10 @@
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -2712,10 +2752,10 @@
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -2725,10 +2765,10 @@
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -2738,10 +2778,10 @@
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -2751,10 +2791,10 @@
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -2764,10 +2804,10 @@
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B64" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -2777,10 +2817,10 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B65" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -2790,10 +2830,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B66" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -2807,10 +2847,10 @@
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -2823,10 +2863,10 @@
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -2839,10 +2879,10 @@
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -2855,10 +2895,10 @@
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -2871,10 +2911,10 @@
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -2887,10 +2927,10 @@
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -2903,10 +2943,10 @@
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -2919,10 +2959,10 @@
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -2935,10 +2975,10 @@
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -2951,10 +2991,10 @@
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
@@ -2967,10 +3007,10 @@
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -2983,10 +3023,10 @@
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
@@ -2999,10 +3039,10 @@
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
@@ -3015,10 +3055,10 @@
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
@@ -3031,10 +3071,10 @@
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
@@ -3047,10 +3087,10 @@
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
@@ -3063,10 +3103,10 @@
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
@@ -3079,10 +3119,10 @@
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
@@ -3095,10 +3135,10 @@
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
@@ -3111,10 +3151,10 @@
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
@@ -3127,10 +3167,10 @@
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
@@ -3143,10 +3183,10 @@
       </c>
       <c r="B88" s="5"/>
       <c r="C88" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
@@ -3159,10 +3199,10 @@
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
@@ -3175,10 +3215,10 @@
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
@@ -3187,14 +3227,14 @@
     </row>
     <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B91" s="5"/>
       <c r="C91" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
@@ -3203,14 +3243,14 @@
     </row>
     <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
@@ -3219,14 +3259,14 @@
     </row>
     <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
@@ -3235,14 +3275,14 @@
     </row>
     <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
@@ -3251,14 +3291,14 @@
     </row>
     <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B95" s="5"/>
       <c r="C95" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
@@ -3267,14 +3307,14 @@
     </row>
     <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
@@ -3283,14 +3323,14 @@
     </row>
     <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
@@ -3299,14 +3339,14 @@
     </row>
     <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -3315,14 +3355,14 @@
     </row>
     <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B99" s="5"/>
       <c r="C99" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
@@ -3331,14 +3371,14 @@
     </row>
     <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B100" s="5"/>
       <c r="C100" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -3347,14 +3387,14 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -3363,14 +3403,14 @@
     </row>
     <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
@@ -3379,14 +3419,14 @@
     </row>
     <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B103" s="5"/>
       <c r="C103" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -3395,14 +3435,14 @@
     </row>
     <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B104" s="5"/>
       <c r="C104" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
@@ -3412,10 +3452,10 @@
     <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="B105" s="5"/>
       <c r="C105" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -3424,14 +3464,14 @@
     </row>
     <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B106" s="5"/>
       <c r="C106" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
@@ -3441,10 +3481,10 @@
     <row r="107" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="B107" s="5"/>
       <c r="C107" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
@@ -3454,10 +3494,10 @@
     <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="B108" s="5"/>
       <c r="C108" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
@@ -3467,39 +3507,39 @@
     <row r="109" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="B109" s="5"/>
       <c r="C109" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D109" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E109" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="F109" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F109" s="5" t="s">
+      <c r="G109" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="H109" s="5"/>
     </row>
     <row r="110" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="B110" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
       <c r="G110" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -3507,22 +3547,22 @@
         <v>2</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D111" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G111" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E111" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>173</v>
-      </c>
       <c r="H111" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -3530,29 +3570,29 @@
         <v>2</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G112" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H112" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="H112" s="6" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B113" s="5"/>
       <c r="C113" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
@@ -3561,13 +3601,13 @@
     </row>
     <row r="114" spans="2:8" ht="54" x14ac:dyDescent="0.35">
       <c r="B114" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
@@ -3576,13 +3616,13 @@
     </row>
     <row r="115" spans="2:8" ht="54" x14ac:dyDescent="0.35">
       <c r="B115" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
@@ -3591,13 +3631,13 @@
     </row>
     <row r="116" spans="2:8" ht="54" x14ac:dyDescent="0.35">
       <c r="B116" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
@@ -3606,13 +3646,13 @@
     </row>
     <row r="117" spans="2:8" ht="54" x14ac:dyDescent="0.35">
       <c r="B117" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
@@ -3621,13 +3661,13 @@
     </row>
     <row r="118" spans="2:8" ht="54" x14ac:dyDescent="0.35">
       <c r="B118" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
@@ -3636,13 +3676,13 @@
     </row>
     <row r="119" spans="2:8" ht="54" x14ac:dyDescent="0.35">
       <c r="B119" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
@@ -3651,13 +3691,13 @@
     </row>
     <row r="120" spans="2:8" ht="54" x14ac:dyDescent="0.35">
       <c r="B120" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -3666,13 +3706,13 @@
     </row>
     <row r="121" spans="2:8" ht="54" x14ac:dyDescent="0.35">
       <c r="B121" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
@@ -3681,170 +3721,170 @@
     </row>
     <row r="122" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B122" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E122" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G122" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="F122" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="G122" s="9" t="s">
+      <c r="H122" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="H122" s="6" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="123" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B123" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E123" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G123" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="F123" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="G123" s="9" t="s">
+      <c r="H123" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="H123" s="6" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="124" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B124" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E124" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G124" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="F124" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="G124" s="9" t="s">
+      <c r="H124" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="H124" s="6" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="125" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B125" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E125" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G125" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="F125" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="G125" s="9" t="s">
+      <c r="H125" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="H125" s="6" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="126" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B126" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E126" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G126" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="F126" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="G126" s="9" t="s">
+      <c r="H126" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="H126" s="6" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="127" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B127" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E127" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G127" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="F127" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="G127" s="9" t="s">
+      <c r="H127" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="H127" s="6" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="128" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B128" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E128" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F128" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F128" s="5" t="s">
+      <c r="G128" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="G128" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="H128" s="5"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B129" s="5"/>
       <c r="C129" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -3854,11 +3894,11 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B130" s="5"/>
       <c r="C130" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -3868,11 +3908,11 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B131" s="5"/>
       <c r="C131" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -3882,11 +3922,11 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -3896,11 +3936,11 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B133" s="5"/>
       <c r="C133" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -3910,11 +3950,11 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -3924,11 +3964,11 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B135" s="5"/>
       <c r="C135" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -3938,11 +3978,11 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -3952,11 +3992,11 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B137" s="5"/>
       <c r="C137" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -3966,11 +4006,11 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B138" s="5"/>
       <c r="C138" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -3980,11 +4020,11 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B139" s="5"/>
       <c r="C139" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -3994,11 +4034,11 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B140" s="5"/>
       <c r="C140" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -4008,11 +4048,11 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -4022,11 +4062,11 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B142" s="5"/>
       <c r="C142" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -4036,11 +4076,11 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B143" s="5"/>
       <c r="C143" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -4050,11 +4090,11 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B144" s="5"/>
       <c r="C144" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -4064,11 +4104,11 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B145" s="5"/>
       <c r="C145" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -4078,11 +4118,11 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B146" s="5"/>
       <c r="C146" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -4092,11 +4132,11 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B147" s="5"/>
       <c r="C147" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -4106,11 +4146,11 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B148" s="5"/>
       <c r="C148" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -4120,11 +4160,11 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B149" s="5"/>
       <c r="C149" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -4134,11 +4174,11 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B150" s="5"/>
       <c r="C150" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -4148,11 +4188,11 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B151" s="5"/>
       <c r="C151" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -4162,11 +4202,11 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B152" s="5"/>
       <c r="C152" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -4176,11 +4216,11 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B153" s="5"/>
       <c r="C153" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -4190,153 +4230,153 @@
     </row>
     <row r="154" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B154" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D154" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D154" s="6" t="s">
-        <v>235</v>
       </c>
       <c r="E154" s="12">
         <v>36933</v>
       </c>
       <c r="F154" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="G154" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="G154" s="11" t="s">
+      <c r="H154" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="H154" s="6" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B155" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E155" s="12">
         <v>7688</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H155" s="5"/>
     </row>
     <row r="156" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B156" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E156" s="12">
         <v>30000</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H156" s="5"/>
     </row>
     <row r="157" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B157" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E157" s="12">
         <v>14987</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H157" s="5"/>
     </row>
     <row r="158" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B158" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E158" s="12">
         <v>7688</v>
       </c>
       <c r="F158" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G158" s="5" t="s">
         <v>281</v>
-      </c>
-      <c r="G158" s="5" t="s">
-        <v>282</v>
       </c>
       <c r="H158" s="5"/>
     </row>
     <row r="159" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B159" s="5"/>
       <c r="C159" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E159" s="12">
         <v>17284</v>
       </c>
       <c r="F159" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G159" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="G159" s="5" t="s">
+      <c r="H159" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="H159" s="6" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B160" s="5"/>
       <c r="C160" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E160" s="5"/>
       <c r="F160" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H160" s="5"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B161" s="5"/>
       <c r="C161" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -4347,7 +4387,7 @@
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B162" s="5"/>
       <c r="C162" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -4358,7 +4398,7 @@
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B163" s="5"/>
       <c r="C163" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -4369,7 +4409,7 @@
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B164" s="5"/>
       <c r="C164" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -4380,7 +4420,7 @@
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B165" s="5"/>
       <c r="C165" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -4391,7 +4431,7 @@
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B166" s="5"/>
       <c r="C166" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -4401,97 +4441,97 @@
     </row>
     <row r="167" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B167" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E167" s="5"/>
       <c r="F167" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G167" s="5"/>
       <c r="H167" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B168" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E168" s="5"/>
       <c r="F168" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G168" s="5"/>
       <c r="H168" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B169" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E169" s="5"/>
       <c r="F169" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G169" s="5"/>
       <c r="H169" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B170" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E170" s="5"/>
       <c r="F170" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G170" s="5"/>
       <c r="H170" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B171" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E171" s="5"/>
       <c r="F171" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G171" s="5"/>
       <c r="H171" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
@@ -4500,7 +4540,7 @@
       </c>
       <c r="B172" s="5"/>
       <c r="C172" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -4514,7 +4554,7 @@
       </c>
       <c r="B173" s="5"/>
       <c r="C173" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -4528,7 +4568,7 @@
       </c>
       <c r="B174" s="5"/>
       <c r="C174" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -4542,7 +4582,7 @@
       </c>
       <c r="B175" s="5"/>
       <c r="C175" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -4556,7 +4596,7 @@
       </c>
       <c r="B176" s="5"/>
       <c r="C176" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -4570,7 +4610,7 @@
       </c>
       <c r="B177" s="5"/>
       <c r="C177" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -4584,7 +4624,7 @@
       </c>
       <c r="B178" s="5"/>
       <c r="C178" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -4598,7 +4638,7 @@
       </c>
       <c r="B179" s="5"/>
       <c r="C179" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -4612,7 +4652,7 @@
       </c>
       <c r="B180" s="5"/>
       <c r="C180" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -4626,7 +4666,7 @@
       </c>
       <c r="B181" s="5"/>
       <c r="C181" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -4640,7 +4680,7 @@
       </c>
       <c r="B182" s="5"/>
       <c r="C182" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -4654,7 +4694,7 @@
       </c>
       <c r="B183" s="5"/>
       <c r="C183" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
@@ -4668,7 +4708,7 @@
       </c>
       <c r="B184" s="5"/>
       <c r="C184" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
@@ -4682,7 +4722,7 @@
       </c>
       <c r="B185" s="5"/>
       <c r="C185" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
@@ -4696,7 +4736,7 @@
       </c>
       <c r="B186" s="5"/>
       <c r="C186" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -4710,7 +4750,7 @@
       </c>
       <c r="B187" s="5"/>
       <c r="C187" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -4724,7 +4764,7 @@
       </c>
       <c r="B188" s="5"/>
       <c r="C188" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
@@ -4738,7 +4778,7 @@
       </c>
       <c r="B189" s="5"/>
       <c r="C189" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
@@ -4752,7 +4792,7 @@
       </c>
       <c r="B190" s="5"/>
       <c r="C190" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
@@ -4766,7 +4806,7 @@
       </c>
       <c r="B191" s="5"/>
       <c r="C191" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
@@ -4780,7 +4820,7 @@
       </c>
       <c r="B192" s="5"/>
       <c r="C192" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
@@ -4794,7 +4834,7 @@
       </c>
       <c r="B193" s="5"/>
       <c r="C193" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
@@ -4808,7 +4848,7 @@
       </c>
       <c r="B194" s="5"/>
       <c r="C194" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
@@ -4822,7 +4862,7 @@
       </c>
       <c r="B195" s="5"/>
       <c r="C195" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
@@ -4836,7 +4876,7 @@
       </c>
       <c r="B196" s="5"/>
       <c r="C196" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
@@ -4850,7 +4890,7 @@
       </c>
       <c r="B197" s="5"/>
       <c r="C197" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
@@ -4864,7 +4904,7 @@
       </c>
       <c r="B198" s="5"/>
       <c r="C198" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
@@ -4878,7 +4918,7 @@
       </c>
       <c r="B199" s="5"/>
       <c r="C199" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
@@ -4892,7 +4932,7 @@
       </c>
       <c r="B200" s="5"/>
       <c r="C200" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
@@ -4906,7 +4946,7 @@
       </c>
       <c r="B201" s="5"/>
       <c r="C201" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
@@ -4916,409 +4956,438 @@
     </row>
     <row r="202" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D202" s="36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E202" s="5"/>
       <c r="F202" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G202" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="G202" s="5" t="s">
+      <c r="H202" s="6" t="s">
         <v>327</v>
-      </c>
-      <c r="H202" s="6" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B203" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D203" s="36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E203" s="5"/>
       <c r="F203" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G203" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="G203" s="5" t="s">
+      <c r="H203" s="6" t="s">
         <v>327</v>
-      </c>
-      <c r="H203" s="6" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B204" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D204" s="36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E204" s="5"/>
       <c r="F204" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G204" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="G204" s="5" t="s">
+      <c r="H204" s="6" t="s">
         <v>327</v>
-      </c>
-      <c r="H204" s="6" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B205" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D205" s="36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E205" s="5"/>
       <c r="F205" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G205" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="G205" s="5" t="s">
+      <c r="H205" s="6" t="s">
         <v>327</v>
-      </c>
-      <c r="H205" s="6" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B206" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D206" s="36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E206" s="5"/>
       <c r="F206" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G206" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="G206" s="5" t="s">
+      <c r="H206" s="6" t="s">
         <v>327</v>
-      </c>
-      <c r="H206" s="6" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B207" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D207" s="36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E207" s="5"/>
       <c r="F207" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G207" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="G207" s="5" t="s">
+      <c r="H207" s="6" t="s">
         <v>327</v>
-      </c>
-      <c r="H207" s="6" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B208" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D208" s="36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E208" s="5"/>
       <c r="F208" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G208" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="G208" s="5" t="s">
+      <c r="H208" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="H208" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="209" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B209" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D209" s="36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E209" s="5"/>
       <c r="F209" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G209" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="G209" s="5" t="s">
+      <c r="H209" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="H209" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="210" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B210" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D210" s="36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E210" s="5"/>
       <c r="F210" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G210" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="G210" s="5" t="s">
+      <c r="H210" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="H210" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="211" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B211" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D211" s="36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E211" s="5"/>
       <c r="F211" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G211" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="G211" s="5" t="s">
+      <c r="H211" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="H211" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="212" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B212" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D212" s="36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E212" s="5"/>
       <c r="F212" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G212" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="G212" s="5" t="s">
+      <c r="H212" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="H212" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="213" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B213" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D213" s="36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E213" s="5"/>
       <c r="F213" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G213" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="G213" s="5" t="s">
+      <c r="H213" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="H213" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="214" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B214" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D214" s="36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E214" s="5"/>
       <c r="F214" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G214" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="G214" s="5" t="s">
+      <c r="H214" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="H214" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="215" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B215" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C215" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D215" s="36" t="s">
         <v>324</v>
-      </c>
-      <c r="D215" s="36" t="s">
-        <v>325</v>
       </c>
       <c r="E215" s="5"/>
       <c r="F215" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G215" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="G215" s="5" t="s">
+      <c r="H215" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="H215" s="6" t="s">
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B216" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C216" s="10" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B216" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C216" s="10" t="s">
-        <v>329</v>
-      </c>
       <c r="D216" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
       <c r="H216" s="5"/>
     </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B217" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
       <c r="H217" s="5"/>
     </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B218" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
       <c r="H218" s="5"/>
     </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B219" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
       <c r="H219" s="5"/>
     </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B220" s="5"/>
       <c r="C220" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="D220" s="5"/>
-      <c r="E220" s="5"/>
-      <c r="F220" s="5"/>
-      <c r="G220" s="5"/>
-      <c r="H220" s="5"/>
-    </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="E220" s="12">
+        <v>10160</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G220" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="H220" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B221" s="5"/>
       <c r="C221" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="D221" s="5"/>
+        <v>333</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>402</v>
+      </c>
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
       <c r="H221" s="5"/>
     </row>
-    <row r="222" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B222" s="5"/>
       <c r="C222" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="D222" s="5"/>
+        <v>334</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>397</v>
+      </c>
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
       <c r="G222" s="5"/>
       <c r="H222" s="5"/>
     </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B223" s="5"/>
+    <row r="223" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A223" s="38">
+        <v>44260</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="C223" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="D223" s="5"/>
-      <c r="E223" s="5"/>
-      <c r="F223" s="5"/>
-      <c r="G223" s="5"/>
-      <c r="H223" s="5"/>
-    </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="E223" s="12">
+        <v>5731</v>
+      </c>
+      <c r="F223" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="G223" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="H223" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B224" s="5"/>
       <c r="C224" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
@@ -5329,7 +5398,7 @@
     <row r="225" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B225" s="5"/>
       <c r="C225" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
@@ -5340,7 +5409,7 @@
     <row r="226" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B226" s="5"/>
       <c r="C226" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
@@ -5351,7 +5420,7 @@
     <row r="227" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B227" s="5"/>
       <c r="C227" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
@@ -5362,7 +5431,7 @@
     <row r="228" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B228" s="5"/>
       <c r="C228" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
@@ -5373,7 +5442,7 @@
     <row r="229" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B229" s="5"/>
       <c r="C229" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
@@ -5384,7 +5453,7 @@
     <row r="230" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B230" s="5"/>
       <c r="C230" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
@@ -5395,7 +5464,7 @@
     <row r="231" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B231" s="5"/>
       <c r="C231" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
@@ -5406,7 +5475,7 @@
     <row r="232" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B232" s="5"/>
       <c r="C232" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
@@ -5417,7 +5486,7 @@
     <row r="233" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B233" s="5"/>
       <c r="C233" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
@@ -5428,7 +5497,7 @@
     <row r="234" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B234" s="5"/>
       <c r="C234" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
@@ -5439,7 +5508,7 @@
     <row r="235" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B235" s="5"/>
       <c r="C235" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
@@ -5450,7 +5519,7 @@
     <row r="236" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B236" s="5"/>
       <c r="C236" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
@@ -5461,7 +5530,7 @@
     <row r="237" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B237" s="5"/>
       <c r="C237" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
@@ -5472,7 +5541,7 @@
     <row r="238" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B238" s="5"/>
       <c r="C238" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
@@ -5483,7 +5552,7 @@
     <row r="239" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B239" s="5"/>
       <c r="C239" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
@@ -5494,7 +5563,7 @@
     <row r="240" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B240" s="5"/>
       <c r="C240" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
@@ -5505,7 +5574,7 @@
     <row r="241" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B241" s="5"/>
       <c r="C241" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
@@ -5516,7 +5585,7 @@
     <row r="242" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B242" s="5"/>
       <c r="C242" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
@@ -5527,7 +5596,7 @@
     <row r="243" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B243" s="5"/>
       <c r="C243" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
@@ -5538,7 +5607,7 @@
     <row r="244" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B244" s="5"/>
       <c r="C244" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
@@ -5549,7 +5618,7 @@
     <row r="245" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B245" s="5"/>
       <c r="C245" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
@@ -5560,7 +5629,7 @@
     <row r="246" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B246" s="5"/>
       <c r="C246" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
@@ -5571,7 +5640,7 @@
     <row r="247" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B247" s="5"/>
       <c r="C247" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
@@ -5582,7 +5651,7 @@
     <row r="248" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B248" s="5"/>
       <c r="C248" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
@@ -5593,7 +5662,7 @@
     <row r="249" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B249" s="5"/>
       <c r="C249" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
@@ -5604,7 +5673,7 @@
     <row r="250" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B250" s="5"/>
       <c r="C250" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
@@ -5615,7 +5684,7 @@
     <row r="251" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B251" s="5"/>
       <c r="C251" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
@@ -5626,7 +5695,7 @@
     <row r="252" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B252" s="5"/>
       <c r="C252" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
@@ -5637,7 +5706,7 @@
     <row r="253" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B253" s="5"/>
       <c r="C253" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
@@ -5648,7 +5717,7 @@
     <row r="254" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B254" s="5"/>
       <c r="C254" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
@@ -5659,7 +5728,7 @@
     <row r="255" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B255" s="5"/>
       <c r="C255" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
@@ -5670,7 +5739,7 @@
     <row r="256" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B256" s="5"/>
       <c r="C256" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D256" s="5"/>
       <c r="E256" s="5"/>
@@ -5681,7 +5750,7 @@
     <row r="257" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B257" s="5"/>
       <c r="C257" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
@@ -5692,7 +5761,7 @@
     <row r="258" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B258" s="5"/>
       <c r="C258" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
@@ -5703,7 +5772,7 @@
     <row r="259" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B259" s="5"/>
       <c r="C259" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
@@ -5714,7 +5783,7 @@
     <row r="260" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B260" s="5"/>
       <c r="C260" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D260" s="5"/>
       <c r="E260" s="5"/>
@@ -5725,7 +5794,7 @@
     <row r="261" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B261" s="5"/>
       <c r="C261" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
@@ -5736,7 +5805,7 @@
     <row r="262" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B262" s="5"/>
       <c r="C262" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
@@ -5747,7 +5816,7 @@
     <row r="263" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B263" s="5"/>
       <c r="C263" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D263" s="5"/>
       <c r="E263" s="5"/>
@@ -5758,7 +5827,7 @@
     <row r="264" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B264" s="5"/>
       <c r="C264" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D264" s="5"/>
       <c r="E264" s="5"/>
@@ -5769,7 +5838,7 @@
     <row r="265" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B265" s="5"/>
       <c r="C265" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D265" s="5"/>
       <c r="E265" s="5"/>
@@ -5780,7 +5849,7 @@
     <row r="266" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B266" s="5"/>
       <c r="C266" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D266" s="5"/>
       <c r="E266" s="5"/>
@@ -5791,7 +5860,7 @@
     <row r="267" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B267" s="5"/>
       <c r="C267" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D267" s="5"/>
       <c r="E267" s="5"/>
@@ -5802,7 +5871,7 @@
     <row r="268" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B268" s="5"/>
       <c r="C268" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D268" s="5"/>
       <c r="E268" s="5"/>
@@ -5813,7 +5882,7 @@
     <row r="269" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B269" s="5"/>
       <c r="C269" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D269" s="5"/>
       <c r="E269" s="5"/>
@@ -5824,7 +5893,7 @@
     <row r="270" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B270" s="5"/>
       <c r="C270" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D270" s="5"/>
       <c r="E270" s="5"/>
@@ -5835,7 +5904,7 @@
     <row r="271" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B271" s="5"/>
       <c r="C271" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D271" s="5"/>
       <c r="E271" s="5"/>
@@ -5846,7 +5915,7 @@
     <row r="272" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B272" s="5"/>
       <c r="C272" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D272" s="5"/>
       <c r="E272" s="5"/>
@@ -5857,7 +5926,7 @@
     <row r="273" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B273" s="5"/>
       <c r="C273" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D273" s="5"/>
       <c r="E273" s="5"/>
@@ -5868,7 +5937,7 @@
     <row r="274" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B274" s="5"/>
       <c r="C274" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D274" s="5"/>
       <c r="E274" s="5"/>
@@ -5879,7 +5948,7 @@
     <row r="275" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B275" s="5"/>
       <c r="C275" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
@@ -5890,7 +5959,7 @@
     <row r="276" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B276" s="5"/>
       <c r="C276" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D276" s="5"/>
       <c r="E276" s="5"/>
@@ -5952,17 +6021,17 @@
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>307</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -5970,16 +6039,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D2" s="26">
         <v>44197</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -5987,16 +6056,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D3" s="26">
         <v>44197</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6004,16 +6073,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D4" s="26">
         <v>44197</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6021,16 +6090,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D5" s="26">
         <v>44197</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6038,16 +6107,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D6" s="26">
         <v>44197</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6055,16 +6124,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D7" s="26">
         <v>44197</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6072,16 +6141,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D8" s="26">
         <v>44197</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6089,16 +6158,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D9" s="26">
         <v>44197</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6106,16 +6175,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D10" s="26">
         <v>44197</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6123,16 +6192,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D11" s="26">
         <v>44197</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6140,16 +6209,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D12" s="26">
         <v>44197</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6157,16 +6226,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D13" s="26">
         <v>44197</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6174,16 +6243,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D14" s="26">
         <v>44197</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6191,16 +6260,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D15" s="26">
         <v>44197</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6208,16 +6277,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D16" s="26">
         <v>44197</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6225,16 +6294,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D17" s="26">
         <v>44197</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6242,16 +6311,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D18" s="26">
         <v>44197</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6259,16 +6328,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D19" s="26">
         <v>44197</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6276,16 +6345,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D20" s="26">
         <v>44197</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6293,16 +6362,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D21" s="26">
         <v>44197</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6310,16 +6379,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D22" s="26">
         <v>44197</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6327,16 +6396,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D23" s="26">
         <v>44197</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6344,16 +6413,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D24" s="26">
         <v>44197</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6361,16 +6430,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D25" s="26">
         <v>44197</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6378,16 +6447,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D26" s="26">
         <v>44197</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6395,16 +6464,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D27" s="26">
         <v>44197</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6412,16 +6481,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D28" s="26">
         <v>44197</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6429,16 +6498,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D29" s="26">
         <v>44197</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6446,16 +6515,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D30" s="26">
         <v>44197</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6463,16 +6532,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D31" s="26">
         <v>44197</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6480,16 +6549,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D32" s="26">
         <v>44228</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6497,16 +6566,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D33" s="26">
         <v>44228</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6514,16 +6583,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D34" s="26">
         <v>44228</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6531,16 +6600,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D35" s="26">
         <v>44228</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6548,16 +6617,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D36" s="26">
         <v>44228</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6565,16 +6634,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D37" s="26">
         <v>44228</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6582,16 +6651,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D38" s="26">
         <v>44228</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6599,16 +6668,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D39" s="26">
         <v>44228</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6616,16 +6685,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D40" s="26">
         <v>44228</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6633,16 +6702,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D41" s="26">
         <v>44228</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6650,16 +6719,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D42" s="26">
         <v>44228</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6667,16 +6736,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D43" s="26">
         <v>44228</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6684,16 +6753,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D44" s="26">
         <v>44228</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6701,16 +6770,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D45" s="26">
         <v>44228</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6718,16 +6787,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D46" s="26">
         <v>44228</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6735,16 +6804,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D47" s="26">
         <v>44228</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6752,16 +6821,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D48" s="26">
         <v>44228</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6769,16 +6838,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="26">
         <v>44228</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6786,16 +6855,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="26">
         <v>44228</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6803,16 +6872,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="26">
         <v>44228</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6820,16 +6889,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D52" s="26">
         <v>44228</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6837,16 +6906,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D53" s="26">
         <v>44228</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6854,16 +6923,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D54" s="26">
         <v>44228</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6871,16 +6940,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D55" s="26">
         <v>44228</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6888,16 +6957,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D56" s="26">
         <v>44228</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6905,16 +6974,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D57" s="26">
         <v>44228</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6922,16 +6991,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D58" s="26">
         <v>44228</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6939,16 +7008,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D59" s="26">
         <v>44228</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6956,16 +7025,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D60" s="26">
         <v>44228</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6973,16 +7042,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D61" s="26">
         <v>44228</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -6990,16 +7059,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D62" s="26">
         <v>44228</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -7007,16 +7076,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D63" s="26">
         <v>44228</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -7024,16 +7093,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D64" s="26">
         <v>44228</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -7041,16 +7110,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D65" s="26">
         <v>44228</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -7058,16 +7127,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D66" s="26">
         <v>44228</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -7075,16 +7144,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D67" s="26">
         <v>44228</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -7092,16 +7161,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D68" s="26">
         <v>44228</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -7109,16 +7178,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D69" s="26">
         <v>44228</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -7126,16 +7195,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D70" s="26">
         <v>44228</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -7143,16 +7212,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D71" s="26">
         <v>44228</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C3B831-6528-4045-9595-EA147D929AA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51464A1-D7CC-F64A-9E4F-02C37C49A001}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -1577,12 +1577,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1901,7 +1901,7 @@
   <dimension ref="A1:H279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F215" sqref="F215"/>
     </sheetView>
   </sheetViews>
@@ -1917,7 +1917,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>396</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -5359,7 +5359,7 @@
       <c r="H222" s="5"/>
     </row>
     <row r="223" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A223" s="38">
+      <c r="A223" s="37">
         <v>44260</v>
       </c>
       <c r="B223" s="5" t="s">
@@ -6020,10 +6020,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="27" t="s">
         <v>305</v>
       </c>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51464A1-D7CC-F64A-9E4F-02C37C49A001}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C205722-1709-214E-8AFD-EB155510DC7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="404">
   <si>
     <t>BRANCH</t>
   </si>
@@ -1235,6 +1235,9 @@
   </si>
   <si>
     <t>HEIRS OF EUGENIO F. DAYAO ET,AL -VS- ALBERT GATMAITAN</t>
+  </si>
+  <si>
+    <t>SPS. ALBERTO ALVAREZ AND EVELYN ET.AL -VS- PARO .ETAL</t>
   </si>
 </sst>
 </file>
@@ -1902,7 +1905,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F215" sqref="F215"/>
+      <selection pane="bottomLeft" activeCell="F222" sqref="F222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5384,12 +5387,17 @@
         <v>392</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A224" s="37">
+        <v>44266</v>
+      </c>
       <c r="B224" s="5"/>
       <c r="C224" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="D224" s="5"/>
+      <c r="D224" s="6" t="s">
+        <v>403</v>
+      </c>
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
       <c r="G224" s="5"/>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C205722-1709-214E-8AFD-EB155510DC7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD68913D-4B4A-FE44-BDAB-322DE5B0F9B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="404">
   <si>
     <t>BRANCH</t>
   </si>
@@ -1904,8 +1904,8 @@
   <dimension ref="A1:H279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F222" sqref="F222"/>
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B223" sqref="B223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5315,7 +5315,9 @@
       <c r="H219" s="5"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B220" s="5"/>
+      <c r="B220" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="C220" s="10" t="s">
         <v>332</v>
       </c>
@@ -5336,7 +5338,9 @@
       </c>
     </row>
     <row r="221" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B221" s="5"/>
+      <c r="B221" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="C221" s="10" t="s">
         <v>333</v>
       </c>
@@ -5349,7 +5353,9 @@
       <c r="H221" s="5"/>
     </row>
     <row r="222" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B222" s="5"/>
+      <c r="B222" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="C222" s="10" t="s">
         <v>334</v>
       </c>
@@ -5391,7 +5397,9 @@
       <c r="A224" s="37">
         <v>44266</v>
       </c>
-      <c r="B224" s="5"/>
+      <c r="B224" s="5" t="s">
+        <v>233</v>
+      </c>
       <c r="C224" s="10" t="s">
         <v>336</v>
       </c>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD68913D-4B4A-FE44-BDAB-322DE5B0F9B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0161485-8CAD-324D-864A-28938A8295A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="405">
   <si>
     <t>BRANCH</t>
   </si>
@@ -1238,6 +1238,9 @@
   </si>
   <si>
     <t>SPS. ALBERTO ALVAREZ AND EVELYN ET.AL -VS- PARO .ETAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPS. PEDRO VIOLAGO &amp; FLROENCIA RIVERA ET.AL -VS- </t>
   </si>
 </sst>
 </file>
@@ -1905,7 +1908,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B223" sqref="B223"/>
+      <selection pane="bottomLeft" activeCell="D225" sqref="D225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5411,12 +5414,14 @@
       <c r="G224" s="5"/>
       <c r="H224" s="5"/>
     </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B225" s="5"/>
       <c r="C225" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="D225" s="5"/>
+      <c r="D225" s="6" t="s">
+        <v>404</v>
+      </c>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0161485-8CAD-324D-864A-28938A8295A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8420B6-BB3A-724C-863F-2528780CBFA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="407">
   <si>
     <t>BRANCH</t>
   </si>
@@ -1241,6 +1241,12 @@
   </si>
   <si>
     <t xml:space="preserve">SPS. PEDRO VIOLAGO &amp; FLROENCIA RIVERA ET.AL -VS- </t>
+  </si>
+  <si>
+    <t>LEONARDO VALDECANTOS ET.AL -VS- ROD,MARO,PARO ET.AL</t>
+  </si>
+  <si>
+    <t>MARCELA R. ROBLES ET.AL -VS- ROD,MARO,PARO</t>
   </si>
 </sst>
 </file>
@@ -1907,8 +1913,8 @@
   <dimension ref="A1:H279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D225" sqref="D225"/>
+      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E226" sqref="E226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5427,23 +5433,27 @@
       <c r="G225" s="5"/>
       <c r="H225" s="5"/>
     </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B226" s="5"/>
       <c r="C226" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="D226" s="5"/>
+      <c r="D226" s="6" t="s">
+        <v>405</v>
+      </c>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
       <c r="H226" s="5"/>
     </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B227" s="5"/>
       <c r="C227" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="D227" s="5"/>
+      <c r="D227" s="6" t="s">
+        <v>406</v>
+      </c>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8420B6-BB3A-724C-863F-2528780CBFA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C449C2-ED37-0147-B306-AC7EF578B8CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
+    <workbookView xWindow="5480" yWindow="4160" windowWidth="14400" windowHeight="9660" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
   <sheets>
     <sheet name="LIST OF COMPLAIN 2021" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="408">
   <si>
     <t>BRANCH</t>
   </si>
@@ -1247,6 +1247,9 @@
   </si>
   <si>
     <t>MARCELA R. ROBLES ET.AL -VS- ROD,MARO,PARO</t>
+  </si>
+  <si>
+    <t>CA B1</t>
   </si>
 </sst>
 </file>
@@ -1913,8 +1916,8 @@
   <dimension ref="A1:H279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E226" sqref="E226"/>
+      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D214" sqref="D214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1955,7 +1958,9 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
@@ -5420,8 +5425,10 @@
       <c r="G224" s="5"/>
       <c r="H224" s="5"/>
     </row>
-    <row r="225" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B225" s="5"/>
+    <row r="225" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B225" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="C225" s="10" t="s">
         <v>337</v>
       </c>
@@ -5433,8 +5440,10 @@
       <c r="G225" s="5"/>
       <c r="H225" s="5"/>
     </row>
-    <row r="226" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B226" s="5"/>
+    <row r="226" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B226" s="5" t="s">
+        <v>233</v>
+      </c>
       <c r="C226" s="10" t="s">
         <v>338</v>
       </c>
@@ -5446,8 +5455,10 @@
       <c r="G226" s="5"/>
       <c r="H226" s="5"/>
     </row>
-    <row r="227" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B227" s="5"/>
+    <row r="227" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="B227" s="5" t="s">
+        <v>233</v>
+      </c>
       <c r="C227" s="10" t="s">
         <v>339</v>
       </c>
@@ -5459,18 +5470,26 @@
       <c r="G227" s="5"/>
       <c r="H227" s="5"/>
     </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>1</v>
+      </c>
       <c r="B228" s="5"/>
       <c r="C228" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="D228" s="5"/>
+      <c r="D228" s="5" t="s">
+        <v>407</v>
+      </c>
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
       <c r="G228" s="5"/>
       <c r="H228" s="5"/>
     </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>2</v>
+      </c>
       <c r="B229" s="5"/>
       <c r="C229" s="10" t="s">
         <v>341</v>
@@ -5481,7 +5500,10 @@
       <c r="G229" s="5"/>
       <c r="H229" s="5"/>
     </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>3</v>
+      </c>
       <c r="B230" s="5"/>
       <c r="C230" s="10" t="s">
         <v>342</v>
@@ -5492,7 +5514,10 @@
       <c r="G230" s="5"/>
       <c r="H230" s="5"/>
     </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>4</v>
+      </c>
       <c r="B231" s="5"/>
       <c r="C231" s="10" t="s">
         <v>343</v>
@@ -5503,7 +5528,10 @@
       <c r="G231" s="5"/>
       <c r="H231" s="5"/>
     </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>5</v>
+      </c>
       <c r="B232" s="5"/>
       <c r="C232" s="10" t="s">
         <v>344</v>
@@ -5514,7 +5542,10 @@
       <c r="G232" s="5"/>
       <c r="H232" s="5"/>
     </row>
-    <row r="233" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>6</v>
+      </c>
       <c r="B233" s="5"/>
       <c r="C233" s="10" t="s">
         <v>345</v>
@@ -5525,7 +5556,10 @@
       <c r="G233" s="5"/>
       <c r="H233" s="5"/>
     </row>
-    <row r="234" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>7</v>
+      </c>
       <c r="B234" s="5"/>
       <c r="C234" s="10" t="s">
         <v>346</v>
@@ -5536,7 +5570,10 @@
       <c r="G234" s="5"/>
       <c r="H234" s="5"/>
     </row>
-    <row r="235" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>8</v>
+      </c>
       <c r="B235" s="5"/>
       <c r="C235" s="10" t="s">
         <v>347</v>
@@ -5547,7 +5584,10 @@
       <c r="G235" s="5"/>
       <c r="H235" s="5"/>
     </row>
-    <row r="236" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>9</v>
+      </c>
       <c r="B236" s="5"/>
       <c r="C236" s="10" t="s">
         <v>348</v>
@@ -5558,7 +5598,10 @@
       <c r="G236" s="5"/>
       <c r="H236" s="5"/>
     </row>
-    <row r="237" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>10</v>
+      </c>
       <c r="B237" s="5"/>
       <c r="C237" s="10" t="s">
         <v>349</v>
@@ -5569,7 +5612,10 @@
       <c r="G237" s="5"/>
       <c r="H237" s="5"/>
     </row>
-    <row r="238" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>11</v>
+      </c>
       <c r="B238" s="5"/>
       <c r="C238" s="10" t="s">
         <v>350</v>
@@ -5580,7 +5626,10 @@
       <c r="G238" s="5"/>
       <c r="H238" s="5"/>
     </row>
-    <row r="239" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>12</v>
+      </c>
       <c r="B239" s="5"/>
       <c r="C239" s="10" t="s">
         <v>351</v>
@@ -5591,7 +5640,10 @@
       <c r="G239" s="5"/>
       <c r="H239" s="5"/>
     </row>
-    <row r="240" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>13</v>
+      </c>
       <c r="B240" s="5"/>
       <c r="C240" s="10" t="s">
         <v>352</v>
@@ -5602,7 +5654,10 @@
       <c r="G240" s="5"/>
       <c r="H240" s="5"/>
     </row>
-    <row r="241" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>14</v>
+      </c>
       <c r="B241" s="5"/>
       <c r="C241" s="10" t="s">
         <v>353</v>
@@ -5613,7 +5668,10 @@
       <c r="G241" s="5"/>
       <c r="H241" s="5"/>
     </row>
-    <row r="242" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>15</v>
+      </c>
       <c r="B242" s="5"/>
       <c r="C242" s="10" t="s">
         <v>354</v>
@@ -5624,7 +5682,10 @@
       <c r="G242" s="5"/>
       <c r="H242" s="5"/>
     </row>
-    <row r="243" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>16</v>
+      </c>
       <c r="B243" s="5"/>
       <c r="C243" s="10" t="s">
         <v>355</v>
@@ -5635,7 +5696,10 @@
       <c r="G243" s="5"/>
       <c r="H243" s="5"/>
     </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>17</v>
+      </c>
       <c r="B244" s="5"/>
       <c r="C244" s="10" t="s">
         <v>356</v>
@@ -5646,7 +5710,10 @@
       <c r="G244" s="5"/>
       <c r="H244" s="5"/>
     </row>
-    <row r="245" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>18</v>
+      </c>
       <c r="B245" s="5"/>
       <c r="C245" s="10" t="s">
         <v>357</v>
@@ -5657,7 +5724,10 @@
       <c r="G245" s="5"/>
       <c r="H245" s="5"/>
     </row>
-    <row r="246" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>19</v>
+      </c>
       <c r="B246" s="5"/>
       <c r="C246" s="10" t="s">
         <v>358</v>
@@ -5668,7 +5738,10 @@
       <c r="G246" s="5"/>
       <c r="H246" s="5"/>
     </row>
-    <row r="247" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>20</v>
+      </c>
       <c r="B247" s="5"/>
       <c r="C247" s="10" t="s">
         <v>359</v>
@@ -5679,7 +5752,10 @@
       <c r="G247" s="5"/>
       <c r="H247" s="5"/>
     </row>
-    <row r="248" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>21</v>
+      </c>
       <c r="B248" s="5"/>
       <c r="C248" s="10" t="s">
         <v>360</v>
@@ -5690,7 +5766,10 @@
       <c r="G248" s="5"/>
       <c r="H248" s="5"/>
     </row>
-    <row r="249" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>22</v>
+      </c>
       <c r="B249" s="5"/>
       <c r="C249" s="10" t="s">
         <v>361</v>
@@ -5701,7 +5780,10 @@
       <c r="G249" s="5"/>
       <c r="H249" s="5"/>
     </row>
-    <row r="250" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>23</v>
+      </c>
       <c r="B250" s="5"/>
       <c r="C250" s="10" t="s">
         <v>362</v>
@@ -5712,7 +5794,10 @@
       <c r="G250" s="5"/>
       <c r="H250" s="5"/>
     </row>
-    <row r="251" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>24</v>
+      </c>
       <c r="B251" s="5"/>
       <c r="C251" s="10" t="s">
         <v>363</v>
@@ -5723,7 +5808,10 @@
       <c r="G251" s="5"/>
       <c r="H251" s="5"/>
     </row>
-    <row r="252" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>25</v>
+      </c>
       <c r="B252" s="5"/>
       <c r="C252" s="10" t="s">
         <v>364</v>
@@ -5734,7 +5822,10 @@
       <c r="G252" s="5"/>
       <c r="H252" s="5"/>
     </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>26</v>
+      </c>
       <c r="B253" s="5"/>
       <c r="C253" s="10" t="s">
         <v>365</v>
@@ -5745,7 +5836,10 @@
       <c r="G253" s="5"/>
       <c r="H253" s="5"/>
     </row>
-    <row r="254" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>27</v>
+      </c>
       <c r="B254" s="5"/>
       <c r="C254" s="10" t="s">
         <v>366</v>
@@ -5756,7 +5850,10 @@
       <c r="G254" s="5"/>
       <c r="H254" s="5"/>
     </row>
-    <row r="255" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>28</v>
+      </c>
       <c r="B255" s="5"/>
       <c r="C255" s="10" t="s">
         <v>367</v>
@@ -5767,7 +5864,10 @@
       <c r="G255" s="5"/>
       <c r="H255" s="5"/>
     </row>
-    <row r="256" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>29</v>
+      </c>
       <c r="B256" s="5"/>
       <c r="C256" s="10" t="s">
         <v>368</v>
@@ -5778,7 +5878,10 @@
       <c r="G256" s="5"/>
       <c r="H256" s="5"/>
     </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>30</v>
+      </c>
       <c r="B257" s="5"/>
       <c r="C257" s="10" t="s">
         <v>369</v>
@@ -5789,7 +5892,10 @@
       <c r="G257" s="5"/>
       <c r="H257" s="5"/>
     </row>
-    <row r="258" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>31</v>
+      </c>
       <c r="B258" s="5"/>
       <c r="C258" s="10" t="s">
         <v>370</v>
@@ -5800,7 +5906,10 @@
       <c r="G258" s="5"/>
       <c r="H258" s="5"/>
     </row>
-    <row r="259" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>32</v>
+      </c>
       <c r="B259" s="5"/>
       <c r="C259" s="10" t="s">
         <v>371</v>
@@ -5811,7 +5920,10 @@
       <c r="G259" s="5"/>
       <c r="H259" s="5"/>
     </row>
-    <row r="260" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>33</v>
+      </c>
       <c r="B260" s="5"/>
       <c r="C260" s="10" t="s">
         <v>372</v>
@@ -5822,7 +5934,10 @@
       <c r="G260" s="5"/>
       <c r="H260" s="5"/>
     </row>
-    <row r="261" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>34</v>
+      </c>
       <c r="B261" s="5"/>
       <c r="C261" s="10" t="s">
         <v>373</v>
@@ -5833,7 +5948,10 @@
       <c r="G261" s="5"/>
       <c r="H261" s="5"/>
     </row>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>35</v>
+      </c>
       <c r="B262" s="5"/>
       <c r="C262" s="10" t="s">
         <v>374</v>
@@ -5844,7 +5962,7 @@
       <c r="G262" s="5"/>
       <c r="H262" s="5"/>
     </row>
-    <row r="263" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B263" s="5"/>
       <c r="C263" s="10" t="s">
         <v>375</v>
@@ -5855,7 +5973,7 @@
       <c r="G263" s="5"/>
       <c r="H263" s="5"/>
     </row>
-    <row r="264" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B264" s="5"/>
       <c r="C264" s="10" t="s">
         <v>376</v>
@@ -5866,7 +5984,7 @@
       <c r="G264" s="5"/>
       <c r="H264" s="5"/>
     </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B265" s="5"/>
       <c r="C265" s="10" t="s">
         <v>377</v>
@@ -5877,7 +5995,7 @@
       <c r="G265" s="5"/>
       <c r="H265" s="5"/>
     </row>
-    <row r="266" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B266" s="5"/>
       <c r="C266" s="10" t="s">
         <v>378</v>
@@ -5888,7 +6006,7 @@
       <c r="G266" s="5"/>
       <c r="H266" s="5"/>
     </row>
-    <row r="267" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B267" s="5"/>
       <c r="C267" s="10" t="s">
         <v>379</v>
@@ -5899,7 +6017,7 @@
       <c r="G267" s="5"/>
       <c r="H267" s="5"/>
     </row>
-    <row r="268" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B268" s="5"/>
       <c r="C268" s="10" t="s">
         <v>380</v>
@@ -5910,7 +6028,7 @@
       <c r="G268" s="5"/>
       <c r="H268" s="5"/>
     </row>
-    <row r="269" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B269" s="5"/>
       <c r="C269" s="10" t="s">
         <v>381</v>
@@ -5921,7 +6039,7 @@
       <c r="G269" s="5"/>
       <c r="H269" s="5"/>
     </row>
-    <row r="270" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B270" s="5"/>
       <c r="C270" s="10" t="s">
         <v>382</v>
@@ -5932,7 +6050,7 @@
       <c r="G270" s="5"/>
       <c r="H270" s="5"/>
     </row>
-    <row r="271" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B271" s="5"/>
       <c r="C271" s="10" t="s">
         <v>383</v>
@@ -5943,7 +6061,7 @@
       <c r="G271" s="5"/>
       <c r="H271" s="5"/>
     </row>
-    <row r="272" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B272" s="5"/>
       <c r="C272" s="10" t="s">
         <v>384</v>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C449C2-ED37-0147-B306-AC7EF578B8CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80AB97C-592A-B847-A9B9-B37D3750C14A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="4160" windowWidth="14400" windowHeight="9660" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
   <sheets>
     <sheet name="LIST OF COMPLAIN 2021" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="409">
   <si>
     <t>BRANCH</t>
   </si>
@@ -1250,6 +1250,9 @@
   </si>
   <si>
     <t>CA B1</t>
+  </si>
+  <si>
+    <t>mama cay</t>
   </si>
 </sst>
 </file>
@@ -1916,8 +1919,8 @@
   <dimension ref="A1:H279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D214" sqref="D214"/>
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E223" sqref="E223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5448,7 +5451,7 @@
         <v>338</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
@@ -5463,7 +5466,7 @@
         <v>339</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
@@ -5967,7 +5970,9 @@
       <c r="C263" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="D263" s="5"/>
+      <c r="D263" s="5" t="s">
+        <v>408</v>
+      </c>
       <c r="E263" s="5"/>
       <c r="F263" s="5"/>
       <c r="G263" s="5"/>
@@ -5978,7 +5983,9 @@
       <c r="C264" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="D264" s="5"/>
+      <c r="D264" s="5" t="s">
+        <v>408</v>
+      </c>
       <c r="E264" s="5"/>
       <c r="F264" s="5"/>
       <c r="G264" s="5"/>
@@ -5989,29 +5996,35 @@
       <c r="C265" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="D265" s="5"/>
+      <c r="D265" s="5" t="s">
+        <v>408</v>
+      </c>
       <c r="E265" s="5"/>
       <c r="F265" s="5"/>
       <c r="G265" s="5"/>
       <c r="H265" s="5"/>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B266" s="5"/>
       <c r="C266" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="D266" s="5"/>
+      <c r="D266" s="6" t="s">
+        <v>405</v>
+      </c>
       <c r="E266" s="5"/>
       <c r="F266" s="5"/>
       <c r="G266" s="5"/>
       <c r="H266" s="5"/>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B267" s="5"/>
       <c r="C267" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="D267" s="5"/>
+      <c r="D267" s="6" t="s">
+        <v>406</v>
+      </c>
       <c r="E267" s="5"/>
       <c r="F267" s="5"/>
       <c r="G267" s="5"/>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80AB97C-592A-B847-A9B9-B37D3750C14A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FDFCC2-E0B5-8F44-B7CC-8340F4AA3F18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
   <sheets>
     <sheet name="LIST OF COMPLAIN 2021" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="425">
   <si>
     <t>BRANCH</t>
   </si>
@@ -1253,6 +1253,54 @@
   </si>
   <si>
     <t>mama cay</t>
+  </si>
+  <si>
+    <t>R-03-02-0275</t>
+  </si>
+  <si>
+    <t>R-03-02-0276</t>
+  </si>
+  <si>
+    <t>R-03-02-0277</t>
+  </si>
+  <si>
+    <t>R-03-02-0278</t>
+  </si>
+  <si>
+    <t>R-03-02-0279</t>
+  </si>
+  <si>
+    <t>R-03-02-0280</t>
+  </si>
+  <si>
+    <t>R-03-02-0281</t>
+  </si>
+  <si>
+    <t>R-03-02-0282</t>
+  </si>
+  <si>
+    <t>R-03-02-0283</t>
+  </si>
+  <si>
+    <t>R-03-02-0284</t>
+  </si>
+  <si>
+    <t>R-03-02-0285</t>
+  </si>
+  <si>
+    <t>R-03-02-0286</t>
+  </si>
+  <si>
+    <t>R-03-02-0287</t>
+  </si>
+  <si>
+    <t>R-03-02-0288</t>
+  </si>
+  <si>
+    <t>R-03-02-0289</t>
+  </si>
+  <si>
+    <t>R-03-02-0290</t>
   </si>
 </sst>
 </file>
@@ -1916,11 +1964,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7760DDDF-B585-9445-B146-2DD762F6C209}">
-  <dimension ref="A1:H279"/>
+  <dimension ref="A1:H292"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E223" sqref="E223"/>
+      <pane ySplit="1" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C276" sqref="C276:C292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5966,6 +6014,9 @@
       <c r="H262" s="5"/>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>1</v>
+      </c>
       <c r="B263" s="5"/>
       <c r="C263" s="10" t="s">
         <v>375</v>
@@ -5979,6 +6030,9 @@
       <c r="H263" s="5"/>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>2</v>
+      </c>
       <c r="B264" s="5"/>
       <c r="C264" s="10" t="s">
         <v>376</v>
@@ -5992,6 +6046,9 @@
       <c r="H264" s="5"/>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>3</v>
+      </c>
       <c r="B265" s="5"/>
       <c r="C265" s="10" t="s">
         <v>377</v>
@@ -6005,6 +6062,9 @@
       <c r="H265" s="5"/>
     </row>
     <row r="266" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>4</v>
+      </c>
       <c r="B266" s="5"/>
       <c r="C266" s="10" t="s">
         <v>378</v>
@@ -6018,6 +6078,9 @@
       <c r="H266" s="5"/>
     </row>
     <row r="267" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>5</v>
+      </c>
       <c r="B267" s="5"/>
       <c r="C267" s="10" t="s">
         <v>379</v>
@@ -6031,6 +6094,9 @@
       <c r="H267" s="5"/>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>6</v>
+      </c>
       <c r="B268" s="5"/>
       <c r="C268" s="10" t="s">
         <v>380</v>
@@ -6042,6 +6108,9 @@
       <c r="H268" s="5"/>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>7</v>
+      </c>
       <c r="B269" s="5"/>
       <c r="C269" s="10" t="s">
         <v>381</v>
@@ -6053,6 +6122,9 @@
       <c r="H269" s="5"/>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>8</v>
+      </c>
       <c r="B270" s="5"/>
       <c r="C270" s="10" t="s">
         <v>382</v>
@@ -6064,6 +6136,9 @@
       <c r="H270" s="5"/>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>9</v>
+      </c>
       <c r="B271" s="5"/>
       <c r="C271" s="10" t="s">
         <v>383</v>
@@ -6075,6 +6150,9 @@
       <c r="H271" s="5"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>10</v>
+      </c>
       <c r="B272" s="5"/>
       <c r="C272" s="10" t="s">
         <v>384</v>
@@ -6085,7 +6163,10 @@
       <c r="G272" s="5"/>
       <c r="H272" s="5"/>
     </row>
-    <row r="273" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>11</v>
+      </c>
       <c r="B273" s="5"/>
       <c r="C273" s="10" t="s">
         <v>385</v>
@@ -6096,7 +6177,10 @@
       <c r="G273" s="5"/>
       <c r="H273" s="5"/>
     </row>
-    <row r="274" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>12</v>
+      </c>
       <c r="B274" s="5"/>
       <c r="C274" s="10" t="s">
         <v>386</v>
@@ -6107,7 +6191,10 @@
       <c r="G274" s="5"/>
       <c r="H274" s="5"/>
     </row>
-    <row r="275" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>13</v>
+      </c>
       <c r="B275" s="5"/>
       <c r="C275" s="10" t="s">
         <v>387</v>
@@ -6118,7 +6205,10 @@
       <c r="G275" s="5"/>
       <c r="H275" s="5"/>
     </row>
-    <row r="276" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>14</v>
+      </c>
       <c r="B276" s="5"/>
       <c r="C276" s="10" t="s">
         <v>388</v>
@@ -6129,32 +6219,151 @@
       <c r="G276" s="5"/>
       <c r="H276" s="5"/>
     </row>
-    <row r="277" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>15</v>
+      </c>
       <c r="B277" s="5"/>
-      <c r="C277" s="5"/>
+      <c r="C277" s="10" t="s">
+        <v>409</v>
+      </c>
       <c r="D277" s="5"/>
       <c r="E277" s="5"/>
       <c r="F277" s="5"/>
       <c r="G277" s="5"/>
       <c r="H277" s="5"/>
     </row>
-    <row r="278" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>16</v>
+      </c>
       <c r="B278" s="5"/>
-      <c r="C278" s="5"/>
+      <c r="C278" s="10" t="s">
+        <v>410</v>
+      </c>
       <c r="D278" s="5"/>
       <c r="E278" s="5"/>
       <c r="F278" s="5"/>
       <c r="G278" s="5"/>
       <c r="H278" s="5"/>
     </row>
-    <row r="279" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>17</v>
+      </c>
       <c r="B279" s="5"/>
-      <c r="C279" s="5"/>
+      <c r="C279" s="10" t="s">
+        <v>411</v>
+      </c>
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
       <c r="F279" s="5"/>
       <c r="G279" s="5"/>
       <c r="H279" s="5"/>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>18</v>
+      </c>
+      <c r="C280" s="10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>19</v>
+      </c>
+      <c r="C281" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>20</v>
+      </c>
+      <c r="C282" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>21</v>
+      </c>
+      <c r="C283" s="10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>22</v>
+      </c>
+      <c r="C284" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>23</v>
+      </c>
+      <c r="C285" s="10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>24</v>
+      </c>
+      <c r="C286" s="10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>25</v>
+      </c>
+      <c r="C287" s="10" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>26</v>
+      </c>
+      <c r="C288" s="10" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>27</v>
+      </c>
+      <c r="C289" s="10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>28</v>
+      </c>
+      <c r="C290" s="10" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>29</v>
+      </c>
+      <c r="C291" s="10" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>30</v>
+      </c>
+      <c r="C292" s="10" t="s">
+        <v>424</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FDFCC2-E0B5-8F44-B7CC-8340F4AA3F18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD8E5A8-32D3-2F42-AF0C-1EE4598C1E26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="425">
   <si>
     <t>BRANCH</t>
   </si>
@@ -1967,8 +1967,8 @@
   <dimension ref="A1:H292"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C276" sqref="C276:C292"/>
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4404,7 +4404,9 @@
       <c r="H158" s="5"/>
     </row>
     <row r="159" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B159" s="5"/>
+      <c r="B159" s="5" t="s">
+        <v>309</v>
+      </c>
       <c r="C159" s="7" t="s">
         <v>220</v>
       </c>
@@ -4425,7 +4427,9 @@
       </c>
     </row>
     <row r="160" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B160" s="5"/>
+      <c r="B160" s="5" t="s">
+        <v>233</v>
+      </c>
       <c r="C160" s="7" t="s">
         <v>221</v>
       </c>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD8E5A8-32D3-2F42-AF0C-1EE4598C1E26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0CCDDF-96D0-EA4F-8111-82A3957AFF29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="427">
   <si>
     <t>BRANCH</t>
   </si>
@@ -1252,9 +1252,6 @@
     <t>CA B1</t>
   </si>
   <si>
-    <t>mama cay</t>
-  </si>
-  <si>
     <t>R-03-02-0275</t>
   </si>
   <si>
@@ -1301,6 +1298,15 @@
   </si>
   <si>
     <t>R-03-02-0290</t>
+  </si>
+  <si>
+    <t>HRS OF LYDIA ANGELES -VS- PARO</t>
+  </si>
+  <si>
+    <t>HRS OF ZENAIRDA ENRIQUE -VS- PARO</t>
+  </si>
+  <si>
+    <t>HRS OF EDILBERTO AQUINO -VS- PARO</t>
   </si>
 </sst>
 </file>
@@ -1967,8 +1973,8 @@
   <dimension ref="A1:H292"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D159" sqref="D159"/>
+      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G271" sqref="G271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6026,7 +6032,7 @@
         <v>375</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="E263" s="5"/>
       <c r="F263" s="5"/>
@@ -6042,7 +6048,7 @@
         <v>376</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="E264" s="5"/>
       <c r="F264" s="5"/>
@@ -6058,7 +6064,7 @@
         <v>377</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="E265" s="5"/>
       <c r="F265" s="5"/>
@@ -6229,7 +6235,7 @@
       </c>
       <c r="B277" s="5"/>
       <c r="C277" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D277" s="5"/>
       <c r="E277" s="5"/>
@@ -6243,7 +6249,7 @@
       </c>
       <c r="B278" s="5"/>
       <c r="C278" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D278" s="5"/>
       <c r="E278" s="5"/>
@@ -6257,7 +6263,7 @@
       </c>
       <c r="B279" s="5"/>
       <c r="C279" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
@@ -6270,7 +6276,7 @@
         <v>18</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
@@ -6278,7 +6284,7 @@
         <v>19</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
@@ -6286,7 +6292,7 @@
         <v>20</v>
       </c>
       <c r="C282" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
@@ -6294,7 +6300,7 @@
         <v>21</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
@@ -6302,7 +6308,7 @@
         <v>22</v>
       </c>
       <c r="C284" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
@@ -6310,7 +6316,7 @@
         <v>23</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
@@ -6318,7 +6324,7 @@
         <v>24</v>
       </c>
       <c r="C286" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
@@ -6326,7 +6332,7 @@
         <v>25</v>
       </c>
       <c r="C287" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
@@ -6334,7 +6340,7 @@
         <v>26</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -6342,7 +6348,7 @@
         <v>27</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -6350,7 +6356,7 @@
         <v>28</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -6358,7 +6364,7 @@
         <v>29</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
@@ -6366,7 +6372,7 @@
         <v>30</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0CCDDF-96D0-EA4F-8111-82A3957AFF29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9457862A-6219-8340-A929-B16AC733E05B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -1973,8 +1973,8 @@
   <dimension ref="A1:H292"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G271" sqref="G271"/>
+      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E268" sqref="E268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9457862A-6219-8340-A929-B16AC733E05B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A9ABFD-BB23-A143-991F-2C10E63274DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -1973,7 +1973,7 @@
   <dimension ref="A1:H292"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E268" sqref="E268"/>
     </sheetView>
   </sheetViews>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A9ABFD-BB23-A143-991F-2C10E63274DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA2F1E7-7581-5B4E-915A-E1C7AE65FBF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="509">
   <si>
     <t>BRANCH</t>
   </si>
@@ -1307,6 +1307,252 @@
   </si>
   <si>
     <t>HRS OF EDILBERTO AQUINO -VS- PARO</t>
+  </si>
+  <si>
+    <t>R-03-02-0291</t>
+  </si>
+  <si>
+    <t>R-03-02-0292</t>
+  </si>
+  <si>
+    <t>R-03-02-0293</t>
+  </si>
+  <si>
+    <t>R-03-02-0294</t>
+  </si>
+  <si>
+    <t>R-03-02-0295</t>
+  </si>
+  <si>
+    <t>R-03-02-0296</t>
+  </si>
+  <si>
+    <t>R-03-02-0297</t>
+  </si>
+  <si>
+    <t>R-03-02-0298</t>
+  </si>
+  <si>
+    <t>R-03-02-0299</t>
+  </si>
+  <si>
+    <t>R-03-02-0300</t>
+  </si>
+  <si>
+    <t>R-03-02-0301</t>
+  </si>
+  <si>
+    <t>R-03-02-0302</t>
+  </si>
+  <si>
+    <t>R-03-02-0303</t>
+  </si>
+  <si>
+    <t>R-03-02-0304</t>
+  </si>
+  <si>
+    <t>R-03-02-0305</t>
+  </si>
+  <si>
+    <t>R-03-02-0306</t>
+  </si>
+  <si>
+    <t>R-03-02-0307</t>
+  </si>
+  <si>
+    <t>R-03-02-0308</t>
+  </si>
+  <si>
+    <t>R-03-02-0309</t>
+  </si>
+  <si>
+    <t>R-03-02-0310</t>
+  </si>
+  <si>
+    <t>R-03-02-0311</t>
+  </si>
+  <si>
+    <t>R-03-02-0312</t>
+  </si>
+  <si>
+    <t>R-03-02-0313</t>
+  </si>
+  <si>
+    <t>R-03-02-0314</t>
+  </si>
+  <si>
+    <t>R-03-02-0315</t>
+  </si>
+  <si>
+    <t>R-03-02-0316</t>
+  </si>
+  <si>
+    <t>R-03-02-0317</t>
+  </si>
+  <si>
+    <t>R-03-02-0318</t>
+  </si>
+  <si>
+    <t>R-03-02-0319</t>
+  </si>
+  <si>
+    <t>R-03-02-0320</t>
+  </si>
+  <si>
+    <t>R-03-02-0321</t>
+  </si>
+  <si>
+    <t>R-03-02-0322</t>
+  </si>
+  <si>
+    <t>luis villafuerte -vs- et.al</t>
+  </si>
+  <si>
+    <t>APR</t>
+  </si>
+  <si>
+    <t>R-03-02-0323</t>
+  </si>
+  <si>
+    <t>R-03-02-0324</t>
+  </si>
+  <si>
+    <t>R-03-02-0325</t>
+  </si>
+  <si>
+    <t>R-03-02-0326</t>
+  </si>
+  <si>
+    <t>R-03-02-0327</t>
+  </si>
+  <si>
+    <t>R-03-02-0328</t>
+  </si>
+  <si>
+    <t>R-03-02-0329</t>
+  </si>
+  <si>
+    <t>R-03-02-0330</t>
+  </si>
+  <si>
+    <t>R-03-02-0331</t>
+  </si>
+  <si>
+    <t>R-03-02-0332</t>
+  </si>
+  <si>
+    <t>R-03-02-0333</t>
+  </si>
+  <si>
+    <t>R-03-02-0334</t>
+  </si>
+  <si>
+    <t>R-03-02-0335</t>
+  </si>
+  <si>
+    <t>R-03-02-0336</t>
+  </si>
+  <si>
+    <t>R-03-02-0337</t>
+  </si>
+  <si>
+    <t>R-03-02-0338</t>
+  </si>
+  <si>
+    <t>R-03-02-0339</t>
+  </si>
+  <si>
+    <t>R-03-02-0340</t>
+  </si>
+  <si>
+    <t>R-03-02-0341</t>
+  </si>
+  <si>
+    <t>R-03-02-0342</t>
+  </si>
+  <si>
+    <t>R-03-02-0343</t>
+  </si>
+  <si>
+    <t>R-03-02-0344</t>
+  </si>
+  <si>
+    <t>R-03-02-0345</t>
+  </si>
+  <si>
+    <t>R-03-02-0346</t>
+  </si>
+  <si>
+    <t>R-03-02-0347</t>
+  </si>
+  <si>
+    <t>R-03-02-0348</t>
+  </si>
+  <si>
+    <t>R-03-02-0349</t>
+  </si>
+  <si>
+    <t>R-03-02-0350</t>
+  </si>
+  <si>
+    <t>R-03-02-0351</t>
+  </si>
+  <si>
+    <t>R-03-02-0352</t>
+  </si>
+  <si>
+    <t>R-03-02-0353</t>
+  </si>
+  <si>
+    <t>R-03-02-0354</t>
+  </si>
+  <si>
+    <t>R-03-02-0355</t>
+  </si>
+  <si>
+    <t>R-03-02-0356</t>
+  </si>
+  <si>
+    <t>R-03-02-0357</t>
+  </si>
+  <si>
+    <t>R-03-02-0358</t>
+  </si>
+  <si>
+    <t>R-03-02-0359</t>
+  </si>
+  <si>
+    <t>R-03-02-0360</t>
+  </si>
+  <si>
+    <t>R-03-02-0361</t>
+  </si>
+  <si>
+    <t>R-03-02-0362</t>
+  </si>
+  <si>
+    <t>R-03-02-0363</t>
+  </si>
+  <si>
+    <t>R-03-02-0364</t>
+  </si>
+  <si>
+    <t>luis villafuerte -vs- landbank</t>
+  </si>
+  <si>
+    <t>R-03-02-0365</t>
+  </si>
+  <si>
+    <t>R-03-02-0366</t>
+  </si>
+  <si>
+    <t>R-03-02-0367</t>
+  </si>
+  <si>
+    <t>R-03-02-0368</t>
+  </si>
+  <si>
+    <t>atty lolita abella vs arturo aguirre</t>
   </si>
 </sst>
 </file>
@@ -1970,11 +2216,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7760DDDF-B585-9445-B146-2DD762F6C209}">
-  <dimension ref="A1:H292"/>
+  <dimension ref="A1:H370"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E268" sqref="E268"/>
+      <pane ySplit="1" topLeftCell="A344" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F355" sqref="F355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6343,7 +6589,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>27</v>
       </c>
@@ -6351,7 +6597,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>28</v>
       </c>
@@ -6359,7 +6605,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>29</v>
       </c>
@@ -6367,12 +6613,672 @@
         <v>422</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>30</v>
       </c>
       <c r="C292" s="10" t="s">
         <v>423</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C293" s="10" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C294" s="10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C295" s="10" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C296" s="10" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C297" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C298" s="10" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C299" s="10" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C300" s="10" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C301" s="10" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>1</v>
+      </c>
+      <c r="B302" t="s">
+        <v>460</v>
+      </c>
+      <c r="C302" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="D302" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>2</v>
+      </c>
+      <c r="C303" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="D303" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>3</v>
+      </c>
+      <c r="C304" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="D304" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>4</v>
+      </c>
+      <c r="C305" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="D305" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>5</v>
+      </c>
+      <c r="C306" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="D306" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>6</v>
+      </c>
+      <c r="C307" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="D307" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>7</v>
+      </c>
+      <c r="C308" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="D308" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>8</v>
+      </c>
+      <c r="C309" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="D309" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>9</v>
+      </c>
+      <c r="C310" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="D310" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>10</v>
+      </c>
+      <c r="C311" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="D311" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>11</v>
+      </c>
+      <c r="C312" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="D312" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>12</v>
+      </c>
+      <c r="C313" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="D313" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>13</v>
+      </c>
+      <c r="C314" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="D314" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>14</v>
+      </c>
+      <c r="C315" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="D315" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>15</v>
+      </c>
+      <c r="C316" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="D316" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>16</v>
+      </c>
+      <c r="C317" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="D317" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>17</v>
+      </c>
+      <c r="C318" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="D318" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>18</v>
+      </c>
+      <c r="C319" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="D319" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>19</v>
+      </c>
+      <c r="C320" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="D320" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>20</v>
+      </c>
+      <c r="C321" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="D321" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>21</v>
+      </c>
+      <c r="C322" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="D322" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>22</v>
+      </c>
+      <c r="C323" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="D323" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>23</v>
+      </c>
+      <c r="C324" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="D324" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C325" s="10" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C326" s="10" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C327" s="10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C328" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="D328" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C329" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="D329" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C330" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="D330" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C331" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="D331" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C332" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="D332" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C333" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="D333" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C334" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="D334" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C335" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="D335" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C336" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="D336" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="337" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C337" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="D337" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="338" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C338" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="D338" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="339" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C339" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="D339" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="340" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C340" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="D340" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="341" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C341" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="D341" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="342" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C342" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="D342" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="343" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C343" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="D343" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="344" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C344" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="D344" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="345" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C345" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="D345" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="346" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C346" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="D346" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="347" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C347" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="D347" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="348" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C348" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="D348" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="349" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C349" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="D349" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="350" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C350" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="D350" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="351" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C351" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="D351" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="352" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C352" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="D352" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="353" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C353" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="D353" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="354" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C354" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="D354" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="355" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C355" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="D355" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="356" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C356" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="D356" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="357" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C357" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="D357" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="358" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C358" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="D358" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="359" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C359" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="D359" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="360" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C360" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="D360" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="361" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C361" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="D361" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="362" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C362" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="D362" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="363" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C363" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D363" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="364" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C364" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="D364" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="365" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C365" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="D365" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="366" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C366" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="D366" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="367" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C367" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="D367" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="368" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C368" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="D368" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="369" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C369" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="D369" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="370" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C370" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="D370" t="s">
+        <v>508</v>
       </c>
     </row>
   </sheetData>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA2F1E7-7581-5B4E-915A-E1C7AE65FBF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912E5D04-2D92-D946-8762-8F740AF4897D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="512">
   <si>
     <t>BRANCH</t>
   </si>
@@ -1553,6 +1553,15 @@
   </si>
   <si>
     <t>atty lolita abella vs arturo aguirre</t>
+  </si>
+  <si>
+    <t>HEIRS OF CUNANAN -VS- HERMANIO M CUNANAN</t>
+  </si>
+  <si>
+    <t>NENA FRANCO -VS- RENATO DURAN</t>
+  </si>
+  <si>
+    <t>FELICIANO NAVARRA -VS- PARO ET.AL</t>
   </si>
 </sst>
 </file>
@@ -1793,7 +1802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1902,6 +1911,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2216,11 +2229,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7760DDDF-B585-9445-B146-2DD762F6C209}">
-  <dimension ref="A1:H370"/>
+  <dimension ref="A1:H371"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A344" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F355" sqref="F355"/>
+      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C363" sqref="C363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6621,9 +6634,12 @@
         <v>423</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="C293" s="10" t="s">
         <v>427</v>
+      </c>
+      <c r="D293" s="40" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
@@ -6926,16 +6942,25 @@
       <c r="C325" s="10" t="s">
         <v>461</v>
       </c>
+      <c r="D325" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C326" s="10" t="s">
         <v>462</v>
       </c>
+      <c r="D326" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C327" s="10" t="s">
         <v>463</v>
       </c>
+      <c r="D327" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C328" s="10" t="s">
@@ -7265,7 +7290,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="369" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C369" s="10" t="s">
         <v>506</v>
       </c>
@@ -7273,12 +7298,17 @@
         <v>508</v>
       </c>
     </row>
-    <row r="370" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C370" s="10" t="s">
         <v>507</v>
       </c>
       <c r="D370" t="s">
         <v>508</v>
+      </c>
+    </row>
+    <row r="371" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B371" s="41">
+        <v>44317</v>
       </c>
     </row>
   </sheetData>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912E5D04-2D92-D946-8762-8F740AF4897D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592CEA00-5104-8748-B5A7-686A21D4C29A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="513">
   <si>
     <t>BRANCH</t>
   </si>
@@ -1562,6 +1562,9 @@
   </si>
   <si>
     <t>FELICIANO NAVARRA -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>taken b1</t>
   </si>
 </sst>
 </file>
@@ -1908,13 +1911,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2232,8 +2235,8 @@
   <dimension ref="A1:H371"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C363" sqref="C363"/>
+      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D372" sqref="D372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6638,7 +6641,7 @@
       <c r="C293" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="D293" s="40" t="s">
+      <c r="D293" s="39" t="s">
         <v>509</v>
       </c>
     </row>
@@ -7307,8 +7310,11 @@
       </c>
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B371" s="41">
+      <c r="B371" s="40">
         <v>44317</v>
+      </c>
+      <c r="D371" t="s">
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -7337,10 +7343,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="27" t="s">
         <v>305</v>
       </c>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592CEA00-5104-8748-B5A7-686A21D4C29A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0ED567-1D34-724D-83AC-91EFD02B794A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="531">
   <si>
     <t>BRANCH</t>
   </si>
@@ -1565,6 +1565,60 @@
   </si>
   <si>
     <t>taken b1</t>
+  </si>
+  <si>
+    <t>BENJAMIN MAGUGAT -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>ROLANDO SAN ANTONIO -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>ALEJANDRO SURIO -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>EMERENCIANA MANALAD -vs- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>FERNANDO SAN ANTONIO -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>TORIBIA MANALAD -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>RAMON MANALAD -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>APOLINAR SAN ANTONIO -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>DANTE SAN ANTONIO -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>DOROTEO TEODORO -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>ROSARIO MORALES -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>TEODOMIRO TEODORO -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>HEIRS OF LEONORA ROBLES -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>FELISA VILLAFUERTE -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>QUINTIN TEODORO -VS PARO ET.AL</t>
+  </si>
+  <si>
+    <t>LUCIO LOPEZ -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>LEONORO ROBLES -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>ARCADIO DELA CRUZ -VS- PARO ET.AL</t>
   </si>
 </sst>
 </file>
@@ -1805,7 +1859,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1911,11 +1965,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2232,11 +2294,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7760DDDF-B585-9445-B146-2DD762F6C209}">
-  <dimension ref="A1:H371"/>
+  <dimension ref="A1:J371"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D372" sqref="D372"/>
+      <pane ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B298" sqref="B298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6365,7 +6427,7 @@
       <c r="G267" s="5"/>
       <c r="H267" s="5"/>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>6</v>
       </c>
@@ -6373,13 +6435,15 @@
       <c r="C268" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="D268" s="5"/>
+      <c r="D268" s="43" t="s">
+        <v>513</v>
+      </c>
       <c r="E268" s="5"/>
-      <c r="F268" s="5"/>
+      <c r="F268" s="42"/>
       <c r="G268" s="5"/>
       <c r="H268" s="5"/>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>7</v>
       </c>
@@ -6387,13 +6451,15 @@
       <c r="C269" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="D269" s="5"/>
+      <c r="D269" s="43" t="s">
+        <v>513</v>
+      </c>
       <c r="E269" s="5"/>
-      <c r="F269" s="5"/>
+      <c r="F269" s="42"/>
       <c r="G269" s="5"/>
       <c r="H269" s="5"/>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>8</v>
       </c>
@@ -6401,13 +6467,15 @@
       <c r="C270" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="D270" s="5"/>
+      <c r="D270" s="43" t="s">
+        <v>513</v>
+      </c>
       <c r="E270" s="5"/>
-      <c r="F270" s="5"/>
+      <c r="F270" s="42"/>
       <c r="G270" s="5"/>
       <c r="H270" s="5"/>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>9</v>
       </c>
@@ -6415,13 +6483,15 @@
       <c r="C271" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="D271" s="5"/>
+      <c r="D271" s="43" t="s">
+        <v>514</v>
+      </c>
       <c r="E271" s="5"/>
-      <c r="F271" s="5"/>
+      <c r="F271" s="42"/>
       <c r="G271" s="5"/>
       <c r="H271" s="5"/>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>10</v>
       </c>
@@ -6429,13 +6499,15 @@
       <c r="C272" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="D272" s="5"/>
+      <c r="D272" s="43" t="s">
+        <v>514</v>
+      </c>
       <c r="E272" s="5"/>
-      <c r="F272" s="5"/>
+      <c r="F272" s="42"/>
       <c r="G272" s="5"/>
       <c r="H272" s="5"/>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:10" ht="33" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>11</v>
       </c>
@@ -6443,13 +6515,15 @@
       <c r="C273" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="D273" s="5"/>
+      <c r="D273" s="43" t="s">
+        <v>515</v>
+      </c>
       <c r="E273" s="5"/>
-      <c r="F273" s="5"/>
+      <c r="F273" s="42"/>
       <c r="G273" s="5"/>
       <c r="H273" s="5"/>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:10" ht="33" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>12</v>
       </c>
@@ -6457,13 +6531,15 @@
       <c r="C274" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="D274" s="5"/>
+      <c r="D274" s="43" t="s">
+        <v>516</v>
+      </c>
       <c r="E274" s="5"/>
-      <c r="F274" s="5"/>
+      <c r="F274" s="42"/>
       <c r="G274" s="5"/>
       <c r="H274" s="5"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10" ht="33" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>13</v>
       </c>
@@ -6471,13 +6547,15 @@
       <c r="C275" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="D275" s="5"/>
+      <c r="D275" s="43" t="s">
+        <v>517</v>
+      </c>
       <c r="E275" s="5"/>
-      <c r="F275" s="5"/>
+      <c r="F275" s="42"/>
       <c r="G275" s="5"/>
       <c r="H275" s="5"/>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10" ht="33" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>14</v>
       </c>
@@ -6485,13 +6563,15 @@
       <c r="C276" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="D276" s="5"/>
+      <c r="D276" s="43" t="s">
+        <v>518</v>
+      </c>
       <c r="E276" s="5"/>
-      <c r="F276" s="5"/>
+      <c r="F276" s="42"/>
       <c r="G276" s="5"/>
       <c r="H276" s="5"/>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10" ht="33" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>15</v>
       </c>
@@ -6499,13 +6579,15 @@
       <c r="C277" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="D277" s="5"/>
+      <c r="D277" s="43" t="s">
+        <v>519</v>
+      </c>
       <c r="E277" s="5"/>
-      <c r="F277" s="5"/>
+      <c r="F277" s="42"/>
       <c r="G277" s="5"/>
       <c r="H277" s="5"/>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:10" ht="33" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>16</v>
       </c>
@@ -6513,13 +6595,15 @@
       <c r="C278" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="D278" s="5"/>
+      <c r="D278" s="43" t="s">
+        <v>520</v>
+      </c>
       <c r="E278" s="5"/>
-      <c r="F278" s="5"/>
+      <c r="F278" s="42"/>
       <c r="G278" s="5"/>
       <c r="H278" s="5"/>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:10" ht="33" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>17</v>
       </c>
@@ -6527,790 +6611,1378 @@
       <c r="C279" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="D279" s="5"/>
+      <c r="D279" s="43" t="s">
+        <v>521</v>
+      </c>
       <c r="E279" s="5"/>
-      <c r="F279" s="5"/>
+      <c r="F279" s="42"/>
       <c r="G279" s="5"/>
       <c r="H279" s="5"/>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:10" ht="33" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>18</v>
       </c>
       <c r="C280" s="10" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D280" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="E280" s="5"/>
+      <c r="F280" s="5"/>
+      <c r="G280" s="5"/>
+      <c r="H280" s="5"/>
+    </row>
+    <row r="281" spans="1:10" ht="33" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>19</v>
       </c>
       <c r="C281" s="10" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D281" s="43" t="s">
+        <v>514</v>
+      </c>
+      <c r="E281" s="5"/>
+      <c r="F281" s="5"/>
+      <c r="G281" s="5"/>
+      <c r="H281" s="5"/>
+    </row>
+    <row r="282" spans="1:10" ht="33" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>20</v>
       </c>
       <c r="C282" s="10" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D282" s="41" t="s">
+        <v>523</v>
+      </c>
+      <c r="E282" s="5"/>
+      <c r="F282" s="5"/>
+      <c r="G282" s="5"/>
+      <c r="H282" s="5"/>
+    </row>
+    <row r="283" spans="1:10" ht="33" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>21</v>
       </c>
       <c r="C283" s="10" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D283" s="41" t="s">
+        <v>524</v>
+      </c>
+      <c r="E283" s="5"/>
+      <c r="F283" s="5"/>
+      <c r="G283" s="5"/>
+      <c r="H283" s="5"/>
+    </row>
+    <row r="284" spans="1:10" ht="33" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>22</v>
       </c>
-      <c r="C284" s="10" t="s">
+      <c r="C284" s="45" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D284" s="41" t="s">
+        <v>524</v>
+      </c>
+      <c r="E284" s="44"/>
+      <c r="F284" s="44"/>
+      <c r="G284" s="44"/>
+      <c r="H284" s="44"/>
+    </row>
+    <row r="285" spans="1:10" ht="33" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>23</v>
       </c>
       <c r="C285" s="10" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D285" s="43" t="s">
+        <v>525</v>
+      </c>
+      <c r="E285" s="5"/>
+      <c r="F285" s="5"/>
+      <c r="G285" s="5"/>
+      <c r="H285" s="5"/>
+      <c r="I285" s="5"/>
+      <c r="J285" s="5"/>
+    </row>
+    <row r="286" spans="1:10" ht="33" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>24</v>
       </c>
       <c r="C286" s="10" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D286" s="43" t="s">
+        <v>526</v>
+      </c>
+      <c r="E286" s="5"/>
+      <c r="F286" s="5"/>
+      <c r="G286" s="5"/>
+      <c r="H286" s="5"/>
+      <c r="I286" s="5"/>
+      <c r="J286" s="5"/>
+    </row>
+    <row r="287" spans="1:10" ht="33" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>25</v>
       </c>
       <c r="C287" s="10" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D287" s="43" t="s">
+        <v>525</v>
+      </c>
+      <c r="E287" s="5"/>
+      <c r="F287" s="5"/>
+      <c r="G287" s="5"/>
+      <c r="H287" s="5"/>
+      <c r="I287" s="5"/>
+      <c r="J287" s="5"/>
+    </row>
+    <row r="288" spans="1:10" ht="33" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>26</v>
       </c>
       <c r="C288" s="10" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D288" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="E288" s="5"/>
+      <c r="F288" s="5"/>
+      <c r="G288" s="5"/>
+      <c r="H288" s="5"/>
+      <c r="I288" s="5"/>
+      <c r="J288" s="5"/>
+    </row>
+    <row r="289" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>27</v>
       </c>
       <c r="C289" s="10" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D289" s="43" t="s">
+        <v>528</v>
+      </c>
+      <c r="E289" s="5"/>
+      <c r="F289" s="5"/>
+      <c r="G289" s="5"/>
+      <c r="H289" s="5"/>
+      <c r="I289" s="5"/>
+      <c r="J289" s="5"/>
+    </row>
+    <row r="290" spans="1:10" ht="33" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>28</v>
       </c>
       <c r="C290" s="10" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D290" s="43" t="s">
+        <v>529</v>
+      </c>
+      <c r="E290" s="5"/>
+      <c r="F290" s="5"/>
+      <c r="G290" s="5"/>
+      <c r="H290" s="5"/>
+      <c r="I290" s="5"/>
+      <c r="J290" s="5"/>
+    </row>
+    <row r="291" spans="1:10" ht="33" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>29</v>
       </c>
       <c r="C291" s="10" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D291" s="43" t="s">
+        <v>530</v>
+      </c>
+      <c r="E291" s="5"/>
+      <c r="F291" s="5"/>
+      <c r="G291" s="5"/>
+      <c r="H291" s="5"/>
+      <c r="I291" s="5"/>
+      <c r="J291" s="5"/>
+    </row>
+    <row r="292" spans="1:10" ht="33" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>30</v>
       </c>
       <c r="C292" s="10" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="D292" s="43" t="s">
+        <v>523</v>
+      </c>
+      <c r="E292" s="5"/>
+      <c r="F292" s="5"/>
+      <c r="G292" s="5"/>
+      <c r="H292" s="5"/>
+      <c r="I292" s="5"/>
+      <c r="J292" s="5"/>
+    </row>
+    <row r="293" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B293">
+        <v>1</v>
+      </c>
       <c r="C293" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="D293" s="39" t="s">
+      <c r="D293" s="6" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E293" s="5"/>
+      <c r="F293" s="5"/>
+      <c r="G293" s="5"/>
+      <c r="H293" s="5"/>
+      <c r="I293" s="5"/>
+      <c r="J293" s="5"/>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C294" s="10" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D294" s="5"/>
+      <c r="E294" s="5"/>
+      <c r="F294" s="5"/>
+      <c r="G294" s="5"/>
+      <c r="H294" s="5"/>
+      <c r="I294" s="5"/>
+      <c r="J294" s="5"/>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C295" s="10" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D295" s="5"/>
+      <c r="E295" s="5"/>
+      <c r="F295" s="5"/>
+      <c r="G295" s="5"/>
+      <c r="H295" s="5"/>
+      <c r="I295" s="5"/>
+      <c r="J295" s="5"/>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C296" s="10" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D296" s="5"/>
+      <c r="E296" s="5"/>
+      <c r="F296" s="5"/>
+      <c r="G296" s="5"/>
+      <c r="H296" s="5"/>
+      <c r="I296" s="5"/>
+      <c r="J296" s="5"/>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C297" s="10" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D297" s="5"/>
+      <c r="E297" s="5"/>
+      <c r="F297" s="5"/>
+      <c r="G297" s="5"/>
+      <c r="H297" s="5"/>
+      <c r="I297" s="5"/>
+      <c r="J297" s="5"/>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B298" t="s">
+        <v>460</v>
+      </c>
       <c r="C298" s="10" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D298" s="5"/>
+      <c r="E298" s="5"/>
+      <c r="F298" s="5"/>
+      <c r="G298" s="5"/>
+      <c r="H298" s="5"/>
+      <c r="I298" s="5"/>
+      <c r="J298" s="5"/>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C299" s="10" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D299" s="5"/>
+      <c r="E299" s="5"/>
+      <c r="F299" s="5"/>
+      <c r="G299" s="5"/>
+      <c r="H299" s="5"/>
+      <c r="I299" s="5"/>
+      <c r="J299" s="5"/>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C300" s="10" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D300" s="5"/>
+      <c r="E300" s="5"/>
+      <c r="F300" s="5"/>
+      <c r="G300" s="5"/>
+      <c r="H300" s="5"/>
+      <c r="I300" s="5"/>
+      <c r="J300" s="5"/>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C301" s="10" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D301" s="5"/>
+      <c r="E301" s="5"/>
+      <c r="F301" s="5"/>
+      <c r="G301" s="5"/>
+      <c r="H301" s="5"/>
+      <c r="I301" s="5"/>
+      <c r="J301" s="5"/>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>1</v>
       </c>
-      <c r="B302" t="s">
-        <v>460</v>
-      </c>
       <c r="C302" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D302" s="5" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E302" s="5"/>
+      <c r="F302" s="5"/>
+      <c r="G302" s="5"/>
+      <c r="H302" s="5"/>
+      <c r="I302" s="5"/>
+      <c r="J302" s="5"/>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>2</v>
       </c>
       <c r="C303" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="D303" t="s">
+      <c r="D303" s="5" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E303" s="5"/>
+      <c r="F303" s="5"/>
+      <c r="G303" s="5"/>
+      <c r="H303" s="5"/>
+      <c r="I303" s="5"/>
+      <c r="J303" s="5"/>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>3</v>
       </c>
       <c r="C304" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="D304" t="s">
+      <c r="D304" s="5" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E304" s="5"/>
+      <c r="F304" s="5"/>
+      <c r="G304" s="5"/>
+      <c r="H304" s="5"/>
+      <c r="I304" s="5"/>
+      <c r="J304" s="5"/>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>4</v>
       </c>
       <c r="C305" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="D305" t="s">
+      <c r="D305" s="5" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E305" s="5"/>
+      <c r="F305" s="5"/>
+      <c r="G305" s="5"/>
+      <c r="H305" s="5"/>
+      <c r="I305" s="5"/>
+      <c r="J305" s="5"/>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>5</v>
       </c>
       <c r="C306" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D306" s="5" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E306" s="5"/>
+      <c r="F306" s="5"/>
+      <c r="G306" s="5"/>
+      <c r="H306" s="5"/>
+      <c r="I306" s="5"/>
+      <c r="J306" s="5"/>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>6</v>
       </c>
       <c r="C307" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D307" s="5" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E307" s="5"/>
+      <c r="F307" s="5"/>
+      <c r="G307" s="5"/>
+      <c r="H307" s="5"/>
+      <c r="I307" s="5"/>
+      <c r="J307" s="5"/>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>7</v>
       </c>
       <c r="C308" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="D308" t="s">
+      <c r="D308" s="5" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E308" s="5"/>
+      <c r="F308" s="5"/>
+      <c r="G308" s="5"/>
+      <c r="H308" s="5"/>
+      <c r="I308" s="5"/>
+      <c r="J308" s="5"/>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>8</v>
       </c>
       <c r="C309" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="D309" t="s">
+      <c r="D309" s="5" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E309" s="5"/>
+      <c r="F309" s="5"/>
+      <c r="G309" s="5"/>
+      <c r="H309" s="5"/>
+      <c r="I309" s="5"/>
+      <c r="J309" s="5"/>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>9</v>
       </c>
       <c r="C310" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="D310" t="s">
+      <c r="D310" s="5" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E310" s="5"/>
+      <c r="F310" s="5"/>
+      <c r="G310" s="5"/>
+      <c r="H310" s="5"/>
+      <c r="I310" s="5"/>
+      <c r="J310" s="5"/>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>10</v>
       </c>
       <c r="C311" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="D311" t="s">
+      <c r="D311" s="5" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E311" s="5"/>
+      <c r="F311" s="5"/>
+      <c r="G311" s="5"/>
+      <c r="H311" s="5"/>
+      <c r="I311" s="5"/>
+      <c r="J311" s="5"/>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>11</v>
       </c>
       <c r="C312" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="D312" t="s">
+      <c r="D312" s="5" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E312" s="5"/>
+      <c r="F312" s="5"/>
+      <c r="G312" s="5"/>
+      <c r="H312" s="5"/>
+      <c r="I312" s="5"/>
+      <c r="J312" s="5"/>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>12</v>
       </c>
       <c r="C313" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="D313" t="s">
+      <c r="D313" s="5" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E313" s="5"/>
+      <c r="F313" s="5"/>
+      <c r="G313" s="5"/>
+      <c r="H313" s="5"/>
+      <c r="I313" s="5"/>
+      <c r="J313" s="5"/>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>13</v>
       </c>
       <c r="C314" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="D314" t="s">
+      <c r="D314" s="5" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E314" s="5"/>
+      <c r="F314" s="5"/>
+      <c r="G314" s="5"/>
+      <c r="H314" s="5"/>
+      <c r="I314" s="5"/>
+      <c r="J314" s="5"/>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>14</v>
       </c>
       <c r="C315" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="D315" t="s">
+      <c r="D315" s="5" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E315" s="5"/>
+      <c r="F315" s="5"/>
+      <c r="G315" s="5"/>
+      <c r="H315" s="5"/>
+      <c r="I315" s="5"/>
+      <c r="J315" s="5"/>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>15</v>
       </c>
       <c r="C316" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="D316" t="s">
+      <c r="D316" s="5" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E316" s="5"/>
+      <c r="F316" s="5"/>
+      <c r="G316" s="5"/>
+      <c r="H316" s="5"/>
+      <c r="I316" s="5"/>
+      <c r="J316" s="5"/>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>16</v>
       </c>
       <c r="C317" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="D317" t="s">
+      <c r="D317" s="5" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E317" s="5"/>
+      <c r="F317" s="5"/>
+      <c r="G317" s="5"/>
+      <c r="H317" s="5"/>
+      <c r="I317" s="5"/>
+      <c r="J317" s="5"/>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>17</v>
       </c>
       <c r="C318" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="D318" t="s">
+      <c r="D318" s="5" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E318" s="5"/>
+      <c r="F318" s="5"/>
+      <c r="G318" s="5"/>
+      <c r="H318" s="5"/>
+      <c r="I318" s="5"/>
+      <c r="J318" s="5"/>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>18</v>
       </c>
       <c r="C319" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="D319" t="s">
+      <c r="D319" s="5" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E319" s="5"/>
+      <c r="F319" s="5"/>
+      <c r="G319" s="5"/>
+      <c r="H319" s="5"/>
+      <c r="I319" s="5"/>
+      <c r="J319" s="5"/>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>19</v>
       </c>
       <c r="C320" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="D320" t="s">
+      <c r="D320" s="5" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E320" s="5"/>
+      <c r="F320" s="5"/>
+      <c r="G320" s="5"/>
+      <c r="H320" s="5"/>
+      <c r="I320" s="5"/>
+      <c r="J320" s="5"/>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>20</v>
       </c>
       <c r="C321" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="D321" t="s">
+      <c r="D321" s="5" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E321" s="5"/>
+      <c r="F321" s="5"/>
+      <c r="G321" s="5"/>
+      <c r="H321" s="5"/>
+      <c r="I321" s="5"/>
+      <c r="J321" s="5"/>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>21</v>
       </c>
       <c r="C322" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="D322" t="s">
+      <c r="D322" s="5" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E322" s="5"/>
+      <c r="F322" s="5"/>
+      <c r="G322" s="5"/>
+      <c r="H322" s="5"/>
+      <c r="I322" s="5"/>
+      <c r="J322" s="5"/>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>22</v>
       </c>
       <c r="C323" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="D323" t="s">
+      <c r="D323" s="5" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E323" s="5"/>
+      <c r="F323" s="5"/>
+      <c r="G323" s="5"/>
+      <c r="H323" s="5"/>
+      <c r="I323" s="5"/>
+      <c r="J323" s="5"/>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>23</v>
       </c>
       <c r="C324" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="D324" t="s">
+      <c r="D324" s="5" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E324" s="5"/>
+      <c r="F324" s="5"/>
+      <c r="G324" s="5"/>
+      <c r="H324" s="5"/>
+      <c r="I324" s="5"/>
+      <c r="J324" s="5"/>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C325" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="D325" t="s">
+      <c r="D325" s="5" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E325" s="5"/>
+      <c r="F325" s="5"/>
+      <c r="G325" s="5"/>
+      <c r="H325" s="5"/>
+      <c r="I325" s="5"/>
+      <c r="J325" s="5"/>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C326" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="D326" t="s">
+      <c r="D326" s="5" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E326" s="5"/>
+      <c r="F326" s="5"/>
+      <c r="G326" s="5"/>
+      <c r="H326" s="5"/>
+      <c r="I326" s="5"/>
+      <c r="J326" s="5"/>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C327" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="D327" t="s">
+      <c r="D327" s="5" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E327" s="5"/>
+      <c r="F327" s="5"/>
+      <c r="G327" s="5"/>
+      <c r="H327" s="5"/>
+      <c r="I327" s="5"/>
+      <c r="J327" s="5"/>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C328" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="D328" t="s">
+      <c r="D328" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E328" s="5"/>
+      <c r="F328" s="5"/>
+      <c r="G328" s="5"/>
+      <c r="H328" s="5"/>
+      <c r="I328" s="5"/>
+      <c r="J328" s="5"/>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C329" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="D329" t="s">
+      <c r="D329" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E329" s="5"/>
+      <c r="F329" s="5"/>
+      <c r="G329" s="5"/>
+      <c r="H329" s="5"/>
+      <c r="I329" s="5"/>
+      <c r="J329" s="5"/>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C330" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="D330" t="s">
+      <c r="D330" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E330" s="5"/>
+      <c r="F330" s="5"/>
+      <c r="G330" s="5"/>
+      <c r="H330" s="5"/>
+      <c r="I330" s="5"/>
+      <c r="J330" s="5"/>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C331" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="D331" t="s">
+      <c r="D331" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E331" s="5"/>
+      <c r="F331" s="5"/>
+      <c r="G331" s="5"/>
+      <c r="H331" s="5"/>
+      <c r="I331" s="5"/>
+      <c r="J331" s="5"/>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C332" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="D332" t="s">
+      <c r="D332" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E332" s="5"/>
+      <c r="F332" s="5"/>
+      <c r="G332" s="5"/>
+      <c r="H332" s="5"/>
+      <c r="I332" s="5"/>
+      <c r="J332" s="5"/>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C333" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="D333" t="s">
+      <c r="D333" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E333" s="5"/>
+      <c r="F333" s="5"/>
+      <c r="G333" s="5"/>
+      <c r="H333" s="5"/>
+      <c r="I333" s="5"/>
+      <c r="J333" s="5"/>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C334" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="D334" t="s">
+      <c r="D334" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E334" s="5"/>
+      <c r="F334" s="5"/>
+      <c r="G334" s="5"/>
+      <c r="H334" s="5"/>
+      <c r="I334" s="5"/>
+      <c r="J334" s="5"/>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C335" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="D335" t="s">
+      <c r="D335" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E335" s="5"/>
+      <c r="F335" s="5"/>
+      <c r="G335" s="5"/>
+      <c r="H335" s="5"/>
+      <c r="I335" s="5"/>
+      <c r="J335" s="5"/>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C336" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="D336" t="s">
+      <c r="D336" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="337" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E336" s="5"/>
+      <c r="F336" s="5"/>
+      <c r="G336" s="5"/>
+      <c r="H336" s="5"/>
+      <c r="I336" s="5"/>
+      <c r="J336" s="5"/>
+    </row>
+    <row r="337" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C337" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="D337" t="s">
+      <c r="D337" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="338" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E337" s="5"/>
+      <c r="F337" s="5"/>
+      <c r="G337" s="5"/>
+      <c r="H337" s="5"/>
+      <c r="I337" s="5"/>
+      <c r="J337" s="5"/>
+    </row>
+    <row r="338" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C338" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="D338" t="s">
+      <c r="D338" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="339" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E338" s="5"/>
+      <c r="F338" s="5"/>
+      <c r="G338" s="5"/>
+      <c r="H338" s="5"/>
+      <c r="I338" s="5"/>
+      <c r="J338" s="5"/>
+    </row>
+    <row r="339" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C339" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="D339" t="s">
+      <c r="D339" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="340" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E339" s="5"/>
+      <c r="F339" s="5"/>
+      <c r="G339" s="5"/>
+      <c r="H339" s="5"/>
+      <c r="I339" s="5"/>
+      <c r="J339" s="5"/>
+    </row>
+    <row r="340" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C340" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="D340" t="s">
+      <c r="D340" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="341" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E340" s="5"/>
+      <c r="F340" s="5"/>
+      <c r="G340" s="5"/>
+      <c r="H340" s="5"/>
+      <c r="I340" s="5"/>
+      <c r="J340" s="5"/>
+    </row>
+    <row r="341" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C341" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="D341" t="s">
+      <c r="D341" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="342" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E341" s="5"/>
+      <c r="F341" s="5"/>
+      <c r="G341" s="5"/>
+      <c r="H341" s="5"/>
+      <c r="I341" s="5"/>
+      <c r="J341" s="5"/>
+    </row>
+    <row r="342" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C342" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="D342" t="s">
+      <c r="D342" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="343" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E342" s="5"/>
+      <c r="F342" s="5"/>
+      <c r="G342" s="5"/>
+      <c r="H342" s="5"/>
+      <c r="I342" s="5"/>
+      <c r="J342" s="5"/>
+    </row>
+    <row r="343" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C343" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="D343" t="s">
+      <c r="D343" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="344" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E343" s="5"/>
+      <c r="F343" s="5"/>
+      <c r="G343" s="5"/>
+      <c r="H343" s="5"/>
+      <c r="I343" s="5"/>
+      <c r="J343" s="5"/>
+    </row>
+    <row r="344" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C344" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="D344" t="s">
+      <c r="D344" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="345" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E344" s="5"/>
+      <c r="F344" s="5"/>
+      <c r="G344" s="5"/>
+      <c r="H344" s="5"/>
+      <c r="I344" s="5"/>
+      <c r="J344" s="5"/>
+    </row>
+    <row r="345" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C345" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="D345" t="s">
+      <c r="D345" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="346" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E345" s="5"/>
+      <c r="F345" s="5"/>
+      <c r="G345" s="5"/>
+      <c r="H345" s="5"/>
+      <c r="I345" s="5"/>
+      <c r="J345" s="5"/>
+    </row>
+    <row r="346" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C346" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="D346" t="s">
+      <c r="D346" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="347" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E346" s="5"/>
+      <c r="F346" s="5"/>
+      <c r="G346" s="5"/>
+      <c r="H346" s="5"/>
+      <c r="I346" s="5"/>
+      <c r="J346" s="5"/>
+    </row>
+    <row r="347" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C347" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="D347" t="s">
+      <c r="D347" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="348" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E347" s="5"/>
+      <c r="F347" s="5"/>
+      <c r="G347" s="5"/>
+      <c r="H347" s="5"/>
+      <c r="I347" s="5"/>
+      <c r="J347" s="5"/>
+    </row>
+    <row r="348" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C348" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="D348" t="s">
+      <c r="D348" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="349" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E348" s="5"/>
+      <c r="F348" s="5"/>
+      <c r="G348" s="5"/>
+      <c r="H348" s="5"/>
+      <c r="I348" s="5"/>
+      <c r="J348" s="5"/>
+    </row>
+    <row r="349" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C349" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="D349" t="s">
+      <c r="D349" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="350" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E349" s="5"/>
+      <c r="F349" s="5"/>
+      <c r="G349" s="5"/>
+      <c r="H349" s="5"/>
+      <c r="I349" s="5"/>
+      <c r="J349" s="5"/>
+    </row>
+    <row r="350" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C350" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="D350" t="s">
+      <c r="D350" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="351" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E350" s="5"/>
+      <c r="F350" s="5"/>
+      <c r="G350" s="5"/>
+      <c r="H350" s="5"/>
+      <c r="I350" s="5"/>
+      <c r="J350" s="5"/>
+    </row>
+    <row r="351" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C351" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="D351" t="s">
+      <c r="D351" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="352" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E351" s="5"/>
+      <c r="F351" s="5"/>
+      <c r="G351" s="5"/>
+      <c r="H351" s="5"/>
+      <c r="I351" s="5"/>
+      <c r="J351" s="5"/>
+    </row>
+    <row r="352" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C352" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="D352" t="s">
+      <c r="D352" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="353" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E352" s="5"/>
+      <c r="F352" s="5"/>
+      <c r="G352" s="5"/>
+      <c r="H352" s="5"/>
+      <c r="I352" s="5"/>
+      <c r="J352" s="5"/>
+    </row>
+    <row r="353" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C353" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="D353" t="s">
+      <c r="D353" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="354" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E353" s="5"/>
+      <c r="F353" s="5"/>
+      <c r="G353" s="5"/>
+      <c r="H353" s="5"/>
+      <c r="I353" s="5"/>
+      <c r="J353" s="5"/>
+    </row>
+    <row r="354" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C354" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="D354" t="s">
+      <c r="D354" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="355" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E354" s="5"/>
+      <c r="F354" s="5"/>
+      <c r="G354" s="5"/>
+      <c r="H354" s="5"/>
+      <c r="I354" s="5"/>
+      <c r="J354" s="5"/>
+    </row>
+    <row r="355" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C355" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="D355" t="s">
+      <c r="D355" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="356" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E355" s="5"/>
+      <c r="F355" s="5"/>
+      <c r="G355" s="5"/>
+      <c r="H355" s="5"/>
+      <c r="I355" s="5"/>
+      <c r="J355" s="5"/>
+    </row>
+    <row r="356" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C356" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="D356" t="s">
+      <c r="D356" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="357" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E356" s="5"/>
+      <c r="F356" s="5"/>
+      <c r="G356" s="5"/>
+      <c r="H356" s="5"/>
+      <c r="I356" s="5"/>
+      <c r="J356" s="5"/>
+    </row>
+    <row r="357" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C357" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="D357" t="s">
+      <c r="D357" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="358" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E357" s="5"/>
+      <c r="F357" s="5"/>
+      <c r="G357" s="5"/>
+      <c r="H357" s="5"/>
+      <c r="I357" s="5"/>
+      <c r="J357" s="5"/>
+    </row>
+    <row r="358" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C358" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="D358" t="s">
+      <c r="D358" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="359" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E358" s="5"/>
+      <c r="F358" s="5"/>
+      <c r="G358" s="5"/>
+      <c r="H358" s="5"/>
+      <c r="I358" s="5"/>
+      <c r="J358" s="5"/>
+    </row>
+    <row r="359" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C359" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="D359" t="s">
+      <c r="D359" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="360" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E359" s="5"/>
+      <c r="F359" s="5"/>
+      <c r="G359" s="5"/>
+      <c r="H359" s="5"/>
+      <c r="I359" s="5"/>
+      <c r="J359" s="5"/>
+    </row>
+    <row r="360" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C360" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="D360" t="s">
+      <c r="D360" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="361" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E360" s="5"/>
+      <c r="F360" s="5"/>
+      <c r="G360" s="5"/>
+      <c r="H360" s="5"/>
+      <c r="I360" s="5"/>
+      <c r="J360" s="5"/>
+    </row>
+    <row r="361" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C361" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="D361" t="s">
+      <c r="D361" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="362" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E361" s="5"/>
+      <c r="F361" s="5"/>
+      <c r="G361" s="5"/>
+      <c r="H361" s="5"/>
+      <c r="I361" s="5"/>
+      <c r="J361" s="5"/>
+    </row>
+    <row r="362" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C362" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="D362" t="s">
+      <c r="D362" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="363" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E362" s="5"/>
+      <c r="F362" s="5"/>
+      <c r="G362" s="5"/>
+      <c r="H362" s="5"/>
+      <c r="I362" s="5"/>
+      <c r="J362" s="5"/>
+    </row>
+    <row r="363" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C363" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="D363" t="s">
+      <c r="D363" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="364" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E363" s="5"/>
+      <c r="F363" s="5"/>
+      <c r="G363" s="5"/>
+      <c r="H363" s="5"/>
+      <c r="I363" s="5"/>
+      <c r="J363" s="5"/>
+    </row>
+    <row r="364" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C364" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="D364" t="s">
+      <c r="D364" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="365" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E364" s="5"/>
+      <c r="F364" s="5"/>
+      <c r="G364" s="5"/>
+      <c r="H364" s="5"/>
+      <c r="I364" s="5"/>
+      <c r="J364" s="5"/>
+    </row>
+    <row r="365" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C365" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="D365" t="s">
+      <c r="D365" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="366" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E365" s="5"/>
+      <c r="F365" s="5"/>
+      <c r="G365" s="5"/>
+      <c r="H365" s="5"/>
+      <c r="I365" s="5"/>
+      <c r="J365" s="5"/>
+    </row>
+    <row r="366" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C366" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="D366" t="s">
+      <c r="D366" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="367" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E366" s="5"/>
+      <c r="F366" s="5"/>
+      <c r="G366" s="5"/>
+      <c r="H366" s="5"/>
+      <c r="I366" s="5"/>
+      <c r="J366" s="5"/>
+    </row>
+    <row r="367" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C367" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="D367" t="s">
+      <c r="D367" s="5" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="368" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E367" s="5"/>
+      <c r="F367" s="5"/>
+      <c r="G367" s="5"/>
+      <c r="H367" s="5"/>
+      <c r="I367" s="5"/>
+      <c r="J367" s="5"/>
+    </row>
+    <row r="368" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C368" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="D368" t="s">
+      <c r="D368" s="5" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E368" s="5"/>
+      <c r="F368" s="5"/>
+      <c r="G368" s="5"/>
+      <c r="H368" s="5"/>
+      <c r="I368" s="5"/>
+      <c r="J368" s="5"/>
+    </row>
+    <row r="369" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C369" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="D369" t="s">
+      <c r="D369" s="5" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E369" s="5"/>
+      <c r="F369" s="5"/>
+      <c r="G369" s="5"/>
+      <c r="H369" s="5"/>
+      <c r="I369" s="5"/>
+      <c r="J369" s="5"/>
+    </row>
+    <row r="370" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C370" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="D370" t="s">
+      <c r="D370" s="5" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B371" s="40">
+      <c r="E370" s="5"/>
+      <c r="F370" s="5"/>
+      <c r="G370" s="5"/>
+      <c r="H370" s="5"/>
+      <c r="I370" s="5"/>
+      <c r="J370" s="5"/>
+    </row>
+    <row r="371" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B371" s="39">
         <v>44317</v>
       </c>
       <c r="D371" t="s">
@@ -7343,10 +8015,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="27" t="s">
         <v>305</v>
       </c>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0ED567-1D34-724D-83AC-91EFD02B794A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A1DE4E-1E8E-724E-AE9F-2B5765954C7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="542">
   <si>
     <t>BRANCH</t>
   </si>
@@ -1408,9 +1408,6 @@
     <t>luis villafuerte -vs- et.al</t>
   </si>
   <si>
-    <t>APR</t>
-  </si>
-  <si>
     <t>R-03-02-0323</t>
   </si>
   <si>
@@ -1619,13 +1616,49 @@
   </si>
   <si>
     <t>ARCADIO DELA CRUZ -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>LUIS INOCENCIO -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>AMBROCIO DE GUZMAN -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>HENRY ESPINO -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>ALEJANDRO MORALES -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>AGNES NOBLE -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>R-03-02-0323-B</t>
+  </si>
+  <si>
+    <t>R-03-02-0324-B</t>
+  </si>
+  <si>
+    <t>ANTONIO LIBUNAO -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>OLIVER ODTUHAN -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>R-03-02-0325-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLANK </t>
+  </si>
+  <si>
+    <t>MAY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1750,6 +1783,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1859,7 +1898,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1979,6 +2018,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2294,11 +2337,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7760DDDF-B585-9445-B146-2DD762F6C209}">
-  <dimension ref="A1:J371"/>
+  <dimension ref="A1:J374"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B298" sqref="B298"/>
+      <pane ySplit="1" topLeftCell="A354" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F362" sqref="F362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6436,7 +6479,7 @@
         <v>380</v>
       </c>
       <c r="D268" s="43" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E268" s="5"/>
       <c r="F268" s="42"/>
@@ -6452,7 +6495,7 @@
         <v>381</v>
       </c>
       <c r="D269" s="43" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E269" s="5"/>
       <c r="F269" s="42"/>
@@ -6468,7 +6511,7 @@
         <v>382</v>
       </c>
       <c r="D270" s="43" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E270" s="5"/>
       <c r="F270" s="42"/>
@@ -6484,7 +6527,7 @@
         <v>383</v>
       </c>
       <c r="D271" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E271" s="5"/>
       <c r="F271" s="42"/>
@@ -6500,7 +6543,7 @@
         <v>384</v>
       </c>
       <c r="D272" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E272" s="5"/>
       <c r="F272" s="42"/>
@@ -6516,7 +6559,7 @@
         <v>385</v>
       </c>
       <c r="D273" s="43" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E273" s="5"/>
       <c r="F273" s="42"/>
@@ -6532,7 +6575,7 @@
         <v>386</v>
       </c>
       <c r="D274" s="43" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E274" s="5"/>
       <c r="F274" s="42"/>
@@ -6548,7 +6591,7 @@
         <v>387</v>
       </c>
       <c r="D275" s="43" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E275" s="5"/>
       <c r="F275" s="42"/>
@@ -6564,7 +6607,7 @@
         <v>388</v>
       </c>
       <c r="D276" s="43" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E276" s="5"/>
       <c r="F276" s="42"/>
@@ -6580,7 +6623,7 @@
         <v>408</v>
       </c>
       <c r="D277" s="43" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E277" s="5"/>
       <c r="F277" s="42"/>
@@ -6596,7 +6639,7 @@
         <v>409</v>
       </c>
       <c r="D278" s="43" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E278" s="5"/>
       <c r="F278" s="42"/>
@@ -6612,7 +6655,7 @@
         <v>410</v>
       </c>
       <c r="D279" s="43" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E279" s="5"/>
       <c r="F279" s="42"/>
@@ -6627,7 +6670,7 @@
         <v>411</v>
       </c>
       <c r="D280" s="43" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E280" s="5"/>
       <c r="F280" s="5"/>
@@ -6642,7 +6685,7 @@
         <v>412</v>
       </c>
       <c r="D281" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E281" s="5"/>
       <c r="F281" s="5"/>
@@ -6657,7 +6700,7 @@
         <v>413</v>
       </c>
       <c r="D282" s="41" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E282" s="5"/>
       <c r="F282" s="5"/>
@@ -6672,7 +6715,7 @@
         <v>414</v>
       </c>
       <c r="D283" s="41" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E283" s="5"/>
       <c r="F283" s="5"/>
@@ -6687,7 +6730,7 @@
         <v>415</v>
       </c>
       <c r="D284" s="41" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E284" s="44"/>
       <c r="F284" s="44"/>
@@ -6702,7 +6745,7 @@
         <v>416</v>
       </c>
       <c r="D285" s="43" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E285" s="5"/>
       <c r="F285" s="5"/>
@@ -6719,7 +6762,7 @@
         <v>417</v>
       </c>
       <c r="D286" s="43" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E286" s="5"/>
       <c r="F286" s="5"/>
@@ -6736,7 +6779,7 @@
         <v>418</v>
       </c>
       <c r="D287" s="43" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E287" s="5"/>
       <c r="F287" s="5"/>
@@ -6753,7 +6796,7 @@
         <v>419</v>
       </c>
       <c r="D288" s="43" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E288" s="5"/>
       <c r="F288" s="5"/>
@@ -6770,7 +6813,7 @@
         <v>420</v>
       </c>
       <c r="D289" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E289" s="5"/>
       <c r="F289" s="5"/>
@@ -6787,7 +6830,7 @@
         <v>421</v>
       </c>
       <c r="D290" s="43" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E290" s="5"/>
       <c r="F290" s="5"/>
@@ -6804,7 +6847,7 @@
         <v>422</v>
       </c>
       <c r="D291" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E291" s="5"/>
       <c r="F291" s="5"/>
@@ -6821,7 +6864,7 @@
         <v>423</v>
       </c>
       <c r="D292" s="43" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E292" s="5"/>
       <c r="F292" s="5"/>
@@ -6838,7 +6881,7 @@
         <v>427</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E293" s="5"/>
       <c r="F293" s="5"/>
@@ -6851,7 +6894,9 @@
       <c r="C294" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="D294" s="5"/>
+      <c r="D294" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="E294" s="5"/>
       <c r="F294" s="5"/>
       <c r="G294" s="5"/>
@@ -6863,7 +6908,9 @@
       <c r="C295" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="D295" s="5"/>
+      <c r="D295" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="E295" s="5"/>
       <c r="F295" s="5"/>
       <c r="G295" s="5"/>
@@ -6875,7 +6922,9 @@
       <c r="C296" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="D296" s="5"/>
+      <c r="D296" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="E296" s="5"/>
       <c r="F296" s="5"/>
       <c r="G296" s="5"/>
@@ -6887,7 +6936,9 @@
       <c r="C297" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="D297" s="5"/>
+      <c r="D297" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="E297" s="5"/>
       <c r="F297" s="5"/>
       <c r="G297" s="5"/>
@@ -6896,13 +6947,18 @@
       <c r="J297" s="5"/>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B298" t="s">
-        <v>460</v>
+      <c r="A298">
+        <v>1</v>
+      </c>
+      <c r="B298" s="47" t="s">
+        <v>233</v>
       </c>
       <c r="C298" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="D298" s="5"/>
+      <c r="D298" s="46" t="s">
+        <v>530</v>
+      </c>
       <c r="E298" s="5"/>
       <c r="F298" s="5"/>
       <c r="G298" s="5"/>
@@ -6911,10 +6967,18 @@
       <c r="J298" s="5"/>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>2</v>
+      </c>
+      <c r="B299" s="47" t="s">
+        <v>233</v>
+      </c>
       <c r="C299" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="D299" s="5"/>
+      <c r="D299" s="46" t="s">
+        <v>531</v>
+      </c>
       <c r="E299" s="5"/>
       <c r="F299" s="5"/>
       <c r="G299" s="5"/>
@@ -6923,10 +6987,18 @@
       <c r="J299" s="5"/>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>3</v>
+      </c>
+      <c r="B300" s="47" t="s">
+        <v>233</v>
+      </c>
       <c r="C300" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="D300" s="5"/>
+      <c r="D300" s="46" t="s">
+        <v>532</v>
+      </c>
       <c r="E300" s="5"/>
       <c r="F300" s="5"/>
       <c r="G300" s="5"/>
@@ -6935,10 +7007,18 @@
       <c r="J300" s="5"/>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>4</v>
+      </c>
+      <c r="B301" s="47" t="s">
+        <v>233</v>
+      </c>
       <c r="C301" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="D301" s="5"/>
+      <c r="D301" s="46" t="s">
+        <v>533</v>
+      </c>
       <c r="E301" s="5"/>
       <c r="F301" s="5"/>
       <c r="G301" s="5"/>
@@ -6948,7 +7028,10 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B302" s="47" t="s">
+        <v>233</v>
       </c>
       <c r="C302" s="10" t="s">
         <v>436</v>
@@ -6965,7 +7048,10 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B303" s="47" t="s">
+        <v>233</v>
       </c>
       <c r="C303" s="10" t="s">
         <v>437</v>
@@ -6982,7 +7068,10 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="B304" s="47" t="s">
+        <v>233</v>
       </c>
       <c r="C304" s="10" t="s">
         <v>438</v>
@@ -6999,7 +7088,10 @@
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B305" s="47" t="s">
+        <v>233</v>
       </c>
       <c r="C305" s="10" t="s">
         <v>439</v>
@@ -7016,7 +7108,10 @@
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="B306" s="47" t="s">
+        <v>233</v>
       </c>
       <c r="C306" s="10" t="s">
         <v>440</v>
@@ -7033,7 +7128,10 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="B307" s="47" t="s">
+        <v>233</v>
       </c>
       <c r="C307" s="10" t="s">
         <v>441</v>
@@ -7050,7 +7148,10 @@
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="B308" s="47" t="s">
+        <v>233</v>
       </c>
       <c r="C308" s="10" t="s">
         <v>442</v>
@@ -7067,7 +7168,10 @@
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="B309" s="47" t="s">
+        <v>233</v>
       </c>
       <c r="C309" s="10" t="s">
         <v>443</v>
@@ -7084,7 +7188,10 @@
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="B310" s="47" t="s">
+        <v>233</v>
       </c>
       <c r="C310" s="10" t="s">
         <v>444</v>
@@ -7101,7 +7208,10 @@
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="B311" s="47" t="s">
+        <v>233</v>
       </c>
       <c r="C311" s="10" t="s">
         <v>445</v>
@@ -7118,7 +7228,10 @@
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="B312" s="47" t="s">
+        <v>233</v>
       </c>
       <c r="C312" s="10" t="s">
         <v>446</v>
@@ -7135,7 +7248,10 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="B313" s="47" t="s">
+        <v>233</v>
       </c>
       <c r="C313" s="10" t="s">
         <v>447</v>
@@ -7152,7 +7268,10 @@
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="B314" s="47" t="s">
+        <v>233</v>
       </c>
       <c r="C314" s="10" t="s">
         <v>448</v>
@@ -7169,7 +7288,10 @@
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="B315" s="47" t="s">
+        <v>233</v>
       </c>
       <c r="C315" s="10" t="s">
         <v>449</v>
@@ -7186,7 +7308,10 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="B316" s="47" t="s">
+        <v>233</v>
       </c>
       <c r="C316" s="10" t="s">
         <v>450</v>
@@ -7203,7 +7328,10 @@
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B317" s="47" t="s">
+        <v>233</v>
       </c>
       <c r="C317" s="10" t="s">
         <v>451</v>
@@ -7220,7 +7348,10 @@
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="B318" s="47" t="s">
+        <v>233</v>
       </c>
       <c r="C318" s="10" t="s">
         <v>452</v>
@@ -7237,7 +7368,10 @@
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="B319" s="47" t="s">
+        <v>233</v>
       </c>
       <c r="C319" s="10" t="s">
         <v>453</v>
@@ -7254,7 +7388,10 @@
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="B320" s="47" t="s">
+        <v>233</v>
       </c>
       <c r="C320" s="10" t="s">
         <v>454</v>
@@ -7271,7 +7408,10 @@
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="B321" s="47" t="s">
+        <v>233</v>
       </c>
       <c r="C321" s="10" t="s">
         <v>455</v>
@@ -7288,7 +7428,10 @@
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="B322" s="47" t="s">
+        <v>233</v>
       </c>
       <c r="C322" s="10" t="s">
         <v>456</v>
@@ -7305,7 +7448,10 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="B323" s="47" t="s">
+        <v>233</v>
       </c>
       <c r="C323" s="10" t="s">
         <v>457</v>
@@ -7322,7 +7468,10 @@
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="B324" s="47" t="s">
+        <v>233</v>
       </c>
       <c r="C324" s="10" t="s">
         <v>458</v>
@@ -7338,11 +7487,17 @@
       <c r="J324" s="5"/>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>28</v>
+      </c>
+      <c r="B325" s="47" t="s">
+        <v>233</v>
+      </c>
       <c r="C325" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="D325" s="5" t="s">
-        <v>510</v>
+        <v>535</v>
+      </c>
+      <c r="D325" s="46" t="s">
+        <v>534</v>
       </c>
       <c r="E325" s="5"/>
       <c r="F325" s="5"/>
@@ -7352,11 +7507,17 @@
       <c r="J325" s="5"/>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>29</v>
+      </c>
+      <c r="B326" s="47" t="s">
+        <v>233</v>
+      </c>
       <c r="C326" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="D326" s="5" t="s">
-        <v>511</v>
+        <v>536</v>
+      </c>
+      <c r="D326" s="46" t="s">
+        <v>537</v>
       </c>
       <c r="E326" s="5"/>
       <c r="F326" s="5"/>
@@ -7366,11 +7527,17 @@
       <c r="J326" s="5"/>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>30</v>
+      </c>
+      <c r="B327" s="47" t="s">
+        <v>233</v>
+      </c>
       <c r="C327" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="D327" s="5" t="s">
-        <v>511</v>
+        <v>539</v>
+      </c>
+      <c r="D327" s="46" t="s">
+        <v>538</v>
       </c>
       <c r="E327" s="5"/>
       <c r="F327" s="5"/>
@@ -7380,11 +7547,14 @@
       <c r="J327" s="5"/>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B328" s="47" t="s">
+        <v>179</v>
+      </c>
       <c r="C328" s="10" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D328" s="5" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="E328" s="5"/>
       <c r="F328" s="5"/>
@@ -7394,11 +7564,14 @@
       <c r="J328" s="5"/>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B329" s="47" t="s">
+        <v>179</v>
+      </c>
       <c r="C329" s="10" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D329" s="5" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="E329" s="5"/>
       <c r="F329" s="5"/>
@@ -7408,11 +7581,14 @@
       <c r="J329" s="5"/>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B330" s="47" t="s">
+        <v>179</v>
+      </c>
       <c r="C330" s="10" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D330" s="5" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="E330" s="5"/>
       <c r="F330" s="5"/>
@@ -7422,11 +7598,17 @@
       <c r="J330" s="5"/>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>1</v>
+      </c>
+      <c r="B331" s="47" t="s">
+        <v>541</v>
+      </c>
       <c r="C331" s="10" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D331" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E331" s="5"/>
       <c r="F331" s="5"/>
@@ -7436,11 +7618,14 @@
       <c r="J331" s="5"/>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>2</v>
+      </c>
       <c r="C332" s="10" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D332" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E332" s="5"/>
       <c r="F332" s="5"/>
@@ -7450,11 +7635,14 @@
       <c r="J332" s="5"/>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>3</v>
+      </c>
       <c r="C333" s="10" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D333" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E333" s="5"/>
       <c r="F333" s="5"/>
@@ -7464,11 +7652,14 @@
       <c r="J333" s="5"/>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>4</v>
+      </c>
       <c r="C334" s="10" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D334" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E334" s="5"/>
       <c r="F334" s="5"/>
@@ -7478,11 +7669,14 @@
       <c r="J334" s="5"/>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>5</v>
+      </c>
       <c r="C335" s="10" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D335" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E335" s="5"/>
       <c r="F335" s="5"/>
@@ -7492,11 +7686,14 @@
       <c r="J335" s="5"/>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>6</v>
+      </c>
       <c r="C336" s="10" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D336" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E336" s="5"/>
       <c r="F336" s="5"/>
@@ -7505,12 +7702,15 @@
       <c r="I336" s="5"/>
       <c r="J336" s="5"/>
     </row>
-    <row r="337" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>7</v>
+      </c>
       <c r="C337" s="10" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D337" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E337" s="5"/>
       <c r="F337" s="5"/>
@@ -7519,12 +7719,15 @@
       <c r="I337" s="5"/>
       <c r="J337" s="5"/>
     </row>
-    <row r="338" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>8</v>
+      </c>
       <c r="C338" s="10" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D338" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E338" s="5"/>
       <c r="F338" s="5"/>
@@ -7533,12 +7736,15 @@
       <c r="I338" s="5"/>
       <c r="J338" s="5"/>
     </row>
-    <row r="339" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>9</v>
+      </c>
       <c r="C339" s="10" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D339" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E339" s="5"/>
       <c r="F339" s="5"/>
@@ -7547,12 +7753,15 @@
       <c r="I339" s="5"/>
       <c r="J339" s="5"/>
     </row>
-    <row r="340" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>10</v>
+      </c>
       <c r="C340" s="10" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D340" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E340" s="5"/>
       <c r="F340" s="5"/>
@@ -7561,12 +7770,15 @@
       <c r="I340" s="5"/>
       <c r="J340" s="5"/>
     </row>
-    <row r="341" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>11</v>
+      </c>
       <c r="C341" s="10" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D341" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E341" s="5"/>
       <c r="F341" s="5"/>
@@ -7575,12 +7787,15 @@
       <c r="I341" s="5"/>
       <c r="J341" s="5"/>
     </row>
-    <row r="342" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>12</v>
+      </c>
       <c r="C342" s="10" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D342" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E342" s="5"/>
       <c r="F342" s="5"/>
@@ -7589,12 +7804,15 @@
       <c r="I342" s="5"/>
       <c r="J342" s="5"/>
     </row>
-    <row r="343" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>13</v>
+      </c>
       <c r="C343" s="10" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D343" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E343" s="5"/>
       <c r="F343" s="5"/>
@@ -7603,12 +7821,15 @@
       <c r="I343" s="5"/>
       <c r="J343" s="5"/>
     </row>
-    <row r="344" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>14</v>
+      </c>
       <c r="C344" s="10" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D344" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E344" s="5"/>
       <c r="F344" s="5"/>
@@ -7617,12 +7838,15 @@
       <c r="I344" s="5"/>
       <c r="J344" s="5"/>
     </row>
-    <row r="345" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>15</v>
+      </c>
       <c r="C345" s="10" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D345" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E345" s="5"/>
       <c r="F345" s="5"/>
@@ -7631,12 +7855,15 @@
       <c r="I345" s="5"/>
       <c r="J345" s="5"/>
     </row>
-    <row r="346" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>16</v>
+      </c>
       <c r="C346" s="10" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D346" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E346" s="5"/>
       <c r="F346" s="5"/>
@@ -7645,12 +7872,15 @@
       <c r="I346" s="5"/>
       <c r="J346" s="5"/>
     </row>
-    <row r="347" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>17</v>
+      </c>
       <c r="C347" s="10" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D347" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E347" s="5"/>
       <c r="F347" s="5"/>
@@ -7659,12 +7889,15 @@
       <c r="I347" s="5"/>
       <c r="J347" s="5"/>
     </row>
-    <row r="348" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>18</v>
+      </c>
       <c r="C348" s="10" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D348" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E348" s="5"/>
       <c r="F348" s="5"/>
@@ -7673,12 +7906,15 @@
       <c r="I348" s="5"/>
       <c r="J348" s="5"/>
     </row>
-    <row r="349" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>19</v>
+      </c>
       <c r="C349" s="10" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D349" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E349" s="5"/>
       <c r="F349" s="5"/>
@@ -7687,12 +7923,15 @@
       <c r="I349" s="5"/>
       <c r="J349" s="5"/>
     </row>
-    <row r="350" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>20</v>
+      </c>
       <c r="C350" s="10" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D350" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E350" s="5"/>
       <c r="F350" s="5"/>
@@ -7701,12 +7940,15 @@
       <c r="I350" s="5"/>
       <c r="J350" s="5"/>
     </row>
-    <row r="351" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>21</v>
+      </c>
       <c r="C351" s="10" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D351" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E351" s="5"/>
       <c r="F351" s="5"/>
@@ -7715,12 +7957,15 @@
       <c r="I351" s="5"/>
       <c r="J351" s="5"/>
     </row>
-    <row r="352" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>22</v>
+      </c>
       <c r="C352" s="10" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D352" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E352" s="5"/>
       <c r="F352" s="5"/>
@@ -7729,12 +7974,15 @@
       <c r="I352" s="5"/>
       <c r="J352" s="5"/>
     </row>
-    <row r="353" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>23</v>
+      </c>
       <c r="C353" s="10" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D353" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E353" s="5"/>
       <c r="F353" s="5"/>
@@ -7743,12 +7991,15 @@
       <c r="I353" s="5"/>
       <c r="J353" s="5"/>
     </row>
-    <row r="354" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>24</v>
+      </c>
       <c r="C354" s="10" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D354" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E354" s="5"/>
       <c r="F354" s="5"/>
@@ -7757,12 +8008,15 @@
       <c r="I354" s="5"/>
       <c r="J354" s="5"/>
     </row>
-    <row r="355" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>25</v>
+      </c>
       <c r="C355" s="10" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D355" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E355" s="5"/>
       <c r="F355" s="5"/>
@@ -7771,12 +8025,15 @@
       <c r="I355" s="5"/>
       <c r="J355" s="5"/>
     </row>
-    <row r="356" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>26</v>
+      </c>
       <c r="C356" s="10" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D356" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E356" s="5"/>
       <c r="F356" s="5"/>
@@ -7785,12 +8042,15 @@
       <c r="I356" s="5"/>
       <c r="J356" s="5"/>
     </row>
-    <row r="357" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>27</v>
+      </c>
       <c r="C357" s="10" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D357" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E357" s="5"/>
       <c r="F357" s="5"/>
@@ -7799,12 +8059,15 @@
       <c r="I357" s="5"/>
       <c r="J357" s="5"/>
     </row>
-    <row r="358" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>28</v>
+      </c>
       <c r="C358" s="10" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D358" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E358" s="5"/>
       <c r="F358" s="5"/>
@@ -7813,12 +8076,15 @@
       <c r="I358" s="5"/>
       <c r="J358" s="5"/>
     </row>
-    <row r="359" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>29</v>
+      </c>
       <c r="C359" s="10" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D359" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E359" s="5"/>
       <c r="F359" s="5"/>
@@ -7827,12 +8093,15 @@
       <c r="I359" s="5"/>
       <c r="J359" s="5"/>
     </row>
-    <row r="360" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>30</v>
+      </c>
       <c r="C360" s="10" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D360" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E360" s="5"/>
       <c r="F360" s="5"/>
@@ -7841,12 +8110,15 @@
       <c r="I360" s="5"/>
       <c r="J360" s="5"/>
     </row>
-    <row r="361" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>31</v>
+      </c>
       <c r="C361" s="10" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D361" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E361" s="5"/>
       <c r="F361" s="5"/>
@@ -7855,12 +8127,15 @@
       <c r="I361" s="5"/>
       <c r="J361" s="5"/>
     </row>
-    <row r="362" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>32</v>
+      </c>
       <c r="C362" s="10" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D362" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E362" s="5"/>
       <c r="F362" s="5"/>
@@ -7869,12 +8144,15 @@
       <c r="I362" s="5"/>
       <c r="J362" s="5"/>
     </row>
-    <row r="363" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>33</v>
+      </c>
       <c r="C363" s="10" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D363" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E363" s="5"/>
       <c r="F363" s="5"/>
@@ -7883,12 +8161,15 @@
       <c r="I363" s="5"/>
       <c r="J363" s="5"/>
     </row>
-    <row r="364" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>34</v>
+      </c>
       <c r="C364" s="10" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D364" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E364" s="5"/>
       <c r="F364" s="5"/>
@@ -7897,12 +8178,15 @@
       <c r="I364" s="5"/>
       <c r="J364" s="5"/>
     </row>
-    <row r="365" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>35</v>
+      </c>
       <c r="C365" s="10" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D365" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E365" s="5"/>
       <c r="F365" s="5"/>
@@ -7911,12 +8195,15 @@
       <c r="I365" s="5"/>
       <c r="J365" s="5"/>
     </row>
-    <row r="366" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>36</v>
+      </c>
       <c r="C366" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="D366" s="5" t="s">
         <v>502</v>
-      </c>
-      <c r="D366" s="5" t="s">
-        <v>503</v>
       </c>
       <c r="E366" s="5"/>
       <c r="F366" s="5"/>
@@ -7925,12 +8212,15 @@
       <c r="I366" s="5"/>
       <c r="J366" s="5"/>
     </row>
-    <row r="367" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>37</v>
+      </c>
       <c r="C367" s="10" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D367" s="5" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="E367" s="5"/>
       <c r="F367" s="5"/>
@@ -7939,12 +8229,15 @@
       <c r="I367" s="5"/>
       <c r="J367" s="5"/>
     </row>
-    <row r="368" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>38</v>
+      </c>
       <c r="C368" s="10" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D368" s="5" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="E368" s="5"/>
       <c r="F368" s="5"/>
@@ -7953,12 +8246,15 @@
       <c r="I368" s="5"/>
       <c r="J368" s="5"/>
     </row>
-    <row r="369" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>39</v>
+      </c>
       <c r="C369" s="10" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D369" s="5" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="E369" s="5"/>
       <c r="F369" s="5"/>
@@ -7967,12 +8263,15 @@
       <c r="I369" s="5"/>
       <c r="J369" s="5"/>
     </row>
-    <row r="370" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>40</v>
+      </c>
       <c r="C370" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="D370" s="5" t="s">
         <v>507</v>
-      </c>
-      <c r="D370" s="5" t="s">
-        <v>508</v>
       </c>
       <c r="E370" s="5"/>
       <c r="F370" s="5"/>
@@ -7981,12 +8280,63 @@
       <c r="I370" s="5"/>
       <c r="J370" s="5"/>
     </row>
-    <row r="371" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B371" s="39">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>41</v>
+      </c>
+      <c r="C371" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="D371" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="E371" s="5"/>
+      <c r="F371" s="5"/>
+      <c r="G371" s="5"/>
+      <c r="H371" s="5"/>
+      <c r="I371" s="5"/>
+      <c r="J371" s="5"/>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>42</v>
+      </c>
+      <c r="C372" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="D372" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="E372" s="5"/>
+      <c r="F372" s="5"/>
+      <c r="G372" s="5"/>
+      <c r="H372" s="5"/>
+      <c r="I372" s="5"/>
+      <c r="J372" s="5"/>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>43</v>
+      </c>
+      <c r="C373" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="D373" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="E373" s="5"/>
+      <c r="F373" s="5"/>
+      <c r="G373" s="5"/>
+      <c r="H373" s="5"/>
+      <c r="I373" s="5"/>
+      <c r="J373" s="5"/>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B374" s="39">
         <v>44317</v>
       </c>
-      <c r="D371" t="s">
-        <v>512</v>
+      <c r="D374" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A1DE4E-1E8E-724E-AE9F-2B5765954C7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074B8575-AD45-D34E-9C24-68A9B32ABD57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -2341,7 +2341,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A354" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F362" sqref="F362"/>
+      <selection pane="bottomLeft" activeCell="D293" sqref="D293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074B8575-AD45-D34E-9C24-68A9B32ABD57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD2C065-D017-144A-931C-CECF1D56DCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="543">
   <si>
     <t>BRANCH</t>
   </si>
@@ -1652,6 +1652,9 @@
   </si>
   <si>
     <t>MAY</t>
+  </si>
+  <si>
+    <t>R-03-02-0369</t>
   </si>
 </sst>
 </file>
@@ -2005,9 +2008,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2022,6 +2022,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2337,11 +2340,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7760DDDF-B585-9445-B146-2DD762F6C209}">
-  <dimension ref="A1:J374"/>
+  <dimension ref="A1:J424"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A354" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D293" sqref="D293"/>
+      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F377" sqref="F377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6478,11 +6481,11 @@
       <c r="C268" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="D268" s="43" t="s">
+      <c r="D268" s="42" t="s">
         <v>512</v>
       </c>
       <c r="E268" s="5"/>
-      <c r="F268" s="42"/>
+      <c r="F268" s="41"/>
       <c r="G268" s="5"/>
       <c r="H268" s="5"/>
     </row>
@@ -6494,11 +6497,11 @@
       <c r="C269" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="D269" s="43" t="s">
+      <c r="D269" s="42" t="s">
         <v>512</v>
       </c>
       <c r="E269" s="5"/>
-      <c r="F269" s="42"/>
+      <c r="F269" s="41"/>
       <c r="G269" s="5"/>
       <c r="H269" s="5"/>
     </row>
@@ -6510,11 +6513,11 @@
       <c r="C270" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="D270" s="43" t="s">
+      <c r="D270" s="42" t="s">
         <v>512</v>
       </c>
       <c r="E270" s="5"/>
-      <c r="F270" s="42"/>
+      <c r="F270" s="41"/>
       <c r="G270" s="5"/>
       <c r="H270" s="5"/>
     </row>
@@ -6526,11 +6529,11 @@
       <c r="C271" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="D271" s="43" t="s">
+      <c r="D271" s="42" t="s">
         <v>513</v>
       </c>
       <c r="E271" s="5"/>
-      <c r="F271" s="42"/>
+      <c r="F271" s="41"/>
       <c r="G271" s="5"/>
       <c r="H271" s="5"/>
     </row>
@@ -6542,11 +6545,11 @@
       <c r="C272" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="D272" s="43" t="s">
+      <c r="D272" s="42" t="s">
         <v>513</v>
       </c>
       <c r="E272" s="5"/>
-      <c r="F272" s="42"/>
+      <c r="F272" s="41"/>
       <c r="G272" s="5"/>
       <c r="H272" s="5"/>
     </row>
@@ -6558,11 +6561,11 @@
       <c r="C273" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="D273" s="43" t="s">
+      <c r="D273" s="42" t="s">
         <v>514</v>
       </c>
       <c r="E273" s="5"/>
-      <c r="F273" s="42"/>
+      <c r="F273" s="41"/>
       <c r="G273" s="5"/>
       <c r="H273" s="5"/>
     </row>
@@ -6574,11 +6577,11 @@
       <c r="C274" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="D274" s="43" t="s">
+      <c r="D274" s="42" t="s">
         <v>515</v>
       </c>
       <c r="E274" s="5"/>
-      <c r="F274" s="42"/>
+      <c r="F274" s="41"/>
       <c r="G274" s="5"/>
       <c r="H274" s="5"/>
     </row>
@@ -6590,11 +6593,11 @@
       <c r="C275" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="D275" s="43" t="s">
+      <c r="D275" s="42" t="s">
         <v>516</v>
       </c>
       <c r="E275" s="5"/>
-      <c r="F275" s="42"/>
+      <c r="F275" s="41"/>
       <c r="G275" s="5"/>
       <c r="H275" s="5"/>
     </row>
@@ -6606,11 +6609,11 @@
       <c r="C276" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="D276" s="43" t="s">
+      <c r="D276" s="42" t="s">
         <v>517</v>
       </c>
       <c r="E276" s="5"/>
-      <c r="F276" s="42"/>
+      <c r="F276" s="41"/>
       <c r="G276" s="5"/>
       <c r="H276" s="5"/>
     </row>
@@ -6622,11 +6625,11 @@
       <c r="C277" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="D277" s="43" t="s">
+      <c r="D277" s="42" t="s">
         <v>518</v>
       </c>
       <c r="E277" s="5"/>
-      <c r="F277" s="42"/>
+      <c r="F277" s="41"/>
       <c r="G277" s="5"/>
       <c r="H277" s="5"/>
     </row>
@@ -6638,11 +6641,11 @@
       <c r="C278" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="D278" s="43" t="s">
+      <c r="D278" s="42" t="s">
         <v>519</v>
       </c>
       <c r="E278" s="5"/>
-      <c r="F278" s="42"/>
+      <c r="F278" s="41"/>
       <c r="G278" s="5"/>
       <c r="H278" s="5"/>
     </row>
@@ -6654,11 +6657,11 @@
       <c r="C279" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="D279" s="43" t="s">
+      <c r="D279" s="42" t="s">
         <v>520</v>
       </c>
       <c r="E279" s="5"/>
-      <c r="F279" s="42"/>
+      <c r="F279" s="41"/>
       <c r="G279" s="5"/>
       <c r="H279" s="5"/>
     </row>
@@ -6669,7 +6672,7 @@
       <c r="C280" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="D280" s="43" t="s">
+      <c r="D280" s="42" t="s">
         <v>521</v>
       </c>
       <c r="E280" s="5"/>
@@ -6684,7 +6687,7 @@
       <c r="C281" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="D281" s="43" t="s">
+      <c r="D281" s="42" t="s">
         <v>513</v>
       </c>
       <c r="E281" s="5"/>
@@ -6699,7 +6702,7 @@
       <c r="C282" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="D282" s="41" t="s">
+      <c r="D282" s="40" t="s">
         <v>522</v>
       </c>
       <c r="E282" s="5"/>
@@ -6714,7 +6717,7 @@
       <c r="C283" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="D283" s="41" t="s">
+      <c r="D283" s="40" t="s">
         <v>523</v>
       </c>
       <c r="E283" s="5"/>
@@ -6726,16 +6729,16 @@
       <c r="A284">
         <v>22</v>
       </c>
-      <c r="C284" s="45" t="s">
+      <c r="C284" s="44" t="s">
         <v>415</v>
       </c>
-      <c r="D284" s="41" t="s">
+      <c r="D284" s="40" t="s">
         <v>523</v>
       </c>
-      <c r="E284" s="44"/>
-      <c r="F284" s="44"/>
-      <c r="G284" s="44"/>
-      <c r="H284" s="44"/>
+      <c r="E284" s="43"/>
+      <c r="F284" s="43"/>
+      <c r="G284" s="43"/>
+      <c r="H284" s="43"/>
     </row>
     <row r="285" spans="1:10" ht="33" x14ac:dyDescent="0.2">
       <c r="A285">
@@ -6744,7 +6747,7 @@
       <c r="C285" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="D285" s="43" t="s">
+      <c r="D285" s="42" t="s">
         <v>524</v>
       </c>
       <c r="E285" s="5"/>
@@ -6761,7 +6764,7 @@
       <c r="C286" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="D286" s="43" t="s">
+      <c r="D286" s="42" t="s">
         <v>525</v>
       </c>
       <c r="E286" s="5"/>
@@ -6778,7 +6781,7 @@
       <c r="C287" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="D287" s="43" t="s">
+      <c r="D287" s="42" t="s">
         <v>524</v>
       </c>
       <c r="E287" s="5"/>
@@ -6795,7 +6798,7 @@
       <c r="C288" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="D288" s="43" t="s">
+      <c r="D288" s="42" t="s">
         <v>526</v>
       </c>
       <c r="E288" s="5"/>
@@ -6812,7 +6815,7 @@
       <c r="C289" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="D289" s="43" t="s">
+      <c r="D289" s="42" t="s">
         <v>527</v>
       </c>
       <c r="E289" s="5"/>
@@ -6829,7 +6832,7 @@
       <c r="C290" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="D290" s="43" t="s">
+      <c r="D290" s="42" t="s">
         <v>528</v>
       </c>
       <c r="E290" s="5"/>
@@ -6846,7 +6849,7 @@
       <c r="C291" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="D291" s="43" t="s">
+      <c r="D291" s="42" t="s">
         <v>529</v>
       </c>
       <c r="E291" s="5"/>
@@ -6863,7 +6866,7 @@
       <c r="C292" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="D292" s="43" t="s">
+      <c r="D292" s="42" t="s">
         <v>522</v>
       </c>
       <c r="E292" s="5"/>
@@ -6950,13 +6953,13 @@
       <c r="A298">
         <v>1</v>
       </c>
-      <c r="B298" s="47" t="s">
+      <c r="B298" s="46" t="s">
         <v>233</v>
       </c>
       <c r="C298" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="D298" s="46" t="s">
+      <c r="D298" s="45" t="s">
         <v>530</v>
       </c>
       <c r="E298" s="5"/>
@@ -6970,13 +6973,13 @@
       <c r="A299">
         <v>2</v>
       </c>
-      <c r="B299" s="47" t="s">
+      <c r="B299" s="46" t="s">
         <v>233</v>
       </c>
       <c r="C299" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="D299" s="46" t="s">
+      <c r="D299" s="45" t="s">
         <v>531</v>
       </c>
       <c r="E299" s="5"/>
@@ -6990,13 +6993,13 @@
       <c r="A300">
         <v>3</v>
       </c>
-      <c r="B300" s="47" t="s">
+      <c r="B300" s="46" t="s">
         <v>233</v>
       </c>
       <c r="C300" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="D300" s="46" t="s">
+      <c r="D300" s="45" t="s">
         <v>532</v>
       </c>
       <c r="E300" s="5"/>
@@ -7010,13 +7013,13 @@
       <c r="A301">
         <v>4</v>
       </c>
-      <c r="B301" s="47" t="s">
+      <c r="B301" s="46" t="s">
         <v>233</v>
       </c>
       <c r="C301" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="D301" s="46" t="s">
+      <c r="D301" s="45" t="s">
         <v>533</v>
       </c>
       <c r="E301" s="5"/>
@@ -7030,7 +7033,7 @@
       <c r="A302">
         <v>5</v>
       </c>
-      <c r="B302" s="47" t="s">
+      <c r="B302" s="46" t="s">
         <v>233</v>
       </c>
       <c r="C302" s="10" t="s">
@@ -7050,7 +7053,7 @@
       <c r="A303">
         <v>6</v>
       </c>
-      <c r="B303" s="47" t="s">
+      <c r="B303" s="46" t="s">
         <v>233</v>
       </c>
       <c r="C303" s="10" t="s">
@@ -7070,7 +7073,7 @@
       <c r="A304">
         <v>7</v>
       </c>
-      <c r="B304" s="47" t="s">
+      <c r="B304" s="46" t="s">
         <v>233</v>
       </c>
       <c r="C304" s="10" t="s">
@@ -7090,7 +7093,7 @@
       <c r="A305">
         <v>8</v>
       </c>
-      <c r="B305" s="47" t="s">
+      <c r="B305" s="46" t="s">
         <v>233</v>
       </c>
       <c r="C305" s="10" t="s">
@@ -7110,7 +7113,7 @@
       <c r="A306">
         <v>9</v>
       </c>
-      <c r="B306" s="47" t="s">
+      <c r="B306" s="46" t="s">
         <v>233</v>
       </c>
       <c r="C306" s="10" t="s">
@@ -7130,7 +7133,7 @@
       <c r="A307">
         <v>10</v>
       </c>
-      <c r="B307" s="47" t="s">
+      <c r="B307" s="46" t="s">
         <v>233</v>
       </c>
       <c r="C307" s="10" t="s">
@@ -7150,7 +7153,7 @@
       <c r="A308">
         <v>11</v>
       </c>
-      <c r="B308" s="47" t="s">
+      <c r="B308" s="46" t="s">
         <v>233</v>
       </c>
       <c r="C308" s="10" t="s">
@@ -7170,7 +7173,7 @@
       <c r="A309">
         <v>12</v>
       </c>
-      <c r="B309" s="47" t="s">
+      <c r="B309" s="46" t="s">
         <v>233</v>
       </c>
       <c r="C309" s="10" t="s">
@@ -7190,7 +7193,7 @@
       <c r="A310">
         <v>13</v>
       </c>
-      <c r="B310" s="47" t="s">
+      <c r="B310" s="46" t="s">
         <v>233</v>
       </c>
       <c r="C310" s="10" t="s">
@@ -7210,7 +7213,7 @@
       <c r="A311">
         <v>14</v>
       </c>
-      <c r="B311" s="47" t="s">
+      <c r="B311" s="46" t="s">
         <v>233</v>
       </c>
       <c r="C311" s="10" t="s">
@@ -7230,7 +7233,7 @@
       <c r="A312">
         <v>15</v>
       </c>
-      <c r="B312" s="47" t="s">
+      <c r="B312" s="46" t="s">
         <v>233</v>
       </c>
       <c r="C312" s="10" t="s">
@@ -7250,7 +7253,7 @@
       <c r="A313">
         <v>16</v>
       </c>
-      <c r="B313" s="47" t="s">
+      <c r="B313" s="46" t="s">
         <v>233</v>
       </c>
       <c r="C313" s="10" t="s">
@@ -7270,7 +7273,7 @@
       <c r="A314">
         <v>17</v>
       </c>
-      <c r="B314" s="47" t="s">
+      <c r="B314" s="46" t="s">
         <v>233</v>
       </c>
       <c r="C314" s="10" t="s">
@@ -7290,7 +7293,7 @@
       <c r="A315">
         <v>18</v>
       </c>
-      <c r="B315" s="47" t="s">
+      <c r="B315" s="46" t="s">
         <v>233</v>
       </c>
       <c r="C315" s="10" t="s">
@@ -7310,7 +7313,7 @@
       <c r="A316">
         <v>19</v>
       </c>
-      <c r="B316" s="47" t="s">
+      <c r="B316" s="46" t="s">
         <v>233</v>
       </c>
       <c r="C316" s="10" t="s">
@@ -7330,7 +7333,7 @@
       <c r="A317">
         <v>20</v>
       </c>
-      <c r="B317" s="47" t="s">
+      <c r="B317" s="46" t="s">
         <v>233</v>
       </c>
       <c r="C317" s="10" t="s">
@@ -7350,7 +7353,7 @@
       <c r="A318">
         <v>21</v>
       </c>
-      <c r="B318" s="47" t="s">
+      <c r="B318" s="46" t="s">
         <v>233</v>
       </c>
       <c r="C318" s="10" t="s">
@@ -7370,7 +7373,7 @@
       <c r="A319">
         <v>22</v>
       </c>
-      <c r="B319" s="47" t="s">
+      <c r="B319" s="46" t="s">
         <v>233</v>
       </c>
       <c r="C319" s="10" t="s">
@@ -7390,7 +7393,7 @@
       <c r="A320">
         <v>23</v>
       </c>
-      <c r="B320" s="47" t="s">
+      <c r="B320" s="46" t="s">
         <v>233</v>
       </c>
       <c r="C320" s="10" t="s">
@@ -7410,7 +7413,7 @@
       <c r="A321">
         <v>24</v>
       </c>
-      <c r="B321" s="47" t="s">
+      <c r="B321" s="46" t="s">
         <v>233</v>
       </c>
       <c r="C321" s="10" t="s">
@@ -7430,7 +7433,7 @@
       <c r="A322">
         <v>25</v>
       </c>
-      <c r="B322" s="47" t="s">
+      <c r="B322" s="46" t="s">
         <v>233</v>
       </c>
       <c r="C322" s="10" t="s">
@@ -7450,7 +7453,7 @@
       <c r="A323">
         <v>26</v>
       </c>
-      <c r="B323" s="47" t="s">
+      <c r="B323" s="46" t="s">
         <v>233</v>
       </c>
       <c r="C323" s="10" t="s">
@@ -7470,7 +7473,7 @@
       <c r="A324">
         <v>27</v>
       </c>
-      <c r="B324" s="47" t="s">
+      <c r="B324" s="46" t="s">
         <v>233</v>
       </c>
       <c r="C324" s="10" t="s">
@@ -7490,13 +7493,13 @@
       <c r="A325">
         <v>28</v>
       </c>
-      <c r="B325" s="47" t="s">
+      <c r="B325" s="46" t="s">
         <v>233</v>
       </c>
       <c r="C325" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="D325" s="46" t="s">
+      <c r="D325" s="45" t="s">
         <v>534</v>
       </c>
       <c r="E325" s="5"/>
@@ -7510,13 +7513,13 @@
       <c r="A326">
         <v>29</v>
       </c>
-      <c r="B326" s="47" t="s">
+      <c r="B326" s="46" t="s">
         <v>233</v>
       </c>
       <c r="C326" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="D326" s="46" t="s">
+      <c r="D326" s="45" t="s">
         <v>537</v>
       </c>
       <c r="E326" s="5"/>
@@ -7530,13 +7533,13 @@
       <c r="A327">
         <v>30</v>
       </c>
-      <c r="B327" s="47" t="s">
+      <c r="B327" s="46" t="s">
         <v>233</v>
       </c>
       <c r="C327" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="D327" s="46" t="s">
+      <c r="D327" s="45" t="s">
         <v>538</v>
       </c>
       <c r="E327" s="5"/>
@@ -7547,7 +7550,7 @@
       <c r="J327" s="5"/>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B328" s="47" t="s">
+      <c r="B328" s="46" t="s">
         <v>179</v>
       </c>
       <c r="C328" s="10" t="s">
@@ -7564,7 +7567,7 @@
       <c r="J328" s="5"/>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B329" s="47" t="s">
+      <c r="B329" s="46" t="s">
         <v>179</v>
       </c>
       <c r="C329" s="10" t="s">
@@ -7581,7 +7584,7 @@
       <c r="J329" s="5"/>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B330" s="47" t="s">
+      <c r="B330" s="46" t="s">
         <v>179</v>
       </c>
       <c r="C330" s="10" t="s">
@@ -7601,7 +7604,7 @@
       <c r="A331">
         <v>1</v>
       </c>
-      <c r="B331" s="47" t="s">
+      <c r="B331" s="46" t="s">
         <v>541</v>
       </c>
       <c r="C331" s="10" t="s">
@@ -8335,9 +8338,416 @@
       <c r="B374" s="39">
         <v>44317</v>
       </c>
-      <c r="D374" t="s">
+      <c r="C374" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="D374" s="5" t="s">
         <v>511</v>
       </c>
+      <c r="E374" s="5"/>
+      <c r="F374" s="5"/>
+      <c r="G374" s="5"/>
+      <c r="H374" s="5"/>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C375" s="5"/>
+      <c r="D375" s="5"/>
+      <c r="E375" s="5"/>
+      <c r="F375" s="5"/>
+      <c r="G375" s="5"/>
+      <c r="H375" s="5"/>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C376" s="5"/>
+      <c r="D376" s="5"/>
+      <c r="E376" s="5"/>
+      <c r="F376" s="5"/>
+      <c r="G376" s="5"/>
+      <c r="H376" s="5"/>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C377" s="5"/>
+      <c r="D377" s="5"/>
+      <c r="E377" s="5"/>
+      <c r="F377" s="5"/>
+      <c r="G377" s="5"/>
+      <c r="H377" s="5"/>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C378" s="5"/>
+      <c r="D378" s="5"/>
+      <c r="E378" s="5"/>
+      <c r="F378" s="5"/>
+      <c r="G378" s="5"/>
+      <c r="H378" s="5"/>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C379" s="5"/>
+      <c r="D379" s="5"/>
+      <c r="E379" s="5"/>
+      <c r="F379" s="5"/>
+      <c r="G379" s="5"/>
+      <c r="H379" s="5"/>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C380" s="5"/>
+      <c r="D380" s="5"/>
+      <c r="E380" s="5"/>
+      <c r="F380" s="5"/>
+      <c r="G380" s="5"/>
+      <c r="H380" s="5"/>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C381" s="5"/>
+      <c r="D381" s="5"/>
+      <c r="E381" s="5"/>
+      <c r="F381" s="5"/>
+      <c r="G381" s="5"/>
+      <c r="H381" s="5"/>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C382" s="5"/>
+      <c r="D382" s="5"/>
+      <c r="E382" s="5"/>
+      <c r="F382" s="5"/>
+      <c r="G382" s="5"/>
+      <c r="H382" s="5"/>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C383" s="5"/>
+      <c r="D383" s="5"/>
+      <c r="E383" s="5"/>
+      <c r="F383" s="5"/>
+      <c r="G383" s="5"/>
+      <c r="H383" s="5"/>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C384" s="5"/>
+      <c r="D384" s="5"/>
+      <c r="E384" s="5"/>
+      <c r="F384" s="5"/>
+      <c r="G384" s="5"/>
+      <c r="H384" s="5"/>
+    </row>
+    <row r="385" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C385" s="5"/>
+      <c r="D385" s="5"/>
+      <c r="E385" s="5"/>
+      <c r="F385" s="5"/>
+      <c r="G385" s="5"/>
+      <c r="H385" s="5"/>
+    </row>
+    <row r="386" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C386" s="5"/>
+      <c r="D386" s="5"/>
+      <c r="E386" s="5"/>
+      <c r="F386" s="5"/>
+      <c r="G386" s="5"/>
+      <c r="H386" s="5"/>
+    </row>
+    <row r="387" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C387" s="5"/>
+      <c r="D387" s="5"/>
+      <c r="E387" s="5"/>
+      <c r="F387" s="5"/>
+      <c r="G387" s="5"/>
+      <c r="H387" s="5"/>
+    </row>
+    <row r="388" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C388" s="5"/>
+      <c r="D388" s="5"/>
+      <c r="E388" s="5"/>
+      <c r="F388" s="5"/>
+      <c r="G388" s="5"/>
+      <c r="H388" s="5"/>
+    </row>
+    <row r="389" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C389" s="5"/>
+      <c r="D389" s="5"/>
+      <c r="E389" s="5"/>
+      <c r="F389" s="5"/>
+      <c r="G389" s="5"/>
+      <c r="H389" s="5"/>
+    </row>
+    <row r="390" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C390" s="5"/>
+      <c r="D390" s="5"/>
+      <c r="E390" s="5"/>
+      <c r="F390" s="5"/>
+      <c r="G390" s="5"/>
+      <c r="H390" s="5"/>
+    </row>
+    <row r="391" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C391" s="5"/>
+      <c r="D391" s="5"/>
+      <c r="E391" s="5"/>
+      <c r="F391" s="5"/>
+      <c r="G391" s="5"/>
+      <c r="H391" s="5"/>
+    </row>
+    <row r="392" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C392" s="5"/>
+      <c r="D392" s="5"/>
+      <c r="E392" s="5"/>
+      <c r="F392" s="5"/>
+      <c r="G392" s="5"/>
+      <c r="H392" s="5"/>
+    </row>
+    <row r="393" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C393" s="5"/>
+      <c r="D393" s="5"/>
+      <c r="E393" s="5"/>
+      <c r="F393" s="5"/>
+      <c r="G393" s="5"/>
+      <c r="H393" s="5"/>
+    </row>
+    <row r="394" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C394" s="5"/>
+      <c r="D394" s="5"/>
+      <c r="E394" s="5"/>
+      <c r="F394" s="5"/>
+      <c r="G394" s="5"/>
+      <c r="H394" s="5"/>
+    </row>
+    <row r="395" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C395" s="5"/>
+      <c r="D395" s="5"/>
+      <c r="E395" s="5"/>
+      <c r="F395" s="5"/>
+      <c r="G395" s="5"/>
+      <c r="H395" s="5"/>
+    </row>
+    <row r="396" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C396" s="5"/>
+      <c r="D396" s="5"/>
+      <c r="E396" s="5"/>
+      <c r="F396" s="5"/>
+      <c r="G396" s="5"/>
+      <c r="H396" s="5"/>
+    </row>
+    <row r="397" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C397" s="5"/>
+      <c r="D397" s="5"/>
+      <c r="E397" s="5"/>
+      <c r="F397" s="5"/>
+      <c r="G397" s="5"/>
+      <c r="H397" s="5"/>
+    </row>
+    <row r="398" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C398" s="5"/>
+      <c r="D398" s="5"/>
+      <c r="E398" s="5"/>
+      <c r="F398" s="5"/>
+      <c r="G398" s="5"/>
+      <c r="H398" s="5"/>
+    </row>
+    <row r="399" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C399" s="5"/>
+      <c r="D399" s="5"/>
+      <c r="E399" s="5"/>
+      <c r="F399" s="5"/>
+      <c r="G399" s="5"/>
+      <c r="H399" s="5"/>
+    </row>
+    <row r="400" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C400" s="5"/>
+      <c r="D400" s="5"/>
+      <c r="E400" s="5"/>
+      <c r="F400" s="5"/>
+      <c r="G400" s="5"/>
+      <c r="H400" s="5"/>
+    </row>
+    <row r="401" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C401" s="5"/>
+      <c r="D401" s="5"/>
+      <c r="E401" s="5"/>
+      <c r="F401" s="5"/>
+      <c r="G401" s="5"/>
+      <c r="H401" s="5"/>
+    </row>
+    <row r="402" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C402" s="5"/>
+      <c r="D402" s="5"/>
+      <c r="E402" s="5"/>
+      <c r="F402" s="5"/>
+      <c r="G402" s="5"/>
+      <c r="H402" s="5"/>
+    </row>
+    <row r="403" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C403" s="5"/>
+      <c r="D403" s="5"/>
+      <c r="E403" s="5"/>
+      <c r="F403" s="5"/>
+      <c r="G403" s="5"/>
+      <c r="H403" s="5"/>
+    </row>
+    <row r="404" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C404" s="5"/>
+      <c r="D404" s="5"/>
+      <c r="E404" s="5"/>
+      <c r="F404" s="5"/>
+      <c r="G404" s="5"/>
+      <c r="H404" s="5"/>
+    </row>
+    <row r="405" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C405" s="5"/>
+      <c r="D405" s="5"/>
+      <c r="E405" s="5"/>
+      <c r="F405" s="5"/>
+      <c r="G405" s="5"/>
+      <c r="H405" s="5"/>
+    </row>
+    <row r="406" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C406" s="5"/>
+      <c r="D406" s="5"/>
+      <c r="E406" s="5"/>
+      <c r="F406" s="5"/>
+      <c r="G406" s="5"/>
+      <c r="H406" s="5"/>
+    </row>
+    <row r="407" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C407" s="5"/>
+      <c r="D407" s="5"/>
+      <c r="E407" s="5"/>
+      <c r="F407" s="5"/>
+      <c r="G407" s="5"/>
+      <c r="H407" s="5"/>
+    </row>
+    <row r="408" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C408" s="5"/>
+      <c r="D408" s="5"/>
+      <c r="E408" s="5"/>
+      <c r="F408" s="5"/>
+      <c r="G408" s="5"/>
+      <c r="H408" s="5"/>
+    </row>
+    <row r="409" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C409" s="5"/>
+      <c r="D409" s="5"/>
+      <c r="E409" s="5"/>
+      <c r="F409" s="5"/>
+      <c r="G409" s="5"/>
+      <c r="H409" s="5"/>
+    </row>
+    <row r="410" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C410" s="5"/>
+      <c r="D410" s="5"/>
+      <c r="E410" s="5"/>
+      <c r="F410" s="5"/>
+      <c r="G410" s="5"/>
+      <c r="H410" s="5"/>
+    </row>
+    <row r="411" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C411" s="5"/>
+      <c r="D411" s="5"/>
+      <c r="E411" s="5"/>
+      <c r="F411" s="5"/>
+      <c r="G411" s="5"/>
+      <c r="H411" s="5"/>
+    </row>
+    <row r="412" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C412" s="5"/>
+      <c r="D412" s="5"/>
+      <c r="E412" s="5"/>
+      <c r="F412" s="5"/>
+      <c r="G412" s="5"/>
+      <c r="H412" s="5"/>
+    </row>
+    <row r="413" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C413" s="5"/>
+      <c r="D413" s="5"/>
+      <c r="E413" s="5"/>
+      <c r="F413" s="5"/>
+      <c r="G413" s="5"/>
+      <c r="H413" s="5"/>
+    </row>
+    <row r="414" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C414" s="5"/>
+      <c r="D414" s="5"/>
+      <c r="E414" s="5"/>
+      <c r="F414" s="5"/>
+      <c r="G414" s="5"/>
+      <c r="H414" s="5"/>
+    </row>
+    <row r="415" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C415" s="5"/>
+      <c r="D415" s="5"/>
+      <c r="E415" s="5"/>
+      <c r="F415" s="5"/>
+      <c r="G415" s="5"/>
+      <c r="H415" s="5"/>
+    </row>
+    <row r="416" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C416" s="5"/>
+      <c r="D416" s="5"/>
+      <c r="E416" s="5"/>
+      <c r="F416" s="5"/>
+      <c r="G416" s="5"/>
+      <c r="H416" s="5"/>
+    </row>
+    <row r="417" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C417" s="5"/>
+      <c r="D417" s="5"/>
+      <c r="E417" s="5"/>
+      <c r="F417" s="5"/>
+      <c r="G417" s="5"/>
+      <c r="H417" s="5"/>
+    </row>
+    <row r="418" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C418" s="5"/>
+      <c r="D418" s="5"/>
+      <c r="E418" s="5"/>
+      <c r="F418" s="5"/>
+      <c r="G418" s="5"/>
+      <c r="H418" s="5"/>
+    </row>
+    <row r="419" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C419" s="5"/>
+      <c r="D419" s="5"/>
+      <c r="E419" s="5"/>
+      <c r="F419" s="5"/>
+      <c r="G419" s="5"/>
+      <c r="H419" s="5"/>
+    </row>
+    <row r="420" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C420" s="5"/>
+      <c r="D420" s="5"/>
+      <c r="E420" s="5"/>
+      <c r="F420" s="5"/>
+      <c r="G420" s="5"/>
+      <c r="H420" s="5"/>
+    </row>
+    <row r="421" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C421" s="5"/>
+      <c r="D421" s="5"/>
+      <c r="E421" s="5"/>
+      <c r="F421" s="5"/>
+      <c r="G421" s="5"/>
+      <c r="H421" s="5"/>
+    </row>
+    <row r="422" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C422" s="5"/>
+      <c r="D422" s="5"/>
+      <c r="E422" s="5"/>
+      <c r="F422" s="5"/>
+      <c r="G422" s="5"/>
+      <c r="H422" s="5"/>
+    </row>
+    <row r="423" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C423" s="5"/>
+      <c r="D423" s="5"/>
+      <c r="E423" s="5"/>
+      <c r="F423" s="5"/>
+      <c r="G423" s="5"/>
+      <c r="H423" s="5"/>
+    </row>
+    <row r="424" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C424" s="5"/>
+      <c r="D424" s="5"/>
+      <c r="E424" s="5"/>
+      <c r="F424" s="5"/>
+      <c r="G424" s="5"/>
+      <c r="H424" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -8365,10 +8775,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="47"/>
       <c r="C1" s="27" t="s">
         <v>305</v>
       </c>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD2C065-D017-144A-931C-CECF1D56DCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E72EDB-0B7D-B844-8476-DDE5315955C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="561">
   <si>
     <t>BRANCH</t>
   </si>
@@ -913,33 +913,6 @@
     <t>R-03-02-0104-A</t>
   </si>
   <si>
-    <t>AVELINO CABUHAT -VS- PARO ET.AL</t>
-  </si>
-  <si>
-    <t>LOIDA BATAS -VS- PARO ET.AL</t>
-  </si>
-  <si>
-    <t>AMELIA DE GUZMAN -VS- PARO ET.AL</t>
-  </si>
-  <si>
-    <t>EDWIN MANALILI -VS- PARO ET.AL</t>
-  </si>
-  <si>
-    <t>ARMANDO DE MESA -VS- PARO ET.AL</t>
-  </si>
-  <si>
-    <t>ARELIO DE MESA -VS- PARO ET.AL</t>
-  </si>
-  <si>
-    <t>ANALIE RAMOS-VS- PARO ET.AL</t>
-  </si>
-  <si>
-    <t>ROSENDO CABUHAT -VS- PARO ET.AL</t>
-  </si>
-  <si>
-    <t>JUAN FABIAN -VS- PARO ET.AL</t>
-  </si>
-  <si>
     <t>Docket Number :</t>
   </si>
   <si>
@@ -1655,13 +1628,94 @@
   </si>
   <si>
     <t>R-03-02-0369</t>
+  </si>
+  <si>
+    <t>R-03-02-0002'2021</t>
+  </si>
+  <si>
+    <t>EDWIN ROLANDO ET.AL -VS- AURELIA AMOROTO</t>
+  </si>
+  <si>
+    <t>Jan-04-2021</t>
+  </si>
+  <si>
+    <t>R-03-02-0109'2021</t>
+  </si>
+  <si>
+    <t>Feb-02-2021</t>
+  </si>
+  <si>
+    <t>R-03-02-0110'2021</t>
+  </si>
+  <si>
+    <t>R-03-02-0120'2021</t>
+  </si>
+  <si>
+    <t>R-03-02-0121'2021</t>
+  </si>
+  <si>
+    <t>R-03-02-0122'2021</t>
+  </si>
+  <si>
+    <t>R-03-02-0123'2021</t>
+  </si>
+  <si>
+    <t>R-03-02-0124'2021</t>
+  </si>
+  <si>
+    <t>R-03-02-0125'2021</t>
+  </si>
+  <si>
+    <t>R-03-02-0152'2021</t>
+  </si>
+  <si>
+    <t>R-03-02-0165'2021</t>
+  </si>
+  <si>
+    <t>Feb-04-2021</t>
+  </si>
+  <si>
+    <t>R-03-02-0166'2021</t>
+  </si>
+  <si>
+    <t>R-03-02-0167'2021</t>
+  </si>
+  <si>
+    <t>R-03-02-0168'2021</t>
+  </si>
+  <si>
+    <t>R-03-02-0169'2021</t>
+  </si>
+  <si>
+    <t>R-03-02-0224'2021</t>
+  </si>
+  <si>
+    <t>SPS. PEDRO VIOLAGO &amp; FLROENCIA RIVERA ET.AL -</t>
+  </si>
+  <si>
+    <t>Mar-24-2021</t>
+  </si>
+  <si>
+    <t>R-03-02-0225'2021</t>
+  </si>
+  <si>
+    <t>R-03-02-0264'2021</t>
+  </si>
+  <si>
+    <t>LUIS R. VILLAFUERTE -VS- ERNESTO ADELANTE ET.AL</t>
+  </si>
+  <si>
+    <t>LUIS R. VILLAFUERTE -VS- DAR,LBP,ARB'S, POTENCIANO ET.AL</t>
+  </si>
+  <si>
+    <t>ATTY. LOLITA ABELLA -VS- ARTURO AGUIRRE ET.AL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1700,25 +1754,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF464646"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1773,13 +1808,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
       <sz val="16"/>
       <color theme="1"/>
@@ -1792,8 +1820,32 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF464646"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1812,8 +1864,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1850,17 +1908,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1873,35 +1920,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1940,64 +1963,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2008,23 +1986,47 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2343,8 +2345,8 @@
   <dimension ref="A1:J424"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F377" sqref="F377"/>
+      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C331" sqref="C331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2359,8 +2361,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
-        <v>396</v>
+      <c r="A1" s="23" t="s">
+        <v>387</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2372,7 +2374,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
@@ -3969,7 +3971,7 @@
     </row>
     <row r="110" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="B110" s="5" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>113</v>
@@ -4781,7 +4783,7 @@
     </row>
     <row r="159" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B159" s="5" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>220</v>
@@ -5410,20 +5412,20 @@
         <v>179</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="D202" s="36" t="s">
-        <v>324</v>
+        <v>301</v>
+      </c>
+      <c r="D202" s="21" t="s">
+        <v>315</v>
       </c>
       <c r="E202" s="5"/>
       <c r="F202" s="6" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="H202" s="6" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -5431,20 +5433,20 @@
         <v>179</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="D203" s="36" t="s">
-        <v>324</v>
+        <v>302</v>
+      </c>
+      <c r="D203" s="21" t="s">
+        <v>315</v>
       </c>
       <c r="E203" s="5"/>
       <c r="F203" s="6" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="H203" s="6" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -5452,20 +5454,20 @@
         <v>179</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="D204" s="36" t="s">
-        <v>324</v>
+        <v>303</v>
+      </c>
+      <c r="D204" s="21" t="s">
+        <v>315</v>
       </c>
       <c r="E204" s="5"/>
       <c r="F204" s="6" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="H204" s="6" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -5473,20 +5475,20 @@
         <v>179</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="D205" s="36" t="s">
-        <v>324</v>
+        <v>304</v>
+      </c>
+      <c r="D205" s="21" t="s">
+        <v>315</v>
       </c>
       <c r="E205" s="5"/>
       <c r="F205" s="6" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="H205" s="6" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -5494,20 +5496,20 @@
         <v>179</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="D206" s="36" t="s">
-        <v>324</v>
+        <v>305</v>
+      </c>
+      <c r="D206" s="21" t="s">
+        <v>315</v>
       </c>
       <c r="E206" s="5"/>
       <c r="F206" s="6" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="H206" s="6" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -5515,20 +5517,20 @@
         <v>179</v>
       </c>
       <c r="C207" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="D207" s="21" t="s">
         <v>315</v>
-      </c>
-      <c r="D207" s="36" t="s">
-        <v>324</v>
       </c>
       <c r="E207" s="5"/>
       <c r="F207" s="6" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="G207" s="5" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="H207" s="6" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -5536,20 +5538,20 @@
         <v>179</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="D208" s="36" t="s">
-        <v>324</v>
+        <v>307</v>
+      </c>
+      <c r="D208" s="21" t="s">
+        <v>315</v>
       </c>
       <c r="E208" s="5"/>
       <c r="F208" s="6" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="G208" s="5" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="H208" s="6" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -5557,20 +5559,20 @@
         <v>179</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="D209" s="36" t="s">
-        <v>324</v>
+        <v>308</v>
+      </c>
+      <c r="D209" s="21" t="s">
+        <v>315</v>
       </c>
       <c r="E209" s="5"/>
       <c r="F209" s="6" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="G209" s="5" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="H209" s="6" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -5578,20 +5580,20 @@
         <v>179</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="D210" s="36" t="s">
-        <v>324</v>
+        <v>309</v>
+      </c>
+      <c r="D210" s="21" t="s">
+        <v>315</v>
       </c>
       <c r="E210" s="5"/>
       <c r="F210" s="6" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="H210" s="6" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -5599,20 +5601,20 @@
         <v>179</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="D211" s="36" t="s">
-        <v>324</v>
+        <v>310</v>
+      </c>
+      <c r="D211" s="21" t="s">
+        <v>315</v>
       </c>
       <c r="E211" s="5"/>
       <c r="F211" s="6" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="G211" s="5" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="H211" s="6" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -5620,20 +5622,20 @@
         <v>179</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="D212" s="36" t="s">
-        <v>324</v>
+        <v>311</v>
+      </c>
+      <c r="D212" s="21" t="s">
+        <v>315</v>
       </c>
       <c r="E212" s="5"/>
       <c r="F212" s="6" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="H212" s="6" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -5641,20 +5643,20 @@
         <v>179</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="D213" s="36" t="s">
-        <v>324</v>
+        <v>312</v>
+      </c>
+      <c r="D213" s="21" t="s">
+        <v>315</v>
       </c>
       <c r="E213" s="5"/>
       <c r="F213" s="6" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="H213" s="6" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -5662,20 +5664,20 @@
         <v>179</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="D214" s="36" t="s">
-        <v>324</v>
+        <v>313</v>
+      </c>
+      <c r="D214" s="21" t="s">
+        <v>315</v>
       </c>
       <c r="E214" s="5"/>
       <c r="F214" s="6" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="G214" s="5" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="H214" s="6" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -5683,20 +5685,20 @@
         <v>179</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="D215" s="36" t="s">
-        <v>324</v>
+        <v>314</v>
+      </c>
+      <c r="D215" s="21" t="s">
+        <v>315</v>
       </c>
       <c r="E215" s="5"/>
       <c r="F215" s="6" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="G215" s="5" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="H215" s="6" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
@@ -5704,10 +5706,10 @@
         <v>179</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
@@ -5719,10 +5721,10 @@
         <v>179</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
@@ -5734,10 +5736,10 @@
         <v>179</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
@@ -5749,10 +5751,10 @@
         <v>179</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
@@ -5764,22 +5766,22 @@
         <v>179</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="E220" s="12">
         <v>10160</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="G220" s="5" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="H220" s="5" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5787,10 +5789,10 @@
         <v>179</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
@@ -5802,10 +5804,10 @@
         <v>179</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
@@ -5813,43 +5815,43 @@
       <c r="H222" s="5"/>
     </row>
     <row r="223" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A223" s="37">
+      <c r="A223" s="22">
         <v>44260</v>
       </c>
       <c r="B223" s="5" t="s">
         <v>179</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="E223" s="12">
         <v>5731</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="H223" s="6" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A224" s="37">
+      <c r="A224" s="22">
         <v>44266</v>
       </c>
       <c r="B224" s="5" t="s">
         <v>233</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
@@ -5861,10 +5863,10 @@
         <v>179</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
@@ -5876,10 +5878,10 @@
         <v>233</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
@@ -5891,10 +5893,10 @@
         <v>233</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
@@ -5907,10 +5909,10 @@
       </c>
       <c r="B228" s="5"/>
       <c r="C228" s="10" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
@@ -5923,7 +5925,7 @@
       </c>
       <c r="B229" s="5"/>
       <c r="C229" s="10" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
@@ -5937,7 +5939,7 @@
       </c>
       <c r="B230" s="5"/>
       <c r="C230" s="10" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
@@ -5951,7 +5953,7 @@
       </c>
       <c r="B231" s="5"/>
       <c r="C231" s="10" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
@@ -5965,7 +5967,7 @@
       </c>
       <c r="B232" s="5"/>
       <c r="C232" s="10" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
@@ -5979,7 +5981,7 @@
       </c>
       <c r="B233" s="5"/>
       <c r="C233" s="10" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
@@ -5993,7 +5995,7 @@
       </c>
       <c r="B234" s="5"/>
       <c r="C234" s="10" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
@@ -6007,7 +6009,7 @@
       </c>
       <c r="B235" s="5"/>
       <c r="C235" s="10" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
@@ -6021,7 +6023,7 @@
       </c>
       <c r="B236" s="5"/>
       <c r="C236" s="10" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
@@ -6035,7 +6037,7 @@
       </c>
       <c r="B237" s="5"/>
       <c r="C237" s="10" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
@@ -6049,7 +6051,7 @@
       </c>
       <c r="B238" s="5"/>
       <c r="C238" s="10" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
@@ -6063,7 +6065,7 @@
       </c>
       <c r="B239" s="5"/>
       <c r="C239" s="10" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
@@ -6077,7 +6079,7 @@
       </c>
       <c r="B240" s="5"/>
       <c r="C240" s="10" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
@@ -6091,7 +6093,7 @@
       </c>
       <c r="B241" s="5"/>
       <c r="C241" s="10" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
@@ -6105,7 +6107,7 @@
       </c>
       <c r="B242" s="5"/>
       <c r="C242" s="10" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
@@ -6119,7 +6121,7 @@
       </c>
       <c r="B243" s="5"/>
       <c r="C243" s="10" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
@@ -6133,7 +6135,7 @@
       </c>
       <c r="B244" s="5"/>
       <c r="C244" s="10" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
@@ -6147,7 +6149,7 @@
       </c>
       <c r="B245" s="5"/>
       <c r="C245" s="10" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
@@ -6161,7 +6163,7 @@
       </c>
       <c r="B246" s="5"/>
       <c r="C246" s="10" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
@@ -6175,7 +6177,7 @@
       </c>
       <c r="B247" s="5"/>
       <c r="C247" s="10" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
@@ -6189,7 +6191,7 @@
       </c>
       <c r="B248" s="5"/>
       <c r="C248" s="10" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
@@ -6203,7 +6205,7 @@
       </c>
       <c r="B249" s="5"/>
       <c r="C249" s="10" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
@@ -6217,7 +6219,7 @@
       </c>
       <c r="B250" s="5"/>
       <c r="C250" s="10" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
@@ -6231,7 +6233,7 @@
       </c>
       <c r="B251" s="5"/>
       <c r="C251" s="10" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
@@ -6245,7 +6247,7 @@
       </c>
       <c r="B252" s="5"/>
       <c r="C252" s="10" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
@@ -6259,7 +6261,7 @@
       </c>
       <c r="B253" s="5"/>
       <c r="C253" s="10" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
@@ -6273,7 +6275,7 @@
       </c>
       <c r="B254" s="5"/>
       <c r="C254" s="10" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
@@ -6287,7 +6289,7 @@
       </c>
       <c r="B255" s="5"/>
       <c r="C255" s="10" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
@@ -6301,7 +6303,7 @@
       </c>
       <c r="B256" s="5"/>
       <c r="C256" s="10" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D256" s="5"/>
       <c r="E256" s="5"/>
@@ -6315,7 +6317,7 @@
       </c>
       <c r="B257" s="5"/>
       <c r="C257" s="10" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
@@ -6329,7 +6331,7 @@
       </c>
       <c r="B258" s="5"/>
       <c r="C258" s="10" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
@@ -6343,7 +6345,7 @@
       </c>
       <c r="B259" s="5"/>
       <c r="C259" s="10" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
@@ -6357,7 +6359,7 @@
       </c>
       <c r="B260" s="5"/>
       <c r="C260" s="10" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D260" s="5"/>
       <c r="E260" s="5"/>
@@ -6371,7 +6373,7 @@
       </c>
       <c r="B261" s="5"/>
       <c r="C261" s="10" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
@@ -6385,7 +6387,7 @@
       </c>
       <c r="B262" s="5"/>
       <c r="C262" s="10" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
@@ -6399,10 +6401,10 @@
       </c>
       <c r="B263" s="5"/>
       <c r="C263" s="10" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E263" s="5"/>
       <c r="F263" s="5"/>
@@ -6415,10 +6417,10 @@
       </c>
       <c r="B264" s="5"/>
       <c r="C264" s="10" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E264" s="5"/>
       <c r="F264" s="5"/>
@@ -6431,10 +6433,10 @@
       </c>
       <c r="B265" s="5"/>
       <c r="C265" s="10" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E265" s="5"/>
       <c r="F265" s="5"/>
@@ -6447,10 +6449,10 @@
       </c>
       <c r="B266" s="5"/>
       <c r="C266" s="10" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E266" s="5"/>
       <c r="F266" s="5"/>
@@ -6463,10 +6465,10 @@
       </c>
       <c r="B267" s="5"/>
       <c r="C267" s="10" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E267" s="5"/>
       <c r="F267" s="5"/>
@@ -6479,13 +6481,13 @@
       </c>
       <c r="B268" s="5"/>
       <c r="C268" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="D268" s="42" t="s">
-        <v>512</v>
+        <v>371</v>
+      </c>
+      <c r="D268" s="27" t="s">
+        <v>503</v>
       </c>
       <c r="E268" s="5"/>
-      <c r="F268" s="41"/>
+      <c r="F268" s="26"/>
       <c r="G268" s="5"/>
       <c r="H268" s="5"/>
     </row>
@@ -6495,13 +6497,13 @@
       </c>
       <c r="B269" s="5"/>
       <c r="C269" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="D269" s="42" t="s">
-        <v>512</v>
+        <v>372</v>
+      </c>
+      <c r="D269" s="27" t="s">
+        <v>503</v>
       </c>
       <c r="E269" s="5"/>
-      <c r="F269" s="41"/>
+      <c r="F269" s="26"/>
       <c r="G269" s="5"/>
       <c r="H269" s="5"/>
     </row>
@@ -6511,13 +6513,13 @@
       </c>
       <c r="B270" s="5"/>
       <c r="C270" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="D270" s="42" t="s">
-        <v>512</v>
+        <v>373</v>
+      </c>
+      <c r="D270" s="27" t="s">
+        <v>503</v>
       </c>
       <c r="E270" s="5"/>
-      <c r="F270" s="41"/>
+      <c r="F270" s="26"/>
       <c r="G270" s="5"/>
       <c r="H270" s="5"/>
     </row>
@@ -6527,13 +6529,13 @@
       </c>
       <c r="B271" s="5"/>
       <c r="C271" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="D271" s="42" t="s">
-        <v>513</v>
+        <v>374</v>
+      </c>
+      <c r="D271" s="27" t="s">
+        <v>504</v>
       </c>
       <c r="E271" s="5"/>
-      <c r="F271" s="41"/>
+      <c r="F271" s="26"/>
       <c r="G271" s="5"/>
       <c r="H271" s="5"/>
     </row>
@@ -6543,13 +6545,13 @@
       </c>
       <c r="B272" s="5"/>
       <c r="C272" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="D272" s="42" t="s">
-        <v>513</v>
+        <v>375</v>
+      </c>
+      <c r="D272" s="27" t="s">
+        <v>504</v>
       </c>
       <c r="E272" s="5"/>
-      <c r="F272" s="41"/>
+      <c r="F272" s="26"/>
       <c r="G272" s="5"/>
       <c r="H272" s="5"/>
     </row>
@@ -6559,13 +6561,13 @@
       </c>
       <c r="B273" s="5"/>
       <c r="C273" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="D273" s="42" t="s">
-        <v>514</v>
+        <v>376</v>
+      </c>
+      <c r="D273" s="27" t="s">
+        <v>505</v>
       </c>
       <c r="E273" s="5"/>
-      <c r="F273" s="41"/>
+      <c r="F273" s="26"/>
       <c r="G273" s="5"/>
       <c r="H273" s="5"/>
     </row>
@@ -6575,13 +6577,13 @@
       </c>
       <c r="B274" s="5"/>
       <c r="C274" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="D274" s="42" t="s">
-        <v>515</v>
+        <v>377</v>
+      </c>
+      <c r="D274" s="27" t="s">
+        <v>506</v>
       </c>
       <c r="E274" s="5"/>
-      <c r="F274" s="41"/>
+      <c r="F274" s="26"/>
       <c r="G274" s="5"/>
       <c r="H274" s="5"/>
     </row>
@@ -6591,13 +6593,13 @@
       </c>
       <c r="B275" s="5"/>
       <c r="C275" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="D275" s="42" t="s">
-        <v>516</v>
+        <v>378</v>
+      </c>
+      <c r="D275" s="27" t="s">
+        <v>507</v>
       </c>
       <c r="E275" s="5"/>
-      <c r="F275" s="41"/>
+      <c r="F275" s="26"/>
       <c r="G275" s="5"/>
       <c r="H275" s="5"/>
     </row>
@@ -6607,13 +6609,13 @@
       </c>
       <c r="B276" s="5"/>
       <c r="C276" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="D276" s="42" t="s">
-        <v>517</v>
+        <v>379</v>
+      </c>
+      <c r="D276" s="27" t="s">
+        <v>508</v>
       </c>
       <c r="E276" s="5"/>
-      <c r="F276" s="41"/>
+      <c r="F276" s="26"/>
       <c r="G276" s="5"/>
       <c r="H276" s="5"/>
     </row>
@@ -6623,13 +6625,13 @@
       </c>
       <c r="B277" s="5"/>
       <c r="C277" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="D277" s="42" t="s">
-        <v>518</v>
+        <v>399</v>
+      </c>
+      <c r="D277" s="27" t="s">
+        <v>509</v>
       </c>
       <c r="E277" s="5"/>
-      <c r="F277" s="41"/>
+      <c r="F277" s="26"/>
       <c r="G277" s="5"/>
       <c r="H277" s="5"/>
     </row>
@@ -6639,13 +6641,13 @@
       </c>
       <c r="B278" s="5"/>
       <c r="C278" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="D278" s="42" t="s">
-        <v>519</v>
+        <v>400</v>
+      </c>
+      <c r="D278" s="27" t="s">
+        <v>510</v>
       </c>
       <c r="E278" s="5"/>
-      <c r="F278" s="41"/>
+      <c r="F278" s="26"/>
       <c r="G278" s="5"/>
       <c r="H278" s="5"/>
     </row>
@@ -6655,13 +6657,13 @@
       </c>
       <c r="B279" s="5"/>
       <c r="C279" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="D279" s="42" t="s">
-        <v>520</v>
+        <v>401</v>
+      </c>
+      <c r="D279" s="27" t="s">
+        <v>511</v>
       </c>
       <c r="E279" s="5"/>
-      <c r="F279" s="41"/>
+      <c r="F279" s="26"/>
       <c r="G279" s="5"/>
       <c r="H279" s="5"/>
     </row>
@@ -6670,10 +6672,10 @@
         <v>18</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="D280" s="42" t="s">
-        <v>521</v>
+        <v>402</v>
+      </c>
+      <c r="D280" s="27" t="s">
+        <v>512</v>
       </c>
       <c r="E280" s="5"/>
       <c r="F280" s="5"/>
@@ -6685,10 +6687,10 @@
         <v>19</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="D281" s="42" t="s">
-        <v>513</v>
+        <v>403</v>
+      </c>
+      <c r="D281" s="27" t="s">
+        <v>504</v>
       </c>
       <c r="E281" s="5"/>
       <c r="F281" s="5"/>
@@ -6700,10 +6702,10 @@
         <v>20</v>
       </c>
       <c r="C282" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="D282" s="40" t="s">
-        <v>522</v>
+        <v>404</v>
+      </c>
+      <c r="D282" s="25" t="s">
+        <v>513</v>
       </c>
       <c r="E282" s="5"/>
       <c r="F282" s="5"/>
@@ -6715,10 +6717,10 @@
         <v>21</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="D283" s="40" t="s">
-        <v>523</v>
+        <v>405</v>
+      </c>
+      <c r="D283" s="25" t="s">
+        <v>514</v>
       </c>
       <c r="E283" s="5"/>
       <c r="F283" s="5"/>
@@ -6729,26 +6731,26 @@
       <c r="A284">
         <v>22</v>
       </c>
-      <c r="C284" s="44" t="s">
-        <v>415</v>
-      </c>
-      <c r="D284" s="40" t="s">
-        <v>523</v>
-      </c>
-      <c r="E284" s="43"/>
-      <c r="F284" s="43"/>
-      <c r="G284" s="43"/>
-      <c r="H284" s="43"/>
+      <c r="C284" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="D284" s="25" t="s">
+        <v>514</v>
+      </c>
+      <c r="E284" s="28"/>
+      <c r="F284" s="28"/>
+      <c r="G284" s="28"/>
+      <c r="H284" s="28"/>
     </row>
     <row r="285" spans="1:10" ht="33" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>23</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="D285" s="42" t="s">
-        <v>524</v>
+        <v>407</v>
+      </c>
+      <c r="D285" s="27" t="s">
+        <v>515</v>
       </c>
       <c r="E285" s="5"/>
       <c r="F285" s="5"/>
@@ -6762,10 +6764,10 @@
         <v>24</v>
       </c>
       <c r="C286" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="D286" s="42" t="s">
-        <v>525</v>
+        <v>408</v>
+      </c>
+      <c r="D286" s="27" t="s">
+        <v>516</v>
       </c>
       <c r="E286" s="5"/>
       <c r="F286" s="5"/>
@@ -6779,10 +6781,10 @@
         <v>25</v>
       </c>
       <c r="C287" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="D287" s="42" t="s">
-        <v>524</v>
+        <v>409</v>
+      </c>
+      <c r="D287" s="27" t="s">
+        <v>515</v>
       </c>
       <c r="E287" s="5"/>
       <c r="F287" s="5"/>
@@ -6796,10 +6798,10 @@
         <v>26</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="D288" s="42" t="s">
-        <v>526</v>
+        <v>410</v>
+      </c>
+      <c r="D288" s="27" t="s">
+        <v>517</v>
       </c>
       <c r="E288" s="5"/>
       <c r="F288" s="5"/>
@@ -6813,10 +6815,10 @@
         <v>27</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="D289" s="42" t="s">
-        <v>527</v>
+        <v>411</v>
+      </c>
+      <c r="D289" s="27" t="s">
+        <v>518</v>
       </c>
       <c r="E289" s="5"/>
       <c r="F289" s="5"/>
@@ -6830,10 +6832,10 @@
         <v>28</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="D290" s="42" t="s">
-        <v>528</v>
+        <v>412</v>
+      </c>
+      <c r="D290" s="27" t="s">
+        <v>519</v>
       </c>
       <c r="E290" s="5"/>
       <c r="F290" s="5"/>
@@ -6847,10 +6849,10 @@
         <v>29</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="D291" s="42" t="s">
-        <v>529</v>
+        <v>413</v>
+      </c>
+      <c r="D291" s="27" t="s">
+        <v>520</v>
       </c>
       <c r="E291" s="5"/>
       <c r="F291" s="5"/>
@@ -6864,10 +6866,10 @@
         <v>30</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="D292" s="42" t="s">
-        <v>522</v>
+        <v>414</v>
+      </c>
+      <c r="D292" s="27" t="s">
+        <v>513</v>
       </c>
       <c r="E292" s="5"/>
       <c r="F292" s="5"/>
@@ -6881,10 +6883,10 @@
         <v>1</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="E293" s="5"/>
       <c r="F293" s="5"/>
@@ -6895,10 +6897,10 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C294" s="10" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="E294" s="5"/>
       <c r="F294" s="5"/>
@@ -6909,10 +6911,10 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C295" s="10" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="E295" s="5"/>
       <c r="F295" s="5"/>
@@ -6923,10 +6925,10 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C296" s="10" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="E296" s="5"/>
       <c r="F296" s="5"/>
@@ -6937,10 +6939,10 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C297" s="10" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="E297" s="5"/>
       <c r="F297" s="5"/>
@@ -6953,14 +6955,14 @@
       <c r="A298">
         <v>1</v>
       </c>
-      <c r="B298" s="46" t="s">
+      <c r="B298" s="31" t="s">
         <v>233</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="D298" s="45" t="s">
-        <v>530</v>
+        <v>423</v>
+      </c>
+      <c r="D298" s="30" t="s">
+        <v>521</v>
       </c>
       <c r="E298" s="5"/>
       <c r="F298" s="5"/>
@@ -6973,14 +6975,14 @@
       <c r="A299">
         <v>2</v>
       </c>
-      <c r="B299" s="46" t="s">
+      <c r="B299" s="31" t="s">
         <v>233</v>
       </c>
       <c r="C299" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="D299" s="45" t="s">
-        <v>531</v>
+        <v>424</v>
+      </c>
+      <c r="D299" s="30" t="s">
+        <v>522</v>
       </c>
       <c r="E299" s="5"/>
       <c r="F299" s="5"/>
@@ -6993,14 +6995,14 @@
       <c r="A300">
         <v>3</v>
       </c>
-      <c r="B300" s="46" t="s">
+      <c r="B300" s="31" t="s">
         <v>233</v>
       </c>
       <c r="C300" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="D300" s="45" t="s">
-        <v>532</v>
+        <v>425</v>
+      </c>
+      <c r="D300" s="30" t="s">
+        <v>523</v>
       </c>
       <c r="E300" s="5"/>
       <c r="F300" s="5"/>
@@ -7013,14 +7015,14 @@
       <c r="A301">
         <v>4</v>
       </c>
-      <c r="B301" s="46" t="s">
+      <c r="B301" s="31" t="s">
         <v>233</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="D301" s="45" t="s">
-        <v>533</v>
+        <v>426</v>
+      </c>
+      <c r="D301" s="30" t="s">
+        <v>524</v>
       </c>
       <c r="E301" s="5"/>
       <c r="F301" s="5"/>
@@ -7033,14 +7035,14 @@
       <c r="A302">
         <v>5</v>
       </c>
-      <c r="B302" s="46" t="s">
+      <c r="B302" s="31" t="s">
         <v>233</v>
       </c>
       <c r="C302" s="10" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E302" s="5"/>
       <c r="F302" s="5"/>
@@ -7053,14 +7055,14 @@
       <c r="A303">
         <v>6</v>
       </c>
-      <c r="B303" s="46" t="s">
+      <c r="B303" s="31" t="s">
         <v>233</v>
       </c>
       <c r="C303" s="10" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="D303" s="5" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E303" s="5"/>
       <c r="F303" s="5"/>
@@ -7073,14 +7075,14 @@
       <c r="A304">
         <v>7</v>
       </c>
-      <c r="B304" s="46" t="s">
+      <c r="B304" s="31" t="s">
         <v>233</v>
       </c>
       <c r="C304" s="10" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="D304" s="5" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E304" s="5"/>
       <c r="F304" s="5"/>
@@ -7093,14 +7095,14 @@
       <c r="A305">
         <v>8</v>
       </c>
-      <c r="B305" s="46" t="s">
+      <c r="B305" s="31" t="s">
         <v>233</v>
       </c>
       <c r="C305" s="10" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="D305" s="5" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E305" s="5"/>
       <c r="F305" s="5"/>
@@ -7113,14 +7115,14 @@
       <c r="A306">
         <v>9</v>
       </c>
-      <c r="B306" s="46" t="s">
+      <c r="B306" s="31" t="s">
         <v>233</v>
       </c>
       <c r="C306" s="10" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D306" s="5" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E306" s="5"/>
       <c r="F306" s="5"/>
@@ -7133,14 +7135,14 @@
       <c r="A307">
         <v>10</v>
       </c>
-      <c r="B307" s="46" t="s">
+      <c r="B307" s="31" t="s">
         <v>233</v>
       </c>
       <c r="C307" s="10" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E307" s="5"/>
       <c r="F307" s="5"/>
@@ -7153,14 +7155,14 @@
       <c r="A308">
         <v>11</v>
       </c>
-      <c r="B308" s="46" t="s">
+      <c r="B308" s="31" t="s">
         <v>233</v>
       </c>
       <c r="C308" s="10" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="D308" s="5" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E308" s="5"/>
       <c r="F308" s="5"/>
@@ -7173,14 +7175,14 @@
       <c r="A309">
         <v>12</v>
       </c>
-      <c r="B309" s="46" t="s">
+      <c r="B309" s="31" t="s">
         <v>233</v>
       </c>
       <c r="C309" s="10" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="D309" s="5" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E309" s="5"/>
       <c r="F309" s="5"/>
@@ -7193,14 +7195,14 @@
       <c r="A310">
         <v>13</v>
       </c>
-      <c r="B310" s="46" t="s">
+      <c r="B310" s="31" t="s">
         <v>233</v>
       </c>
       <c r="C310" s="10" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E310" s="5"/>
       <c r="F310" s="5"/>
@@ -7213,14 +7215,14 @@
       <c r="A311">
         <v>14</v>
       </c>
-      <c r="B311" s="46" t="s">
+      <c r="B311" s="31" t="s">
         <v>233</v>
       </c>
       <c r="C311" s="10" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="D311" s="5" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E311" s="5"/>
       <c r="F311" s="5"/>
@@ -7233,14 +7235,14 @@
       <c r="A312">
         <v>15</v>
       </c>
-      <c r="B312" s="46" t="s">
+      <c r="B312" s="31" t="s">
         <v>233</v>
       </c>
       <c r="C312" s="10" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="D312" s="5" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E312" s="5"/>
       <c r="F312" s="5"/>
@@ -7253,14 +7255,14 @@
       <c r="A313">
         <v>16</v>
       </c>
-      <c r="B313" s="46" t="s">
+      <c r="B313" s="31" t="s">
         <v>233</v>
       </c>
       <c r="C313" s="10" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="D313" s="5" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E313" s="5"/>
       <c r="F313" s="5"/>
@@ -7273,14 +7275,14 @@
       <c r="A314">
         <v>17</v>
       </c>
-      <c r="B314" s="46" t="s">
+      <c r="B314" s="31" t="s">
         <v>233</v>
       </c>
       <c r="C314" s="10" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="D314" s="5" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E314" s="5"/>
       <c r="F314" s="5"/>
@@ -7293,14 +7295,14 @@
       <c r="A315">
         <v>18</v>
       </c>
-      <c r="B315" s="46" t="s">
+      <c r="B315" s="31" t="s">
         <v>233</v>
       </c>
       <c r="C315" s="10" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="D315" s="5" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E315" s="5"/>
       <c r="F315" s="5"/>
@@ -7313,14 +7315,14 @@
       <c r="A316">
         <v>19</v>
       </c>
-      <c r="B316" s="46" t="s">
+      <c r="B316" s="31" t="s">
         <v>233</v>
       </c>
       <c r="C316" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="D316" s="5" t="s">
         <v>450</v>
-      </c>
-      <c r="D316" s="5" t="s">
-        <v>459</v>
       </c>
       <c r="E316" s="5"/>
       <c r="F316" s="5"/>
@@ -7333,14 +7335,14 @@
       <c r="A317">
         <v>20</v>
       </c>
-      <c r="B317" s="46" t="s">
+      <c r="B317" s="31" t="s">
         <v>233</v>
       </c>
       <c r="C317" s="10" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="D317" s="5" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E317" s="5"/>
       <c r="F317" s="5"/>
@@ -7353,14 +7355,14 @@
       <c r="A318">
         <v>21</v>
       </c>
-      <c r="B318" s="46" t="s">
+      <c r="B318" s="31" t="s">
         <v>233</v>
       </c>
       <c r="C318" s="10" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="D318" s="5" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E318" s="5"/>
       <c r="F318" s="5"/>
@@ -7373,14 +7375,14 @@
       <c r="A319">
         <v>22</v>
       </c>
-      <c r="B319" s="46" t="s">
+      <c r="B319" s="31" t="s">
         <v>233</v>
       </c>
       <c r="C319" s="10" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="D319" s="5" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E319" s="5"/>
       <c r="F319" s="5"/>
@@ -7393,14 +7395,14 @@
       <c r="A320">
         <v>23</v>
       </c>
-      <c r="B320" s="46" t="s">
+      <c r="B320" s="31" t="s">
         <v>233</v>
       </c>
       <c r="C320" s="10" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="D320" s="5" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E320" s="5"/>
       <c r="F320" s="5"/>
@@ -7413,14 +7415,14 @@
       <c r="A321">
         <v>24</v>
       </c>
-      <c r="B321" s="46" t="s">
+      <c r="B321" s="31" t="s">
         <v>233</v>
       </c>
       <c r="C321" s="10" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="D321" s="5" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E321" s="5"/>
       <c r="F321" s="5"/>
@@ -7433,14 +7435,14 @@
       <c r="A322">
         <v>25</v>
       </c>
-      <c r="B322" s="46" t="s">
+      <c r="B322" s="31" t="s">
         <v>233</v>
       </c>
       <c r="C322" s="10" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="D322" s="5" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E322" s="5"/>
       <c r="F322" s="5"/>
@@ -7453,14 +7455,14 @@
       <c r="A323">
         <v>26</v>
       </c>
-      <c r="B323" s="46" t="s">
+      <c r="B323" s="31" t="s">
         <v>233</v>
       </c>
       <c r="C323" s="10" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D323" s="5" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E323" s="5"/>
       <c r="F323" s="5"/>
@@ -7473,14 +7475,14 @@
       <c r="A324">
         <v>27</v>
       </c>
-      <c r="B324" s="46" t="s">
+      <c r="B324" s="31" t="s">
         <v>233</v>
       </c>
       <c r="C324" s="10" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D324" s="5" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E324" s="5"/>
       <c r="F324" s="5"/>
@@ -7493,14 +7495,14 @@
       <c r="A325">
         <v>28</v>
       </c>
-      <c r="B325" s="46" t="s">
+      <c r="B325" s="31" t="s">
         <v>233</v>
       </c>
       <c r="C325" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="D325" s="45" t="s">
-        <v>534</v>
+        <v>526</v>
+      </c>
+      <c r="D325" s="30" t="s">
+        <v>525</v>
       </c>
       <c r="E325" s="5"/>
       <c r="F325" s="5"/>
@@ -7513,14 +7515,14 @@
       <c r="A326">
         <v>29</v>
       </c>
-      <c r="B326" s="46" t="s">
+      <c r="B326" s="31" t="s">
         <v>233</v>
       </c>
       <c r="C326" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="D326" s="45" t="s">
-        <v>537</v>
+        <v>527</v>
+      </c>
+      <c r="D326" s="30" t="s">
+        <v>528</v>
       </c>
       <c r="E326" s="5"/>
       <c r="F326" s="5"/>
@@ -7533,14 +7535,14 @@
       <c r="A327">
         <v>30</v>
       </c>
-      <c r="B327" s="46" t="s">
+      <c r="B327" s="31" t="s">
         <v>233</v>
       </c>
       <c r="C327" s="10" t="s">
-        <v>539</v>
-      </c>
-      <c r="D327" s="45" t="s">
-        <v>538</v>
+        <v>530</v>
+      </c>
+      <c r="D327" s="30" t="s">
+        <v>529</v>
       </c>
       <c r="E327" s="5"/>
       <c r="F327" s="5"/>
@@ -7550,14 +7552,14 @@
       <c r="J327" s="5"/>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B328" s="46" t="s">
+      <c r="B328" s="31" t="s">
         <v>179</v>
       </c>
       <c r="C328" s="10" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="D328" s="5" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="E328" s="5"/>
       <c r="F328" s="5"/>
@@ -7567,14 +7569,14 @@
       <c r="J328" s="5"/>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B329" s="46" t="s">
+      <c r="B329" s="31" t="s">
         <v>179</v>
       </c>
       <c r="C329" s="10" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="D329" s="5" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="E329" s="5"/>
       <c r="F329" s="5"/>
@@ -7584,14 +7586,14 @@
       <c r="J329" s="5"/>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B330" s="46" t="s">
+      <c r="B330" s="31" t="s">
         <v>179</v>
       </c>
       <c r="C330" s="10" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="D330" s="5" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="E330" s="5"/>
       <c r="F330" s="5"/>
@@ -7604,14 +7606,14 @@
       <c r="A331">
         <v>1</v>
       </c>
-      <c r="B331" s="46" t="s">
-        <v>541</v>
+      <c r="B331" s="31" t="s">
+        <v>532</v>
       </c>
       <c r="C331" s="10" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D331" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E331" s="5"/>
       <c r="F331" s="5"/>
@@ -7625,10 +7627,10 @@
         <v>2</v>
       </c>
       <c r="C332" s="10" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="D332" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E332" s="5"/>
       <c r="F332" s="5"/>
@@ -7642,10 +7644,10 @@
         <v>3</v>
       </c>
       <c r="C333" s="10" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="D333" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E333" s="5"/>
       <c r="F333" s="5"/>
@@ -7659,10 +7661,10 @@
         <v>4</v>
       </c>
       <c r="C334" s="10" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D334" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E334" s="5"/>
       <c r="F334" s="5"/>
@@ -7676,10 +7678,10 @@
         <v>5</v>
       </c>
       <c r="C335" s="10" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="D335" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E335" s="5"/>
       <c r="F335" s="5"/>
@@ -7693,10 +7695,10 @@
         <v>6</v>
       </c>
       <c r="C336" s="10" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="D336" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E336" s="5"/>
       <c r="F336" s="5"/>
@@ -7710,10 +7712,10 @@
         <v>7</v>
       </c>
       <c r="C337" s="10" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="D337" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E337" s="5"/>
       <c r="F337" s="5"/>
@@ -7727,10 +7729,10 @@
         <v>8</v>
       </c>
       <c r="C338" s="10" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D338" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E338" s="5"/>
       <c r="F338" s="5"/>
@@ -7744,10 +7746,10 @@
         <v>9</v>
       </c>
       <c r="C339" s="10" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="D339" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E339" s="5"/>
       <c r="F339" s="5"/>
@@ -7761,10 +7763,10 @@
         <v>10</v>
       </c>
       <c r="C340" s="10" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="D340" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E340" s="5"/>
       <c r="F340" s="5"/>
@@ -7778,10 +7780,10 @@
         <v>11</v>
       </c>
       <c r="C341" s="10" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="D341" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E341" s="5"/>
       <c r="F341" s="5"/>
@@ -7795,10 +7797,10 @@
         <v>12</v>
       </c>
       <c r="C342" s="10" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="D342" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E342" s="5"/>
       <c r="F342" s="5"/>
@@ -7812,10 +7814,10 @@
         <v>13</v>
       </c>
       <c r="C343" s="10" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="D343" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E343" s="5"/>
       <c r="F343" s="5"/>
@@ -7829,10 +7831,10 @@
         <v>14</v>
       </c>
       <c r="C344" s="10" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="D344" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E344" s="5"/>
       <c r="F344" s="5"/>
@@ -7846,10 +7848,10 @@
         <v>15</v>
       </c>
       <c r="C345" s="10" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="D345" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E345" s="5"/>
       <c r="F345" s="5"/>
@@ -7863,10 +7865,10 @@
         <v>16</v>
       </c>
       <c r="C346" s="10" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="D346" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E346" s="5"/>
       <c r="F346" s="5"/>
@@ -7880,10 +7882,10 @@
         <v>17</v>
       </c>
       <c r="C347" s="10" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="D347" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E347" s="5"/>
       <c r="F347" s="5"/>
@@ -7897,10 +7899,10 @@
         <v>18</v>
       </c>
       <c r="C348" s="10" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="D348" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E348" s="5"/>
       <c r="F348" s="5"/>
@@ -7914,10 +7916,10 @@
         <v>19</v>
       </c>
       <c r="C349" s="10" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D349" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E349" s="5"/>
       <c r="F349" s="5"/>
@@ -7931,10 +7933,10 @@
         <v>20</v>
       </c>
       <c r="C350" s="10" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="D350" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E350" s="5"/>
       <c r="F350" s="5"/>
@@ -7948,10 +7950,10 @@
         <v>21</v>
       </c>
       <c r="C351" s="10" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="D351" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E351" s="5"/>
       <c r="F351" s="5"/>
@@ -7965,10 +7967,10 @@
         <v>22</v>
       </c>
       <c r="C352" s="10" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="D352" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E352" s="5"/>
       <c r="F352" s="5"/>
@@ -7982,10 +7984,10 @@
         <v>23</v>
       </c>
       <c r="C353" s="10" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="D353" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E353" s="5"/>
       <c r="F353" s="5"/>
@@ -7999,10 +8001,10 @@
         <v>24</v>
       </c>
       <c r="C354" s="10" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="D354" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E354" s="5"/>
       <c r="F354" s="5"/>
@@ -8016,10 +8018,10 @@
         <v>25</v>
       </c>
       <c r="C355" s="10" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="D355" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E355" s="5"/>
       <c r="F355" s="5"/>
@@ -8033,10 +8035,10 @@
         <v>26</v>
       </c>
       <c r="C356" s="10" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="D356" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E356" s="5"/>
       <c r="F356" s="5"/>
@@ -8050,10 +8052,10 @@
         <v>27</v>
       </c>
       <c r="C357" s="10" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D357" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E357" s="5"/>
       <c r="F357" s="5"/>
@@ -8067,10 +8069,10 @@
         <v>28</v>
       </c>
       <c r="C358" s="10" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="D358" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E358" s="5"/>
       <c r="F358" s="5"/>
@@ -8084,10 +8086,10 @@
         <v>29</v>
       </c>
       <c r="C359" s="10" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="D359" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E359" s="5"/>
       <c r="F359" s="5"/>
@@ -8101,10 +8103,10 @@
         <v>30</v>
       </c>
       <c r="C360" s="10" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="D360" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E360" s="5"/>
       <c r="F360" s="5"/>
@@ -8118,10 +8120,10 @@
         <v>31</v>
       </c>
       <c r="C361" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="D361" s="5" t="s">
         <v>493</v>
-      </c>
-      <c r="D361" s="5" t="s">
-        <v>502</v>
       </c>
       <c r="E361" s="5"/>
       <c r="F361" s="5"/>
@@ -8135,10 +8137,10 @@
         <v>32</v>
       </c>
       <c r="C362" s="10" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="D362" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E362" s="5"/>
       <c r="F362" s="5"/>
@@ -8152,10 +8154,10 @@
         <v>33</v>
       </c>
       <c r="C363" s="10" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="D363" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E363" s="5"/>
       <c r="F363" s="5"/>
@@ -8169,10 +8171,10 @@
         <v>34</v>
       </c>
       <c r="C364" s="10" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="D364" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E364" s="5"/>
       <c r="F364" s="5"/>
@@ -8186,10 +8188,10 @@
         <v>35</v>
       </c>
       <c r="C365" s="10" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="D365" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E365" s="5"/>
       <c r="F365" s="5"/>
@@ -8203,10 +8205,10 @@
         <v>36</v>
       </c>
       <c r="C366" s="10" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="D366" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E366" s="5"/>
       <c r="F366" s="5"/>
@@ -8220,10 +8222,10 @@
         <v>37</v>
       </c>
       <c r="C367" s="10" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="D367" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E367" s="5"/>
       <c r="F367" s="5"/>
@@ -8237,10 +8239,10 @@
         <v>38</v>
       </c>
       <c r="C368" s="10" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="D368" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E368" s="5"/>
       <c r="F368" s="5"/>
@@ -8254,10 +8256,10 @@
         <v>39</v>
       </c>
       <c r="C369" s="10" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="D369" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E369" s="5"/>
       <c r="F369" s="5"/>
@@ -8271,10 +8273,10 @@
         <v>40</v>
       </c>
       <c r="C370" s="10" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="D370" s="5" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="E370" s="5"/>
       <c r="F370" s="5"/>
@@ -8288,10 +8290,10 @@
         <v>41</v>
       </c>
       <c r="C371" s="10" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="D371" s="5" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="E371" s="5"/>
       <c r="F371" s="5"/>
@@ -8305,10 +8307,10 @@
         <v>42</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D372" s="5" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="E372" s="5"/>
       <c r="F372" s="5"/>
@@ -8322,10 +8324,10 @@
         <v>43</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="D373" s="5" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="E373" s="5"/>
       <c r="F373" s="5"/>
@@ -8335,14 +8337,14 @@
       <c r="J373" s="5"/>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B374" s="39">
+      <c r="B374" s="24">
         <v>44317</v>
       </c>
       <c r="C374" s="10" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="D374" s="5" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="E374" s="5"/>
       <c r="F374" s="5"/>
@@ -8757,17 +8759,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB41847-D60B-224E-931E-11ACE6477476}">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection sqref="A1:E71"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="44" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="37.5" style="35" customWidth="1"/>
-    <col min="3" max="3" width="43" style="17" customWidth="1"/>
+    <col min="2" max="2" width="37.5" style="20" customWidth="1"/>
+    <col min="3" max="3" width="43" style="16" customWidth="1"/>
     <col min="4" max="4" width="21.83203125" customWidth="1"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
@@ -8775,1218 +8777,1450 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>307</v>
+      <c r="A1" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>535</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>536</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="34">
+        <v>2</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>537</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>538</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="34">
+        <v>3</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>539</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>538</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="34">
+        <v>4</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>538</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="34">
+        <v>5</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>538</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="34">
+        <v>6</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>538</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="34">
         <v>7</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="D2" s="26">
-        <v>44197</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31">
-        <v>2</v>
-      </c>
-      <c r="B3" s="28" t="s">
+      <c r="B8" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>538</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="34">
+        <v>8</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>538</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="34">
         <v>9</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="D3" s="26">
-        <v>44197</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31">
-        <v>3</v>
-      </c>
-      <c r="B4" s="28" t="s">
+      <c r="B10" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>538</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="34">
         <v>10</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="D4" s="26">
-        <v>44197</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30">
-        <v>4</v>
-      </c>
-      <c r="B5" s="28" t="s">
+      <c r="B11" s="40" t="s">
+        <v>546</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>538</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="34">
         <v>11</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="D5" s="26">
-        <v>44197</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31">
-        <v>5</v>
-      </c>
-      <c r="B6" s="28" t="s">
+      <c r="B12" s="40" t="s">
+        <v>547</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>548</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="34">
         <v>12</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="D6" s="26">
-        <v>44197</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31">
-        <v>6</v>
-      </c>
-      <c r="B7" s="28" t="s">
+      <c r="B13" s="40" t="s">
+        <v>549</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>548</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="34">
         <v>13</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="D7" s="26">
-        <v>44197</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31">
-        <v>7</v>
-      </c>
-      <c r="B8" s="28" t="s">
+      <c r="B14" s="40" t="s">
+        <v>550</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>548</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="34">
         <v>14</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="D8" s="26">
-        <v>44197</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31">
-        <v>8</v>
-      </c>
-      <c r="B9" s="28" t="s">
+      <c r="B15" s="40" t="s">
+        <v>551</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>548</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="34">
         <v>15</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="D9" s="26">
-        <v>44197</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31">
-        <v>9</v>
-      </c>
-      <c r="B10" s="28" t="s">
+      <c r="B16" s="40" t="s">
+        <v>552</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>548</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="34">
         <v>16</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="D10" s="26">
-        <v>44197</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31">
-        <v>10</v>
-      </c>
-      <c r="B11" s="28" t="s">
+      <c r="B17" s="40" t="s">
+        <v>553</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>554</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>555</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="34">
+        <v>17</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>554</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>555</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="34">
+        <v>18</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>557</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>555</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="34">
+        <v>19</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="D20" s="39">
+        <v>44300</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="34">
         <v>20</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="26">
-        <v>44197</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31">
-        <v>11</v>
-      </c>
-      <c r="B12" s="28" t="s">
+      <c r="B21" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="D21" s="39">
+        <v>44300</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="34">
         <v>21</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="26">
-        <v>44197</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31">
-        <v>12</v>
-      </c>
-      <c r="B13" s="29" t="s">
+      <c r="B22" s="40" t="s">
+        <v>429</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="D22" s="39">
+        <v>44300</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="34">
         <v>22</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" s="26">
-        <v>44197</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31">
-        <v>13</v>
-      </c>
-      <c r="B14" s="28" t="s">
+      <c r="B23" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="D23" s="39">
+        <v>44300</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="34">
         <v>23</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" s="26">
-        <v>44197</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31">
-        <v>14</v>
-      </c>
-      <c r="B15" s="28" t="s">
+      <c r="B24" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="D24" s="39">
+        <v>44300</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="34">
         <v>24</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="26">
-        <v>44197</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31">
-        <v>15</v>
-      </c>
-      <c r="B16" s="28" t="s">
+      <c r="B25" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="D25" s="39">
+        <v>44300</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="34">
         <v>25</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" s="26">
-        <v>44197</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="31">
-        <v>16</v>
-      </c>
-      <c r="B17" s="28" t="s">
+      <c r="B26" s="40" t="s">
+        <v>433</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="D26" s="39">
+        <v>44300</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="34">
         <v>26</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="D17" s="26">
-        <v>44197</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31">
-        <v>17</v>
-      </c>
-      <c r="B18" s="28" t="s">
+      <c r="B27" s="40" t="s">
+        <v>434</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="D27" s="39">
+        <v>44300</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="34">
         <v>27</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="D18" s="26">
-        <v>44197</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="31">
-        <v>18</v>
-      </c>
-      <c r="B19" s="28" t="s">
+      <c r="B28" s="40" t="s">
+        <v>435</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="D28" s="39">
+        <v>44300</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="34">
         <v>28</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="D19" s="26">
-        <v>44197</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="31">
-        <v>19</v>
-      </c>
-      <c r="B20" s="28" t="s">
+      <c r="B29" s="40" t="s">
+        <v>436</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="D29" s="39">
+        <v>44300</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="34">
         <v>29</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="D20" s="26">
-        <v>44197</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="31">
-        <v>20</v>
-      </c>
-      <c r="B21" s="28" t="s">
+      <c r="B30" s="40" t="s">
+        <v>437</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="D30" s="39">
+        <v>44300</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="34">
         <v>30</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="D21" s="26">
-        <v>44197</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="31">
-        <v>21</v>
-      </c>
-      <c r="B22" s="28" t="s">
+      <c r="B31" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="D31" s="39">
+        <v>44300</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="34">
         <v>31</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="D22" s="26">
-        <v>44197</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31">
-        <v>22</v>
-      </c>
-      <c r="B23" s="28" t="s">
+      <c r="B32" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="D32" s="39">
+        <v>44300</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="34">
         <v>32</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="D23" s="26">
-        <v>44197</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31">
-        <v>23</v>
-      </c>
-      <c r="B24" s="28" t="s">
+      <c r="B33" s="40" t="s">
+        <v>440</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="D33" s="39">
+        <v>44300</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="34">
         <v>33</v>
       </c>
-      <c r="C24" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="D24" s="26">
-        <v>44197</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="31">
-        <v>24</v>
-      </c>
-      <c r="B25" s="28" t="s">
+      <c r="B34" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="D34" s="39">
+        <v>44300</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="34">
         <v>34</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="D25" s="26">
-        <v>44197</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="31">
-        <v>25</v>
-      </c>
-      <c r="B26" s="28" t="s">
+      <c r="B35" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="D35" s="39">
+        <v>44300</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="34">
         <v>35</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="D26" s="26">
-        <v>44197</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="31">
-        <v>26</v>
-      </c>
-      <c r="B27" s="28" t="s">
+      <c r="B36" s="40" t="s">
+        <v>443</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="D36" s="39">
+        <v>44300</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="34">
         <v>36</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="D27" s="26">
-        <v>44197</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="31">
-        <v>27</v>
-      </c>
-      <c r="B28" s="28" t="s">
+      <c r="B37" s="40" t="s">
+        <v>444</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="D37" s="39">
+        <v>44300</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="34">
         <v>37</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="D28" s="26">
-        <v>44197</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="31">
-        <v>28</v>
-      </c>
-      <c r="B29" s="28" t="s">
+      <c r="B38" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="D38" s="39">
+        <v>44300</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="34">
         <v>38</v>
       </c>
-      <c r="C29" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="D29" s="26">
-        <v>44197</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="31">
-        <v>29</v>
-      </c>
-      <c r="B30" s="28" t="s">
+      <c r="B39" s="40" t="s">
+        <v>446</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="D39" s="39">
+        <v>44300</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="34">
         <v>39</v>
       </c>
-      <c r="C30" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="D30" s="26">
-        <v>44197</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="28" t="s">
+      <c r="B40" s="40" t="s">
+        <v>447</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="D40" s="39">
+        <v>44300</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="34">
         <v>40</v>
       </c>
-      <c r="C31" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="D31" s="26">
-        <v>44197</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="31">
-        <v>31</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D32" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="31">
-        <v>32</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="D33" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="31">
-        <v>33</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="D34" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="31">
-        <v>34</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="D35" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="31">
-        <v>35</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="D36" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="31">
-        <v>36</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="D37" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="31">
-        <v>37</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="D38" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="31">
-        <v>38</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="D39" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="31">
-        <v>39</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="D40" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="31">
-        <v>40</v>
-      </c>
-      <c r="B41" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="D41" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>308</v>
+      <c r="B41" s="40" t="s">
+        <v>448</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="D41" s="39">
+        <v>44300</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="31">
+      <c r="A42" s="34">
         <v>41</v>
       </c>
-      <c r="B42" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="D42" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>308</v>
+      <c r="B42" s="40" t="s">
+        <v>449</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="D42" s="39">
+        <v>44300</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="31">
+      <c r="A43" s="34">
         <v>42</v>
       </c>
-      <c r="B43" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="D43" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>308</v>
+      <c r="B43" s="40" t="s">
+        <v>454</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D43" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="31">
+      <c r="A44" s="34">
         <v>43</v>
       </c>
-      <c r="B44" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="D44" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>308</v>
+      <c r="B44" s="40" t="s">
+        <v>455</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D44" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="31">
+      <c r="A45" s="34">
         <v>44</v>
       </c>
-      <c r="B45" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="D45" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>308</v>
+      <c r="B45" s="40" t="s">
+        <v>456</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D45" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="31">
+      <c r="A46" s="34">
         <v>45</v>
       </c>
-      <c r="B46" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="D46" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>308</v>
+      <c r="B46" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D46" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="31">
+      <c r="A47" s="34">
         <v>46</v>
       </c>
-      <c r="B47" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="D47" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>308</v>
+      <c r="B47" s="40" t="s">
+        <v>458</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D47" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="31">
+      <c r="A48" s="34">
         <v>47</v>
       </c>
-      <c r="B48" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="D48" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>308</v>
+      <c r="B48" s="40" t="s">
+        <v>459</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D48" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="31">
+      <c r="A49" s="34">
         <v>48</v>
       </c>
-      <c r="B49" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D49" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>308</v>
+      <c r="B49" s="40" t="s">
+        <v>460</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D49" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="31">
+      <c r="A50" s="34">
         <v>49</v>
       </c>
-      <c r="B50" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="D50" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>308</v>
+      <c r="B50" s="40" t="s">
+        <v>461</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D50" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="31">
+      <c r="A51" s="34">
         <v>50</v>
       </c>
-      <c r="B51" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="D51" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E51" s="19" t="s">
-        <v>308</v>
+      <c r="B51" s="40" t="s">
+        <v>462</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D51" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="31">
+      <c r="A52" s="34">
         <v>51</v>
       </c>
-      <c r="B52" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D52" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>308</v>
+      <c r="B52" s="40" t="s">
+        <v>463</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D52" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="31">
+      <c r="A53" s="34">
         <v>52</v>
       </c>
-      <c r="B53" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="D53" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>308</v>
+      <c r="B53" s="40" t="s">
+        <v>464</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D53" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="31">
+      <c r="A54" s="34">
         <v>53</v>
       </c>
-      <c r="B54" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="D54" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>308</v>
+      <c r="B54" s="40" t="s">
+        <v>465</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D54" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="31">
+      <c r="A55" s="34">
         <v>54</v>
       </c>
-      <c r="B55" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D55" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>308</v>
+      <c r="B55" s="40" t="s">
+        <v>466</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D55" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="31">
+      <c r="A56" s="34">
         <v>55</v>
       </c>
-      <c r="B56" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D56" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>308</v>
+      <c r="B56" s="40" t="s">
+        <v>467</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D56" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="31">
+      <c r="A57" s="34">
         <v>56</v>
       </c>
-      <c r="B57" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="D57" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>308</v>
+      <c r="B57" s="40" t="s">
+        <v>468</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D57" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="31">
+      <c r="A58" s="34">
         <v>57</v>
       </c>
-      <c r="B58" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="D58" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>308</v>
+      <c r="B58" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D58" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="31">
+      <c r="A59" s="34">
         <v>58</v>
       </c>
-      <c r="B59" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="D59" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>308</v>
+      <c r="B59" s="40" t="s">
+        <v>470</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D59" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="31">
+      <c r="A60" s="34">
         <v>59</v>
       </c>
-      <c r="B60" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="C60" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D60" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>308</v>
+      <c r="B60" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D60" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="31">
+      <c r="A61" s="34">
         <v>60</v>
       </c>
-      <c r="B61" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="D61" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>308</v>
+      <c r="B61" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D61" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="31">
+      <c r="A62" s="34">
         <v>61</v>
       </c>
-      <c r="B62" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="D62" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>308</v>
+      <c r="B62" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D62" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="31">
+      <c r="A63" s="34">
         <v>62</v>
       </c>
-      <c r="B63" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="D63" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>308</v>
+      <c r="B63" s="40" t="s">
+        <v>474</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D63" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="31">
+      <c r="A64" s="34">
         <v>63</v>
       </c>
-      <c r="B64" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="D64" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E64" s="19" t="s">
-        <v>308</v>
+      <c r="B64" s="40" t="s">
+        <v>475</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D64" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="31">
+      <c r="A65" s="34">
         <v>64</v>
       </c>
-      <c r="B65" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="D65" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E65" s="19" t="s">
-        <v>308</v>
+      <c r="B65" s="40" t="s">
+        <v>476</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D65" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="31">
+      <c r="A66" s="34">
         <v>65</v>
       </c>
-      <c r="B66" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="D66" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E66" s="19" t="s">
-        <v>308</v>
+      <c r="B66" s="40" t="s">
+        <v>477</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D66" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="31">
+      <c r="A67" s="34">
         <v>66</v>
       </c>
-      <c r="B67" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="C67" s="21" t="s">
+      <c r="B67" s="40" t="s">
+        <v>478</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D67" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E67" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="D67" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E67" s="19" t="s">
-        <v>308</v>
-      </c>
     </row>
     <row r="68" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="31">
+      <c r="A68" s="34">
         <v>67</v>
       </c>
-      <c r="B68" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="C68" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="D68" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E68" s="19" t="s">
-        <v>308</v>
+      <c r="B68" s="40" t="s">
+        <v>479</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D68" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="31">
+      <c r="A69" s="34">
         <v>68</v>
       </c>
-      <c r="B69" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="C69" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="D69" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E69" s="19" t="s">
-        <v>308</v>
+      <c r="B69" s="40" t="s">
+        <v>480</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D69" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="31">
+      <c r="A70" s="34">
         <v>69</v>
       </c>
-      <c r="B70" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="C70" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="D70" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>308</v>
+      <c r="B70" s="40" t="s">
+        <v>481</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D70" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="31">
+      <c r="A71" s="34">
         <v>70</v>
       </c>
-      <c r="B71" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="C71" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="D71" s="26">
-        <v>44228</v>
-      </c>
-      <c r="E71" s="19" t="s">
-        <v>308</v>
+      <c r="B71" s="40" t="s">
+        <v>482</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D71" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="34"/>
+      <c r="A72" s="34">
+        <v>71</v>
+      </c>
+      <c r="B72" s="40" t="s">
+        <v>483</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D72" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="73" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="34"/>
+      <c r="A73" s="34">
+        <v>72</v>
+      </c>
+      <c r="B73" s="40" t="s">
+        <v>484</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D73" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="74" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="34"/>
+      <c r="A74" s="34">
+        <v>73</v>
+      </c>
+      <c r="B74" s="40" t="s">
+        <v>485</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D74" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="34">
+        <v>74</v>
+      </c>
+      <c r="B75" s="40" t="s">
+        <v>486</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D75" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="34">
+        <v>75</v>
+      </c>
+      <c r="B76" s="40" t="s">
+        <v>487</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D76" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="34">
+        <v>76</v>
+      </c>
+      <c r="B77" s="40" t="s">
+        <v>488</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D77" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="34">
+        <v>77</v>
+      </c>
+      <c r="B78" s="40" t="s">
+        <v>489</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D78" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="34">
+        <v>78</v>
+      </c>
+      <c r="B79" s="40" t="s">
+        <v>490</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D79" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="34">
+        <v>79</v>
+      </c>
+      <c r="B80" s="40" t="s">
+        <v>491</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D80" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="34">
+        <v>80</v>
+      </c>
+      <c r="B81" s="40" t="s">
+        <v>492</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D81" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="34">
+        <v>81</v>
+      </c>
+      <c r="B82" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="D82" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="34">
+        <v>82</v>
+      </c>
+      <c r="B83" s="40" t="s">
+        <v>495</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="D83" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="34">
+        <v>83</v>
+      </c>
+      <c r="B84" s="40" t="s">
+        <v>496</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="D84" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="34">
+        <v>84</v>
+      </c>
+      <c r="B85" s="40" t="s">
+        <v>497</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="D85" s="19">
+        <v>44334</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C87" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E72EDB-0B7D-B844-8476-DDE5315955C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290F596F-6DF3-BB43-BAA5-691DA09C9474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="567">
   <si>
     <t>BRANCH</t>
   </si>
@@ -1534,9 +1534,6 @@
     <t>FELICIANO NAVARRA -VS- PARO ET.AL</t>
   </si>
   <si>
-    <t>taken b1</t>
-  </si>
-  <si>
     <t>BENJAMIN MAGUGAT -VS- PARO ET.AL</t>
   </si>
   <si>
@@ -1709,6 +1706,27 @@
   </si>
   <si>
     <t>ATTY. LOLITA ABELLA -VS- ARTURO AGUIRRE ET.AL</t>
+  </si>
+  <si>
+    <t>R-03-02-0370</t>
+  </si>
+  <si>
+    <t>R-03-02-0371</t>
+  </si>
+  <si>
+    <t>HRS OF GREGORIA VICTORIA</t>
+  </si>
+  <si>
+    <t>R-03-02-0372</t>
+  </si>
+  <si>
+    <t>R-03-02-0373</t>
+  </si>
+  <si>
+    <t>R-03-02-0374</t>
+  </si>
+  <si>
+    <t>b1</t>
   </si>
 </sst>
 </file>
@@ -2001,9 +2019,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2027,6 +2042,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2345,8 +2363,8 @@
   <dimension ref="A1:J424"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C331" sqref="C331"/>
+      <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A380" sqref="A380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6484,7 +6502,7 @@
         <v>371</v>
       </c>
       <c r="D268" s="27" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E268" s="5"/>
       <c r="F268" s="26"/>
@@ -6500,7 +6518,7 @@
         <v>372</v>
       </c>
       <c r="D269" s="27" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E269" s="5"/>
       <c r="F269" s="26"/>
@@ -6516,7 +6534,7 @@
         <v>373</v>
       </c>
       <c r="D270" s="27" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E270" s="5"/>
       <c r="F270" s="26"/>
@@ -6532,7 +6550,7 @@
         <v>374</v>
       </c>
       <c r="D271" s="27" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E271" s="5"/>
       <c r="F271" s="26"/>
@@ -6548,7 +6566,7 @@
         <v>375</v>
       </c>
       <c r="D272" s="27" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E272" s="5"/>
       <c r="F272" s="26"/>
@@ -6564,7 +6582,7 @@
         <v>376</v>
       </c>
       <c r="D273" s="27" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E273" s="5"/>
       <c r="F273" s="26"/>
@@ -6580,7 +6598,7 @@
         <v>377</v>
       </c>
       <c r="D274" s="27" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E274" s="5"/>
       <c r="F274" s="26"/>
@@ -6596,7 +6614,7 @@
         <v>378</v>
       </c>
       <c r="D275" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E275" s="5"/>
       <c r="F275" s="26"/>
@@ -6612,7 +6630,7 @@
         <v>379</v>
       </c>
       <c r="D276" s="27" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E276" s="5"/>
       <c r="F276" s="26"/>
@@ -6628,7 +6646,7 @@
         <v>399</v>
       </c>
       <c r="D277" s="27" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E277" s="5"/>
       <c r="F277" s="26"/>
@@ -6644,7 +6662,7 @@
         <v>400</v>
       </c>
       <c r="D278" s="27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E278" s="5"/>
       <c r="F278" s="26"/>
@@ -6660,7 +6678,7 @@
         <v>401</v>
       </c>
       <c r="D279" s="27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E279" s="5"/>
       <c r="F279" s="26"/>
@@ -6675,7 +6693,7 @@
         <v>402</v>
       </c>
       <c r="D280" s="27" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E280" s="5"/>
       <c r="F280" s="5"/>
@@ -6690,7 +6708,7 @@
         <v>403</v>
       </c>
       <c r="D281" s="27" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E281" s="5"/>
       <c r="F281" s="5"/>
@@ -6705,7 +6723,7 @@
         <v>404</v>
       </c>
       <c r="D282" s="25" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E282" s="5"/>
       <c r="F282" s="5"/>
@@ -6720,7 +6738,7 @@
         <v>405</v>
       </c>
       <c r="D283" s="25" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E283" s="5"/>
       <c r="F283" s="5"/>
@@ -6735,7 +6753,7 @@
         <v>406</v>
       </c>
       <c r="D284" s="25" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E284" s="28"/>
       <c r="F284" s="28"/>
@@ -6750,7 +6768,7 @@
         <v>407</v>
       </c>
       <c r="D285" s="27" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E285" s="5"/>
       <c r="F285" s="5"/>
@@ -6767,7 +6785,7 @@
         <v>408</v>
       </c>
       <c r="D286" s="27" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E286" s="5"/>
       <c r="F286" s="5"/>
@@ -6784,7 +6802,7 @@
         <v>409</v>
       </c>
       <c r="D287" s="27" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E287" s="5"/>
       <c r="F287" s="5"/>
@@ -6801,7 +6819,7 @@
         <v>410</v>
       </c>
       <c r="D288" s="27" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E288" s="5"/>
       <c r="F288" s="5"/>
@@ -6818,7 +6836,7 @@
         <v>411</v>
       </c>
       <c r="D289" s="27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E289" s="5"/>
       <c r="F289" s="5"/>
@@ -6835,7 +6853,7 @@
         <v>412</v>
       </c>
       <c r="D290" s="27" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E290" s="5"/>
       <c r="F290" s="5"/>
@@ -6852,7 +6870,7 @@
         <v>413</v>
       </c>
       <c r="D291" s="27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E291" s="5"/>
       <c r="F291" s="5"/>
@@ -6869,7 +6887,7 @@
         <v>414</v>
       </c>
       <c r="D292" s="27" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E292" s="5"/>
       <c r="F292" s="5"/>
@@ -6900,7 +6918,7 @@
         <v>419</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E294" s="5"/>
       <c r="F294" s="5"/>
@@ -6914,7 +6932,7 @@
         <v>420</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E295" s="5"/>
       <c r="F295" s="5"/>
@@ -6928,7 +6946,7 @@
         <v>421</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E296" s="5"/>
       <c r="F296" s="5"/>
@@ -6942,7 +6960,7 @@
         <v>422</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E297" s="5"/>
       <c r="F297" s="5"/>
@@ -6962,7 +6980,7 @@
         <v>423</v>
       </c>
       <c r="D298" s="30" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E298" s="5"/>
       <c r="F298" s="5"/>
@@ -6982,7 +7000,7 @@
         <v>424</v>
       </c>
       <c r="D299" s="30" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E299" s="5"/>
       <c r="F299" s="5"/>
@@ -7002,7 +7020,7 @@
         <v>425</v>
       </c>
       <c r="D300" s="30" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E300" s="5"/>
       <c r="F300" s="5"/>
@@ -7022,7 +7040,7 @@
         <v>426</v>
       </c>
       <c r="D301" s="30" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E301" s="5"/>
       <c r="F301" s="5"/>
@@ -7499,10 +7517,10 @@
         <v>233</v>
       </c>
       <c r="C325" s="10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D325" s="30" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E325" s="5"/>
       <c r="F325" s="5"/>
@@ -7519,10 +7537,10 @@
         <v>233</v>
       </c>
       <c r="C326" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="D326" s="30" t="s">
         <v>527</v>
-      </c>
-      <c r="D326" s="30" t="s">
-        <v>528</v>
       </c>
       <c r="E326" s="5"/>
       <c r="F326" s="5"/>
@@ -7539,10 +7557,10 @@
         <v>233</v>
       </c>
       <c r="C327" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D327" s="30" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E327" s="5"/>
       <c r="F327" s="5"/>
@@ -7607,7 +7625,7 @@
         <v>1</v>
       </c>
       <c r="B331" s="31" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C331" s="10" t="s">
         <v>454</v>
@@ -8341,10 +8359,10 @@
         <v>44317</v>
       </c>
       <c r="C374" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D374" s="5" t="s">
-        <v>502</v>
+        <v>562</v>
       </c>
       <c r="E374" s="5"/>
       <c r="F374" s="5"/>
@@ -8352,23 +8370,33 @@
       <c r="H374" s="5"/>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C375" s="5"/>
-      <c r="D375" s="5"/>
+      <c r="C375" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="D375" s="5" t="s">
+        <v>562</v>
+      </c>
       <c r="E375" s="5"/>
       <c r="F375" s="5"/>
       <c r="G375" s="5"/>
       <c r="H375" s="5"/>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C376" s="5"/>
-      <c r="D376" s="5"/>
+      <c r="C376" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="D376" s="5" t="s">
+        <v>562</v>
+      </c>
       <c r="E376" s="5"/>
       <c r="F376" s="5"/>
       <c r="G376" s="5"/>
       <c r="H376" s="5"/>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C377" s="5"/>
+      <c r="C377" s="10" t="s">
+        <v>563</v>
+      </c>
       <c r="D377" s="5"/>
       <c r="E377" s="5"/>
       <c r="F377" s="5"/>
@@ -8376,7 +8404,9 @@
       <c r="H377" s="5"/>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C378" s="5"/>
+      <c r="C378" s="10" t="s">
+        <v>564</v>
+      </c>
       <c r="D378" s="5"/>
       <c r="E378" s="5"/>
       <c r="F378" s="5"/>
@@ -8384,7 +8414,9 @@
       <c r="H378" s="5"/>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C379" s="5"/>
+      <c r="C379" s="10" t="s">
+        <v>565</v>
+      </c>
       <c r="D379" s="5"/>
       <c r="E379" s="5"/>
       <c r="F379" s="5"/>
@@ -8392,6 +8424,9 @@
       <c r="H379" s="5"/>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B380" t="s">
+        <v>566</v>
+      </c>
       <c r="C380" s="5"/>
       <c r="D380" s="5"/>
       <c r="E380" s="5"/>
@@ -8777,337 +8812,337 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
+        <v>533</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>534</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="D2" s="35" t="s">
         <v>535</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>536</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34">
+      <c r="A3" s="33">
         <v>2</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
+        <v>536</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>537</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>538</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34">
+      <c r="A4" s="33">
         <v>3</v>
       </c>
-      <c r="B4" s="40" t="s">
-        <v>539</v>
-      </c>
-      <c r="C4" s="35" t="s">
+      <c r="B4" s="39" t="s">
+        <v>538</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="36" t="s">
-        <v>538</v>
+      <c r="D4" s="35" t="s">
+        <v>537</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34">
+      <c r="A5" s="33">
         <v>4</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>540</v>
-      </c>
-      <c r="C5" s="35" t="s">
+      <c r="B5" s="39" t="s">
+        <v>539</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>538</v>
+      <c r="D5" s="35" t="s">
+        <v>537</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34">
+      <c r="A6" s="33">
         <v>5</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>541</v>
-      </c>
-      <c r="C6" s="35" t="s">
+      <c r="B6" s="39" t="s">
+        <v>540</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>538</v>
+      <c r="D6" s="35" t="s">
+        <v>537</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="34">
+      <c r="A7" s="33">
         <v>6</v>
       </c>
-      <c r="B7" s="40" t="s">
-        <v>542</v>
-      </c>
-      <c r="C7" s="35" t="s">
+      <c r="B7" s="39" t="s">
+        <v>541</v>
+      </c>
+      <c r="C7" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="36" t="s">
-        <v>538</v>
+      <c r="D7" s="35" t="s">
+        <v>537</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="34">
+      <c r="A8" s="33">
         <v>7</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>543</v>
-      </c>
-      <c r="C8" s="35" t="s">
+      <c r="B8" s="39" t="s">
+        <v>542</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="D8" s="36" t="s">
-        <v>538</v>
+      <c r="D8" s="35" t="s">
+        <v>537</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34">
+      <c r="A9" s="33">
         <v>8</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>544</v>
-      </c>
-      <c r="C9" s="35" t="s">
+      <c r="B9" s="39" t="s">
+        <v>543</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="36" t="s">
-        <v>538</v>
+      <c r="D9" s="35" t="s">
+        <v>537</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34">
+      <c r="A10" s="33">
         <v>9</v>
       </c>
-      <c r="B10" s="40" t="s">
-        <v>545</v>
-      </c>
-      <c r="C10" s="35" t="s">
+      <c r="B10" s="39" t="s">
+        <v>544</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="36" t="s">
-        <v>538</v>
+      <c r="D10" s="35" t="s">
+        <v>537</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34">
+      <c r="A11" s="33">
         <v>10</v>
       </c>
-      <c r="B11" s="40" t="s">
-        <v>546</v>
-      </c>
-      <c r="C11" s="37" t="s">
+      <c r="B11" s="39" t="s">
+        <v>545</v>
+      </c>
+      <c r="C11" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="D11" s="36" t="s">
-        <v>538</v>
+      <c r="D11" s="35" t="s">
+        <v>537</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34">
+      <c r="A12" s="33">
         <v>11</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="39" t="s">
+        <v>546</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="D12" s="35" t="s">
         <v>547</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>290</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>548</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="34">
+      <c r="A13" s="33">
         <v>12</v>
       </c>
-      <c r="B13" s="40" t="s">
-        <v>549</v>
-      </c>
-      <c r="C13" s="35" t="s">
+      <c r="B13" s="39" t="s">
+        <v>548</v>
+      </c>
+      <c r="C13" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="D13" s="36" t="s">
-        <v>548</v>
+      <c r="D13" s="35" t="s">
+        <v>547</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34">
+      <c r="A14" s="33">
         <v>13</v>
       </c>
-      <c r="B14" s="40" t="s">
-        <v>550</v>
-      </c>
-      <c r="C14" s="35" t="s">
+      <c r="B14" s="39" t="s">
+        <v>549</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="D14" s="36" t="s">
-        <v>548</v>
+      <c r="D14" s="35" t="s">
+        <v>547</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34">
+      <c r="A15" s="33">
         <v>14</v>
       </c>
-      <c r="B15" s="40" t="s">
-        <v>551</v>
-      </c>
-      <c r="C15" s="35" t="s">
+      <c r="B15" s="39" t="s">
+        <v>550</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="D15" s="36" t="s">
-        <v>548</v>
+      <c r="D15" s="35" t="s">
+        <v>547</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="34">
+      <c r="A16" s="33">
         <v>15</v>
       </c>
-      <c r="B16" s="40" t="s">
-        <v>552</v>
-      </c>
-      <c r="C16" s="35" t="s">
+      <c r="B16" s="39" t="s">
+        <v>551</v>
+      </c>
+      <c r="C16" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="D16" s="36" t="s">
-        <v>548</v>
+      <c r="D16" s="35" t="s">
+        <v>547</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="34">
+      <c r="A17" s="33">
         <v>16</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="39" t="s">
+        <v>552</v>
+      </c>
+      <c r="C17" s="34" t="s">
         <v>553</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="D17" s="35" t="s">
         <v>554</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>555</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="34">
+      <c r="A18" s="33">
         <v>17</v>
       </c>
-      <c r="B18" s="40" t="s">
-        <v>556</v>
-      </c>
-      <c r="C18" s="35" t="s">
+      <c r="B18" s="39" t="s">
+        <v>555</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>553</v>
+      </c>
+      <c r="D18" s="35" t="s">
         <v>554</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>555</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34">
+      <c r="A19" s="33">
         <v>18</v>
       </c>
-      <c r="B19" s="40" t="s">
-        <v>557</v>
-      </c>
-      <c r="C19" s="35" t="s">
+      <c r="B19" s="39" t="s">
+        <v>556</v>
+      </c>
+      <c r="C19" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="D19" s="36" t="s">
-        <v>555</v>
+      <c r="D19" s="35" t="s">
+        <v>554</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="34">
+      <c r="A20" s="33">
         <v>19</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="C20" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="D20" s="39">
+      <c r="C20" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="D20" s="38">
         <v>44300</v>
       </c>
       <c r="E20" s="17" t="s">
@@ -9115,16 +9150,16 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="34">
+      <c r="A21" s="33">
         <v>20</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="39" t="s">
         <v>428</v>
       </c>
-      <c r="C21" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="D21" s="39">
+      <c r="C21" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="D21" s="38">
         <v>44300</v>
       </c>
       <c r="E21" s="17" t="s">
@@ -9132,16 +9167,16 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="34">
+      <c r="A22" s="33">
         <v>21</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="39" t="s">
         <v>429</v>
       </c>
-      <c r="C22" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="D22" s="39">
+      <c r="C22" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="D22" s="38">
         <v>44300</v>
       </c>
       <c r="E22" s="17" t="s">
@@ -9149,16 +9184,16 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="34">
+      <c r="A23" s="33">
         <v>22</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="39" t="s">
         <v>430</v>
       </c>
-      <c r="C23" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="D23" s="39">
+      <c r="C23" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="D23" s="38">
         <v>44300</v>
       </c>
       <c r="E23" s="17" t="s">
@@ -9166,16 +9201,16 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="34">
+      <c r="A24" s="33">
         <v>23</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="C24" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="D24" s="39">
+      <c r="C24" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="D24" s="38">
         <v>44300</v>
       </c>
       <c r="E24" s="17" t="s">
@@ -9183,16 +9218,16 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="34">
+      <c r="A25" s="33">
         <v>24</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="39" t="s">
         <v>432</v>
       </c>
-      <c r="C25" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="D25" s="39">
+      <c r="C25" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="D25" s="38">
         <v>44300</v>
       </c>
       <c r="E25" s="17" t="s">
@@ -9200,16 +9235,16 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="34">
+      <c r="A26" s="33">
         <v>25</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="39" t="s">
         <v>433</v>
       </c>
-      <c r="C26" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="D26" s="39">
+      <c r="C26" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="D26" s="38">
         <v>44300</v>
       </c>
       <c r="E26" s="17" t="s">
@@ -9217,16 +9252,16 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="34">
+      <c r="A27" s="33">
         <v>26</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="39" t="s">
         <v>434</v>
       </c>
-      <c r="C27" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="D27" s="39">
+      <c r="C27" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="D27" s="38">
         <v>44300</v>
       </c>
       <c r="E27" s="17" t="s">
@@ -9234,16 +9269,16 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="34">
+      <c r="A28" s="33">
         <v>27</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="39" t="s">
         <v>435</v>
       </c>
-      <c r="C28" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="D28" s="39">
+      <c r="C28" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="D28" s="38">
         <v>44300</v>
       </c>
       <c r="E28" s="17" t="s">
@@ -9251,16 +9286,16 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="34">
+      <c r="A29" s="33">
         <v>28</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="39" t="s">
         <v>436</v>
       </c>
-      <c r="C29" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="D29" s="39">
+      <c r="C29" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="D29" s="38">
         <v>44300</v>
       </c>
       <c r="E29" s="17" t="s">
@@ -9268,16 +9303,16 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="34">
+      <c r="A30" s="33">
         <v>29</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="39" t="s">
         <v>437</v>
       </c>
-      <c r="C30" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="D30" s="39">
+      <c r="C30" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="D30" s="38">
         <v>44300</v>
       </c>
       <c r="E30" s="17" t="s">
@@ -9285,16 +9320,16 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="34">
+      <c r="A31" s="33">
         <v>30</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="39" t="s">
         <v>438</v>
       </c>
-      <c r="C31" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="D31" s="39">
+      <c r="C31" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="D31" s="38">
         <v>44300</v>
       </c>
       <c r="E31" s="17" t="s">
@@ -9302,16 +9337,16 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="34">
+      <c r="A32" s="33">
         <v>31</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="39" t="s">
         <v>439</v>
       </c>
-      <c r="C32" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="D32" s="39">
+      <c r="C32" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="D32" s="38">
         <v>44300</v>
       </c>
       <c r="E32" s="17" t="s">
@@ -9319,16 +9354,16 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="34">
+      <c r="A33" s="33">
         <v>32</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="39" t="s">
         <v>440</v>
       </c>
-      <c r="C33" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="D33" s="39">
+      <c r="C33" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="D33" s="38">
         <v>44300</v>
       </c>
       <c r="E33" s="17" t="s">
@@ -9336,16 +9371,16 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="34">
+      <c r="A34" s="33">
         <v>33</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="39" t="s">
         <v>441</v>
       </c>
-      <c r="C34" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="D34" s="39">
+      <c r="C34" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="D34" s="38">
         <v>44300</v>
       </c>
       <c r="E34" s="17" t="s">
@@ -9353,16 +9388,16 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="34">
+      <c r="A35" s="33">
         <v>34</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="39" t="s">
         <v>442</v>
       </c>
-      <c r="C35" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="D35" s="39">
+      <c r="C35" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="D35" s="38">
         <v>44300</v>
       </c>
       <c r="E35" s="17" t="s">
@@ -9370,16 +9405,16 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="34">
+      <c r="A36" s="33">
         <v>35</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="39" t="s">
         <v>443</v>
       </c>
-      <c r="C36" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="D36" s="39">
+      <c r="C36" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="D36" s="38">
         <v>44300</v>
       </c>
       <c r="E36" s="17" t="s">
@@ -9387,16 +9422,16 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="34">
+      <c r="A37" s="33">
         <v>36</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="39" t="s">
         <v>444</v>
       </c>
-      <c r="C37" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="D37" s="39">
+      <c r="C37" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="D37" s="38">
         <v>44300</v>
       </c>
       <c r="E37" s="17" t="s">
@@ -9404,16 +9439,16 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="34">
+      <c r="A38" s="33">
         <v>37</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="39" t="s">
         <v>445</v>
       </c>
-      <c r="C38" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="D38" s="39">
+      <c r="C38" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="D38" s="38">
         <v>44300</v>
       </c>
       <c r="E38" s="17" t="s">
@@ -9421,16 +9456,16 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="34">
+      <c r="A39" s="33">
         <v>38</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="39" t="s">
         <v>446</v>
       </c>
-      <c r="C39" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="D39" s="39">
+      <c r="C39" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="D39" s="38">
         <v>44300</v>
       </c>
       <c r="E39" s="17" t="s">
@@ -9438,16 +9473,16 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="34">
+      <c r="A40" s="33">
         <v>39</v>
       </c>
-      <c r="B40" s="40" t="s">
+      <c r="B40" s="39" t="s">
         <v>447</v>
       </c>
-      <c r="C40" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="D40" s="39">
+      <c r="C40" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="D40" s="38">
         <v>44300</v>
       </c>
       <c r="E40" s="17" t="s">
@@ -9455,16 +9490,16 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="34">
+      <c r="A41" s="33">
         <v>40</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="39" t="s">
         <v>448</v>
       </c>
-      <c r="C41" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="D41" s="39">
+      <c r="C41" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="D41" s="38">
         <v>44300</v>
       </c>
       <c r="E41" s="17" t="s">
@@ -9472,16 +9507,16 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="34">
+      <c r="A42" s="33">
         <v>41</v>
       </c>
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="39" t="s">
         <v>449</v>
       </c>
-      <c r="C42" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="D42" s="39">
+      <c r="C42" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="D42" s="38">
         <v>44300</v>
       </c>
       <c r="E42" s="17" t="s">
@@ -9489,14 +9524,14 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="34">
+      <c r="A43" s="33">
         <v>42</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="39" t="s">
         <v>454</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D43" s="19">
         <v>44334</v>
@@ -9506,14 +9541,14 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="34">
+      <c r="A44" s="33">
         <v>43</v>
       </c>
-      <c r="B44" s="40" t="s">
+      <c r="B44" s="39" t="s">
         <v>455</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D44" s="19">
         <v>44334</v>
@@ -9523,14 +9558,14 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="34">
+      <c r="A45" s="33">
         <v>44</v>
       </c>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="39" t="s">
         <v>456</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D45" s="19">
         <v>44334</v>
@@ -9540,14 +9575,14 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="34">
+      <c r="A46" s="33">
         <v>45</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="39" t="s">
         <v>457</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D46" s="19">
         <v>44334</v>
@@ -9557,14 +9592,14 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="34">
+      <c r="A47" s="33">
         <v>46</v>
       </c>
-      <c r="B47" s="40" t="s">
+      <c r="B47" s="39" t="s">
         <v>458</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D47" s="19">
         <v>44334</v>
@@ -9574,14 +9609,14 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="34">
+      <c r="A48" s="33">
         <v>47</v>
       </c>
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="39" t="s">
         <v>459</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D48" s="19">
         <v>44334</v>
@@ -9591,14 +9626,14 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="34">
+      <c r="A49" s="33">
         <v>48</v>
       </c>
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="39" t="s">
         <v>460</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D49" s="19">
         <v>44334</v>
@@ -9608,14 +9643,14 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="34">
+      <c r="A50" s="33">
         <v>49</v>
       </c>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="39" t="s">
         <v>461</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D50" s="19">
         <v>44334</v>
@@ -9625,14 +9660,14 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="34">
+      <c r="A51" s="33">
         <v>50</v>
       </c>
-      <c r="B51" s="40" t="s">
+      <c r="B51" s="39" t="s">
         <v>462</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D51" s="19">
         <v>44334</v>
@@ -9642,14 +9677,14 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="34">
+      <c r="A52" s="33">
         <v>51</v>
       </c>
-      <c r="B52" s="40" t="s">
+      <c r="B52" s="39" t="s">
         <v>463</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D52" s="19">
         <v>44334</v>
@@ -9659,14 +9694,14 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="34">
+      <c r="A53" s="33">
         <v>52</v>
       </c>
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="39" t="s">
         <v>464</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D53" s="19">
         <v>44334</v>
@@ -9676,14 +9711,14 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="34">
+      <c r="A54" s="33">
         <v>53</v>
       </c>
-      <c r="B54" s="40" t="s">
+      <c r="B54" s="39" t="s">
         <v>465</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D54" s="19">
         <v>44334</v>
@@ -9693,14 +9728,14 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="34">
+      <c r="A55" s="33">
         <v>54</v>
       </c>
-      <c r="B55" s="40" t="s">
+      <c r="B55" s="39" t="s">
         <v>466</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D55" s="19">
         <v>44334</v>
@@ -9710,14 +9745,14 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="34">
+      <c r="A56" s="33">
         <v>55</v>
       </c>
-      <c r="B56" s="40" t="s">
+      <c r="B56" s="39" t="s">
         <v>467</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D56" s="19">
         <v>44334</v>
@@ -9727,14 +9762,14 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="34">
+      <c r="A57" s="33">
         <v>56</v>
       </c>
-      <c r="B57" s="40" t="s">
+      <c r="B57" s="39" t="s">
         <v>468</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D57" s="19">
         <v>44334</v>
@@ -9744,14 +9779,14 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="34">
+      <c r="A58" s="33">
         <v>57</v>
       </c>
-      <c r="B58" s="40" t="s">
+      <c r="B58" s="39" t="s">
         <v>469</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D58" s="19">
         <v>44334</v>
@@ -9761,14 +9796,14 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="34">
+      <c r="A59" s="33">
         <v>58</v>
       </c>
-      <c r="B59" s="40" t="s">
+      <c r="B59" s="39" t="s">
         <v>470</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D59" s="19">
         <v>44334</v>
@@ -9778,14 +9813,14 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="34">
+      <c r="A60" s="33">
         <v>59</v>
       </c>
-      <c r="B60" s="40" t="s">
+      <c r="B60" s="39" t="s">
         <v>471</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D60" s="19">
         <v>44334</v>
@@ -9795,14 +9830,14 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="34">
+      <c r="A61" s="33">
         <v>60</v>
       </c>
-      <c r="B61" s="40" t="s">
+      <c r="B61" s="39" t="s">
         <v>472</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D61" s="19">
         <v>44334</v>
@@ -9812,14 +9847,14 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="34">
+      <c r="A62" s="33">
         <v>61</v>
       </c>
-      <c r="B62" s="40" t="s">
+      <c r="B62" s="39" t="s">
         <v>473</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D62" s="19">
         <v>44334</v>
@@ -9829,14 +9864,14 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="34">
+      <c r="A63" s="33">
         <v>62</v>
       </c>
-      <c r="B63" s="40" t="s">
+      <c r="B63" s="39" t="s">
         <v>474</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D63" s="19">
         <v>44334</v>
@@ -9846,14 +9881,14 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="34">
+      <c r="A64" s="33">
         <v>63</v>
       </c>
-      <c r="B64" s="40" t="s">
+      <c r="B64" s="39" t="s">
         <v>475</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D64" s="19">
         <v>44334</v>
@@ -9863,14 +9898,14 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="34">
+      <c r="A65" s="33">
         <v>64</v>
       </c>
-      <c r="B65" s="40" t="s">
+      <c r="B65" s="39" t="s">
         <v>476</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D65" s="19">
         <v>44334</v>
@@ -9880,14 +9915,14 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="34">
+      <c r="A66" s="33">
         <v>65</v>
       </c>
-      <c r="B66" s="40" t="s">
+      <c r="B66" s="39" t="s">
         <v>477</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D66" s="19">
         <v>44334</v>
@@ -9897,14 +9932,14 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="34">
+      <c r="A67" s="33">
         <v>66</v>
       </c>
-      <c r="B67" s="40" t="s">
+      <c r="B67" s="39" t="s">
         <v>478</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D67" s="19">
         <v>44334</v>
@@ -9914,14 +9949,14 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="34">
+      <c r="A68" s="33">
         <v>67</v>
       </c>
-      <c r="B68" s="40" t="s">
+      <c r="B68" s="39" t="s">
         <v>479</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D68" s="19">
         <v>44334</v>
@@ -9931,14 +9966,14 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="34">
+      <c r="A69" s="33">
         <v>68</v>
       </c>
-      <c r="B69" s="40" t="s">
+      <c r="B69" s="39" t="s">
         <v>480</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D69" s="19">
         <v>44334</v>
@@ -9948,14 +9983,14 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="34">
+      <c r="A70" s="33">
         <v>69</v>
       </c>
-      <c r="B70" s="40" t="s">
+      <c r="B70" s="39" t="s">
         <v>481</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D70" s="19">
         <v>44334</v>
@@ -9965,14 +10000,14 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="34">
+      <c r="A71" s="33">
         <v>70</v>
       </c>
-      <c r="B71" s="40" t="s">
+      <c r="B71" s="39" t="s">
         <v>482</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D71" s="19">
         <v>44334</v>
@@ -9982,14 +10017,14 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="34">
+      <c r="A72" s="33">
         <v>71</v>
       </c>
-      <c r="B72" s="40" t="s">
+      <c r="B72" s="39" t="s">
         <v>483</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D72" s="19">
         <v>44334</v>
@@ -9999,14 +10034,14 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="34">
+      <c r="A73" s="33">
         <v>72</v>
       </c>
-      <c r="B73" s="40" t="s">
+      <c r="B73" s="39" t="s">
         <v>484</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D73" s="19">
         <v>44334</v>
@@ -10016,14 +10051,14 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="34">
+      <c r="A74" s="33">
         <v>73</v>
       </c>
-      <c r="B74" s="40" t="s">
+      <c r="B74" s="39" t="s">
         <v>485</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D74" s="19">
         <v>44334</v>
@@ -10033,14 +10068,14 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="34">
+      <c r="A75" s="33">
         <v>74</v>
       </c>
-      <c r="B75" s="40" t="s">
+      <c r="B75" s="39" t="s">
         <v>486</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D75" s="19">
         <v>44334</v>
@@ -10050,14 +10085,14 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="34">
+      <c r="A76" s="33">
         <v>75</v>
       </c>
-      <c r="B76" s="40" t="s">
+      <c r="B76" s="39" t="s">
         <v>487</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D76" s="19">
         <v>44334</v>
@@ -10067,14 +10102,14 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="34">
+      <c r="A77" s="33">
         <v>76</v>
       </c>
-      <c r="B77" s="40" t="s">
+      <c r="B77" s="39" t="s">
         <v>488</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D77" s="19">
         <v>44334</v>
@@ -10084,14 +10119,14 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="34">
+      <c r="A78" s="33">
         <v>77</v>
       </c>
-      <c r="B78" s="40" t="s">
+      <c r="B78" s="39" t="s">
         <v>489</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D78" s="19">
         <v>44334</v>
@@ -10101,14 +10136,14 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="34">
+      <c r="A79" s="33">
         <v>78</v>
       </c>
-      <c r="B79" s="40" t="s">
+      <c r="B79" s="39" t="s">
         <v>490</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D79" s="19">
         <v>44334</v>
@@ -10118,14 +10153,14 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="34">
+      <c r="A80" s="33">
         <v>79</v>
       </c>
-      <c r="B80" s="40" t="s">
+      <c r="B80" s="39" t="s">
         <v>491</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D80" s="19">
         <v>44334</v>
@@ -10135,14 +10170,14 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="34">
+      <c r="A81" s="33">
         <v>80</v>
       </c>
-      <c r="B81" s="40" t="s">
+      <c r="B81" s="39" t="s">
         <v>492</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D81" s="19">
         <v>44334</v>
@@ -10152,14 +10187,14 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="34">
+      <c r="A82" s="33">
         <v>81</v>
       </c>
-      <c r="B82" s="40" t="s">
+      <c r="B82" s="39" t="s">
         <v>494</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D82" s="19">
         <v>44334</v>
@@ -10169,14 +10204,14 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="34">
+      <c r="A83" s="33">
         <v>82</v>
       </c>
-      <c r="B83" s="40" t="s">
+      <c r="B83" s="39" t="s">
         <v>495</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D83" s="19">
         <v>44334</v>
@@ -10186,14 +10221,14 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="34">
+      <c r="A84" s="33">
         <v>83</v>
       </c>
-      <c r="B84" s="40" t="s">
+      <c r="B84" s="39" t="s">
         <v>496</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D84" s="19">
         <v>44334</v>
@@ -10203,14 +10238,14 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="34">
+      <c r="A85" s="33">
         <v>84</v>
       </c>
-      <c r="B85" s="40" t="s">
+      <c r="B85" s="39" t="s">
         <v>497</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D85" s="19">
         <v>44334</v>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290F596F-6DF3-BB43-BAA5-691DA09C9474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB8638F-31CE-3543-AF41-B620C53547A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -2363,8 +2363,8 @@
   <dimension ref="A1:J424"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A380" sqref="A380"/>
+      <pane ySplit="1" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C374" sqref="C374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB8638F-31CE-3543-AF41-B620C53547A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21A9712-8FD5-FD43-AF76-15CBA1271B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="618">
   <si>
     <t>BRANCH</t>
   </si>
@@ -1726,7 +1726,160 @@
     <t>R-03-02-0374</t>
   </si>
   <si>
-    <t>b1</t>
+    <t>R-03-02-0375</t>
+  </si>
+  <si>
+    <t>R-03-02-0376</t>
+  </si>
+  <si>
+    <t>R-03-02-0377</t>
+  </si>
+  <si>
+    <t>R-03-02-0378</t>
+  </si>
+  <si>
+    <t>R-03-02-0379</t>
+  </si>
+  <si>
+    <t>JUNE</t>
+  </si>
+  <si>
+    <t>BRANCH 1</t>
+  </si>
+  <si>
+    <t>JOSEPH CRUZ MANAID -VS- DAR BULACAN ET.AL</t>
+  </si>
+  <si>
+    <t>HRS OF TERESA ILLUSURIO -VS- HRS POTENCIAON ILUSORIO ET.AL</t>
+  </si>
+  <si>
+    <t>R-03-02-0380</t>
+  </si>
+  <si>
+    <t>R-03-02-0381</t>
+  </si>
+  <si>
+    <t>R-03-02-0382</t>
+  </si>
+  <si>
+    <t>R-03-02-0383</t>
+  </si>
+  <si>
+    <t>R-03-02-0384</t>
+  </si>
+  <si>
+    <t>R-03-02-0385</t>
+  </si>
+  <si>
+    <t>R-03-02-0386</t>
+  </si>
+  <si>
+    <t>R-03-02-0387</t>
+  </si>
+  <si>
+    <t>R-03-02-0388</t>
+  </si>
+  <si>
+    <t>R-03-02-0389</t>
+  </si>
+  <si>
+    <t>R-03-02-0390</t>
+  </si>
+  <si>
+    <t>R-03-02-0391</t>
+  </si>
+  <si>
+    <t>R-03-02-0392</t>
+  </si>
+  <si>
+    <t>R-03-02-0393</t>
+  </si>
+  <si>
+    <t>R-03-02-0394</t>
+  </si>
+  <si>
+    <t>R-03-02-0395</t>
+  </si>
+  <si>
+    <t>R-03-02-0396</t>
+  </si>
+  <si>
+    <t>R-03-02-0397</t>
+  </si>
+  <si>
+    <t>R-03-02-0398</t>
+  </si>
+  <si>
+    <t>R-03-02-0399</t>
+  </si>
+  <si>
+    <t>R-03-02-0400</t>
+  </si>
+  <si>
+    <t>R-03-02-0401</t>
+  </si>
+  <si>
+    <t>R-03-02-0402</t>
+  </si>
+  <si>
+    <t>R-03-02-0403</t>
+  </si>
+  <si>
+    <t>R-03-02-0404</t>
+  </si>
+  <si>
+    <t>R-03-02-0405</t>
+  </si>
+  <si>
+    <t>R-03-02-0406</t>
+  </si>
+  <si>
+    <t>R-03-02-0407</t>
+  </si>
+  <si>
+    <t>R-03-02-0408</t>
+  </si>
+  <si>
+    <t>R-03-02-0409</t>
+  </si>
+  <si>
+    <t>R-03-02-0410</t>
+  </si>
+  <si>
+    <t>R-03-02-0411</t>
+  </si>
+  <si>
+    <t>R-03-02-0412</t>
+  </si>
+  <si>
+    <t>R-03-02-0413</t>
+  </si>
+  <si>
+    <t>R-03-02-0414</t>
+  </si>
+  <si>
+    <t>R-03-02-0415</t>
+  </si>
+  <si>
+    <t>R-03-02-0416</t>
+  </si>
+  <si>
+    <t>R-03-02-0417</t>
+  </si>
+  <si>
+    <t>R-03-02-0418</t>
+  </si>
+  <si>
+    <t>R-03-02-0419</t>
+  </si>
+  <si>
+    <t>R-03-02-0420</t>
+  </si>
+  <si>
+    <t>bossing</t>
+  </si>
+  <si>
+    <t>HRS OF MARIO FLORES REP. BY VICTOR FERNANDO -VS- PARPO ETAL</t>
   </si>
 </sst>
 </file>
@@ -2360,11 +2513,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7760DDDF-B585-9445-B146-2DD762F6C209}">
-  <dimension ref="A1:J424"/>
+  <dimension ref="A1:J434"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C374" sqref="C374"/>
+      <pane ySplit="1" topLeftCell="A411" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D419" sqref="D419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8423,323 +8576,484 @@
       <c r="G379" s="5"/>
       <c r="H379" s="5"/>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A380" s="31" t="s">
+        <v>571</v>
+      </c>
       <c r="B380" t="s">
+        <v>572</v>
+      </c>
+      <c r="C380" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="C380" s="5"/>
-      <c r="D380" s="5"/>
+      <c r="D380" s="6" t="s">
+        <v>573</v>
+      </c>
       <c r="E380" s="5"/>
       <c r="F380" s="5"/>
       <c r="G380" s="5"/>
       <c r="H380" s="5"/>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C381" s="5"/>
-      <c r="D381" s="5"/>
+    <row r="381" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="C381" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="D381" s="6" t="s">
+        <v>573</v>
+      </c>
       <c r="E381" s="5"/>
       <c r="F381" s="5"/>
       <c r="G381" s="5"/>
       <c r="H381" s="5"/>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C382" s="5"/>
-      <c r="D382" s="5"/>
+    <row r="382" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="C382" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="D382" s="6" t="s">
+        <v>573</v>
+      </c>
       <c r="E382" s="5"/>
       <c r="F382" s="5"/>
       <c r="G382" s="5"/>
       <c r="H382" s="5"/>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C383" s="5"/>
-      <c r="D383" s="5"/>
+    <row r="383" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="C383" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="D383" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="E383" s="5"/>
       <c r="F383" s="5"/>
       <c r="G383" s="5"/>
       <c r="H383" s="5"/>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C384" s="5"/>
-      <c r="D384" s="5"/>
+    <row r="384" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="C384" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="D384" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="E384" s="5"/>
       <c r="F384" s="5"/>
       <c r="G384" s="5"/>
       <c r="H384" s="5"/>
     </row>
-    <row r="385" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C385" s="5"/>
-      <c r="D385" s="5"/>
+    <row r="385" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="C385" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="D385" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="E385" s="5"/>
       <c r="F385" s="5"/>
       <c r="G385" s="5"/>
       <c r="H385" s="5"/>
     </row>
-    <row r="386" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C386" s="5"/>
-      <c r="D386" s="5"/>
+    <row r="386" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="C386" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="D386" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="E386" s="5"/>
       <c r="F386" s="5"/>
       <c r="G386" s="5"/>
       <c r="H386" s="5"/>
     </row>
-    <row r="387" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C387" s="5"/>
-      <c r="D387" s="5"/>
+    <row r="387" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="C387" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="D387" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="E387" s="5"/>
       <c r="F387" s="5"/>
       <c r="G387" s="5"/>
       <c r="H387" s="5"/>
     </row>
-    <row r="388" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C388" s="5"/>
-      <c r="D388" s="5"/>
+    <row r="388" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="C388" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="D388" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="E388" s="5"/>
       <c r="F388" s="5"/>
       <c r="G388" s="5"/>
       <c r="H388" s="5"/>
     </row>
-    <row r="389" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C389" s="5"/>
-      <c r="D389" s="5"/>
+    <row r="389" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="C389" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="D389" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="E389" s="5"/>
       <c r="F389" s="5"/>
       <c r="G389" s="5"/>
       <c r="H389" s="5"/>
     </row>
-    <row r="390" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C390" s="5"/>
-      <c r="D390" s="5"/>
+    <row r="390" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="C390" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="D390" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="E390" s="5"/>
       <c r="F390" s="5"/>
       <c r="G390" s="5"/>
       <c r="H390" s="5"/>
     </row>
-    <row r="391" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C391" s="5"/>
-      <c r="D391" s="5"/>
+    <row r="391" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="C391" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="D391" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="E391" s="5"/>
       <c r="F391" s="5"/>
       <c r="G391" s="5"/>
       <c r="H391" s="5"/>
     </row>
-    <row r="392" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C392" s="5"/>
-      <c r="D392" s="5"/>
+    <row r="392" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="C392" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="D392" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="E392" s="5"/>
       <c r="F392" s="5"/>
       <c r="G392" s="5"/>
       <c r="H392" s="5"/>
     </row>
-    <row r="393" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C393" s="5"/>
-      <c r="D393" s="5"/>
+    <row r="393" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="C393" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="D393" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="E393" s="5"/>
       <c r="F393" s="5"/>
       <c r="G393" s="5"/>
       <c r="H393" s="5"/>
     </row>
-    <row r="394" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C394" s="5"/>
-      <c r="D394" s="5"/>
+    <row r="394" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="C394" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="D394" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="E394" s="5"/>
       <c r="F394" s="5"/>
       <c r="G394" s="5"/>
       <c r="H394" s="5"/>
     </row>
-    <row r="395" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C395" s="5"/>
-      <c r="D395" s="5"/>
+    <row r="395" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="C395" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="D395" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="E395" s="5"/>
       <c r="F395" s="5"/>
       <c r="G395" s="5"/>
       <c r="H395" s="5"/>
     </row>
-    <row r="396" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C396" s="5"/>
-      <c r="D396" s="5"/>
+    <row r="396" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="C396" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="D396" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="E396" s="5"/>
       <c r="F396" s="5"/>
       <c r="G396" s="5"/>
       <c r="H396" s="5"/>
     </row>
-    <row r="397" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C397" s="5"/>
-      <c r="D397" s="5"/>
+    <row r="397" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="C397" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="D397" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="E397" s="5"/>
       <c r="F397" s="5"/>
       <c r="G397" s="5"/>
       <c r="H397" s="5"/>
     </row>
-    <row r="398" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C398" s="5"/>
-      <c r="D398" s="5"/>
+    <row r="398" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="C398" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="D398" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="E398" s="5"/>
       <c r="F398" s="5"/>
       <c r="G398" s="5"/>
       <c r="H398" s="5"/>
     </row>
-    <row r="399" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C399" s="5"/>
-      <c r="D399" s="5"/>
+    <row r="399" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="C399" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="D399" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="E399" s="5"/>
       <c r="F399" s="5"/>
       <c r="G399" s="5"/>
       <c r="H399" s="5"/>
     </row>
-    <row r="400" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C400" s="5"/>
-      <c r="D400" s="5"/>
+    <row r="400" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="C400" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="D400" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="E400" s="5"/>
       <c r="F400" s="5"/>
       <c r="G400" s="5"/>
       <c r="H400" s="5"/>
     </row>
-    <row r="401" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C401" s="5"/>
-      <c r="D401" s="5"/>
+    <row r="401" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="C401" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="D401" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="E401" s="5"/>
       <c r="F401" s="5"/>
       <c r="G401" s="5"/>
       <c r="H401" s="5"/>
     </row>
-    <row r="402" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C402" s="5"/>
-      <c r="D402" s="5"/>
+    <row r="402" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="C402" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="D402" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="E402" s="5"/>
       <c r="F402" s="5"/>
       <c r="G402" s="5"/>
       <c r="H402" s="5"/>
     </row>
-    <row r="403" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C403" s="5"/>
-      <c r="D403" s="5"/>
+    <row r="403" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="C403" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="D403" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="E403" s="5"/>
       <c r="F403" s="5"/>
       <c r="G403" s="5"/>
       <c r="H403" s="5"/>
     </row>
-    <row r="404" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C404" s="5"/>
-      <c r="D404" s="5"/>
+    <row r="404" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="C404" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="D404" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="E404" s="5"/>
       <c r="F404" s="5"/>
       <c r="G404" s="5"/>
       <c r="H404" s="5"/>
     </row>
-    <row r="405" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C405" s="5"/>
-      <c r="D405" s="5"/>
+    <row r="405" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="C405" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="D405" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="E405" s="5"/>
       <c r="F405" s="5"/>
       <c r="G405" s="5"/>
       <c r="H405" s="5"/>
     </row>
-    <row r="406" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C406" s="5"/>
-      <c r="D406" s="5"/>
+    <row r="406" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="C406" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="D406" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="E406" s="5"/>
       <c r="F406" s="5"/>
       <c r="G406" s="5"/>
       <c r="H406" s="5"/>
     </row>
-    <row r="407" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C407" s="5"/>
-      <c r="D407" s="5"/>
+    <row r="407" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="C407" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="D407" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="E407" s="5"/>
       <c r="F407" s="5"/>
       <c r="G407" s="5"/>
       <c r="H407" s="5"/>
     </row>
-    <row r="408" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C408" s="5"/>
-      <c r="D408" s="5"/>
+    <row r="408" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="C408" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="D408" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="E408" s="5"/>
       <c r="F408" s="5"/>
       <c r="G408" s="5"/>
       <c r="H408" s="5"/>
     </row>
-    <row r="409" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C409" s="5"/>
-      <c r="D409" s="5"/>
+    <row r="409" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="C409" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="D409" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="E409" s="5"/>
       <c r="F409" s="5"/>
       <c r="G409" s="5"/>
       <c r="H409" s="5"/>
     </row>
-    <row r="410" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C410" s="5"/>
-      <c r="D410" s="5"/>
+    <row r="410" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="C410" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="D410" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="E410" s="5"/>
       <c r="F410" s="5"/>
       <c r="G410" s="5"/>
       <c r="H410" s="5"/>
     </row>
-    <row r="411" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C411" s="5"/>
-      <c r="D411" s="5"/>
+    <row r="411" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="C411" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="D411" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="E411" s="5"/>
       <c r="F411" s="5"/>
       <c r="G411" s="5"/>
       <c r="H411" s="5"/>
     </row>
-    <row r="412" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C412" s="5"/>
-      <c r="D412" s="5"/>
+    <row r="412" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="C412" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="D412" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="E412" s="5"/>
       <c r="F412" s="5"/>
       <c r="G412" s="5"/>
       <c r="H412" s="5"/>
     </row>
-    <row r="413" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C413" s="5"/>
-      <c r="D413" s="5"/>
+    <row r="413" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="C413" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="D413" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="E413" s="5"/>
       <c r="F413" s="5"/>
       <c r="G413" s="5"/>
       <c r="H413" s="5"/>
     </row>
-    <row r="414" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C414" s="5"/>
-      <c r="D414" s="5"/>
+    <row r="414" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="C414" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="D414" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="E414" s="5"/>
       <c r="F414" s="5"/>
       <c r="G414" s="5"/>
       <c r="H414" s="5"/>
     </row>
-    <row r="415" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C415" s="5"/>
-      <c r="D415" s="5"/>
+    <row r="415" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="C415" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="D415" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="E415" s="5"/>
       <c r="F415" s="5"/>
       <c r="G415" s="5"/>
       <c r="H415" s="5"/>
     </row>
     <row r="416" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C416" s="5"/>
-      <c r="D416" s="5"/>
+      <c r="C416" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="D416" s="5" t="s">
+        <v>617</v>
+      </c>
       <c r="E416" s="5"/>
       <c r="F416" s="5"/>
       <c r="G416" s="5"/>
       <c r="H416" s="5"/>
     </row>
     <row r="417" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C417" s="5"/>
-      <c r="D417" s="5"/>
+      <c r="C417" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="D417" s="5" t="s">
+        <v>617</v>
+      </c>
       <c r="E417" s="5"/>
       <c r="F417" s="5"/>
       <c r="G417" s="5"/>
       <c r="H417" s="5"/>
     </row>
     <row r="418" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C418" s="5"/>
-      <c r="D418" s="5"/>
+      <c r="C418" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="D418" s="5" t="s">
+        <v>617</v>
+      </c>
       <c r="E418" s="5"/>
       <c r="F418" s="5"/>
       <c r="G418" s="5"/>
       <c r="H418" s="5"/>
     </row>
     <row r="419" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C419" s="5"/>
+      <c r="C419" s="10" t="s">
+        <v>609</v>
+      </c>
       <c r="D419" s="5"/>
       <c r="E419" s="5"/>
       <c r="F419" s="5"/>
@@ -8747,7 +9061,9 @@
       <c r="H419" s="5"/>
     </row>
     <row r="420" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C420" s="5"/>
+      <c r="C420" s="10" t="s">
+        <v>610</v>
+      </c>
       <c r="D420" s="5"/>
       <c r="E420" s="5"/>
       <c r="F420" s="5"/>
@@ -8755,7 +9071,9 @@
       <c r="H420" s="5"/>
     </row>
     <row r="421" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C421" s="5"/>
+      <c r="C421" s="10" t="s">
+        <v>611</v>
+      </c>
       <c r="D421" s="5"/>
       <c r="E421" s="5"/>
       <c r="F421" s="5"/>
@@ -8763,7 +9081,9 @@
       <c r="H421" s="5"/>
     </row>
     <row r="422" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C422" s="5"/>
+      <c r="C422" s="10" t="s">
+        <v>612</v>
+      </c>
       <c r="D422" s="5"/>
       <c r="E422" s="5"/>
       <c r="F422" s="5"/>
@@ -8771,7 +9091,9 @@
       <c r="H422" s="5"/>
     </row>
     <row r="423" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C423" s="5"/>
+      <c r="C423" s="10" t="s">
+        <v>613</v>
+      </c>
       <c r="D423" s="5"/>
       <c r="E423" s="5"/>
       <c r="F423" s="5"/>
@@ -8779,12 +9101,100 @@
       <c r="H423" s="5"/>
     </row>
     <row r="424" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C424" s="5"/>
-      <c r="D424" s="5"/>
+      <c r="C424" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="D424" s="5" t="s">
+        <v>616</v>
+      </c>
       <c r="E424" s="5"/>
       <c r="F424" s="5"/>
       <c r="G424" s="5"/>
       <c r="H424" s="5"/>
+    </row>
+    <row r="425" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C425" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="D425" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="E425" s="5"/>
+      <c r="F425" s="5"/>
+      <c r="G425" s="5"/>
+      <c r="H425" s="5"/>
+    </row>
+    <row r="426" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C426" s="5"/>
+      <c r="D426" s="5"/>
+      <c r="E426" s="5"/>
+      <c r="F426" s="5"/>
+      <c r="G426" s="5"/>
+      <c r="H426" s="5"/>
+    </row>
+    <row r="427" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C427" s="5"/>
+      <c r="D427" s="5"/>
+      <c r="E427" s="5"/>
+      <c r="F427" s="5"/>
+      <c r="G427" s="5"/>
+      <c r="H427" s="5"/>
+    </row>
+    <row r="428" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C428" s="5"/>
+      <c r="D428" s="5"/>
+      <c r="E428" s="5"/>
+      <c r="F428" s="5"/>
+      <c r="G428" s="5"/>
+      <c r="H428" s="5"/>
+    </row>
+    <row r="429" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C429" s="5"/>
+      <c r="D429" s="5"/>
+      <c r="E429" s="5"/>
+      <c r="F429" s="5"/>
+      <c r="G429" s="5"/>
+      <c r="H429" s="5"/>
+    </row>
+    <row r="430" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C430" s="5"/>
+      <c r="D430" s="5"/>
+      <c r="E430" s="5"/>
+      <c r="F430" s="5"/>
+      <c r="G430" s="5"/>
+      <c r="H430" s="5"/>
+    </row>
+    <row r="431" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C431" s="5"/>
+      <c r="D431" s="5"/>
+      <c r="E431" s="5"/>
+      <c r="F431" s="5"/>
+      <c r="G431" s="5"/>
+      <c r="H431" s="5"/>
+    </row>
+    <row r="432" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C432" s="5"/>
+      <c r="D432" s="5"/>
+      <c r="E432" s="5"/>
+      <c r="F432" s="5"/>
+      <c r="G432" s="5"/>
+      <c r="H432" s="5"/>
+    </row>
+    <row r="433" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C433" s="5"/>
+      <c r="D433" s="5"/>
+      <c r="E433" s="5"/>
+      <c r="F433" s="5"/>
+      <c r="G433" s="5"/>
+      <c r="H433" s="5"/>
+    </row>
+    <row r="434" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C434" s="5"/>
+      <c r="D434" s="5"/>
+      <c r="E434" s="5"/>
+      <c r="F434" s="5"/>
+      <c r="G434" s="5"/>
+      <c r="H434" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21A9712-8FD5-FD43-AF76-15CBA1271B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A388928-F1EC-C240-8082-B6F006EEA50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -2516,8 +2516,8 @@
   <dimension ref="A1:J434"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A411" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D419" sqref="D419"/>
+      <pane ySplit="1" topLeftCell="A325" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E414" sqref="E414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C7E1E2-DBCB-0F43-A2A7-B1F54A12F506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B7999B-D786-C846-B864-A1A2F87820A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -2180,9 +2180,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2196,6 +2193,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2514,7 +2514,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D434" sqref="A426:D434"/>
+      <selection pane="bottomLeft" activeCell="C425" sqref="C425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2532,13 +2532,13 @@
       <c r="A1" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -2578,7 +2578,7 @@
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="33" t="s">
         <v>239</v>
       </c>
       <c r="E3" s="4"/>
@@ -2606,7 +2606,7 @@
       <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="33" t="s">
         <v>240</v>
       </c>
       <c r="E5" s="4"/>
@@ -2622,7 +2622,7 @@
       <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="33" t="s">
         <v>240</v>
       </c>
       <c r="E6" s="4"/>
@@ -2638,7 +2638,7 @@
       <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="33" t="s">
         <v>240</v>
       </c>
       <c r="E7" s="4"/>
@@ -2654,7 +2654,7 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="33" t="s">
         <v>240</v>
       </c>
       <c r="E8" s="4"/>
@@ -2670,7 +2670,7 @@
       <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="33" t="s">
         <v>240</v>
       </c>
       <c r="E9" s="4"/>
@@ -2686,7 +2686,7 @@
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="33" t="s">
         <v>240</v>
       </c>
       <c r="E10" s="4"/>
@@ -2702,7 +2702,7 @@
       <c r="C11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="33" t="s">
         <v>240</v>
       </c>
       <c r="E11" s="4"/>
@@ -2718,7 +2718,7 @@
       <c r="C12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="33" t="s">
         <v>240</v>
       </c>
       <c r="E12" s="4"/>
@@ -2782,7 +2782,7 @@
       <c r="C16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="34" t="s">
         <v>153</v>
       </c>
       <c r="E16" s="4"/>
@@ -2868,7 +2868,7 @@
       <c r="C22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="33" t="s">
         <v>242</v>
       </c>
       <c r="E22" s="4"/>
@@ -2884,7 +2884,7 @@
       <c r="C23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="33" t="s">
         <v>242</v>
       </c>
       <c r="E23" s="4"/>
@@ -2900,7 +2900,7 @@
       <c r="C24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="33" t="s">
         <v>242</v>
       </c>
       <c r="E24" s="4"/>
@@ -2916,7 +2916,7 @@
       <c r="C25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="33" t="s">
         <v>242</v>
       </c>
       <c r="E25" s="4"/>
@@ -2932,7 +2932,7 @@
       <c r="C26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="33" t="s">
         <v>242</v>
       </c>
       <c r="E26" s="4"/>
@@ -2948,7 +2948,7 @@
       <c r="C27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="33" t="s">
         <v>242</v>
       </c>
       <c r="E27" s="4"/>
@@ -2964,7 +2964,7 @@
       <c r="C28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="33" t="s">
         <v>242</v>
       </c>
       <c r="E28" s="4"/>
@@ -2980,7 +2980,7 @@
       <c r="C29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="33" t="s">
         <v>242</v>
       </c>
       <c r="E29" s="4"/>
@@ -2996,7 +2996,7 @@
       <c r="C30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="33" t="s">
         <v>242</v>
       </c>
       <c r="E30" s="4"/>
@@ -3012,7 +3012,7 @@
       <c r="C31" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" s="33" t="s">
         <v>242</v>
       </c>
       <c r="E31" s="4"/>
@@ -3028,7 +3028,7 @@
       <c r="C32" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="33" t="s">
         <v>242</v>
       </c>
       <c r="E32" s="4"/>
@@ -3044,7 +3044,7 @@
       <c r="C33" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="33" t="s">
         <v>242</v>
       </c>
       <c r="E33" s="4"/>
@@ -3060,7 +3060,7 @@
       <c r="C34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="33" t="s">
         <v>242</v>
       </c>
       <c r="E34" s="4"/>
@@ -3076,7 +3076,7 @@
       <c r="C35" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="33" t="s">
         <v>242</v>
       </c>
       <c r="E35" s="4"/>
@@ -3092,7 +3092,7 @@
       <c r="C36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="33" t="s">
         <v>242</v>
       </c>
       <c r="E36" s="4"/>
@@ -6109,7 +6109,7 @@
       <c r="H222" s="4"/>
     </row>
     <row r="223" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A223" s="36">
+      <c r="A223" s="35">
         <v>44260</v>
       </c>
       <c r="B223" s="4" t="s">
@@ -6135,7 +6135,7 @@
       </c>
     </row>
     <row r="224" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A224" s="36">
+      <c r="A224" s="35">
         <v>44266</v>
       </c>
       <c r="B224" s="4" t="s">
@@ -7280,7 +7280,7 @@
       <c r="C298" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="D298" s="37" t="s">
+      <c r="D298" s="36" t="s">
         <v>520</v>
       </c>
       <c r="E298" s="4"/>
@@ -7300,7 +7300,7 @@
       <c r="C299" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="D299" s="37" t="s">
+      <c r="D299" s="36" t="s">
         <v>521</v>
       </c>
       <c r="E299" s="4"/>
@@ -7320,7 +7320,7 @@
       <c r="C300" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="D300" s="37" t="s">
+      <c r="D300" s="36" t="s">
         <v>522</v>
       </c>
       <c r="E300" s="4"/>
@@ -7340,7 +7340,7 @@
       <c r="C301" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="D301" s="37" t="s">
+      <c r="D301" s="36" t="s">
         <v>523</v>
       </c>
       <c r="E301" s="4"/>
@@ -7820,7 +7820,7 @@
       <c r="C325" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="D325" s="37" t="s">
+      <c r="D325" s="36" t="s">
         <v>524</v>
       </c>
       <c r="E325" s="4"/>
@@ -7840,7 +7840,7 @@
       <c r="C326" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="D326" s="37" t="s">
+      <c r="D326" s="36" t="s">
         <v>527</v>
       </c>
       <c r="E326" s="4"/>
@@ -7860,7 +7860,7 @@
       <c r="C327" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="D327" s="37" t="s">
+      <c r="D327" s="36" t="s">
         <v>528</v>
       </c>
       <c r="E327" s="4"/>
@@ -8702,7 +8702,7 @@
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374" s="4"/>
-      <c r="B374" s="38">
+      <c r="B374" s="37">
         <v>44317</v>
       </c>
       <c r="C374" s="9" t="s">
@@ -9538,10 +9538,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="23" t="s">
         <v>296</v>
       </c>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B7999B-D786-C846-B864-A1A2F87820A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD21FEB-1A48-5443-AA12-F8688223FDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="804">
   <si>
     <t>BRANCH</t>
   </si>
@@ -1882,7 +1882,562 @@
     <t>HRS OF MARIO FLORES REP. BY VICTOR FERNANDO -VS- PARPO ETAL</t>
   </si>
   <si>
-    <t>Branch 2</t>
+    <t>R-03-02-0421</t>
+  </si>
+  <si>
+    <t>R-03-02-0422</t>
+  </si>
+  <si>
+    <t>R-03-02-0423</t>
+  </si>
+  <si>
+    <t>R-03-02-0424</t>
+  </si>
+  <si>
+    <t>R-03-02-0425</t>
+  </si>
+  <si>
+    <t>R-03-02-0426</t>
+  </si>
+  <si>
+    <t>R-03-02-0427</t>
+  </si>
+  <si>
+    <t>R-03-02-0428</t>
+  </si>
+  <si>
+    <t>R-03-02-0429</t>
+  </si>
+  <si>
+    <t>R-03-02-0430</t>
+  </si>
+  <si>
+    <t>R-03-02-0431</t>
+  </si>
+  <si>
+    <t>R-03-02-0432</t>
+  </si>
+  <si>
+    <t>R-03-02-0433</t>
+  </si>
+  <si>
+    <t>R-03-02-0434</t>
+  </si>
+  <si>
+    <t>R-03-02-0435</t>
+  </si>
+  <si>
+    <t>R-03-02-0436</t>
+  </si>
+  <si>
+    <t>R-03-02-0437</t>
+  </si>
+  <si>
+    <t>R-03-02-0438</t>
+  </si>
+  <si>
+    <t>R-03-02-0439</t>
+  </si>
+  <si>
+    <t>R-03-02-0440</t>
+  </si>
+  <si>
+    <t>R-03-02-0441</t>
+  </si>
+  <si>
+    <t>R-03-02-0442</t>
+  </si>
+  <si>
+    <t>R-03-02-0443</t>
+  </si>
+  <si>
+    <t>R-03-02-0444</t>
+  </si>
+  <si>
+    <t>R-03-02-0445</t>
+  </si>
+  <si>
+    <t>R-03-02-0446</t>
+  </si>
+  <si>
+    <t>R-03-02-0447</t>
+  </si>
+  <si>
+    <t>R-03-02-0448</t>
+  </si>
+  <si>
+    <t>R-03-02-0449</t>
+  </si>
+  <si>
+    <t>R-03-02-0450</t>
+  </si>
+  <si>
+    <t>R-03-02-0451</t>
+  </si>
+  <si>
+    <t>R-03-02-0452</t>
+  </si>
+  <si>
+    <t>R-03-02-0453</t>
+  </si>
+  <si>
+    <t>R-03-02-0454</t>
+  </si>
+  <si>
+    <t>R-03-02-0455</t>
+  </si>
+  <si>
+    <t>R-03-02-0456</t>
+  </si>
+  <si>
+    <t>R-03-02-0457</t>
+  </si>
+  <si>
+    <t>R-03-02-0458</t>
+  </si>
+  <si>
+    <t>R-03-02-0459</t>
+  </si>
+  <si>
+    <t>R-03-02-0460</t>
+  </si>
+  <si>
+    <t>R-03-02-0461</t>
+  </si>
+  <si>
+    <t>R-03-02-0462</t>
+  </si>
+  <si>
+    <t>R-03-02-0463</t>
+  </si>
+  <si>
+    <t>R-03-02-0464</t>
+  </si>
+  <si>
+    <t>R-03-02-0465</t>
+  </si>
+  <si>
+    <t>R-03-02-0466</t>
+  </si>
+  <si>
+    <t>R-03-02-0467</t>
+  </si>
+  <si>
+    <t>R-03-02-0468</t>
+  </si>
+  <si>
+    <t>R-03-02-0469</t>
+  </si>
+  <si>
+    <t>R-03-02-0470</t>
+  </si>
+  <si>
+    <t>R-03-02-0471</t>
+  </si>
+  <si>
+    <t>R-03-02-0472</t>
+  </si>
+  <si>
+    <t>R-03-02-0473</t>
+  </si>
+  <si>
+    <t>R-03-02-0474</t>
+  </si>
+  <si>
+    <t>R-03-02-0475</t>
+  </si>
+  <si>
+    <t>R-03-02-0476</t>
+  </si>
+  <si>
+    <t>R-03-02-0477</t>
+  </si>
+  <si>
+    <t>R-03-02-0478</t>
+  </si>
+  <si>
+    <t>R-03-02-0479</t>
+  </si>
+  <si>
+    <t>R-03-02-0480</t>
+  </si>
+  <si>
+    <t>R-03-02-0481</t>
+  </si>
+  <si>
+    <t>R-03-02-0482</t>
+  </si>
+  <si>
+    <t>R-03-02-0483</t>
+  </si>
+  <si>
+    <t>R-03-02-0484</t>
+  </si>
+  <si>
+    <t>R-03-02-0485</t>
+  </si>
+  <si>
+    <t>R-03-02-0486</t>
+  </si>
+  <si>
+    <t>R-03-02-0487</t>
+  </si>
+  <si>
+    <t>R-03-02-0488</t>
+  </si>
+  <si>
+    <t>R-03-02-0489</t>
+  </si>
+  <si>
+    <t>R-03-02-0490</t>
+  </si>
+  <si>
+    <t>R-03-02-0491</t>
+  </si>
+  <si>
+    <t>R-03-02-0492</t>
+  </si>
+  <si>
+    <t>R-03-02-0493</t>
+  </si>
+  <si>
+    <t>R-03-02-0494</t>
+  </si>
+  <si>
+    <t>R-03-02-0495</t>
+  </si>
+  <si>
+    <t>R-03-02-0496</t>
+  </si>
+  <si>
+    <t>R-03-02-0497</t>
+  </si>
+  <si>
+    <t>R-03-02-0498</t>
+  </si>
+  <si>
+    <t>R-03-02-0499</t>
+  </si>
+  <si>
+    <t>R-03-02-0500</t>
+  </si>
+  <si>
+    <t>R-03-02-0501</t>
+  </si>
+  <si>
+    <t>R-03-02-0502</t>
+  </si>
+  <si>
+    <t>R-03-02-0503</t>
+  </si>
+  <si>
+    <t>R-03-02-0504</t>
+  </si>
+  <si>
+    <t>R-03-02-0505</t>
+  </si>
+  <si>
+    <t>R-03-02-0506</t>
+  </si>
+  <si>
+    <t>R-03-02-0507</t>
+  </si>
+  <si>
+    <t>R-03-02-0508</t>
+  </si>
+  <si>
+    <t>R-03-02-0509</t>
+  </si>
+  <si>
+    <t>R-03-02-0510</t>
+  </si>
+  <si>
+    <t>R-03-02-0511</t>
+  </si>
+  <si>
+    <t>R-03-02-0512</t>
+  </si>
+  <si>
+    <t>R-03-02-0513</t>
+  </si>
+  <si>
+    <t>R-03-02-0514</t>
+  </si>
+  <si>
+    <t>R-03-02-0515</t>
+  </si>
+  <si>
+    <t>R-03-02-0516</t>
+  </si>
+  <si>
+    <t>R-03-02-0517</t>
+  </si>
+  <si>
+    <t>R-03-02-0518</t>
+  </si>
+  <si>
+    <t>R-03-02-0519</t>
+  </si>
+  <si>
+    <t>R-03-02-0520</t>
+  </si>
+  <si>
+    <t>R-03-02-0521</t>
+  </si>
+  <si>
+    <t>R-03-02-0522</t>
+  </si>
+  <si>
+    <t>R-03-02-0523</t>
+  </si>
+  <si>
+    <t>R-03-02-0524</t>
+  </si>
+  <si>
+    <t>R-03-02-0525</t>
+  </si>
+  <si>
+    <t>R-03-02-0526</t>
+  </si>
+  <si>
+    <t>R-03-02-0527</t>
+  </si>
+  <si>
+    <t>R-03-02-0528</t>
+  </si>
+  <si>
+    <t>R-03-02-0529</t>
+  </si>
+  <si>
+    <t>R-03-02-0530</t>
+  </si>
+  <si>
+    <t>R-03-02-0531</t>
+  </si>
+  <si>
+    <t>R-03-02-0532</t>
+  </si>
+  <si>
+    <t>R-03-02-0533</t>
+  </si>
+  <si>
+    <t>R-03-02-0534</t>
+  </si>
+  <si>
+    <t>R-03-02-0535</t>
+  </si>
+  <si>
+    <t>R-03-02-0536</t>
+  </si>
+  <si>
+    <t>R-03-02-0537</t>
+  </si>
+  <si>
+    <t>R-03-02-0538</t>
+  </si>
+  <si>
+    <t>R-03-02-0539</t>
+  </si>
+  <si>
+    <t>R-03-02-0540</t>
+  </si>
+  <si>
+    <t>R-03-02-0541</t>
+  </si>
+  <si>
+    <t>R-03-02-0542</t>
+  </si>
+  <si>
+    <t>R-03-02-0543</t>
+  </si>
+  <si>
+    <t>R-03-02-0544</t>
+  </si>
+  <si>
+    <t>R-03-02-0545</t>
+  </si>
+  <si>
+    <t>R-03-02-0546</t>
+  </si>
+  <si>
+    <t>R-03-02-0547</t>
+  </si>
+  <si>
+    <t>R-03-02-0548</t>
+  </si>
+  <si>
+    <t>R-03-02-0549</t>
+  </si>
+  <si>
+    <t>R-03-02-0550</t>
+  </si>
+  <si>
+    <t>R-03-02-0551</t>
+  </si>
+  <si>
+    <t>R-03-02-0552</t>
+  </si>
+  <si>
+    <t>R-03-02-0553</t>
+  </si>
+  <si>
+    <t>R-03-02-0554</t>
+  </si>
+  <si>
+    <t>R-03-02-0555</t>
+  </si>
+  <si>
+    <t>R-03-02-0556</t>
+  </si>
+  <si>
+    <t>R-03-02-0557</t>
+  </si>
+  <si>
+    <t>R-03-02-0558</t>
+  </si>
+  <si>
+    <t>R-03-02-0559</t>
+  </si>
+  <si>
+    <t>R-03-02-0560</t>
+  </si>
+  <si>
+    <t>R-03-02-0561</t>
+  </si>
+  <si>
+    <t>R-03-02-0562</t>
+  </si>
+  <si>
+    <t>R-03-02-0563</t>
+  </si>
+  <si>
+    <t>R-03-02-0564</t>
+  </si>
+  <si>
+    <t>R-03-02-0565</t>
+  </si>
+  <si>
+    <t>R-03-02-0566</t>
+  </si>
+  <si>
+    <t>R-03-02-0567</t>
+  </si>
+  <si>
+    <t>R-03-02-0568</t>
+  </si>
+  <si>
+    <t>R-03-02-0569</t>
+  </si>
+  <si>
+    <t>R-03-02-0570</t>
+  </si>
+  <si>
+    <t>R-03-02-0571</t>
+  </si>
+  <si>
+    <t>R-03-02-0572</t>
+  </si>
+  <si>
+    <t>R-03-02-0573</t>
+  </si>
+  <si>
+    <t>R-03-02-0574</t>
+  </si>
+  <si>
+    <t>R-03-02-0575</t>
+  </si>
+  <si>
+    <t>R-03-02-0576</t>
+  </si>
+  <si>
+    <t>R-03-02-0577</t>
+  </si>
+  <si>
+    <t>R-03-02-0578</t>
+  </si>
+  <si>
+    <t>R-03-02-0579</t>
+  </si>
+  <si>
+    <t>R-03-02-0580</t>
+  </si>
+  <si>
+    <t>R-03-02-0581</t>
+  </si>
+  <si>
+    <t>R-03-02-0582</t>
+  </si>
+  <si>
+    <t>R-03-02-0583</t>
+  </si>
+  <si>
+    <t>R-03-02-0584</t>
+  </si>
+  <si>
+    <t>R-03-02-0585</t>
+  </si>
+  <si>
+    <t>HEIRS OF JUANA DEL BERNABE H. INDUCIL AKA DAVID INDUCIL ROSARIO VDA DE INDUCIL, REP. BY RUPERTA I DELA CRUZ -VS- HEIRS OF MIGUEL INDUCIL, ET.AL</t>
+  </si>
+  <si>
+    <t>CLOA - T - 2461</t>
+  </si>
+  <si>
+    <t>EJECTMENT</t>
+  </si>
+  <si>
+    <t>BUBULONG MUNTI, SAN ILDEFONSO , BULACAN</t>
+  </si>
+  <si>
+    <t>BRANCH 2</t>
+  </si>
+  <si>
+    <t>JUNE 22 2021</t>
+  </si>
+  <si>
+    <t>FORCESO CUNANAN -VS- PARPO ET.AL</t>
+  </si>
+  <si>
+    <t>branch 1</t>
+  </si>
+  <si>
+    <t>LBP AND DAR -VS- LEONARDO MALICSI ET.AL</t>
+  </si>
+  <si>
+    <t>LBP AND DAR -VS- MAXIMO VIVENCIO ET.AL</t>
+  </si>
+  <si>
+    <t>LBP AND DAR -VS- FELINO PEREZ ET.AL</t>
+  </si>
+  <si>
+    <t>LBP AND DAR -VS- EULALIO JIMENEZ ET.AL</t>
+  </si>
+  <si>
+    <t>LBP AND DAR -VS- SPS. JOSE AND LENODES BURGOS ET.AL</t>
+  </si>
+  <si>
+    <t>LBP AND DAR -VS- SPS. LEONARDO AND TEODOR CAPULONG ET.AL</t>
+  </si>
+  <si>
+    <t>LBP AND DAR -VS- SPS. RODRIGO AND MERCEDES DELA CRUZ</t>
+  </si>
+  <si>
+    <t>BRANC 1</t>
+  </si>
+  <si>
+    <t>LBP AND DAR -VS- SPS. RUFINO AND CARIDAD LANDAYAN</t>
+  </si>
+  <si>
+    <t>LBP AND DAR -VS- SPS. MARCELO AND ROSIE CRUZ</t>
+  </si>
+  <si>
+    <t>LBP AND DAR -VS- SPS.JOSE AND EUFROCINA DELA CRUZ</t>
+  </si>
+  <si>
+    <t>LBP AND DAR -VS- PEDRO AND FRAXCEDES FAUSTINO</t>
+  </si>
+  <si>
+    <t>LBP AND DAR -VS- SPS. MARCELO AND ROSA RAMOS ET.AL</t>
   </si>
 </sst>
 </file>
@@ -2098,7 +2653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2195,6 +2750,15 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2510,11 +3074,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7760DDDF-B585-9445-B146-2DD762F6C209}">
-  <dimension ref="A1:J434"/>
+  <dimension ref="A1:J593"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C425" sqref="C425"/>
+      <pane ySplit="1" topLeftCell="A514" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E533" sqref="E533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9330,37 +9894,43 @@
       <c r="G418" s="4"/>
       <c r="H418" s="4"/>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="D419" s="4"/>
+      <c r="D419" s="41" t="s">
+        <v>789</v>
+      </c>
       <c r="E419" s="4"/>
       <c r="F419" s="4"/>
       <c r="G419" s="4"/>
       <c r="H419" s="4"/>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="D420" s="4"/>
+      <c r="D420" s="41" t="s">
+        <v>789</v>
+      </c>
       <c r="E420" s="4"/>
       <c r="F420" s="4"/>
       <c r="G420" s="4"/>
       <c r="H420" s="4"/>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="D421" s="4"/>
+      <c r="D421" s="41" t="s">
+        <v>789</v>
+      </c>
       <c r="E421" s="4"/>
       <c r="F421" s="4"/>
       <c r="G421" s="4"/>
@@ -9418,99 +9988,2277 @@
       <c r="G425" s="4"/>
       <c r="H425" s="4"/>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A426" s="4" t="s">
         <v>571</v>
       </c>
       <c r="B426" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="C426" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="C426" s="4"/>
-      <c r="D426" s="4"/>
+      <c r="D426" s="5" t="s">
+        <v>791</v>
+      </c>
       <c r="E426" s="4"/>
       <c r="F426" s="4"/>
       <c r="G426" s="4"/>
       <c r="H426" s="4"/>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
-      <c r="C427" s="4"/>
-      <c r="D427" s="4"/>
+      <c r="C427" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="D427" s="5" t="s">
+        <v>791</v>
+      </c>
       <c r="E427" s="4"/>
       <c r="F427" s="4"/>
       <c r="G427" s="4"/>
       <c r="H427" s="4"/>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
-      <c r="C428" s="4"/>
-      <c r="D428" s="4"/>
+      <c r="C428" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="D428" s="5" t="s">
+        <v>791</v>
+      </c>
       <c r="E428" s="4"/>
       <c r="F428" s="4"/>
       <c r="G428" s="4"/>
       <c r="H428" s="4"/>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
-      <c r="C429" s="4"/>
-      <c r="D429" s="4"/>
+      <c r="C429" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D429" s="5" t="s">
+        <v>791</v>
+      </c>
       <c r="E429" s="4"/>
       <c r="F429" s="4"/>
       <c r="G429" s="4"/>
       <c r="H429" s="4"/>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
-      <c r="C430" s="4"/>
-      <c r="D430" s="4"/>
+      <c r="C430" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="D430" s="5" t="s">
+        <v>791</v>
+      </c>
       <c r="E430" s="4"/>
       <c r="F430" s="4"/>
       <c r="G430" s="4"/>
       <c r="H430" s="4"/>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
-      <c r="C431" s="4"/>
-      <c r="D431" s="4"/>
+      <c r="C431" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="D431" s="5" t="s">
+        <v>791</v>
+      </c>
       <c r="E431" s="4"/>
       <c r="F431" s="4"/>
       <c r="G431" s="4"/>
       <c r="H431" s="4"/>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
-      <c r="C432" s="4"/>
-      <c r="D432" s="4"/>
+      <c r="C432" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="D432" s="5" t="s">
+        <v>791</v>
+      </c>
       <c r="E432" s="4"/>
       <c r="F432" s="4"/>
       <c r="G432" s="4"/>
       <c r="H432" s="4"/>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
-      <c r="C433" s="4"/>
-      <c r="D433" s="4"/>
+      <c r="C433" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="D433" s="5" t="s">
+        <v>791</v>
+      </c>
       <c r="E433" s="4"/>
       <c r="F433" s="4"/>
       <c r="G433" s="4"/>
       <c r="H433" s="4"/>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
-      <c r="C434" s="4"/>
-      <c r="D434" s="4"/>
+      <c r="C434" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="D434" s="5" t="s">
+        <v>791</v>
+      </c>
       <c r="E434" s="4"/>
       <c r="F434" s="4"/>
       <c r="G434" s="4"/>
       <c r="H434" s="4"/>
+    </row>
+    <row r="435" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A435" s="4"/>
+      <c r="B435" s="4"/>
+      <c r="C435" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="D435" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="E435" s="4"/>
+      <c r="F435" s="4"/>
+      <c r="G435" s="4"/>
+      <c r="H435" s="4"/>
+    </row>
+    <row r="436" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A436" s="4"/>
+      <c r="B436" s="4"/>
+      <c r="C436" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="D436" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="E436" s="4"/>
+      <c r="F436" s="4"/>
+      <c r="G436" s="4"/>
+      <c r="H436" s="4"/>
+    </row>
+    <row r="437" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A437" s="4"/>
+      <c r="B437" s="4"/>
+      <c r="C437" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="D437" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="E437" s="4"/>
+      <c r="F437" s="4"/>
+      <c r="G437" s="4"/>
+      <c r="H437" s="4"/>
+    </row>
+    <row r="438" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A438" s="4"/>
+      <c r="B438" s="4"/>
+      <c r="C438" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="D438" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="E438" s="4"/>
+      <c r="F438" s="4"/>
+      <c r="G438" s="4"/>
+      <c r="H438" s="4"/>
+    </row>
+    <row r="439" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A439" s="4"/>
+      <c r="B439" s="4"/>
+      <c r="C439" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="D439" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="E439" s="4"/>
+      <c r="F439" s="4"/>
+      <c r="G439" s="4"/>
+      <c r="H439" s="4"/>
+    </row>
+    <row r="440" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A440" s="4"/>
+      <c r="B440" s="4"/>
+      <c r="C440" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="D440" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="E440" s="4"/>
+      <c r="F440" s="4"/>
+      <c r="G440" s="4"/>
+      <c r="H440" s="4"/>
+    </row>
+    <row r="441" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A441" s="4"/>
+      <c r="B441" s="4"/>
+      <c r="C441" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D441" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="E441" s="4"/>
+      <c r="F441" s="4"/>
+      <c r="G441" s="4"/>
+      <c r="H441" s="4"/>
+    </row>
+    <row r="442" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A442" s="4"/>
+      <c r="B442" s="4"/>
+      <c r="C442" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D442" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="E442" s="4"/>
+      <c r="F442" s="4"/>
+      <c r="G442" s="4"/>
+      <c r="H442" s="4"/>
+    </row>
+    <row r="443" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A443" s="4"/>
+      <c r="B443" s="4"/>
+      <c r="C443" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="D443" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="E443" s="4"/>
+      <c r="F443" s="4"/>
+      <c r="G443" s="4"/>
+      <c r="H443" s="4"/>
+    </row>
+    <row r="444" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A444" s="4"/>
+      <c r="B444" s="4"/>
+      <c r="C444" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="D444" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="E444" s="4"/>
+      <c r="F444" s="4"/>
+      <c r="G444" s="4"/>
+      <c r="H444" s="4"/>
+    </row>
+    <row r="445" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A445" s="4"/>
+      <c r="B445" s="4"/>
+      <c r="C445" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="D445" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="E445" s="4"/>
+      <c r="F445" s="4"/>
+      <c r="G445" s="4"/>
+      <c r="H445" s="4"/>
+    </row>
+    <row r="446" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A446" s="4"/>
+      <c r="B446" s="4"/>
+      <c r="C446" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="D446" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="E446" s="4"/>
+      <c r="F446" s="4"/>
+      <c r="G446" s="4"/>
+      <c r="H446" s="4"/>
+    </row>
+    <row r="447" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A447" s="4"/>
+      <c r="B447" s="4"/>
+      <c r="C447" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="D447" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="E447" s="4"/>
+      <c r="F447" s="4"/>
+      <c r="G447" s="4"/>
+      <c r="H447" s="4"/>
+    </row>
+    <row r="448" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A448" s="4"/>
+      <c r="B448" s="4"/>
+      <c r="C448" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="D448" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="E448" s="4"/>
+      <c r="F448" s="4"/>
+      <c r="G448" s="4"/>
+      <c r="H448" s="4"/>
+    </row>
+    <row r="449" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A449" s="4"/>
+      <c r="B449" s="4"/>
+      <c r="C449" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="D449" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="E449" s="4"/>
+      <c r="F449" s="4"/>
+      <c r="G449" s="4"/>
+      <c r="H449" s="4"/>
+    </row>
+    <row r="450" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A450" s="4"/>
+      <c r="B450" s="4"/>
+      <c r="C450" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="D450" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="E450" s="4"/>
+      <c r="F450" s="4"/>
+      <c r="G450" s="4"/>
+      <c r="H450" s="4"/>
+    </row>
+    <row r="451" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A451" s="4"/>
+      <c r="B451" s="4"/>
+      <c r="C451" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="D451" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="E451" s="4"/>
+      <c r="F451" s="4"/>
+      <c r="G451" s="4"/>
+      <c r="H451" s="4"/>
+    </row>
+    <row r="452" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A452" s="4"/>
+      <c r="B452" s="4"/>
+      <c r="C452" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="D452" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="E452" s="4"/>
+      <c r="F452" s="4"/>
+      <c r="G452" s="4"/>
+      <c r="H452" s="4"/>
+    </row>
+    <row r="453" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A453" s="4"/>
+      <c r="B453" s="4"/>
+      <c r="C453" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="D453" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="E453" s="4"/>
+      <c r="F453" s="4"/>
+      <c r="G453" s="4"/>
+      <c r="H453" s="4"/>
+    </row>
+    <row r="454" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A454" s="4"/>
+      <c r="B454" s="4"/>
+      <c r="C454" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="D454" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="E454" s="4"/>
+      <c r="F454" s="4"/>
+      <c r="G454" s="4"/>
+      <c r="H454" s="4"/>
+    </row>
+    <row r="455" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A455" s="4"/>
+      <c r="B455" s="4"/>
+      <c r="C455" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="D455" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="E455" s="4"/>
+      <c r="F455" s="4"/>
+      <c r="G455" s="4"/>
+      <c r="H455" s="4"/>
+    </row>
+    <row r="456" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A456" s="4"/>
+      <c r="B456" s="4"/>
+      <c r="C456" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="D456" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="E456" s="4"/>
+      <c r="F456" s="4"/>
+      <c r="G456" s="4"/>
+      <c r="H456" s="4"/>
+    </row>
+    <row r="457" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A457" s="4"/>
+      <c r="B457" s="4"/>
+      <c r="C457" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="D457" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="E457" s="4"/>
+      <c r="F457" s="4"/>
+      <c r="G457" s="4"/>
+      <c r="H457" s="4"/>
+    </row>
+    <row r="458" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A458" s="4"/>
+      <c r="B458" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="C458" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="D458" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="E458" s="4"/>
+      <c r="F458" s="4"/>
+      <c r="G458" s="4"/>
+      <c r="H458" s="4"/>
+    </row>
+    <row r="459" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A459" s="4"/>
+      <c r="B459" s="4"/>
+      <c r="C459" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="D459" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="E459" s="4"/>
+      <c r="F459" s="4"/>
+      <c r="G459" s="4"/>
+      <c r="H459" s="4"/>
+    </row>
+    <row r="460" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A460" s="4"/>
+      <c r="B460" s="4"/>
+      <c r="C460" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="D460" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="E460" s="4"/>
+      <c r="F460" s="4"/>
+      <c r="G460" s="4"/>
+      <c r="H460" s="4"/>
+    </row>
+    <row r="461" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A461" s="4"/>
+      <c r="B461" s="4"/>
+      <c r="C461" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="D461" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="E461" s="4"/>
+      <c r="F461" s="4"/>
+      <c r="G461" s="4"/>
+      <c r="H461" s="4"/>
+    </row>
+    <row r="462" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A462" s="4"/>
+      <c r="B462" s="4"/>
+      <c r="C462" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="D462" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="E462" s="4"/>
+      <c r="F462" s="4"/>
+      <c r="G462" s="4"/>
+      <c r="H462" s="4"/>
+    </row>
+    <row r="463" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A463" s="4"/>
+      <c r="B463" s="4"/>
+      <c r="C463" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="D463" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="E463" s="4"/>
+      <c r="F463" s="4"/>
+      <c r="G463" s="4"/>
+      <c r="H463" s="4"/>
+    </row>
+    <row r="464" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A464" s="4"/>
+      <c r="B464" s="4"/>
+      <c r="C464" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="D464" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="E464" s="4"/>
+      <c r="F464" s="4"/>
+      <c r="G464" s="4"/>
+      <c r="H464" s="4"/>
+    </row>
+    <row r="465" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A465" s="4"/>
+      <c r="B465" s="4"/>
+      <c r="C465" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="D465" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="E465" s="4"/>
+      <c r="F465" s="4"/>
+      <c r="G465" s="4"/>
+      <c r="H465" s="4"/>
+    </row>
+    <row r="466" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A466" s="4"/>
+      <c r="B466" s="4"/>
+      <c r="C466" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="D466" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="E466" s="4"/>
+      <c r="F466" s="4"/>
+      <c r="G466" s="4"/>
+      <c r="H466" s="4"/>
+    </row>
+    <row r="467" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A467" s="4"/>
+      <c r="B467" s="4"/>
+      <c r="C467" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D467" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="E467" s="4"/>
+      <c r="F467" s="4"/>
+      <c r="G467" s="4"/>
+      <c r="H467" s="4"/>
+    </row>
+    <row r="468" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A468" s="4"/>
+      <c r="B468" s="4"/>
+      <c r="C468" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="D468" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="E468" s="4"/>
+      <c r="F468" s="4"/>
+      <c r="G468" s="4"/>
+      <c r="H468" s="4"/>
+    </row>
+    <row r="469" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A469" s="4"/>
+      <c r="B469" s="4"/>
+      <c r="C469" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="D469" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="E469" s="4"/>
+      <c r="F469" s="4"/>
+      <c r="G469" s="4"/>
+      <c r="H469" s="4"/>
+    </row>
+    <row r="470" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A470" s="4"/>
+      <c r="B470" s="4"/>
+      <c r="C470" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="D470" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="E470" s="4"/>
+      <c r="F470" s="4"/>
+      <c r="G470" s="4"/>
+      <c r="H470" s="4"/>
+    </row>
+    <row r="471" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A471" s="4"/>
+      <c r="B471" s="4"/>
+      <c r="C471" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="D471" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="E471" s="4"/>
+      <c r="F471" s="4"/>
+      <c r="G471" s="4"/>
+      <c r="H471" s="4"/>
+    </row>
+    <row r="472" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A472" s="4"/>
+      <c r="B472" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C472" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="D472" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="E472" s="4"/>
+      <c r="F472" s="4"/>
+      <c r="G472" s="4"/>
+      <c r="H472" s="4"/>
+    </row>
+    <row r="473" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A473" s="4"/>
+      <c r="B473" s="4"/>
+      <c r="C473" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="D473" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="E473" s="4"/>
+      <c r="F473" s="4"/>
+      <c r="G473" s="4"/>
+      <c r="H473" s="4"/>
+    </row>
+    <row r="474" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A474" s="4"/>
+      <c r="B474" s="4"/>
+      <c r="C474" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="D474" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="E474" s="4"/>
+      <c r="F474" s="4"/>
+      <c r="G474" s="4"/>
+      <c r="H474" s="4"/>
+    </row>
+    <row r="475" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A475" s="4"/>
+      <c r="B475" s="4"/>
+      <c r="C475" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="D475" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="E475" s="4"/>
+      <c r="F475" s="4"/>
+      <c r="G475" s="4"/>
+      <c r="H475" s="4"/>
+    </row>
+    <row r="476" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A476" s="4"/>
+      <c r="B476" s="4"/>
+      <c r="C476" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="D476" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="E476" s="4"/>
+      <c r="F476" s="4"/>
+      <c r="G476" s="4"/>
+      <c r="H476" s="4"/>
+    </row>
+    <row r="477" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A477" s="4"/>
+      <c r="B477" s="4"/>
+      <c r="C477" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="D477" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="E477" s="4"/>
+      <c r="F477" s="4"/>
+      <c r="G477" s="4"/>
+      <c r="H477" s="4"/>
+    </row>
+    <row r="478" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A478" s="4"/>
+      <c r="B478" s="4"/>
+      <c r="C478" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="D478" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="E478" s="4"/>
+      <c r="F478" s="4"/>
+      <c r="G478" s="4"/>
+      <c r="H478" s="4"/>
+    </row>
+    <row r="479" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A479" s="4"/>
+      <c r="B479" s="4"/>
+      <c r="C479" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="D479" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="E479" s="4"/>
+      <c r="F479" s="4"/>
+      <c r="G479" s="4"/>
+      <c r="H479" s="4"/>
+    </row>
+    <row r="480" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A480" s="4"/>
+      <c r="B480" s="4"/>
+      <c r="C480" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="D480" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="E480" s="4"/>
+      <c r="F480" s="4"/>
+      <c r="G480" s="4"/>
+      <c r="H480" s="4"/>
+    </row>
+    <row r="481" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A481" s="4"/>
+      <c r="B481" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="C481" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="D481" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="E481" s="4"/>
+      <c r="F481" s="4"/>
+      <c r="G481" s="4"/>
+      <c r="H481" s="4"/>
+    </row>
+    <row r="482" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A482" s="4"/>
+      <c r="B482" s="4"/>
+      <c r="C482" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="D482" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="E482" s="4"/>
+      <c r="F482" s="4"/>
+      <c r="G482" s="4"/>
+      <c r="H482" s="4"/>
+    </row>
+    <row r="483" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A483" s="4"/>
+      <c r="B483" s="4"/>
+      <c r="C483" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="D483" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="E483" s="4"/>
+      <c r="F483" s="4"/>
+      <c r="G483" s="4"/>
+      <c r="H483" s="4"/>
+    </row>
+    <row r="484" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A484" s="4"/>
+      <c r="B484" s="4"/>
+      <c r="C484" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="D484" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="E484" s="4"/>
+      <c r="F484" s="4"/>
+      <c r="G484" s="4"/>
+      <c r="H484" s="4"/>
+    </row>
+    <row r="485" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A485" s="4"/>
+      <c r="B485" s="4"/>
+      <c r="C485" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="D485" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="E485" s="4"/>
+      <c r="F485" s="4"/>
+      <c r="G485" s="4"/>
+      <c r="H485" s="4"/>
+    </row>
+    <row r="486" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A486" s="4"/>
+      <c r="B486" s="4"/>
+      <c r="C486" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="D486" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="E486" s="4"/>
+      <c r="F486" s="4"/>
+      <c r="G486" s="4"/>
+      <c r="H486" s="4"/>
+    </row>
+    <row r="487" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A487" s="4"/>
+      <c r="B487" s="4"/>
+      <c r="C487" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="D487" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="E487" s="4"/>
+      <c r="F487" s="4"/>
+      <c r="G487" s="4"/>
+      <c r="H487" s="4"/>
+    </row>
+    <row r="488" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A488" s="4"/>
+      <c r="B488" s="4"/>
+      <c r="C488" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="D488" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="E488" s="4"/>
+      <c r="F488" s="4"/>
+      <c r="G488" s="4"/>
+      <c r="H488" s="4"/>
+    </row>
+    <row r="489" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A489" s="4"/>
+      <c r="B489" s="4"/>
+      <c r="C489" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="D489" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="E489" s="4"/>
+      <c r="F489" s="4"/>
+      <c r="G489" s="4"/>
+      <c r="H489" s="4"/>
+    </row>
+    <row r="490" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A490" s="4"/>
+      <c r="B490" s="4"/>
+      <c r="C490" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="D490" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="E490" s="4"/>
+      <c r="F490" s="4"/>
+      <c r="G490" s="4"/>
+      <c r="H490" s="4"/>
+    </row>
+    <row r="491" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A491" s="4"/>
+      <c r="B491" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C491" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="D491" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="E491" s="4"/>
+      <c r="F491" s="4"/>
+      <c r="G491" s="4"/>
+      <c r="H491" s="4"/>
+    </row>
+    <row r="492" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A492" s="4"/>
+      <c r="B492" s="4"/>
+      <c r="C492" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="D492" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="E492" s="4"/>
+      <c r="F492" s="4"/>
+      <c r="G492" s="4"/>
+      <c r="H492" s="4"/>
+    </row>
+    <row r="493" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A493" s="4"/>
+      <c r="B493" s="4"/>
+      <c r="C493" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="D493" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="E493" s="4"/>
+      <c r="F493" s="4"/>
+      <c r="G493" s="4"/>
+      <c r="H493" s="4"/>
+    </row>
+    <row r="494" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A494" s="4"/>
+      <c r="B494" s="4"/>
+      <c r="C494" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="D494" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="E494" s="4"/>
+      <c r="F494" s="4"/>
+      <c r="G494" s="4"/>
+      <c r="H494" s="4"/>
+    </row>
+    <row r="495" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A495" s="4"/>
+      <c r="B495" s="4"/>
+      <c r="C495" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="D495" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="E495" s="4"/>
+      <c r="F495" s="4"/>
+      <c r="G495" s="4"/>
+      <c r="H495" s="4"/>
+    </row>
+    <row r="496" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A496" s="4"/>
+      <c r="B496" s="4"/>
+      <c r="C496" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="D496" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="E496" s="4"/>
+      <c r="F496" s="4"/>
+      <c r="G496" s="4"/>
+      <c r="H496" s="4"/>
+    </row>
+    <row r="497" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A497" s="4"/>
+      <c r="B497" s="4"/>
+      <c r="C497" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="D497" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="E497" s="4"/>
+      <c r="F497" s="4"/>
+      <c r="G497" s="4"/>
+      <c r="H497" s="4"/>
+    </row>
+    <row r="498" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A498" s="4"/>
+      <c r="B498" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="C498" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="D498" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="E498" s="4"/>
+      <c r="F498" s="4"/>
+      <c r="G498" s="4"/>
+      <c r="H498" s="4"/>
+    </row>
+    <row r="499" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A499" s="4"/>
+      <c r="B499" s="4"/>
+      <c r="C499" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="D499" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="E499" s="4"/>
+      <c r="F499" s="4"/>
+      <c r="G499" s="4"/>
+      <c r="H499" s="4"/>
+    </row>
+    <row r="500" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A500" s="4"/>
+      <c r="B500" s="4"/>
+      <c r="C500" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="D500" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="E500" s="4"/>
+      <c r="F500" s="4"/>
+      <c r="G500" s="4"/>
+      <c r="H500" s="4"/>
+    </row>
+    <row r="501" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A501" s="4"/>
+      <c r="B501" s="4"/>
+      <c r="C501" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="D501" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="E501" s="4"/>
+      <c r="F501" s="4"/>
+      <c r="G501" s="4"/>
+      <c r="H501" s="4"/>
+    </row>
+    <row r="502" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A502" s="4"/>
+      <c r="B502" s="4"/>
+      <c r="C502" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="D502" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="E502" s="4"/>
+      <c r="F502" s="4"/>
+      <c r="G502" s="4"/>
+      <c r="H502" s="4"/>
+    </row>
+    <row r="503" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A503" s="4"/>
+      <c r="B503" s="4"/>
+      <c r="C503" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="D503" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="E503" s="4"/>
+      <c r="F503" s="4"/>
+      <c r="G503" s="4"/>
+      <c r="H503" s="4"/>
+    </row>
+    <row r="504" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A504" s="4"/>
+      <c r="B504" s="4"/>
+      <c r="C504" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="D504" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="E504" s="4"/>
+      <c r="F504" s="4"/>
+      <c r="G504" s="4"/>
+      <c r="H504" s="4"/>
+    </row>
+    <row r="505" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A505" s="4"/>
+      <c r="B505" s="4"/>
+      <c r="C505" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="D505" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="E505" s="4"/>
+      <c r="F505" s="4"/>
+      <c r="G505" s="4"/>
+      <c r="H505" s="4"/>
+    </row>
+    <row r="506" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A506" s="4"/>
+      <c r="B506" s="4"/>
+      <c r="C506" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="D506" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="E506" s="4"/>
+      <c r="F506" s="4"/>
+      <c r="G506" s="4"/>
+      <c r="H506" s="4"/>
+    </row>
+    <row r="507" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A507" s="4"/>
+      <c r="B507" s="4"/>
+      <c r="C507" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="D507" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="E507" s="4"/>
+      <c r="F507" s="4"/>
+      <c r="G507" s="4"/>
+      <c r="H507" s="4"/>
+    </row>
+    <row r="508" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A508" s="4"/>
+      <c r="B508" s="4"/>
+      <c r="C508" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="D508" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="E508" s="4"/>
+      <c r="F508" s="4"/>
+      <c r="G508" s="4"/>
+      <c r="H508" s="4"/>
+    </row>
+    <row r="509" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A509" s="4"/>
+      <c r="B509" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="C509" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="D509" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="E509" s="4"/>
+      <c r="F509" s="4"/>
+      <c r="G509" s="4"/>
+      <c r="H509" s="4"/>
+    </row>
+    <row r="510" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A510" s="4"/>
+      <c r="B510" s="4"/>
+      <c r="C510" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="D510" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="E510" s="4"/>
+      <c r="F510" s="4"/>
+      <c r="G510" s="4"/>
+      <c r="H510" s="4"/>
+    </row>
+    <row r="511" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A511" s="4"/>
+      <c r="B511" s="4"/>
+      <c r="C511" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="D511" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="E511" s="4"/>
+      <c r="F511" s="4"/>
+      <c r="G511" s="4"/>
+      <c r="H511" s="4"/>
+    </row>
+    <row r="512" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A512" s="4"/>
+      <c r="B512" s="4"/>
+      <c r="C512" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="D512" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="E512" s="4"/>
+      <c r="F512" s="4"/>
+      <c r="G512" s="4"/>
+      <c r="H512" s="4"/>
+    </row>
+    <row r="513" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A513" s="4"/>
+      <c r="B513" s="4"/>
+      <c r="C513" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="D513" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="E513" s="4"/>
+      <c r="F513" s="4"/>
+      <c r="G513" s="4"/>
+      <c r="H513" s="4"/>
+    </row>
+    <row r="514" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A514" s="4"/>
+      <c r="B514" s="4"/>
+      <c r="C514" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="D514" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="E514" s="4"/>
+      <c r="F514" s="4"/>
+      <c r="G514" s="4"/>
+      <c r="H514" s="4"/>
+    </row>
+    <row r="515" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A515" s="4"/>
+      <c r="B515" s="4"/>
+      <c r="C515" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="D515" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="E515" s="4"/>
+      <c r="F515" s="4"/>
+      <c r="G515" s="4"/>
+      <c r="H515" s="4"/>
+    </row>
+    <row r="516" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A516" s="4"/>
+      <c r="B516" s="4"/>
+      <c r="C516" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="D516" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="E516" s="4"/>
+      <c r="F516" s="4"/>
+      <c r="G516" s="4"/>
+      <c r="H516" s="4"/>
+    </row>
+    <row r="517" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A517" s="4"/>
+      <c r="B517" s="4"/>
+      <c r="C517" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="D517" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="E517" s="4"/>
+      <c r="F517" s="4"/>
+      <c r="G517" s="4"/>
+      <c r="H517" s="4"/>
+    </row>
+    <row r="518" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A518" s="4"/>
+      <c r="B518" s="4"/>
+      <c r="C518" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="D518" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="E518" s="4"/>
+      <c r="F518" s="4"/>
+      <c r="G518" s="4"/>
+      <c r="H518" s="4"/>
+    </row>
+    <row r="519" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A519" s="4"/>
+      <c r="B519" s="4"/>
+      <c r="C519" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="D519" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="E519" s="4"/>
+      <c r="F519" s="4"/>
+      <c r="G519" s="4"/>
+      <c r="H519" s="4"/>
+    </row>
+    <row r="520" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A520" s="4"/>
+      <c r="B520" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="C520" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="D520" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="E520" s="4"/>
+      <c r="F520" s="4"/>
+      <c r="G520" s="4"/>
+      <c r="H520" s="4"/>
+    </row>
+    <row r="521" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A521" s="4"/>
+      <c r="B521" s="4"/>
+      <c r="C521" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="D521" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="E521" s="4"/>
+      <c r="F521" s="4"/>
+      <c r="G521" s="4"/>
+      <c r="H521" s="4"/>
+    </row>
+    <row r="522" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A522" s="4"/>
+      <c r="B522" s="4"/>
+      <c r="C522" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="D522" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="E522" s="4"/>
+      <c r="F522" s="4"/>
+      <c r="G522" s="4"/>
+      <c r="H522" s="4"/>
+    </row>
+    <row r="523" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A523" s="4"/>
+      <c r="B523" s="4"/>
+      <c r="C523" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="D523" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="E523" s="4"/>
+      <c r="F523" s="4"/>
+      <c r="G523" s="4"/>
+      <c r="H523" s="4"/>
+    </row>
+    <row r="524" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A524" s="4"/>
+      <c r="B524" s="4"/>
+      <c r="C524" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="D524" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="E524" s="4"/>
+      <c r="F524" s="4"/>
+      <c r="G524" s="4"/>
+      <c r="H524" s="4"/>
+    </row>
+    <row r="525" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A525" s="4"/>
+      <c r="B525" s="4"/>
+      <c r="C525" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="D525" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="E525" s="4"/>
+      <c r="F525" s="4"/>
+      <c r="G525" s="4"/>
+      <c r="H525" s="4"/>
+    </row>
+    <row r="526" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A526" s="4"/>
+      <c r="B526" s="4"/>
+      <c r="C526" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="D526" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="E526" s="4"/>
+      <c r="F526" s="4"/>
+      <c r="G526" s="4"/>
+      <c r="H526" s="4"/>
+    </row>
+    <row r="527" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A527" s="4"/>
+      <c r="B527" s="4"/>
+      <c r="C527" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="D527" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="E527" s="4"/>
+      <c r="F527" s="4"/>
+      <c r="G527" s="4"/>
+      <c r="H527" s="4"/>
+    </row>
+    <row r="528" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A528" s="4"/>
+      <c r="B528" s="4"/>
+      <c r="C528" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="D528" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="E528" s="4"/>
+      <c r="F528" s="4"/>
+      <c r="G528" s="4"/>
+      <c r="H528" s="4"/>
+    </row>
+    <row r="529" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A529" s="4"/>
+      <c r="B529" s="4"/>
+      <c r="C529" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="D529" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="E529" s="4"/>
+      <c r="F529" s="4"/>
+      <c r="G529" s="4"/>
+      <c r="H529" s="4"/>
+    </row>
+    <row r="530" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A530" s="4"/>
+      <c r="B530" s="4"/>
+      <c r="C530" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="D530" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="E530" s="4"/>
+      <c r="F530" s="4"/>
+      <c r="G530" s="4"/>
+      <c r="H530" s="4"/>
+    </row>
+    <row r="531" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A531" s="4"/>
+      <c r="B531" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="C531" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="D531" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="E531" s="4"/>
+      <c r="F531" s="4"/>
+      <c r="G531" s="4"/>
+      <c r="H531" s="4"/>
+    </row>
+    <row r="532" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A532" s="4"/>
+      <c r="B532" s="4"/>
+      <c r="C532" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="D532" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="E532" s="4"/>
+      <c r="F532" s="4"/>
+      <c r="G532" s="4"/>
+      <c r="H532" s="4"/>
+    </row>
+    <row r="533" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A533" s="4"/>
+      <c r="B533" s="4"/>
+      <c r="C533" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="D533" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="E533" s="4"/>
+      <c r="F533" s="4"/>
+      <c r="G533" s="4"/>
+      <c r="H533" s="4"/>
+    </row>
+    <row r="534" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A534" s="4"/>
+      <c r="B534" s="4"/>
+      <c r="C534" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D534" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="E534" s="4"/>
+      <c r="F534" s="4"/>
+      <c r="G534" s="4"/>
+      <c r="H534" s="4"/>
+    </row>
+    <row r="535" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A535" s="4"/>
+      <c r="B535" s="4"/>
+      <c r="C535" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="D535" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="E535" s="4"/>
+      <c r="F535" s="4"/>
+      <c r="G535" s="4"/>
+      <c r="H535" s="4"/>
+    </row>
+    <row r="536" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A536" s="4"/>
+      <c r="B536" s="4"/>
+      <c r="C536" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D536" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="E536" s="4"/>
+      <c r="F536" s="4"/>
+      <c r="G536" s="4"/>
+      <c r="H536" s="4"/>
+    </row>
+    <row r="537" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A537" s="4"/>
+      <c r="B537" s="4"/>
+      <c r="C537" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="D537" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="E537" s="4"/>
+      <c r="F537" s="4"/>
+      <c r="G537" s="4"/>
+      <c r="H537" s="4"/>
+    </row>
+    <row r="538" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A538" s="4"/>
+      <c r="B538" s="4"/>
+      <c r="C538" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="D538" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="E538" s="4"/>
+      <c r="F538" s="4"/>
+      <c r="G538" s="4"/>
+      <c r="H538" s="4"/>
+    </row>
+    <row r="539" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A539" s="4"/>
+      <c r="B539" s="4"/>
+      <c r="C539" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="D539" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="E539" s="4"/>
+      <c r="F539" s="4"/>
+      <c r="G539" s="4"/>
+      <c r="H539" s="4"/>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A540" s="4"/>
+      <c r="B540" s="4"/>
+      <c r="C540" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="D540" s="4"/>
+      <c r="E540" s="4"/>
+      <c r="F540" s="4"/>
+      <c r="G540" s="4"/>
+      <c r="H540" s="4"/>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A541" s="4"/>
+      <c r="B541" s="4"/>
+      <c r="C541" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="D541" s="4"/>
+      <c r="E541" s="4"/>
+      <c r="F541" s="4"/>
+      <c r="G541" s="4"/>
+      <c r="H541" s="4"/>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A542" s="4"/>
+      <c r="B542" s="4"/>
+      <c r="C542" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="D542" s="4"/>
+      <c r="E542" s="4"/>
+      <c r="F542" s="4"/>
+      <c r="G542" s="4"/>
+      <c r="H542" s="4"/>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A543" s="4"/>
+      <c r="B543" s="4"/>
+      <c r="C543" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="D543" s="4"/>
+      <c r="E543" s="4"/>
+      <c r="F543" s="4"/>
+      <c r="G543" s="4"/>
+      <c r="H543" s="4"/>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A544" s="4"/>
+      <c r="B544" s="4"/>
+      <c r="C544" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="D544" s="4"/>
+      <c r="E544" s="4"/>
+      <c r="F544" s="4"/>
+      <c r="G544" s="4"/>
+      <c r="H544" s="4"/>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A545" s="4"/>
+      <c r="B545" s="4"/>
+      <c r="C545" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="D545" s="4"/>
+      <c r="E545" s="4"/>
+      <c r="F545" s="4"/>
+      <c r="G545" s="4"/>
+      <c r="H545" s="4"/>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A546" s="4"/>
+      <c r="B546" s="4"/>
+      <c r="C546" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="D546" s="4"/>
+      <c r="E546" s="4"/>
+      <c r="F546" s="4"/>
+      <c r="G546" s="4"/>
+      <c r="H546" s="4"/>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A547" s="4"/>
+      <c r="B547" s="4"/>
+      <c r="C547" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="D547" s="4"/>
+      <c r="E547" s="4"/>
+      <c r="F547" s="4"/>
+      <c r="G547" s="4"/>
+      <c r="H547" s="4"/>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A548" s="4"/>
+      <c r="B548" s="4"/>
+      <c r="C548" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="D548" s="4"/>
+      <c r="E548" s="4"/>
+      <c r="F548" s="4"/>
+      <c r="G548" s="4"/>
+      <c r="H548" s="4"/>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A549" s="4"/>
+      <c r="B549" s="4"/>
+      <c r="C549" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="D549" s="4"/>
+      <c r="E549" s="4"/>
+      <c r="F549" s="4"/>
+      <c r="G549" s="4"/>
+      <c r="H549" s="4"/>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A550" s="4"/>
+      <c r="B550" s="4"/>
+      <c r="C550" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="D550" s="4"/>
+      <c r="E550" s="4"/>
+      <c r="F550" s="4"/>
+      <c r="G550" s="4"/>
+      <c r="H550" s="4"/>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A551" s="4"/>
+      <c r="B551" s="4"/>
+      <c r="C551" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="D551" s="4"/>
+      <c r="E551" s="4"/>
+      <c r="F551" s="4"/>
+      <c r="G551" s="4"/>
+      <c r="H551" s="4"/>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A552" s="4"/>
+      <c r="B552" s="4"/>
+      <c r="C552" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D552" s="4"/>
+      <c r="E552" s="4"/>
+      <c r="F552" s="4"/>
+      <c r="G552" s="4"/>
+      <c r="H552" s="4"/>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A553" s="4"/>
+      <c r="B553" s="4"/>
+      <c r="C553" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="D553" s="4"/>
+      <c r="E553" s="4"/>
+      <c r="F553" s="4"/>
+      <c r="G553" s="4"/>
+      <c r="H553" s="4"/>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A554" s="4"/>
+      <c r="B554" s="4"/>
+      <c r="C554" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="D554" s="4"/>
+      <c r="E554" s="4"/>
+      <c r="F554" s="4"/>
+      <c r="G554" s="4"/>
+      <c r="H554" s="4"/>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A555" s="4"/>
+      <c r="B555" s="4"/>
+      <c r="C555" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="D555" s="4"/>
+      <c r="E555" s="4"/>
+      <c r="F555" s="4"/>
+      <c r="G555" s="4"/>
+      <c r="H555" s="4"/>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A556" s="4"/>
+      <c r="B556" s="4"/>
+      <c r="C556" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="D556" s="4"/>
+      <c r="E556" s="4"/>
+      <c r="F556" s="4"/>
+      <c r="G556" s="4"/>
+      <c r="H556" s="4"/>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A557" s="4"/>
+      <c r="B557" s="4"/>
+      <c r="C557" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="D557" s="4"/>
+      <c r="E557" s="4"/>
+      <c r="F557" s="4"/>
+      <c r="G557" s="4"/>
+      <c r="H557" s="4"/>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A558" s="4"/>
+      <c r="B558" s="4"/>
+      <c r="C558" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="D558" s="4"/>
+      <c r="E558" s="4"/>
+      <c r="F558" s="4"/>
+      <c r="G558" s="4"/>
+      <c r="H558" s="4"/>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A559" s="4"/>
+      <c r="B559" s="4"/>
+      <c r="C559" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="D559" s="4"/>
+      <c r="E559" s="4"/>
+      <c r="F559" s="4"/>
+      <c r="G559" s="4"/>
+      <c r="H559" s="4"/>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A560" s="4"/>
+      <c r="B560" s="4"/>
+      <c r="C560" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="D560" s="4"/>
+      <c r="E560" s="4"/>
+      <c r="F560" s="4"/>
+      <c r="G560" s="4"/>
+      <c r="H560" s="4"/>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A561" s="4"/>
+      <c r="B561" s="4"/>
+      <c r="C561" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="D561" s="4"/>
+      <c r="E561" s="4"/>
+      <c r="F561" s="4"/>
+      <c r="G561" s="4"/>
+      <c r="H561" s="4"/>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A562" s="4"/>
+      <c r="B562" s="4"/>
+      <c r="C562" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="D562" s="4"/>
+      <c r="E562" s="4"/>
+      <c r="F562" s="4"/>
+      <c r="G562" s="4"/>
+      <c r="H562" s="4"/>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A563" s="4"/>
+      <c r="B563" s="4"/>
+      <c r="C563" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="D563" s="4"/>
+      <c r="E563" s="4"/>
+      <c r="F563" s="4"/>
+      <c r="G563" s="4"/>
+      <c r="H563" s="4"/>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A564" s="4"/>
+      <c r="B564" s="4"/>
+      <c r="C564" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="D564" s="4"/>
+      <c r="E564" s="4"/>
+      <c r="F564" s="4"/>
+      <c r="G564" s="4"/>
+      <c r="H564" s="4"/>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A565" s="4"/>
+      <c r="B565" s="4"/>
+      <c r="C565" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="D565" s="4"/>
+      <c r="E565" s="4"/>
+      <c r="F565" s="4"/>
+      <c r="G565" s="4"/>
+      <c r="H565" s="4"/>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A566" s="4"/>
+      <c r="B566" s="4"/>
+      <c r="C566" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="D566" s="4"/>
+      <c r="E566" s="4"/>
+      <c r="F566" s="4"/>
+      <c r="G566" s="4"/>
+      <c r="H566" s="4"/>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A567" s="4"/>
+      <c r="B567" s="4"/>
+      <c r="C567" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="D567" s="4"/>
+      <c r="E567" s="4"/>
+      <c r="F567" s="4"/>
+      <c r="G567" s="4"/>
+      <c r="H567" s="4"/>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A568" s="4"/>
+      <c r="B568" s="4"/>
+      <c r="C568" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="D568" s="4"/>
+      <c r="E568" s="4"/>
+      <c r="F568" s="4"/>
+      <c r="G568" s="4"/>
+      <c r="H568" s="4"/>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A569" s="4"/>
+      <c r="B569" s="4"/>
+      <c r="C569" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="D569" s="4"/>
+      <c r="E569" s="4"/>
+      <c r="F569" s="4"/>
+      <c r="G569" s="4"/>
+      <c r="H569" s="4"/>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A570" s="4"/>
+      <c r="B570" s="4"/>
+      <c r="C570" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="D570" s="4"/>
+      <c r="E570" s="4"/>
+      <c r="F570" s="4"/>
+      <c r="G570" s="4"/>
+      <c r="H570" s="4"/>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A571" s="4"/>
+      <c r="B571" s="4"/>
+      <c r="C571" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="D571" s="4"/>
+      <c r="E571" s="4"/>
+      <c r="F571" s="4"/>
+      <c r="G571" s="4"/>
+      <c r="H571" s="4"/>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A572" s="4"/>
+      <c r="B572" s="4"/>
+      <c r="C572" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="D572" s="4"/>
+      <c r="E572" s="4"/>
+      <c r="F572" s="4"/>
+      <c r="G572" s="4"/>
+      <c r="H572" s="4"/>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A573" s="4"/>
+      <c r="B573" s="4"/>
+      <c r="C573" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="D573" s="4"/>
+      <c r="E573" s="4"/>
+      <c r="F573" s="4"/>
+      <c r="G573" s="4"/>
+      <c r="H573" s="4"/>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A574" s="4"/>
+      <c r="B574" s="4"/>
+      <c r="C574" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="D574" s="4"/>
+      <c r="E574" s="4"/>
+      <c r="F574" s="4"/>
+      <c r="G574" s="4"/>
+      <c r="H574" s="4"/>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A575" s="4"/>
+      <c r="B575" s="4"/>
+      <c r="C575" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="D575" s="4"/>
+      <c r="E575" s="4"/>
+      <c r="F575" s="4"/>
+      <c r="G575" s="4"/>
+      <c r="H575" s="4"/>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A576" s="4"/>
+      <c r="B576" s="4"/>
+      <c r="C576" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="D576" s="4"/>
+      <c r="E576" s="4"/>
+      <c r="F576" s="4"/>
+      <c r="G576" s="4"/>
+      <c r="H576" s="4"/>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A577" s="4"/>
+      <c r="B577" s="4"/>
+      <c r="C577" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="D577" s="4"/>
+      <c r="E577" s="4"/>
+      <c r="F577" s="4"/>
+      <c r="G577" s="4"/>
+      <c r="H577" s="4"/>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A578" s="4"/>
+      <c r="B578" s="4"/>
+      <c r="C578" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="D578" s="4"/>
+      <c r="E578" s="4"/>
+      <c r="F578" s="4"/>
+      <c r="G578" s="4"/>
+      <c r="H578" s="4"/>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A579" s="4"/>
+      <c r="B579" s="4"/>
+      <c r="C579" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="D579" s="4"/>
+      <c r="E579" s="4"/>
+      <c r="F579" s="4"/>
+      <c r="G579" s="4"/>
+      <c r="H579" s="4"/>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A580" s="4"/>
+      <c r="B580" s="4"/>
+      <c r="C580" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="D580" s="4"/>
+      <c r="E580" s="4"/>
+      <c r="F580" s="4"/>
+      <c r="G580" s="4"/>
+      <c r="H580" s="4"/>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A581" s="4"/>
+      <c r="B581" s="4"/>
+      <c r="C581" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="D581" s="4"/>
+      <c r="E581" s="4"/>
+      <c r="F581" s="4"/>
+      <c r="G581" s="4"/>
+      <c r="H581" s="4"/>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A582" s="4"/>
+      <c r="B582" s="4"/>
+      <c r="C582" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="D582" s="4"/>
+      <c r="E582" s="4"/>
+      <c r="F582" s="4"/>
+      <c r="G582" s="4"/>
+      <c r="H582" s="4"/>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A583" s="4"/>
+      <c r="B583" s="4"/>
+      <c r="C583" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="D583" s="4"/>
+      <c r="E583" s="4"/>
+      <c r="F583" s="4"/>
+      <c r="G583" s="4"/>
+      <c r="H583" s="4"/>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A584" s="4"/>
+      <c r="B584" s="4"/>
+      <c r="C584" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="D584" s="4"/>
+      <c r="E584" s="4"/>
+      <c r="F584" s="4"/>
+      <c r="G584" s="4"/>
+      <c r="H584" s="4"/>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A585" s="4"/>
+      <c r="B585" s="4"/>
+      <c r="C585" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="D585" s="4"/>
+      <c r="E585" s="4"/>
+      <c r="F585" s="4"/>
+      <c r="G585" s="4"/>
+      <c r="H585" s="4"/>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A586" s="4"/>
+      <c r="B586" s="4"/>
+      <c r="C586" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="D586" s="4"/>
+      <c r="E586" s="4"/>
+      <c r="F586" s="4"/>
+      <c r="G586" s="4"/>
+      <c r="H586" s="4"/>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A587" s="4"/>
+      <c r="B587" s="4"/>
+      <c r="C587" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="D587" s="4"/>
+      <c r="E587" s="4"/>
+      <c r="F587" s="4"/>
+      <c r="G587" s="4"/>
+      <c r="H587" s="4"/>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A588" s="4"/>
+      <c r="B588" s="4"/>
+      <c r="C588" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="D588" s="4"/>
+      <c r="E588" s="4"/>
+      <c r="F588" s="4"/>
+      <c r="G588" s="4"/>
+      <c r="H588" s="4"/>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A589" s="4"/>
+      <c r="B589" s="4"/>
+      <c r="C589" s="9" t="s">
+        <v>781</v>
+      </c>
+      <c r="D589" s="4"/>
+      <c r="E589" s="4"/>
+      <c r="F589" s="4"/>
+      <c r="G589" s="4"/>
+      <c r="H589" s="4"/>
+    </row>
+    <row r="590" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A590" s="10" t="s">
+        <v>788</v>
+      </c>
+      <c r="B590" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="C590" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="D590" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="E590" s="39">
+        <v>51355</v>
+      </c>
+      <c r="F590" s="40" t="s">
+        <v>786</v>
+      </c>
+      <c r="G590" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="H590" s="9" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A591" s="4"/>
+      <c r="B591" s="4"/>
+      <c r="C591" s="4"/>
+      <c r="D591" s="4"/>
+      <c r="E591" s="4"/>
+      <c r="F591" s="4"/>
+      <c r="G591" s="4"/>
+      <c r="H591" s="4"/>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A592" s="4"/>
+      <c r="B592" s="4"/>
+      <c r="C592" s="4"/>
+      <c r="D592" s="4"/>
+      <c r="E592" s="4"/>
+      <c r="F592" s="4"/>
+      <c r="G592" s="4"/>
+      <c r="H592" s="4"/>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A593" s="4"/>
+      <c r="B593" s="4"/>
+      <c r="C593" s="4"/>
+      <c r="D593" s="4"/>
+      <c r="E593" s="4"/>
+      <c r="F593" s="4"/>
+      <c r="G593" s="4"/>
+      <c r="H593" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD21FEB-1A48-5443-AA12-F8688223FDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B45300-DDB1-C44D-81FC-C66A855FC987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="848">
   <si>
     <t>BRANCH</t>
   </si>
@@ -2438,13 +2438,145 @@
   </si>
   <si>
     <t>LBP AND DAR -VS- SPS. MARCELO AND ROSA RAMOS ET.AL</t>
+  </si>
+  <si>
+    <t>Zenaida Aguilar vs PARO et.al</t>
+  </si>
+  <si>
+    <t>Angelito Arcega vs PARO et.al</t>
+  </si>
+  <si>
+    <t>Enrico Arcega vs PARO et.al</t>
+  </si>
+  <si>
+    <t>Rosita Enriquez vs PARO et.al</t>
+  </si>
+  <si>
+    <t>Feliciana Carpio vs PARO et.al</t>
+  </si>
+  <si>
+    <t>Justina Cervantes vs PARO et.al</t>
+  </si>
+  <si>
+    <t>Leopoldo Cervantes vs PARO et.al</t>
+  </si>
+  <si>
+    <t>Marina Cervantes vs PARO et.al</t>
+  </si>
+  <si>
+    <t>Alfredo Chico vs PARO et.al</t>
+  </si>
+  <si>
+    <t>Gregorio Cruz vs PARO et.al</t>
+  </si>
+  <si>
+    <t>Marciano Cruz vs PARO et.a</t>
+  </si>
+  <si>
+    <t>Jacinto dela Cruz vs PARO et</t>
+  </si>
+  <si>
+    <t>Jacinta dela Cruz vs PARO et.al</t>
+  </si>
+  <si>
+    <t>Delfin Demigpe vs PARO et.al</t>
+  </si>
+  <si>
+    <t>Antonio Dionisio vs PARO et.al</t>
+  </si>
+  <si>
+    <t>Hilaria Dionisio vs PARO et.al</t>
+  </si>
+  <si>
+    <t>Domingo Cecillia vs PARO et.al</t>
+  </si>
+  <si>
+    <t>JUANITA DELA CRUZ -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>NELSON DELA CRUZ -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>ARMANDO DELA CRUZ -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>IGMIDO DELA CRUZ -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>PAUL RYAN SANTOS -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>ARABELLA SARAZA -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>SANTIAGO SEVILLA -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>EMIGIO STA ANA -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>REMIGIO STA ANA -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>JAIME TEVES -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>SUSANA TEVES -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>PABLO TRILLANA -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>DOMINGO VIUDEZ -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>MARIO VIUDEZ -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>MAXIMO DE LEON -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>ARNOLD FRANCISCO -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>CELESTINO FRANCISCO -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>ELIAS FRANCISCO -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>FELICIANO FRANCISCO -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>FLORENCIO FRANCISCO -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>HILARO FRANCISCO -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>HILARIO FRANCISCO -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>JAIME FRANCISO -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>RHODA FRANCISCO -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>NEMESIO FRANCISCO -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>RODERICK FRANCISCO -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>ROSA FRANCISCO -VS- PARO ET.AL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2573,6 +2705,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF464646"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2653,7 +2791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2759,6 +2897,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3077,8 +3221,8 @@
   <dimension ref="A1:J593"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A514" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E533" sqref="E533"/>
+      <pane ySplit="1" topLeftCell="A535" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G549" sqref="G549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11610,7 +11754,9 @@
       <c r="C540" s="9" t="s">
         <v>732</v>
       </c>
-      <c r="D540" s="4"/>
+      <c r="D540" s="42" t="s">
+        <v>804</v>
+      </c>
       <c r="E540" s="4"/>
       <c r="F540" s="4"/>
       <c r="G540" s="4"/>
@@ -11622,7 +11768,9 @@
       <c r="C541" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="D541" s="4"/>
+      <c r="D541" s="42" t="s">
+        <v>804</v>
+      </c>
       <c r="E541" s="4"/>
       <c r="F541" s="4"/>
       <c r="G541" s="4"/>
@@ -11634,7 +11782,9 @@
       <c r="C542" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="D542" s="4"/>
+      <c r="D542" s="42" t="s">
+        <v>805</v>
+      </c>
       <c r="E542" s="4"/>
       <c r="F542" s="4"/>
       <c r="G542" s="4"/>
@@ -11646,7 +11796,9 @@
       <c r="C543" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="D543" s="4"/>
+      <c r="D543" s="42" t="s">
+        <v>806</v>
+      </c>
       <c r="E543" s="4"/>
       <c r="F543" s="4"/>
       <c r="G543" s="4"/>
@@ -11658,7 +11810,9 @@
       <c r="C544" s="9" t="s">
         <v>736</v>
       </c>
-      <c r="D544" s="4"/>
+      <c r="D544" s="42" t="s">
+        <v>807</v>
+      </c>
       <c r="E544" s="4"/>
       <c r="F544" s="4"/>
       <c r="G544" s="4"/>
@@ -11670,7 +11824,9 @@
       <c r="C545" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="D545" s="4"/>
+      <c r="D545" s="42" t="s">
+        <v>808</v>
+      </c>
       <c r="E545" s="4"/>
       <c r="F545" s="4"/>
       <c r="G545" s="4"/>
@@ -11682,7 +11838,9 @@
       <c r="C546" s="9" t="s">
         <v>738</v>
       </c>
-      <c r="D546" s="4"/>
+      <c r="D546" s="42" t="s">
+        <v>809</v>
+      </c>
       <c r="E546" s="4"/>
       <c r="F546" s="4"/>
       <c r="G546" s="4"/>
@@ -11694,7 +11852,9 @@
       <c r="C547" s="9" t="s">
         <v>739</v>
       </c>
-      <c r="D547" s="4"/>
+      <c r="D547" s="42" t="s">
+        <v>810</v>
+      </c>
       <c r="E547" s="4"/>
       <c r="F547" s="4"/>
       <c r="G547" s="4"/>
@@ -11706,7 +11866,9 @@
       <c r="C548" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="D548" s="4"/>
+      <c r="D548" s="42" t="s">
+        <v>811</v>
+      </c>
       <c r="E548" s="4"/>
       <c r="F548" s="4"/>
       <c r="G548" s="4"/>
@@ -11718,7 +11880,9 @@
       <c r="C549" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="D549" s="4"/>
+      <c r="D549" s="42" t="s">
+        <v>812</v>
+      </c>
       <c r="E549" s="4"/>
       <c r="F549" s="4"/>
       <c r="G549" s="4"/>
@@ -11730,7 +11894,9 @@
       <c r="C550" s="9" t="s">
         <v>742</v>
       </c>
-      <c r="D550" s="4"/>
+      <c r="D550" s="42" t="s">
+        <v>813</v>
+      </c>
       <c r="E550" s="4"/>
       <c r="F550" s="4"/>
       <c r="G550" s="4"/>
@@ -11742,7 +11908,9 @@
       <c r="C551" s="9" t="s">
         <v>743</v>
       </c>
-      <c r="D551" s="4"/>
+      <c r="D551" s="42" t="s">
+        <v>814</v>
+      </c>
       <c r="E551" s="4"/>
       <c r="F551" s="4"/>
       <c r="G551" s="4"/>
@@ -11754,7 +11922,9 @@
       <c r="C552" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="D552" s="4"/>
+      <c r="D552" s="42" t="s">
+        <v>815</v>
+      </c>
       <c r="E552" s="4"/>
       <c r="F552" s="4"/>
       <c r="G552" s="4"/>
@@ -11766,7 +11936,9 @@
       <c r="C553" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="D553" s="4"/>
+      <c r="D553" s="42" t="s">
+        <v>816</v>
+      </c>
       <c r="E553" s="4"/>
       <c r="F553" s="4"/>
       <c r="G553" s="4"/>
@@ -11778,7 +11950,9 @@
       <c r="C554" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="D554" s="4"/>
+      <c r="D554" s="42" t="s">
+        <v>817</v>
+      </c>
       <c r="E554" s="4"/>
       <c r="F554" s="4"/>
       <c r="G554" s="4"/>
@@ -11790,7 +11964,9 @@
       <c r="C555" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="D555" s="4"/>
+      <c r="D555" s="42" t="s">
+        <v>818</v>
+      </c>
       <c r="E555" s="4"/>
       <c r="F555" s="4"/>
       <c r="G555" s="4"/>
@@ -11802,7 +11978,9 @@
       <c r="C556" s="9" t="s">
         <v>748</v>
       </c>
-      <c r="D556" s="4"/>
+      <c r="D556" s="42" t="s">
+        <v>819</v>
+      </c>
       <c r="E556" s="4"/>
       <c r="F556" s="4"/>
       <c r="G556" s="4"/>
@@ -11814,7 +11992,9 @@
       <c r="C557" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="D557" s="4"/>
+      <c r="D557" s="43" t="s">
+        <v>820</v>
+      </c>
       <c r="E557" s="4"/>
       <c r="F557" s="4"/>
       <c r="G557" s="4"/>
@@ -11826,7 +12006,9 @@
       <c r="C558" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="D558" s="4"/>
+      <c r="D558" s="42" t="s">
+        <v>821</v>
+      </c>
       <c r="E558" s="4"/>
       <c r="F558" s="4"/>
       <c r="G558" s="4"/>
@@ -11838,7 +12020,9 @@
       <c r="C559" s="9" t="s">
         <v>751</v>
       </c>
-      <c r="D559" s="4"/>
+      <c r="D559" s="42" t="s">
+        <v>822</v>
+      </c>
       <c r="E559" s="4"/>
       <c r="F559" s="4"/>
       <c r="G559" s="4"/>
@@ -11850,7 +12034,9 @@
       <c r="C560" s="9" t="s">
         <v>752</v>
       </c>
-      <c r="D560" s="4"/>
+      <c r="D560" s="42" t="s">
+        <v>822</v>
+      </c>
       <c r="E560" s="4"/>
       <c r="F560" s="4"/>
       <c r="G560" s="4"/>
@@ -11862,7 +12048,9 @@
       <c r="C561" s="9" t="s">
         <v>753</v>
       </c>
-      <c r="D561" s="4"/>
+      <c r="D561" s="42" t="s">
+        <v>823</v>
+      </c>
       <c r="E561" s="4"/>
       <c r="F561" s="4"/>
       <c r="G561" s="4"/>
@@ -11874,7 +12062,9 @@
       <c r="C562" s="9" t="s">
         <v>754</v>
       </c>
-      <c r="D562" s="4"/>
+      <c r="D562" s="42" t="s">
+        <v>824</v>
+      </c>
       <c r="E562" s="4"/>
       <c r="F562" s="4"/>
       <c r="G562" s="4"/>
@@ -11886,7 +12076,9 @@
       <c r="C563" s="9" t="s">
         <v>755</v>
       </c>
-      <c r="D563" s="4"/>
+      <c r="D563" s="42" t="s">
+        <v>825</v>
+      </c>
       <c r="E563" s="4"/>
       <c r="F563" s="4"/>
       <c r="G563" s="4"/>
@@ -11898,7 +12090,9 @@
       <c r="C564" s="9" t="s">
         <v>756</v>
       </c>
-      <c r="D564" s="4"/>
+      <c r="D564" s="42" t="s">
+        <v>826</v>
+      </c>
       <c r="E564" s="4"/>
       <c r="F564" s="4"/>
       <c r="G564" s="4"/>
@@ -11910,7 +12104,9 @@
       <c r="C565" s="9" t="s">
         <v>757</v>
       </c>
-      <c r="D565" s="4"/>
+      <c r="D565" s="42" t="s">
+        <v>827</v>
+      </c>
       <c r="E565" s="4"/>
       <c r="F565" s="4"/>
       <c r="G565" s="4"/>
@@ -11922,7 +12118,9 @@
       <c r="C566" s="9" t="s">
         <v>758</v>
       </c>
-      <c r="D566" s="4"/>
+      <c r="D566" s="42" t="s">
+        <v>827</v>
+      </c>
       <c r="E566" s="4"/>
       <c r="F566" s="4"/>
       <c r="G566" s="4"/>
@@ -11934,7 +12132,9 @@
       <c r="C567" s="9" t="s">
         <v>759</v>
       </c>
-      <c r="D567" s="4"/>
+      <c r="D567" s="42" t="s">
+        <v>828</v>
+      </c>
       <c r="E567" s="4"/>
       <c r="F567" s="4"/>
       <c r="G567" s="4"/>
@@ -11946,7 +12146,9 @@
       <c r="C568" s="9" t="s">
         <v>760</v>
       </c>
-      <c r="D568" s="4"/>
+      <c r="D568" s="42" t="s">
+        <v>829</v>
+      </c>
       <c r="E568" s="4"/>
       <c r="F568" s="4"/>
       <c r="G568" s="4"/>
@@ -11958,7 +12160,9 @@
       <c r="C569" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="D569" s="4"/>
+      <c r="D569" s="42" t="s">
+        <v>830</v>
+      </c>
       <c r="E569" s="4"/>
       <c r="F569" s="4"/>
       <c r="G569" s="4"/>
@@ -11970,7 +12174,9 @@
       <c r="C570" s="9" t="s">
         <v>762</v>
       </c>
-      <c r="D570" s="4"/>
+      <c r="D570" s="42" t="s">
+        <v>831</v>
+      </c>
       <c r="E570" s="4"/>
       <c r="F570" s="4"/>
       <c r="G570" s="4"/>
@@ -11982,7 +12188,9 @@
       <c r="C571" s="9" t="s">
         <v>763</v>
       </c>
-      <c r="D571" s="4"/>
+      <c r="D571" s="42" t="s">
+        <v>832</v>
+      </c>
       <c r="E571" s="4"/>
       <c r="F571" s="4"/>
       <c r="G571" s="4"/>
@@ -11994,7 +12202,9 @@
       <c r="C572" s="9" t="s">
         <v>764</v>
       </c>
-      <c r="D572" s="4"/>
+      <c r="D572" s="42" t="s">
+        <v>833</v>
+      </c>
       <c r="E572" s="4"/>
       <c r="F572" s="4"/>
       <c r="G572" s="4"/>
@@ -12006,7 +12216,9 @@
       <c r="C573" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="D573" s="4"/>
+      <c r="D573" s="42" t="s">
+        <v>834</v>
+      </c>
       <c r="E573" s="4"/>
       <c r="F573" s="4"/>
       <c r="G573" s="4"/>
@@ -12018,7 +12230,9 @@
       <c r="C574" s="9" t="s">
         <v>766</v>
       </c>
-      <c r="D574" s="4"/>
+      <c r="D574" s="42" t="s">
+        <v>835</v>
+      </c>
       <c r="E574" s="4"/>
       <c r="F574" s="4"/>
       <c r="G574" s="4"/>
@@ -12030,7 +12244,9 @@
       <c r="C575" s="9" t="s">
         <v>767</v>
       </c>
-      <c r="D575" s="4"/>
+      <c r="D575" s="42" t="s">
+        <v>835</v>
+      </c>
       <c r="E575" s="4"/>
       <c r="F575" s="4"/>
       <c r="G575" s="4"/>
@@ -12042,7 +12258,9 @@
       <c r="C576" s="9" t="s">
         <v>768</v>
       </c>
-      <c r="D576" s="4"/>
+      <c r="D576" s="42" t="s">
+        <v>836</v>
+      </c>
       <c r="E576" s="4"/>
       <c r="F576" s="4"/>
       <c r="G576" s="4"/>
@@ -12054,7 +12272,9 @@
       <c r="C577" s="9" t="s">
         <v>769</v>
       </c>
-      <c r="D577" s="4"/>
+      <c r="D577" s="43" t="s">
+        <v>837</v>
+      </c>
       <c r="E577" s="4"/>
       <c r="F577" s="4"/>
       <c r="G577" s="4"/>
@@ -12066,7 +12286,9 @@
       <c r="C578" s="9" t="s">
         <v>770</v>
       </c>
-      <c r="D578" s="4"/>
+      <c r="D578" s="42" t="s">
+        <v>838</v>
+      </c>
       <c r="E578" s="4"/>
       <c r="F578" s="4"/>
       <c r="G578" s="4"/>
@@ -12078,7 +12300,9 @@
       <c r="C579" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="D579" s="4"/>
+      <c r="D579" s="42" t="s">
+        <v>839</v>
+      </c>
       <c r="E579" s="4"/>
       <c r="F579" s="4"/>
       <c r="G579" s="4"/>
@@ -12090,7 +12314,9 @@
       <c r="C580" s="9" t="s">
         <v>772</v>
       </c>
-      <c r="D580" s="4"/>
+      <c r="D580" s="42" t="s">
+        <v>840</v>
+      </c>
       <c r="E580" s="4"/>
       <c r="F580" s="4"/>
       <c r="G580" s="4"/>
@@ -12102,7 +12328,9 @@
       <c r="C581" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="D581" s="4"/>
+      <c r="D581" s="42" t="s">
+        <v>841</v>
+      </c>
       <c r="E581" s="4"/>
       <c r="F581" s="4"/>
       <c r="G581" s="4"/>
@@ -12114,7 +12342,9 @@
       <c r="C582" s="9" t="s">
         <v>774</v>
       </c>
-      <c r="D582" s="4"/>
+      <c r="D582" s="42" t="s">
+        <v>842</v>
+      </c>
       <c r="E582" s="4"/>
       <c r="F582" s="4"/>
       <c r="G582" s="4"/>
@@ -12126,7 +12356,9 @@
       <c r="C583" s="9" t="s">
         <v>775</v>
       </c>
-      <c r="D583" s="4"/>
+      <c r="D583" s="42" t="s">
+        <v>843</v>
+      </c>
       <c r="E583" s="4"/>
       <c r="F583" s="4"/>
       <c r="G583" s="4"/>
@@ -12138,7 +12370,9 @@
       <c r="C584" s="9" t="s">
         <v>776</v>
       </c>
-      <c r="D584" s="4"/>
+      <c r="D584" s="42" t="s">
+        <v>844</v>
+      </c>
       <c r="E584" s="4"/>
       <c r="F584" s="4"/>
       <c r="G584" s="4"/>
@@ -12150,7 +12384,9 @@
       <c r="C585" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="D585" s="4"/>
+      <c r="D585" s="42" t="s">
+        <v>845</v>
+      </c>
       <c r="E585" s="4"/>
       <c r="F585" s="4"/>
       <c r="G585" s="4"/>
@@ -12162,7 +12398,9 @@
       <c r="C586" s="9" t="s">
         <v>778</v>
       </c>
-      <c r="D586" s="4"/>
+      <c r="D586" s="42" t="s">
+        <v>846</v>
+      </c>
       <c r="E586" s="4"/>
       <c r="F586" s="4"/>
       <c r="G586" s="4"/>
@@ -12174,7 +12412,9 @@
       <c r="C587" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="D587" s="4"/>
+      <c r="D587" s="43" t="s">
+        <v>847</v>
+      </c>
       <c r="E587" s="4"/>
       <c r="F587" s="4"/>
       <c r="G587" s="4"/>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B45300-DDB1-C44D-81FC-C66A855FC987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C79E253-F74D-EC40-A44A-CFC076CED83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
   <sheets>
     <sheet name="LIST OF COMPLAIN 2021" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="848">
   <si>
     <t>BRANCH</t>
   </si>
@@ -2708,7 +2708,7 @@
     <font>
       <sz val="9"/>
       <color rgb="FF464646"/>
-      <name val="Tahoma"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2886,9 +2886,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2897,6 +2894,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3221,8 +3221,8 @@
   <dimension ref="A1:J593"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A535" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G549" sqref="G549"/>
+      <pane ySplit="1" topLeftCell="A509" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D515" sqref="D515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10044,7 +10044,7 @@
       <c r="C419" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="D419" s="41" t="s">
+      <c r="D419" s="40" t="s">
         <v>789</v>
       </c>
       <c r="E419" s="4"/>
@@ -10058,7 +10058,7 @@
       <c r="C420" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="D420" s="41" t="s">
+      <c r="D420" s="40" t="s">
         <v>789</v>
       </c>
       <c r="E420" s="4"/>
@@ -10072,7 +10072,7 @@
       <c r="C421" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="D421" s="41" t="s">
+      <c r="D421" s="40" t="s">
         <v>789</v>
       </c>
       <c r="E421" s="4"/>
@@ -11750,7 +11750,9 @@
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A540" s="4"/>
-      <c r="B540" s="4"/>
+      <c r="B540" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C540" s="9" t="s">
         <v>732</v>
       </c>
@@ -11764,7 +11766,9 @@
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A541" s="4"/>
-      <c r="B541" s="4"/>
+      <c r="B541" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C541" s="9" t="s">
         <v>733</v>
       </c>
@@ -11778,7 +11782,9 @@
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A542" s="4"/>
-      <c r="B542" s="4"/>
+      <c r="B542" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C542" s="9" t="s">
         <v>734</v>
       </c>
@@ -11792,7 +11798,9 @@
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A543" s="4"/>
-      <c r="B543" s="4"/>
+      <c r="B543" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C543" s="9" t="s">
         <v>735</v>
       </c>
@@ -11806,7 +11814,9 @@
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A544" s="4"/>
-      <c r="B544" s="4"/>
+      <c r="B544" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C544" s="9" t="s">
         <v>736</v>
       </c>
@@ -11820,7 +11830,9 @@
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A545" s="4"/>
-      <c r="B545" s="4"/>
+      <c r="B545" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C545" s="9" t="s">
         <v>737</v>
       </c>
@@ -11834,7 +11846,9 @@
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A546" s="4"/>
-      <c r="B546" s="4"/>
+      <c r="B546" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C546" s="9" t="s">
         <v>738</v>
       </c>
@@ -11848,7 +11862,9 @@
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A547" s="4"/>
-      <c r="B547" s="4"/>
+      <c r="B547" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C547" s="9" t="s">
         <v>739</v>
       </c>
@@ -11862,7 +11878,9 @@
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A548" s="4"/>
-      <c r="B548" s="4"/>
+      <c r="B548" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C548" s="9" t="s">
         <v>740</v>
       </c>
@@ -11876,7 +11894,9 @@
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A549" s="4"/>
-      <c r="B549" s="4"/>
+      <c r="B549" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C549" s="9" t="s">
         <v>741</v>
       </c>
@@ -11890,7 +11910,9 @@
     </row>
     <row r="550" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A550" s="4"/>
-      <c r="B550" s="4"/>
+      <c r="B550" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C550" s="9" t="s">
         <v>742</v>
       </c>
@@ -11904,7 +11926,9 @@
     </row>
     <row r="551" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A551" s="4"/>
-      <c r="B551" s="4"/>
+      <c r="B551" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C551" s="9" t="s">
         <v>743</v>
       </c>
@@ -11918,7 +11942,9 @@
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A552" s="4"/>
-      <c r="B552" s="4"/>
+      <c r="B552" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C552" s="9" t="s">
         <v>744</v>
       </c>
@@ -11932,7 +11958,9 @@
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A553" s="4"/>
-      <c r="B553" s="4"/>
+      <c r="B553" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C553" s="9" t="s">
         <v>745</v>
       </c>
@@ -11946,7 +11974,9 @@
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A554" s="4"/>
-      <c r="B554" s="4"/>
+      <c r="B554" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C554" s="9" t="s">
         <v>746</v>
       </c>
@@ -11960,7 +11990,9 @@
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A555" s="4"/>
-      <c r="B555" s="4"/>
+      <c r="B555" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C555" s="9" t="s">
         <v>747</v>
       </c>
@@ -11974,7 +12006,9 @@
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A556" s="4"/>
-      <c r="B556" s="4"/>
+      <c r="B556" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C556" s="9" t="s">
         <v>748</v>
       </c>
@@ -11988,7 +12022,9 @@
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A557" s="4"/>
-      <c r="B557" s="4"/>
+      <c r="B557" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C557" s="9" t="s">
         <v>749</v>
       </c>
@@ -12002,7 +12038,9 @@
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A558" s="4"/>
-      <c r="B558" s="4"/>
+      <c r="B558" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C558" s="9" t="s">
         <v>750</v>
       </c>
@@ -12016,7 +12054,9 @@
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A559" s="4"/>
-      <c r="B559" s="4"/>
+      <c r="B559" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C559" s="9" t="s">
         <v>751</v>
       </c>
@@ -12030,7 +12070,9 @@
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A560" s="4"/>
-      <c r="B560" s="4"/>
+      <c r="B560" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C560" s="9" t="s">
         <v>752</v>
       </c>
@@ -12042,9 +12084,11 @@
       <c r="G560" s="4"/>
       <c r="H560" s="4"/>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:8" ht="26" x14ac:dyDescent="0.2">
       <c r="A561" s="4"/>
-      <c r="B561" s="4"/>
+      <c r="B561" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C561" s="9" t="s">
         <v>753</v>
       </c>
@@ -12058,7 +12102,9 @@
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A562" s="4"/>
-      <c r="B562" s="4"/>
+      <c r="B562" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C562" s="9" t="s">
         <v>754</v>
       </c>
@@ -12072,7 +12118,9 @@
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A563" s="4"/>
-      <c r="B563" s="4"/>
+      <c r="B563" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C563" s="9" t="s">
         <v>755</v>
       </c>
@@ -12086,7 +12134,9 @@
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A564" s="4"/>
-      <c r="B564" s="4"/>
+      <c r="B564" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C564" s="9" t="s">
         <v>756</v>
       </c>
@@ -12100,7 +12150,9 @@
     </row>
     <row r="565" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A565" s="4"/>
-      <c r="B565" s="4"/>
+      <c r="B565" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C565" s="9" t="s">
         <v>757</v>
       </c>
@@ -12114,7 +12166,9 @@
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A566" s="4"/>
-      <c r="B566" s="4"/>
+      <c r="B566" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C566" s="9" t="s">
         <v>758</v>
       </c>
@@ -12128,7 +12182,9 @@
     </row>
     <row r="567" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A567" s="4"/>
-      <c r="B567" s="4"/>
+      <c r="B567" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C567" s="9" t="s">
         <v>759</v>
       </c>
@@ -12142,7 +12198,9 @@
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A568" s="4"/>
-      <c r="B568" s="4"/>
+      <c r="B568" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C568" s="9" t="s">
         <v>760</v>
       </c>
@@ -12156,7 +12214,9 @@
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A569" s="4"/>
-      <c r="B569" s="4"/>
+      <c r="B569" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C569" s="9" t="s">
         <v>761</v>
       </c>
@@ -12170,7 +12230,9 @@
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A570" s="4"/>
-      <c r="B570" s="4"/>
+      <c r="B570" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C570" s="9" t="s">
         <v>762</v>
       </c>
@@ -12184,7 +12246,9 @@
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A571" s="4"/>
-      <c r="B571" s="4"/>
+      <c r="B571" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C571" s="9" t="s">
         <v>763</v>
       </c>
@@ -12198,7 +12262,9 @@
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A572" s="4"/>
-      <c r="B572" s="4"/>
+      <c r="B572" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C572" s="9" t="s">
         <v>764</v>
       </c>
@@ -12212,7 +12278,9 @@
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A573" s="4"/>
-      <c r="B573" s="4"/>
+      <c r="B573" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C573" s="9" t="s">
         <v>765</v>
       </c>
@@ -12226,7 +12294,9 @@
     </row>
     <row r="574" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A574" s="4"/>
-      <c r="B574" s="4"/>
+      <c r="B574" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C574" s="9" t="s">
         <v>766</v>
       </c>
@@ -12240,7 +12310,9 @@
     </row>
     <row r="575" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A575" s="4"/>
-      <c r="B575" s="4"/>
+      <c r="B575" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C575" s="9" t="s">
         <v>767</v>
       </c>
@@ -12252,9 +12324,11 @@
       <c r="G575" s="4"/>
       <c r="H575" s="4"/>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:8" ht="26" x14ac:dyDescent="0.2">
       <c r="A576" s="4"/>
-      <c r="B576" s="4"/>
+      <c r="B576" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C576" s="9" t="s">
         <v>768</v>
       </c>
@@ -12266,9 +12340,11 @@
       <c r="G576" s="4"/>
       <c r="H576" s="4"/>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:8" ht="26" x14ac:dyDescent="0.2">
       <c r="A577" s="4"/>
-      <c r="B577" s="4"/>
+      <c r="B577" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C577" s="9" t="s">
         <v>769</v>
       </c>
@@ -12282,7 +12358,9 @@
     </row>
     <row r="578" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A578" s="4"/>
-      <c r="B578" s="4"/>
+      <c r="B578" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C578" s="9" t="s">
         <v>770</v>
       </c>
@@ -12294,9 +12372,11 @@
       <c r="G578" s="4"/>
       <c r="H578" s="4"/>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:8" ht="26" x14ac:dyDescent="0.2">
       <c r="A579" s="4"/>
-      <c r="B579" s="4"/>
+      <c r="B579" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C579" s="9" t="s">
         <v>771</v>
       </c>
@@ -12308,9 +12388,11 @@
       <c r="G579" s="4"/>
       <c r="H579" s="4"/>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:8" ht="26" x14ac:dyDescent="0.2">
       <c r="A580" s="4"/>
-      <c r="B580" s="4"/>
+      <c r="B580" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C580" s="9" t="s">
         <v>772</v>
       </c>
@@ -12324,7 +12406,9 @@
     </row>
     <row r="581" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A581" s="4"/>
-      <c r="B581" s="4"/>
+      <c r="B581" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C581" s="9" t="s">
         <v>773</v>
       </c>
@@ -12336,9 +12420,11 @@
       <c r="G581" s="4"/>
       <c r="H581" s="4"/>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:8" ht="26" x14ac:dyDescent="0.2">
       <c r="A582" s="4"/>
-      <c r="B582" s="4"/>
+      <c r="B582" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C582" s="9" t="s">
         <v>774</v>
       </c>
@@ -12352,7 +12438,9 @@
     </row>
     <row r="583" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A583" s="4"/>
-      <c r="B583" s="4"/>
+      <c r="B583" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C583" s="9" t="s">
         <v>775</v>
       </c>
@@ -12366,7 +12454,9 @@
     </row>
     <row r="584" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A584" s="4"/>
-      <c r="B584" s="4"/>
+      <c r="B584" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C584" s="9" t="s">
         <v>776</v>
       </c>
@@ -12378,9 +12468,11 @@
       <c r="G584" s="4"/>
       <c r="H584" s="4"/>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:8" ht="26" x14ac:dyDescent="0.2">
       <c r="A585" s="4"/>
-      <c r="B585" s="4"/>
+      <c r="B585" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C585" s="9" t="s">
         <v>777</v>
       </c>
@@ -12392,9 +12484,11 @@
       <c r="G585" s="4"/>
       <c r="H585" s="4"/>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:8" ht="26" x14ac:dyDescent="0.2">
       <c r="A586" s="4"/>
-      <c r="B586" s="4"/>
+      <c r="B586" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C586" s="9" t="s">
         <v>778</v>
       </c>
@@ -12408,7 +12502,9 @@
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A587" s="4"/>
-      <c r="B587" s="4"/>
+      <c r="B587" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C587" s="9" t="s">
         <v>779</v>
       </c>
@@ -12422,7 +12518,9 @@
     </row>
     <row r="588" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A588" s="4"/>
-      <c r="B588" s="4"/>
+      <c r="B588" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C588" s="9" t="s">
         <v>780</v>
       </c>
@@ -12434,7 +12532,9 @@
     </row>
     <row r="589" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A589" s="4"/>
-      <c r="B589" s="4"/>
+      <c r="B589" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="C589" s="9" t="s">
         <v>781</v>
       </c>
@@ -12457,10 +12557,10 @@
       <c r="D590" s="5" t="s">
         <v>783</v>
       </c>
-      <c r="E590" s="39">
+      <c r="E590" s="38">
         <v>51355</v>
       </c>
-      <c r="F590" s="40" t="s">
+      <c r="F590" s="39" t="s">
         <v>786</v>
       </c>
       <c r="G590" s="9" t="s">
@@ -12526,10 +12626,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="23" t="s">
         <v>296</v>
       </c>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C79E253-F74D-EC40-A44A-CFC076CED83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06759A1A-1732-0B4B-8143-DA4A82AC04B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14280" windowHeight="16220" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
   <sheets>
     <sheet name="LIST OF COMPLAIN 2021" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="851">
   <si>
     <t>BRANCH</t>
   </si>
@@ -2570,6 +2570,15 @@
   </si>
   <si>
     <t>ROSA FRANCISCO -VS- PARO ET.AL</t>
+  </si>
+  <si>
+    <t>JULY</t>
+  </si>
+  <si>
+    <t>R-03-02-0586</t>
+  </si>
+  <si>
+    <t>HEIRS OF ANA SANTOS REP. BY BERNARDO SANTOS</t>
   </si>
 </sst>
 </file>
@@ -2895,14 +2904,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3221,8 +3230,8 @@
   <dimension ref="A1:J593"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A509" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D515" sqref="D515"/>
+      <pane ySplit="1" topLeftCell="A582" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E590" sqref="E590"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11756,7 +11765,7 @@
       <c r="C540" s="9" t="s">
         <v>732</v>
       </c>
-      <c r="D540" s="42" t="s">
+      <c r="D540" s="41" t="s">
         <v>804</v>
       </c>
       <c r="E540" s="4"/>
@@ -11772,7 +11781,7 @@
       <c r="C541" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="D541" s="42" t="s">
+      <c r="D541" s="41" t="s">
         <v>804</v>
       </c>
       <c r="E541" s="4"/>
@@ -11788,7 +11797,7 @@
       <c r="C542" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="D542" s="42" t="s">
+      <c r="D542" s="41" t="s">
         <v>805</v>
       </c>
       <c r="E542" s="4"/>
@@ -11804,7 +11813,7 @@
       <c r="C543" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="D543" s="42" t="s">
+      <c r="D543" s="41" t="s">
         <v>806</v>
       </c>
       <c r="E543" s="4"/>
@@ -11820,7 +11829,7 @@
       <c r="C544" s="9" t="s">
         <v>736</v>
       </c>
-      <c r="D544" s="42" t="s">
+      <c r="D544" s="41" t="s">
         <v>807</v>
       </c>
       <c r="E544" s="4"/>
@@ -11836,7 +11845,7 @@
       <c r="C545" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="D545" s="42" t="s">
+      <c r="D545" s="41" t="s">
         <v>808</v>
       </c>
       <c r="E545" s="4"/>
@@ -11852,7 +11861,7 @@
       <c r="C546" s="9" t="s">
         <v>738</v>
       </c>
-      <c r="D546" s="42" t="s">
+      <c r="D546" s="41" t="s">
         <v>809</v>
       </c>
       <c r="E546" s="4"/>
@@ -11868,7 +11877,7 @@
       <c r="C547" s="9" t="s">
         <v>739</v>
       </c>
-      <c r="D547" s="42" t="s">
+      <c r="D547" s="41" t="s">
         <v>810</v>
       </c>
       <c r="E547" s="4"/>
@@ -11884,7 +11893,7 @@
       <c r="C548" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="D548" s="42" t="s">
+      <c r="D548" s="41" t="s">
         <v>811</v>
       </c>
       <c r="E548" s="4"/>
@@ -11900,7 +11909,7 @@
       <c r="C549" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="D549" s="42" t="s">
+      <c r="D549" s="41" t="s">
         <v>812</v>
       </c>
       <c r="E549" s="4"/>
@@ -11916,7 +11925,7 @@
       <c r="C550" s="9" t="s">
         <v>742</v>
       </c>
-      <c r="D550" s="42" t="s">
+      <c r="D550" s="41" t="s">
         <v>813</v>
       </c>
       <c r="E550" s="4"/>
@@ -11932,7 +11941,7 @@
       <c r="C551" s="9" t="s">
         <v>743</v>
       </c>
-      <c r="D551" s="42" t="s">
+      <c r="D551" s="41" t="s">
         <v>814</v>
       </c>
       <c r="E551" s="4"/>
@@ -11948,7 +11957,7 @@
       <c r="C552" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="D552" s="42" t="s">
+      <c r="D552" s="41" t="s">
         <v>815</v>
       </c>
       <c r="E552" s="4"/>
@@ -11964,7 +11973,7 @@
       <c r="C553" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="D553" s="42" t="s">
+      <c r="D553" s="41" t="s">
         <v>816</v>
       </c>
       <c r="E553" s="4"/>
@@ -11980,7 +11989,7 @@
       <c r="C554" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="D554" s="42" t="s">
+      <c r="D554" s="41" t="s">
         <v>817</v>
       </c>
       <c r="E554" s="4"/>
@@ -11996,7 +12005,7 @@
       <c r="C555" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="D555" s="42" t="s">
+      <c r="D555" s="41" t="s">
         <v>818</v>
       </c>
       <c r="E555" s="4"/>
@@ -12012,7 +12021,7 @@
       <c r="C556" s="9" t="s">
         <v>748</v>
       </c>
-      <c r="D556" s="42" t="s">
+      <c r="D556" s="41" t="s">
         <v>819</v>
       </c>
       <c r="E556" s="4"/>
@@ -12028,7 +12037,7 @@
       <c r="C557" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="D557" s="43" t="s">
+      <c r="D557" s="42" t="s">
         <v>820</v>
       </c>
       <c r="E557" s="4"/>
@@ -12036,7 +12045,7 @@
       <c r="G557" s="4"/>
       <c r="H557" s="4"/>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:8" ht="26" x14ac:dyDescent="0.2">
       <c r="A558" s="4"/>
       <c r="B558" s="4" t="s">
         <v>787</v>
@@ -12044,7 +12053,7 @@
       <c r="C558" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="D558" s="42" t="s">
+      <c r="D558" s="41" t="s">
         <v>821</v>
       </c>
       <c r="E558" s="4"/>
@@ -12060,7 +12069,7 @@
       <c r="C559" s="9" t="s">
         <v>751</v>
       </c>
-      <c r="D559" s="42" t="s">
+      <c r="D559" s="41" t="s">
         <v>822</v>
       </c>
       <c r="E559" s="4"/>
@@ -12076,7 +12085,7 @@
       <c r="C560" s="9" t="s">
         <v>752</v>
       </c>
-      <c r="D560" s="42" t="s">
+      <c r="D560" s="41" t="s">
         <v>822</v>
       </c>
       <c r="E560" s="4"/>
@@ -12092,7 +12101,7 @@
       <c r="C561" s="9" t="s">
         <v>753</v>
       </c>
-      <c r="D561" s="42" t="s">
+      <c r="D561" s="41" t="s">
         <v>823</v>
       </c>
       <c r="E561" s="4"/>
@@ -12108,7 +12117,7 @@
       <c r="C562" s="9" t="s">
         <v>754</v>
       </c>
-      <c r="D562" s="42" t="s">
+      <c r="D562" s="41" t="s">
         <v>824</v>
       </c>
       <c r="E562" s="4"/>
@@ -12116,7 +12125,7 @@
       <c r="G562" s="4"/>
       <c r="H562" s="4"/>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:8" ht="26" x14ac:dyDescent="0.2">
       <c r="A563" s="4"/>
       <c r="B563" s="4" t="s">
         <v>787</v>
@@ -12124,7 +12133,7 @@
       <c r="C563" s="9" t="s">
         <v>755</v>
       </c>
-      <c r="D563" s="42" t="s">
+      <c r="D563" s="41" t="s">
         <v>825</v>
       </c>
       <c r="E563" s="4"/>
@@ -12140,7 +12149,7 @@
       <c r="C564" s="9" t="s">
         <v>756</v>
       </c>
-      <c r="D564" s="42" t="s">
+      <c r="D564" s="41" t="s">
         <v>826</v>
       </c>
       <c r="E564" s="4"/>
@@ -12156,7 +12165,7 @@
       <c r="C565" s="9" t="s">
         <v>757</v>
       </c>
-      <c r="D565" s="42" t="s">
+      <c r="D565" s="41" t="s">
         <v>827</v>
       </c>
       <c r="E565" s="4"/>
@@ -12172,7 +12181,7 @@
       <c r="C566" s="9" t="s">
         <v>758</v>
       </c>
-      <c r="D566" s="42" t="s">
+      <c r="D566" s="41" t="s">
         <v>827</v>
       </c>
       <c r="E566" s="4"/>
@@ -12188,7 +12197,7 @@
       <c r="C567" s="9" t="s">
         <v>759</v>
       </c>
-      <c r="D567" s="42" t="s">
+      <c r="D567" s="41" t="s">
         <v>828</v>
       </c>
       <c r="E567" s="4"/>
@@ -12204,7 +12213,7 @@
       <c r="C568" s="9" t="s">
         <v>760</v>
       </c>
-      <c r="D568" s="42" t="s">
+      <c r="D568" s="41" t="s">
         <v>829</v>
       </c>
       <c r="E568" s="4"/>
@@ -12220,7 +12229,7 @@
       <c r="C569" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="D569" s="42" t="s">
+      <c r="D569" s="41" t="s">
         <v>830</v>
       </c>
       <c r="E569" s="4"/>
@@ -12236,7 +12245,7 @@
       <c r="C570" s="9" t="s">
         <v>762</v>
       </c>
-      <c r="D570" s="42" t="s">
+      <c r="D570" s="41" t="s">
         <v>831</v>
       </c>
       <c r="E570" s="4"/>
@@ -12252,7 +12261,7 @@
       <c r="C571" s="9" t="s">
         <v>763</v>
       </c>
-      <c r="D571" s="42" t="s">
+      <c r="D571" s="41" t="s">
         <v>832</v>
       </c>
       <c r="E571" s="4"/>
@@ -12268,7 +12277,7 @@
       <c r="C572" s="9" t="s">
         <v>764</v>
       </c>
-      <c r="D572" s="42" t="s">
+      <c r="D572" s="41" t="s">
         <v>833</v>
       </c>
       <c r="E572" s="4"/>
@@ -12284,7 +12293,7 @@
       <c r="C573" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="D573" s="42" t="s">
+      <c r="D573" s="41" t="s">
         <v>834</v>
       </c>
       <c r="E573" s="4"/>
@@ -12300,7 +12309,7 @@
       <c r="C574" s="9" t="s">
         <v>766</v>
       </c>
-      <c r="D574" s="42" t="s">
+      <c r="D574" s="41" t="s">
         <v>835</v>
       </c>
       <c r="E574" s="4"/>
@@ -12316,7 +12325,7 @@
       <c r="C575" s="9" t="s">
         <v>767</v>
       </c>
-      <c r="D575" s="42" t="s">
+      <c r="D575" s="41" t="s">
         <v>835</v>
       </c>
       <c r="E575" s="4"/>
@@ -12332,7 +12341,7 @@
       <c r="C576" s="9" t="s">
         <v>768</v>
       </c>
-      <c r="D576" s="42" t="s">
+      <c r="D576" s="41" t="s">
         <v>836</v>
       </c>
       <c r="E576" s="4"/>
@@ -12348,7 +12357,7 @@
       <c r="C577" s="9" t="s">
         <v>769</v>
       </c>
-      <c r="D577" s="43" t="s">
+      <c r="D577" s="42" t="s">
         <v>837</v>
       </c>
       <c r="E577" s="4"/>
@@ -12364,7 +12373,7 @@
       <c r="C578" s="9" t="s">
         <v>770</v>
       </c>
-      <c r="D578" s="42" t="s">
+      <c r="D578" s="41" t="s">
         <v>838</v>
       </c>
       <c r="E578" s="4"/>
@@ -12380,7 +12389,7 @@
       <c r="C579" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="D579" s="42" t="s">
+      <c r="D579" s="41" t="s">
         <v>839</v>
       </c>
       <c r="E579" s="4"/>
@@ -12396,7 +12405,7 @@
       <c r="C580" s="9" t="s">
         <v>772</v>
       </c>
-      <c r="D580" s="42" t="s">
+      <c r="D580" s="41" t="s">
         <v>840</v>
       </c>
       <c r="E580" s="4"/>
@@ -12412,7 +12421,7 @@
       <c r="C581" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="D581" s="42" t="s">
+      <c r="D581" s="41" t="s">
         <v>841</v>
       </c>
       <c r="E581" s="4"/>
@@ -12428,7 +12437,7 @@
       <c r="C582" s="9" t="s">
         <v>774</v>
       </c>
-      <c r="D582" s="42" t="s">
+      <c r="D582" s="41" t="s">
         <v>842</v>
       </c>
       <c r="E582" s="4"/>
@@ -12444,7 +12453,7 @@
       <c r="C583" s="9" t="s">
         <v>775</v>
       </c>
-      <c r="D583" s="42" t="s">
+      <c r="D583" s="41" t="s">
         <v>843</v>
       </c>
       <c r="E583" s="4"/>
@@ -12460,7 +12469,7 @@
       <c r="C584" s="9" t="s">
         <v>776</v>
       </c>
-      <c r="D584" s="42" t="s">
+      <c r="D584" s="41" t="s">
         <v>844</v>
       </c>
       <c r="E584" s="4"/>
@@ -12476,7 +12485,7 @@
       <c r="C585" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="D585" s="42" t="s">
+      <c r="D585" s="41" t="s">
         <v>845</v>
       </c>
       <c r="E585" s="4"/>
@@ -12492,7 +12501,7 @@
       <c r="C586" s="9" t="s">
         <v>778</v>
       </c>
-      <c r="D586" s="42" t="s">
+      <c r="D586" s="41" t="s">
         <v>846</v>
       </c>
       <c r="E586" s="4"/>
@@ -12508,7 +12517,7 @@
       <c r="C587" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="D587" s="43" t="s">
+      <c r="D587" s="42" t="s">
         <v>847</v>
       </c>
       <c r="E587" s="4"/>
@@ -12570,11 +12579,16 @@
         <v>785</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A591" s="4"/>
-      <c r="B591" s="4"/>
-      <c r="C591" s="4"/>
-      <c r="D591" s="4"/>
+    <row r="591" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A591" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="C591" s="9" t="s">
+        <v>849</v>
+      </c>
+      <c r="D591" s="40" t="s">
+        <v>850</v>
+      </c>
       <c r="E591" s="4"/>
       <c r="F591" s="4"/>
       <c r="G591" s="4"/>
@@ -12626,10 +12640,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="43"/>
       <c r="C1" s="23" t="s">
         <v>296</v>
       </c>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06759A1A-1732-0B4B-8143-DA4A82AC04B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4ACC52-58EF-6B4C-9E12-B63271D631BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14280" windowHeight="16220" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23360" windowHeight="16220" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
   <sheets>
     <sheet name="LIST OF COMPLAIN 2021" sheetId="1" r:id="rId1"/>
@@ -3230,7 +3230,7 @@
   <dimension ref="A1:J593"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A582" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E590" sqref="E590"/>
     </sheetView>
   </sheetViews>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4ACC52-58EF-6B4C-9E12-B63271D631BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53B53FF-C568-AC49-8827-C0151876C4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23360" windowHeight="16220" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="855">
   <si>
     <t>BRANCH</t>
   </si>
@@ -2579,6 +2579,18 @@
   </si>
   <si>
     <t>HEIRS OF ANA SANTOS REP. BY BERNARDO SANTOS</t>
+  </si>
+  <si>
+    <t>R-03-02-0587</t>
+  </si>
+  <si>
+    <t>R-03-02-0588</t>
+  </si>
+  <si>
+    <t>R-03-02-0589</t>
+  </si>
+  <si>
+    <t>ROMEO SANTOS -VS- FLORENCIO BERNABE ET.AL</t>
   </si>
 </sst>
 </file>
@@ -3227,11 +3239,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7760DDDF-B585-9445-B146-2DD762F6C209}">
-  <dimension ref="A1:J593"/>
+  <dimension ref="A1:J594"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E590" sqref="E590"/>
+      <pane ySplit="1" topLeftCell="A583" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D593" sqref="D593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12594,25 +12606,47 @@
       <c r="G591" s="4"/>
       <c r="H591" s="4"/>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
-      <c r="C592" s="4"/>
-      <c r="D592" s="4"/>
+      <c r="C592" s="9" t="s">
+        <v>851</v>
+      </c>
+      <c r="D592" s="5" t="s">
+        <v>854</v>
+      </c>
       <c r="E592" s="4"/>
       <c r="F592" s="4"/>
       <c r="G592" s="4"/>
       <c r="H592" s="4"/>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
-      <c r="C593" s="4"/>
-      <c r="D593" s="4"/>
+      <c r="C593" s="9" t="s">
+        <v>852</v>
+      </c>
+      <c r="D593" s="5" t="s">
+        <v>854</v>
+      </c>
       <c r="E593" s="4"/>
       <c r="F593" s="4"/>
       <c r="G593" s="4"/>
       <c r="H593" s="4"/>
+    </row>
+    <row r="594" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A594" s="4"/>
+      <c r="B594" s="4"/>
+      <c r="C594" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="D594" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="E594" s="4"/>
+      <c r="F594" s="4"/>
+      <c r="G594" s="4"/>
+      <c r="H594" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53B53FF-C568-AC49-8827-C0151876C4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD76AB99-095D-D246-90DF-9D5523A40773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23360" windowHeight="16220" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -3242,8 +3242,8 @@
   <dimension ref="A1:J594"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A583" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D593" sqref="D593"/>
+      <pane ySplit="1" topLeftCell="A589" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F591" sqref="F591"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD76AB99-095D-D246-90DF-9D5523A40773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7025FC-9286-0B43-B4EC-8A580A41291C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23360" windowHeight="16220" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="23360" windowHeight="16220" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
   <sheets>
     <sheet name="LIST OF COMPLAIN 2021" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="973">
   <si>
     <t>BRANCH</t>
   </si>
@@ -2591,6 +2591,360 @@
   </si>
   <si>
     <t>ROMEO SANTOS -VS- FLORENCIO BERNABE ET.AL</t>
+  </si>
+  <si>
+    <t>R-03-02-0590</t>
+  </si>
+  <si>
+    <t>R-03-02-0591</t>
+  </si>
+  <si>
+    <t>R-03-02-0592</t>
+  </si>
+  <si>
+    <t>R-03-02-0593</t>
+  </si>
+  <si>
+    <t>R-03-02-0594</t>
+  </si>
+  <si>
+    <t>R-03-02-0595</t>
+  </si>
+  <si>
+    <t>R-03-02-0596</t>
+  </si>
+  <si>
+    <t>R-03-02-0597</t>
+  </si>
+  <si>
+    <t>R-03-02-0598</t>
+  </si>
+  <si>
+    <t>R-03-02-0599</t>
+  </si>
+  <si>
+    <t>R-03-02-0600</t>
+  </si>
+  <si>
+    <t>R-03-02-0601</t>
+  </si>
+  <si>
+    <t>R-03-02-0602</t>
+  </si>
+  <si>
+    <t>R-03-02-0603</t>
+  </si>
+  <si>
+    <t>R-03-02-0604</t>
+  </si>
+  <si>
+    <t>R-03-02-0605</t>
+  </si>
+  <si>
+    <t>R-03-02-0606</t>
+  </si>
+  <si>
+    <t>R-03-02-0607</t>
+  </si>
+  <si>
+    <t>R-03-02-0608</t>
+  </si>
+  <si>
+    <t>R-03-02-0609</t>
+  </si>
+  <si>
+    <t>R-03-02-0610</t>
+  </si>
+  <si>
+    <t>R-03-02-0611</t>
+  </si>
+  <si>
+    <t>R-03-02-0612</t>
+  </si>
+  <si>
+    <t>R-03-02-0613</t>
+  </si>
+  <si>
+    <t>R-03-02-0614</t>
+  </si>
+  <si>
+    <t>R-03-02-0615</t>
+  </si>
+  <si>
+    <t>R-03-02-0616</t>
+  </si>
+  <si>
+    <t>R-03-02-0617</t>
+  </si>
+  <si>
+    <t>R-03-02-0618</t>
+  </si>
+  <si>
+    <t>R-03-02-0619</t>
+  </si>
+  <si>
+    <t>R-03-02-0620</t>
+  </si>
+  <si>
+    <t>R-03-02-0621</t>
+  </si>
+  <si>
+    <t>R-03-02-0622</t>
+  </si>
+  <si>
+    <t>R-03-02-0623</t>
+  </si>
+  <si>
+    <t>R-03-02-0624</t>
+  </si>
+  <si>
+    <t>R-03-02-0625</t>
+  </si>
+  <si>
+    <t>R-03-02-0626</t>
+  </si>
+  <si>
+    <t>R-03-02-0627</t>
+  </si>
+  <si>
+    <t>R-03-02-0628</t>
+  </si>
+  <si>
+    <t>R-03-02-0629</t>
+  </si>
+  <si>
+    <t>R-03-02-0630</t>
+  </si>
+  <si>
+    <t>R-03-02-0631</t>
+  </si>
+  <si>
+    <t>R-03-02-0632</t>
+  </si>
+  <si>
+    <t>R-03-02-0633</t>
+  </si>
+  <si>
+    <t>R-03-02-0634</t>
+  </si>
+  <si>
+    <t>R-03-02-0635</t>
+  </si>
+  <si>
+    <t>R-03-02-0636</t>
+  </si>
+  <si>
+    <t>R-03-02-0637</t>
+  </si>
+  <si>
+    <t>R-03-02-0638</t>
+  </si>
+  <si>
+    <t>R-03-02-0639</t>
+  </si>
+  <si>
+    <t>R-03-02-0640</t>
+  </si>
+  <si>
+    <t>R-03-02-0641</t>
+  </si>
+  <si>
+    <t>R-03-02-0642</t>
+  </si>
+  <si>
+    <t>R-03-02-0643</t>
+  </si>
+  <si>
+    <t>R-03-02-0644</t>
+  </si>
+  <si>
+    <t>R-03-02-0645</t>
+  </si>
+  <si>
+    <t>R-03-02-0646</t>
+  </si>
+  <si>
+    <t>R-03-02-0647</t>
+  </si>
+  <si>
+    <t>R-03-02-0648</t>
+  </si>
+  <si>
+    <t>R-03-02-0649</t>
+  </si>
+  <si>
+    <t>R-03-02-0650</t>
+  </si>
+  <si>
+    <t>R-03-02-0651</t>
+  </si>
+  <si>
+    <t>R-03-02-0652</t>
+  </si>
+  <si>
+    <t>R-03-02-0653</t>
+  </si>
+  <si>
+    <t>R-03-02-0654</t>
+  </si>
+  <si>
+    <t>R-03-02-0655</t>
+  </si>
+  <si>
+    <t>R-03-02-0656</t>
+  </si>
+  <si>
+    <t>R-03-02-0657</t>
+  </si>
+  <si>
+    <t>R-03-02-0658</t>
+  </si>
+  <si>
+    <t>R-03-02-0659</t>
+  </si>
+  <si>
+    <t>R-03-02-0660</t>
+  </si>
+  <si>
+    <t>R-03-02-0661</t>
+  </si>
+  <si>
+    <t>R-03-02-0662</t>
+  </si>
+  <si>
+    <t>R-03-02-0663</t>
+  </si>
+  <si>
+    <t>R-03-02-0664</t>
+  </si>
+  <si>
+    <t>R-03-02-0665</t>
+  </si>
+  <si>
+    <t>R-03-02-0666</t>
+  </si>
+  <si>
+    <t>R-03-02-0667</t>
+  </si>
+  <si>
+    <t>R-03-02-0668</t>
+  </si>
+  <si>
+    <t>R-03-02-0669</t>
+  </si>
+  <si>
+    <t>R-03-02-0670</t>
+  </si>
+  <si>
+    <t>R-03-02-0671</t>
+  </si>
+  <si>
+    <t>R-03-02-0672</t>
+  </si>
+  <si>
+    <t>R-03-02-0673</t>
+  </si>
+  <si>
+    <t>R-03-02-0674</t>
+  </si>
+  <si>
+    <t>R-03-02-0675</t>
+  </si>
+  <si>
+    <t>R-03-02-0676</t>
+  </si>
+  <si>
+    <t>R-03-02-0677</t>
+  </si>
+  <si>
+    <t>R-03-02-0678</t>
+  </si>
+  <si>
+    <t>R-03-02-0679</t>
+  </si>
+  <si>
+    <t>R-03-02-0680</t>
+  </si>
+  <si>
+    <t>R-03-02-0681</t>
+  </si>
+  <si>
+    <t>R-03-02-0682</t>
+  </si>
+  <si>
+    <t>R-03-02-0683</t>
+  </si>
+  <si>
+    <t>R-03-02-0684</t>
+  </si>
+  <si>
+    <t>R-03-02-0685</t>
+  </si>
+  <si>
+    <t>R-03-02-0686</t>
+  </si>
+  <si>
+    <t>R-03-02-0687</t>
+  </si>
+  <si>
+    <t>R-03-02-0688</t>
+  </si>
+  <si>
+    <t>R-03-02-0689</t>
+  </si>
+  <si>
+    <t>R-03-02-0690</t>
+  </si>
+  <si>
+    <t>R-03-02-0691</t>
+  </si>
+  <si>
+    <t>R-03-02-0692</t>
+  </si>
+  <si>
+    <t>R-03-02-0693</t>
+  </si>
+  <si>
+    <t>R-03-02-0694</t>
+  </si>
+  <si>
+    <t>R-03-02-0695</t>
+  </si>
+  <si>
+    <t>R-03-02-0696</t>
+  </si>
+  <si>
+    <t>R-03-02-0697</t>
+  </si>
+  <si>
+    <t>R-03-02-0698</t>
+  </si>
+  <si>
+    <t>R-03-02-0699</t>
+  </si>
+  <si>
+    <t>R-03-02-0700</t>
+  </si>
+  <si>
+    <t>R-03-02-0701</t>
+  </si>
+  <si>
+    <t>R-03-02-0702</t>
+  </si>
+  <si>
+    <t>R-03-02-0703</t>
+  </si>
+  <si>
+    <t>R-03-02-0704</t>
+  </si>
+  <si>
+    <t>R-03-02-0705</t>
+  </si>
+  <si>
+    <t>R-03-02-0706</t>
+  </si>
+  <si>
+    <t>LUIS R. VILLAFUERTE -VS- ROLANDO AMPARO ET.AL</t>
   </si>
 </sst>
 </file>
@@ -2812,7 +3166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2925,6 +3279,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3239,11 +3594,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7760DDDF-B585-9445-B146-2DD762F6C209}">
-  <dimension ref="A1:J594"/>
+  <dimension ref="A1:J711"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A589" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F591" sqref="F591"/>
+      <pane ySplit="1" topLeftCell="A705" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E717" sqref="E717"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12647,6 +13002,1646 @@
       <c r="F594" s="4"/>
       <c r="G594" s="4"/>
       <c r="H594" s="4"/>
+    </row>
+    <row r="595" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A595" s="44">
+        <v>44383</v>
+      </c>
+      <c r="B595" s="4"/>
+      <c r="C595" s="9" t="s">
+        <v>855</v>
+      </c>
+      <c r="D595" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E595" s="4"/>
+      <c r="F595" s="4"/>
+      <c r="G595" s="4"/>
+      <c r="H595" s="4"/>
+    </row>
+    <row r="596" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A596" s="4"/>
+      <c r="B596" s="4"/>
+      <c r="C596" s="9" t="s">
+        <v>856</v>
+      </c>
+      <c r="D596" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E596" s="4"/>
+      <c r="F596" s="4"/>
+      <c r="G596" s="4"/>
+      <c r="H596" s="4"/>
+    </row>
+    <row r="597" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A597" s="4"/>
+      <c r="B597" s="4"/>
+      <c r="C597" s="9" t="s">
+        <v>857</v>
+      </c>
+      <c r="D597" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E597" s="4"/>
+      <c r="F597" s="4"/>
+      <c r="G597" s="4"/>
+      <c r="H597" s="4"/>
+    </row>
+    <row r="598" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A598" s="4"/>
+      <c r="B598" s="4"/>
+      <c r="C598" s="9" t="s">
+        <v>858</v>
+      </c>
+      <c r="D598" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E598" s="4"/>
+      <c r="F598" s="4"/>
+      <c r="G598" s="4"/>
+      <c r="H598" s="4"/>
+    </row>
+    <row r="599" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A599" s="4"/>
+      <c r="B599" s="4"/>
+      <c r="C599" s="9" t="s">
+        <v>859</v>
+      </c>
+      <c r="D599" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E599" s="4"/>
+      <c r="F599" s="4"/>
+      <c r="G599" s="4"/>
+      <c r="H599" s="4"/>
+    </row>
+    <row r="600" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A600" s="4"/>
+      <c r="B600" s="4"/>
+      <c r="C600" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="D600" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E600" s="4"/>
+      <c r="F600" s="4"/>
+      <c r="G600" s="4"/>
+      <c r="H600" s="4"/>
+    </row>
+    <row r="601" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A601" s="4"/>
+      <c r="B601" s="4"/>
+      <c r="C601" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="D601" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E601" s="4"/>
+      <c r="F601" s="4"/>
+      <c r="G601" s="4"/>
+      <c r="H601" s="4"/>
+    </row>
+    <row r="602" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A602" s="4"/>
+      <c r="B602" s="4"/>
+      <c r="C602" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="D602" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E602" s="4"/>
+      <c r="F602" s="4"/>
+      <c r="G602" s="4"/>
+      <c r="H602" s="4"/>
+    </row>
+    <row r="603" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A603" s="4"/>
+      <c r="B603" s="4"/>
+      <c r="C603" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="D603" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E603" s="4"/>
+      <c r="F603" s="4"/>
+      <c r="G603" s="4"/>
+      <c r="H603" s="4"/>
+    </row>
+    <row r="604" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A604" s="4"/>
+      <c r="B604" s="4"/>
+      <c r="C604" s="9" t="s">
+        <v>864</v>
+      </c>
+      <c r="D604" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E604" s="4"/>
+      <c r="F604" s="4"/>
+      <c r="G604" s="4"/>
+      <c r="H604" s="4"/>
+    </row>
+    <row r="605" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A605" s="4"/>
+      <c r="B605" s="4"/>
+      <c r="C605" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="D605" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E605" s="4"/>
+      <c r="F605" s="4"/>
+      <c r="G605" s="4"/>
+      <c r="H605" s="4"/>
+    </row>
+    <row r="606" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A606" s="4"/>
+      <c r="B606" s="4"/>
+      <c r="C606" s="9" t="s">
+        <v>866</v>
+      </c>
+      <c r="D606" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E606" s="4"/>
+      <c r="F606" s="4"/>
+      <c r="G606" s="4"/>
+      <c r="H606" s="4"/>
+    </row>
+    <row r="607" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A607" s="4"/>
+      <c r="B607" s="4"/>
+      <c r="C607" s="9" t="s">
+        <v>867</v>
+      </c>
+      <c r="D607" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E607" s="4"/>
+      <c r="F607" s="4"/>
+      <c r="G607" s="4"/>
+      <c r="H607" s="4"/>
+    </row>
+    <row r="608" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A608" s="4"/>
+      <c r="B608" s="4"/>
+      <c r="C608" s="9" t="s">
+        <v>868</v>
+      </c>
+      <c r="D608" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E608" s="4"/>
+      <c r="F608" s="4"/>
+      <c r="G608" s="4"/>
+      <c r="H608" s="4"/>
+    </row>
+    <row r="609" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A609" s="4"/>
+      <c r="B609" s="4"/>
+      <c r="C609" s="9" t="s">
+        <v>869</v>
+      </c>
+      <c r="D609" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E609" s="4"/>
+      <c r="F609" s="4"/>
+      <c r="G609" s="4"/>
+      <c r="H609" s="4"/>
+    </row>
+    <row r="610" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A610" s="4"/>
+      <c r="B610" s="4"/>
+      <c r="C610" s="9" t="s">
+        <v>870</v>
+      </c>
+      <c r="D610" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E610" s="4"/>
+      <c r="F610" s="4"/>
+      <c r="G610" s="4"/>
+      <c r="H610" s="4"/>
+    </row>
+    <row r="611" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A611" s="4"/>
+      <c r="B611" s="4"/>
+      <c r="C611" s="9" t="s">
+        <v>871</v>
+      </c>
+      <c r="D611" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E611" s="4"/>
+      <c r="F611" s="4"/>
+      <c r="G611" s="4"/>
+      <c r="H611" s="4"/>
+    </row>
+    <row r="612" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A612" s="4"/>
+      <c r="B612" s="4"/>
+      <c r="C612" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="D612" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E612" s="4"/>
+      <c r="F612" s="4"/>
+      <c r="G612" s="4"/>
+      <c r="H612" s="4"/>
+    </row>
+    <row r="613" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A613" s="4"/>
+      <c r="B613" s="4"/>
+      <c r="C613" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="D613" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E613" s="4"/>
+      <c r="F613" s="4"/>
+      <c r="G613" s="4"/>
+      <c r="H613" s="4"/>
+    </row>
+    <row r="614" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A614" s="4"/>
+      <c r="B614" s="4"/>
+      <c r="C614" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="D614" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E614" s="4"/>
+      <c r="F614" s="4"/>
+      <c r="G614" s="4"/>
+      <c r="H614" s="4"/>
+    </row>
+    <row r="615" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A615" s="4"/>
+      <c r="B615" s="4"/>
+      <c r="C615" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="D615" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E615" s="4"/>
+      <c r="F615" s="4"/>
+      <c r="G615" s="4"/>
+      <c r="H615" s="4"/>
+    </row>
+    <row r="616" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A616" s="4"/>
+      <c r="B616" s="4"/>
+      <c r="C616" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="D616" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E616" s="4"/>
+      <c r="F616" s="4"/>
+      <c r="G616" s="4"/>
+      <c r="H616" s="4"/>
+    </row>
+    <row r="617" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A617" s="4"/>
+      <c r="B617" s="4"/>
+      <c r="C617" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="D617" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E617" s="4"/>
+      <c r="F617" s="4"/>
+      <c r="G617" s="4"/>
+      <c r="H617" s="4"/>
+    </row>
+    <row r="618" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A618" s="4"/>
+      <c r="B618" s="4"/>
+      <c r="C618" s="9" t="s">
+        <v>878</v>
+      </c>
+      <c r="D618" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E618" s="4"/>
+      <c r="F618" s="4"/>
+      <c r="G618" s="4"/>
+      <c r="H618" s="4"/>
+    </row>
+    <row r="619" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A619" s="4"/>
+      <c r="B619" s="4"/>
+      <c r="C619" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="D619" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E619" s="4"/>
+      <c r="F619" s="4"/>
+      <c r="G619" s="4"/>
+      <c r="H619" s="4"/>
+    </row>
+    <row r="620" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A620" s="4"/>
+      <c r="B620" s="4"/>
+      <c r="C620" s="9" t="s">
+        <v>880</v>
+      </c>
+      <c r="D620" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E620" s="4"/>
+      <c r="F620" s="4"/>
+      <c r="G620" s="4"/>
+      <c r="H620" s="4"/>
+    </row>
+    <row r="621" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A621" s="4"/>
+      <c r="B621" s="4"/>
+      <c r="C621" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="D621" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E621" s="4"/>
+      <c r="F621" s="4"/>
+      <c r="G621" s="4"/>
+      <c r="H621" s="4"/>
+    </row>
+    <row r="622" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A622" s="4"/>
+      <c r="B622" s="4"/>
+      <c r="C622" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="D622" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E622" s="4"/>
+      <c r="F622" s="4"/>
+      <c r="G622" s="4"/>
+      <c r="H622" s="4"/>
+    </row>
+    <row r="623" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A623" s="4"/>
+      <c r="B623" s="4"/>
+      <c r="C623" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="D623" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E623" s="4"/>
+      <c r="F623" s="4"/>
+      <c r="G623" s="4"/>
+      <c r="H623" s="4"/>
+    </row>
+    <row r="624" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A624" s="4"/>
+      <c r="B624" s="4"/>
+      <c r="C624" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="D624" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E624" s="4"/>
+      <c r="F624" s="4"/>
+      <c r="G624" s="4"/>
+      <c r="H624" s="4"/>
+    </row>
+    <row r="625" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A625" s="4"/>
+      <c r="B625" s="4"/>
+      <c r="C625" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="D625" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E625" s="4"/>
+      <c r="F625" s="4"/>
+      <c r="G625" s="4"/>
+      <c r="H625" s="4"/>
+    </row>
+    <row r="626" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A626" s="4"/>
+      <c r="B626" s="4"/>
+      <c r="C626" s="9" t="s">
+        <v>886</v>
+      </c>
+      <c r="D626" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E626" s="4"/>
+      <c r="F626" s="4"/>
+      <c r="G626" s="4"/>
+      <c r="H626" s="4"/>
+    </row>
+    <row r="627" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A627" s="4"/>
+      <c r="B627" s="4"/>
+      <c r="C627" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="D627" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E627" s="4"/>
+      <c r="F627" s="4"/>
+      <c r="G627" s="4"/>
+      <c r="H627" s="4"/>
+    </row>
+    <row r="628" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A628" s="4"/>
+      <c r="B628" s="4"/>
+      <c r="C628" s="9" t="s">
+        <v>888</v>
+      </c>
+      <c r="D628" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E628" s="4"/>
+      <c r="F628" s="4"/>
+      <c r="G628" s="4"/>
+      <c r="H628" s="4"/>
+    </row>
+    <row r="629" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A629" s="4"/>
+      <c r="B629" s="4"/>
+      <c r="C629" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="D629" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E629" s="4"/>
+      <c r="F629" s="4"/>
+      <c r="G629" s="4"/>
+      <c r="H629" s="4"/>
+    </row>
+    <row r="630" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A630" s="4"/>
+      <c r="B630" s="4"/>
+      <c r="C630" s="9" t="s">
+        <v>890</v>
+      </c>
+      <c r="D630" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E630" s="4"/>
+      <c r="F630" s="4"/>
+      <c r="G630" s="4"/>
+      <c r="H630" s="4"/>
+    </row>
+    <row r="631" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A631" s="4"/>
+      <c r="B631" s="4"/>
+      <c r="C631" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D631" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E631" s="4"/>
+      <c r="F631" s="4"/>
+      <c r="G631" s="4"/>
+      <c r="H631" s="4"/>
+    </row>
+    <row r="632" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A632" s="4"/>
+      <c r="B632" s="4"/>
+      <c r="C632" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="D632" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E632" s="4"/>
+      <c r="F632" s="4"/>
+      <c r="G632" s="4"/>
+      <c r="H632" s="4"/>
+    </row>
+    <row r="633" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A633" s="4"/>
+      <c r="B633" s="4"/>
+      <c r="C633" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="D633" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E633" s="4"/>
+      <c r="F633" s="4"/>
+      <c r="G633" s="4"/>
+      <c r="H633" s="4"/>
+    </row>
+    <row r="634" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A634" s="4"/>
+      <c r="B634" s="4"/>
+      <c r="C634" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="D634" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E634" s="4"/>
+      <c r="F634" s="4"/>
+      <c r="G634" s="4"/>
+      <c r="H634" s="4"/>
+    </row>
+    <row r="635" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A635" s="4"/>
+      <c r="B635" s="4"/>
+      <c r="C635" s="9" t="s">
+        <v>895</v>
+      </c>
+      <c r="D635" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E635" s="4"/>
+      <c r="F635" s="4"/>
+      <c r="G635" s="4"/>
+      <c r="H635" s="4"/>
+    </row>
+    <row r="636" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A636" s="4"/>
+      <c r="B636" s="4"/>
+      <c r="C636" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="D636" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E636" s="4"/>
+      <c r="F636" s="4"/>
+      <c r="G636" s="4"/>
+      <c r="H636" s="4"/>
+    </row>
+    <row r="637" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A637" s="4"/>
+      <c r="B637" s="4"/>
+      <c r="C637" s="9" t="s">
+        <v>897</v>
+      </c>
+      <c r="D637" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E637" s="4"/>
+      <c r="F637" s="4"/>
+      <c r="G637" s="4"/>
+      <c r="H637" s="4"/>
+    </row>
+    <row r="638" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A638" s="4"/>
+      <c r="B638" s="4"/>
+      <c r="C638" s="9" t="s">
+        <v>898</v>
+      </c>
+      <c r="D638" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E638" s="4"/>
+      <c r="F638" s="4"/>
+      <c r="G638" s="4"/>
+      <c r="H638" s="4"/>
+    </row>
+    <row r="639" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A639" s="4"/>
+      <c r="B639" s="4"/>
+      <c r="C639" s="9" t="s">
+        <v>899</v>
+      </c>
+      <c r="D639" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E639" s="4"/>
+      <c r="F639" s="4"/>
+      <c r="G639" s="4"/>
+      <c r="H639" s="4"/>
+    </row>
+    <row r="640" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A640" s="4"/>
+      <c r="B640" s="4"/>
+      <c r="C640" s="9" t="s">
+        <v>900</v>
+      </c>
+      <c r="D640" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E640" s="4"/>
+      <c r="F640" s="4"/>
+      <c r="G640" s="4"/>
+      <c r="H640" s="4"/>
+    </row>
+    <row r="641" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A641" s="4"/>
+      <c r="B641" s="4"/>
+      <c r="C641" s="9" t="s">
+        <v>901</v>
+      </c>
+      <c r="D641" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E641" s="4"/>
+      <c r="F641" s="4"/>
+      <c r="G641" s="4"/>
+      <c r="H641" s="4"/>
+    </row>
+    <row r="642" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A642" s="4"/>
+      <c r="B642" s="4"/>
+      <c r="C642" s="9" t="s">
+        <v>902</v>
+      </c>
+      <c r="D642" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E642" s="4"/>
+      <c r="F642" s="4"/>
+      <c r="G642" s="4"/>
+      <c r="H642" s="4"/>
+    </row>
+    <row r="643" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A643" s="4"/>
+      <c r="B643" s="4"/>
+      <c r="C643" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="D643" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E643" s="4"/>
+      <c r="F643" s="4"/>
+      <c r="G643" s="4"/>
+      <c r="H643" s="4"/>
+    </row>
+    <row r="644" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A644" s="4"/>
+      <c r="B644" s="4"/>
+      <c r="C644" s="9" t="s">
+        <v>904</v>
+      </c>
+      <c r="D644" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E644" s="4"/>
+      <c r="F644" s="4"/>
+      <c r="G644" s="4"/>
+      <c r="H644" s="4"/>
+    </row>
+    <row r="645" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A645" s="4"/>
+      <c r="B645" s="4"/>
+      <c r="C645" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="D645" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E645" s="4"/>
+      <c r="F645" s="4"/>
+      <c r="G645" s="4"/>
+      <c r="H645" s="4"/>
+    </row>
+    <row r="646" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A646" s="4"/>
+      <c r="B646" s="4"/>
+      <c r="C646" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="D646" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E646" s="4"/>
+      <c r="F646" s="4"/>
+      <c r="G646" s="4"/>
+      <c r="H646" s="4"/>
+    </row>
+    <row r="647" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A647" s="4"/>
+      <c r="B647" s="4"/>
+      <c r="C647" s="9" t="s">
+        <v>907</v>
+      </c>
+      <c r="D647" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E647" s="4"/>
+      <c r="F647" s="4"/>
+      <c r="G647" s="4"/>
+      <c r="H647" s="4"/>
+    </row>
+    <row r="648" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A648" s="4"/>
+      <c r="B648" s="4"/>
+      <c r="C648" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="D648" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E648" s="4"/>
+      <c r="F648" s="4"/>
+      <c r="G648" s="4"/>
+      <c r="H648" s="4"/>
+    </row>
+    <row r="649" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A649" s="4"/>
+      <c r="B649" s="4"/>
+      <c r="C649" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="D649" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E649" s="4"/>
+      <c r="F649" s="4"/>
+      <c r="G649" s="4"/>
+      <c r="H649" s="4"/>
+    </row>
+    <row r="650" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A650" s="4"/>
+      <c r="B650" s="4"/>
+      <c r="C650" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="D650" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E650" s="4"/>
+      <c r="F650" s="4"/>
+      <c r="G650" s="4"/>
+      <c r="H650" s="4"/>
+    </row>
+    <row r="651" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A651" s="4"/>
+      <c r="B651" s="4"/>
+      <c r="C651" s="9" t="s">
+        <v>911</v>
+      </c>
+      <c r="D651" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E651" s="4"/>
+      <c r="F651" s="4"/>
+      <c r="G651" s="4"/>
+      <c r="H651" s="4"/>
+    </row>
+    <row r="652" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A652" s="4"/>
+      <c r="B652" s="4"/>
+      <c r="C652" s="9" t="s">
+        <v>912</v>
+      </c>
+      <c r="D652" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E652" s="4"/>
+      <c r="F652" s="4"/>
+      <c r="G652" s="4"/>
+      <c r="H652" s="4"/>
+    </row>
+    <row r="653" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A653" s="4"/>
+      <c r="B653" s="4"/>
+      <c r="C653" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="D653" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E653" s="4"/>
+      <c r="F653" s="4"/>
+      <c r="G653" s="4"/>
+      <c r="H653" s="4"/>
+    </row>
+    <row r="654" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A654" s="4"/>
+      <c r="B654" s="4"/>
+      <c r="C654" s="9" t="s">
+        <v>914</v>
+      </c>
+      <c r="D654" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E654" s="4"/>
+      <c r="F654" s="4"/>
+      <c r="G654" s="4"/>
+      <c r="H654" s="4"/>
+    </row>
+    <row r="655" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A655" s="4"/>
+      <c r="B655" s="4"/>
+      <c r="C655" s="9" t="s">
+        <v>915</v>
+      </c>
+      <c r="D655" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E655" s="4"/>
+      <c r="F655" s="4"/>
+      <c r="G655" s="4"/>
+      <c r="H655" s="4"/>
+    </row>
+    <row r="656" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A656" s="4"/>
+      <c r="B656" s="4"/>
+      <c r="C656" s="9" t="s">
+        <v>916</v>
+      </c>
+      <c r="D656" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E656" s="4"/>
+      <c r="F656" s="4"/>
+      <c r="G656" s="4"/>
+      <c r="H656" s="4"/>
+    </row>
+    <row r="657" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A657" s="4"/>
+      <c r="B657" s="4"/>
+      <c r="C657" s="9" t="s">
+        <v>917</v>
+      </c>
+      <c r="D657" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E657" s="4"/>
+      <c r="F657" s="4"/>
+      <c r="G657" s="4"/>
+      <c r="H657" s="4"/>
+    </row>
+    <row r="658" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A658" s="4"/>
+      <c r="B658" s="4"/>
+      <c r="C658" s="9" t="s">
+        <v>918</v>
+      </c>
+      <c r="D658" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E658" s="4"/>
+      <c r="F658" s="4"/>
+      <c r="G658" s="4"/>
+      <c r="H658" s="4"/>
+    </row>
+    <row r="659" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A659" s="4"/>
+      <c r="B659" s="4"/>
+      <c r="C659" s="9" t="s">
+        <v>919</v>
+      </c>
+      <c r="D659" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E659" s="4"/>
+      <c r="F659" s="4"/>
+      <c r="G659" s="4"/>
+      <c r="H659" s="4"/>
+    </row>
+    <row r="660" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A660" s="4"/>
+      <c r="B660" s="4"/>
+      <c r="C660" s="9" t="s">
+        <v>920</v>
+      </c>
+      <c r="D660" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E660" s="4"/>
+      <c r="F660" s="4"/>
+      <c r="G660" s="4"/>
+      <c r="H660" s="4"/>
+    </row>
+    <row r="661" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A661" s="4"/>
+      <c r="B661" s="4"/>
+      <c r="C661" s="9" t="s">
+        <v>921</v>
+      </c>
+      <c r="D661" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E661" s="4"/>
+      <c r="F661" s="4"/>
+      <c r="G661" s="4"/>
+      <c r="H661" s="4"/>
+    </row>
+    <row r="662" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A662" s="4"/>
+      <c r="B662" s="4"/>
+      <c r="C662" s="9" t="s">
+        <v>922</v>
+      </c>
+      <c r="D662" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E662" s="4"/>
+      <c r="F662" s="4"/>
+      <c r="G662" s="4"/>
+      <c r="H662" s="4"/>
+    </row>
+    <row r="663" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A663" s="4"/>
+      <c r="B663" s="4"/>
+      <c r="C663" s="9" t="s">
+        <v>923</v>
+      </c>
+      <c r="D663" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E663" s="4"/>
+      <c r="F663" s="4"/>
+      <c r="G663" s="4"/>
+      <c r="H663" s="4"/>
+    </row>
+    <row r="664" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A664" s="4"/>
+      <c r="B664" s="4"/>
+      <c r="C664" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="D664" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E664" s="4"/>
+      <c r="F664" s="4"/>
+      <c r="G664" s="4"/>
+      <c r="H664" s="4"/>
+    </row>
+    <row r="665" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A665" s="4"/>
+      <c r="B665" s="4"/>
+      <c r="C665" s="9" t="s">
+        <v>925</v>
+      </c>
+      <c r="D665" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E665" s="4"/>
+      <c r="F665" s="4"/>
+      <c r="G665" s="4"/>
+      <c r="H665" s="4"/>
+    </row>
+    <row r="666" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A666" s="4"/>
+      <c r="B666" s="4"/>
+      <c r="C666" s="9" t="s">
+        <v>926</v>
+      </c>
+      <c r="D666" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E666" s="4"/>
+      <c r="F666" s="4"/>
+      <c r="G666" s="4"/>
+      <c r="H666" s="4"/>
+    </row>
+    <row r="667" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A667" s="4"/>
+      <c r="B667" s="4"/>
+      <c r="C667" s="9" t="s">
+        <v>927</v>
+      </c>
+      <c r="D667" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E667" s="4"/>
+      <c r="F667" s="4"/>
+      <c r="G667" s="4"/>
+      <c r="H667" s="4"/>
+    </row>
+    <row r="668" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A668" s="4"/>
+      <c r="B668" s="4"/>
+      <c r="C668" s="9" t="s">
+        <v>928</v>
+      </c>
+      <c r="D668" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E668" s="4"/>
+      <c r="F668" s="4"/>
+      <c r="G668" s="4"/>
+      <c r="H668" s="4"/>
+    </row>
+    <row r="669" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A669" s="4"/>
+      <c r="B669" s="4"/>
+      <c r="C669" s="9" t="s">
+        <v>929</v>
+      </c>
+      <c r="D669" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E669" s="4"/>
+      <c r="F669" s="4"/>
+      <c r="G669" s="4"/>
+      <c r="H669" s="4"/>
+    </row>
+    <row r="670" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A670" s="4"/>
+      <c r="B670" s="4"/>
+      <c r="C670" s="9" t="s">
+        <v>930</v>
+      </c>
+      <c r="D670" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E670" s="4"/>
+      <c r="F670" s="4"/>
+      <c r="G670" s="4"/>
+      <c r="H670" s="4"/>
+    </row>
+    <row r="671" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A671" s="4"/>
+      <c r="B671" s="4"/>
+      <c r="C671" s="9" t="s">
+        <v>931</v>
+      </c>
+      <c r="D671" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E671" s="4"/>
+      <c r="F671" s="4"/>
+      <c r="G671" s="4"/>
+      <c r="H671" s="4"/>
+    </row>
+    <row r="672" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A672" s="4"/>
+      <c r="B672" s="4"/>
+      <c r="C672" s="9" t="s">
+        <v>932</v>
+      </c>
+      <c r="D672" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E672" s="4"/>
+      <c r="F672" s="4"/>
+      <c r="G672" s="4"/>
+      <c r="H672" s="4"/>
+    </row>
+    <row r="673" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A673" s="4"/>
+      <c r="B673" s="4"/>
+      <c r="C673" s="9" t="s">
+        <v>933</v>
+      </c>
+      <c r="D673" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E673" s="4"/>
+      <c r="F673" s="4"/>
+      <c r="G673" s="4"/>
+      <c r="H673" s="4"/>
+    </row>
+    <row r="674" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A674" s="4"/>
+      <c r="B674" s="4"/>
+      <c r="C674" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="D674" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E674" s="4"/>
+      <c r="F674" s="4"/>
+      <c r="G674" s="4"/>
+      <c r="H674" s="4"/>
+    </row>
+    <row r="675" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A675" s="4"/>
+      <c r="B675" s="4"/>
+      <c r="C675" s="9" t="s">
+        <v>935</v>
+      </c>
+      <c r="D675" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E675" s="4"/>
+      <c r="F675" s="4"/>
+      <c r="G675" s="4"/>
+      <c r="H675" s="4"/>
+    </row>
+    <row r="676" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A676" s="4"/>
+      <c r="B676" s="4"/>
+      <c r="C676" s="9" t="s">
+        <v>936</v>
+      </c>
+      <c r="D676" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E676" s="4"/>
+      <c r="F676" s="4"/>
+      <c r="G676" s="4"/>
+      <c r="H676" s="4"/>
+    </row>
+    <row r="677" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A677" s="4"/>
+      <c r="B677" s="4"/>
+      <c r="C677" s="9" t="s">
+        <v>937</v>
+      </c>
+      <c r="D677" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E677" s="4"/>
+      <c r="F677" s="4"/>
+      <c r="G677" s="4"/>
+      <c r="H677" s="4"/>
+    </row>
+    <row r="678" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A678" s="4"/>
+      <c r="B678" s="4"/>
+      <c r="C678" s="9" t="s">
+        <v>938</v>
+      </c>
+      <c r="D678" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E678" s="4"/>
+      <c r="F678" s="4"/>
+      <c r="G678" s="4"/>
+      <c r="H678" s="4"/>
+    </row>
+    <row r="679" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A679" s="4"/>
+      <c r="B679" s="4"/>
+      <c r="C679" s="9" t="s">
+        <v>939</v>
+      </c>
+      <c r="D679" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E679" s="4"/>
+      <c r="F679" s="4"/>
+      <c r="G679" s="4"/>
+      <c r="H679" s="4"/>
+    </row>
+    <row r="680" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A680" s="4"/>
+      <c r="B680" s="4"/>
+      <c r="C680" s="9" t="s">
+        <v>940</v>
+      </c>
+      <c r="D680" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E680" s="4"/>
+      <c r="F680" s="4"/>
+      <c r="G680" s="4"/>
+      <c r="H680" s="4"/>
+    </row>
+    <row r="681" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A681" s="4"/>
+      <c r="B681" s="4"/>
+      <c r="C681" s="9" t="s">
+        <v>941</v>
+      </c>
+      <c r="D681" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E681" s="4"/>
+      <c r="F681" s="4"/>
+      <c r="G681" s="4"/>
+      <c r="H681" s="4"/>
+    </row>
+    <row r="682" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A682" s="4"/>
+      <c r="B682" s="4"/>
+      <c r="C682" s="9" t="s">
+        <v>942</v>
+      </c>
+      <c r="D682" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E682" s="4"/>
+      <c r="F682" s="4"/>
+      <c r="G682" s="4"/>
+      <c r="H682" s="4"/>
+    </row>
+    <row r="683" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A683" s="4"/>
+      <c r="B683" s="4"/>
+      <c r="C683" s="9" t="s">
+        <v>943</v>
+      </c>
+      <c r="D683" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E683" s="4"/>
+      <c r="F683" s="4"/>
+      <c r="G683" s="4"/>
+      <c r="H683" s="4"/>
+    </row>
+    <row r="684" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A684" s="4"/>
+      <c r="B684" s="4"/>
+      <c r="C684" s="9" t="s">
+        <v>944</v>
+      </c>
+      <c r="D684" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E684" s="4"/>
+      <c r="F684" s="4"/>
+      <c r="G684" s="4"/>
+      <c r="H684" s="4"/>
+    </row>
+    <row r="685" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A685" s="4"/>
+      <c r="B685" s="4"/>
+      <c r="C685" s="9" t="s">
+        <v>945</v>
+      </c>
+      <c r="D685" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E685" s="4"/>
+      <c r="F685" s="4"/>
+      <c r="G685" s="4"/>
+      <c r="H685" s="4"/>
+    </row>
+    <row r="686" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A686" s="4"/>
+      <c r="B686" s="4"/>
+      <c r="C686" s="9" t="s">
+        <v>946</v>
+      </c>
+      <c r="D686" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E686" s="4"/>
+      <c r="F686" s="4"/>
+      <c r="G686" s="4"/>
+      <c r="H686" s="4"/>
+    </row>
+    <row r="687" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A687" s="4"/>
+      <c r="B687" s="4"/>
+      <c r="C687" s="9" t="s">
+        <v>947</v>
+      </c>
+      <c r="D687" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E687" s="4"/>
+      <c r="F687" s="4"/>
+      <c r="G687" s="4"/>
+      <c r="H687" s="4"/>
+    </row>
+    <row r="688" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A688" s="4"/>
+      <c r="B688" s="4"/>
+      <c r="C688" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="D688" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E688" s="4"/>
+      <c r="F688" s="4"/>
+      <c r="G688" s="4"/>
+      <c r="H688" s="4"/>
+    </row>
+    <row r="689" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A689" s="4"/>
+      <c r="B689" s="4"/>
+      <c r="C689" s="9" t="s">
+        <v>949</v>
+      </c>
+      <c r="D689" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E689" s="4"/>
+      <c r="F689" s="4"/>
+      <c r="G689" s="4"/>
+      <c r="H689" s="4"/>
+    </row>
+    <row r="690" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A690" s="4"/>
+      <c r="B690" s="4"/>
+      <c r="C690" s="9" t="s">
+        <v>950</v>
+      </c>
+      <c r="D690" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E690" s="4"/>
+      <c r="F690" s="4"/>
+      <c r="G690" s="4"/>
+      <c r="H690" s="4"/>
+    </row>
+    <row r="691" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A691" s="4"/>
+      <c r="B691" s="4"/>
+      <c r="C691" s="9" t="s">
+        <v>951</v>
+      </c>
+      <c r="D691" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E691" s="4"/>
+      <c r="F691" s="4"/>
+      <c r="G691" s="4"/>
+      <c r="H691" s="4"/>
+    </row>
+    <row r="692" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A692" s="4"/>
+      <c r="B692" s="4"/>
+      <c r="C692" s="9" t="s">
+        <v>952</v>
+      </c>
+      <c r="D692" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E692" s="4"/>
+      <c r="F692" s="4"/>
+      <c r="G692" s="4"/>
+      <c r="H692" s="4"/>
+    </row>
+    <row r="693" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A693" s="4"/>
+      <c r="B693" s="4"/>
+      <c r="C693" s="9" t="s">
+        <v>953</v>
+      </c>
+      <c r="D693" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E693" s="4"/>
+      <c r="F693" s="4"/>
+      <c r="G693" s="4"/>
+      <c r="H693" s="4"/>
+    </row>
+    <row r="694" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A694" s="4"/>
+      <c r="B694" s="4"/>
+      <c r="C694" s="9" t="s">
+        <v>954</v>
+      </c>
+      <c r="D694" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E694" s="4"/>
+      <c r="F694" s="4"/>
+      <c r="G694" s="4"/>
+      <c r="H694" s="4"/>
+    </row>
+    <row r="695" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A695" s="4"/>
+      <c r="B695" s="4"/>
+      <c r="C695" s="9" t="s">
+        <v>955</v>
+      </c>
+      <c r="D695" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E695" s="4"/>
+      <c r="F695" s="4"/>
+      <c r="G695" s="4"/>
+      <c r="H695" s="4"/>
+    </row>
+    <row r="696" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A696" s="4"/>
+      <c r="B696" s="4"/>
+      <c r="C696" s="9" t="s">
+        <v>956</v>
+      </c>
+      <c r="D696" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E696" s="4"/>
+      <c r="F696" s="4"/>
+      <c r="G696" s="4"/>
+      <c r="H696" s="4"/>
+    </row>
+    <row r="697" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A697" s="4"/>
+      <c r="B697" s="4"/>
+      <c r="C697" s="9" t="s">
+        <v>957</v>
+      </c>
+      <c r="D697" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E697" s="4"/>
+      <c r="F697" s="4"/>
+      <c r="G697" s="4"/>
+      <c r="H697" s="4"/>
+    </row>
+    <row r="698" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A698" s="4"/>
+      <c r="B698" s="4"/>
+      <c r="C698" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="D698" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E698" s="4"/>
+      <c r="F698" s="4"/>
+      <c r="G698" s="4"/>
+      <c r="H698" s="4"/>
+    </row>
+    <row r="699" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A699" s="4"/>
+      <c r="B699" s="4"/>
+      <c r="C699" s="9" t="s">
+        <v>959</v>
+      </c>
+      <c r="D699" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E699" s="4"/>
+      <c r="F699" s="4"/>
+      <c r="G699" s="4"/>
+      <c r="H699" s="4"/>
+    </row>
+    <row r="700" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A700" s="4"/>
+      <c r="B700" s="4"/>
+      <c r="C700" s="9" t="s">
+        <v>960</v>
+      </c>
+      <c r="D700" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E700" s="4"/>
+      <c r="F700" s="4"/>
+      <c r="G700" s="4"/>
+      <c r="H700" s="4"/>
+    </row>
+    <row r="701" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A701" s="4"/>
+      <c r="B701" s="4"/>
+      <c r="C701" s="9" t="s">
+        <v>961</v>
+      </c>
+      <c r="D701" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E701" s="4"/>
+      <c r="F701" s="4"/>
+      <c r="G701" s="4"/>
+      <c r="H701" s="4"/>
+    </row>
+    <row r="702" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A702" s="4"/>
+      <c r="B702" s="4"/>
+      <c r="C702" s="9" t="s">
+        <v>962</v>
+      </c>
+      <c r="D702" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E702" s="4"/>
+      <c r="F702" s="4"/>
+      <c r="G702" s="4"/>
+      <c r="H702" s="4"/>
+    </row>
+    <row r="703" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A703" s="4"/>
+      <c r="B703" s="4"/>
+      <c r="C703" s="9" t="s">
+        <v>963</v>
+      </c>
+      <c r="D703" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E703" s="4"/>
+      <c r="F703" s="4"/>
+      <c r="G703" s="4"/>
+      <c r="H703" s="4"/>
+    </row>
+    <row r="704" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A704" s="4"/>
+      <c r="B704" s="4"/>
+      <c r="C704" s="9" t="s">
+        <v>964</v>
+      </c>
+      <c r="D704" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E704" s="4"/>
+      <c r="F704" s="4"/>
+      <c r="G704" s="4"/>
+      <c r="H704" s="4"/>
+    </row>
+    <row r="705" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A705" s="4"/>
+      <c r="B705" s="4"/>
+      <c r="C705" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="D705" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E705" s="4"/>
+      <c r="F705" s="4"/>
+      <c r="G705" s="4"/>
+      <c r="H705" s="4"/>
+    </row>
+    <row r="706" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A706" s="4"/>
+      <c r="B706" s="4"/>
+      <c r="C706" s="9" t="s">
+        <v>966</v>
+      </c>
+      <c r="D706" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E706" s="4"/>
+      <c r="F706" s="4"/>
+      <c r="G706" s="4"/>
+      <c r="H706" s="4"/>
+    </row>
+    <row r="707" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A707" s="4"/>
+      <c r="B707" s="4"/>
+      <c r="C707" s="9" t="s">
+        <v>967</v>
+      </c>
+      <c r="D707" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E707" s="4"/>
+      <c r="F707" s="4"/>
+      <c r="G707" s="4"/>
+      <c r="H707" s="4"/>
+    </row>
+    <row r="708" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A708" s="4"/>
+      <c r="B708" s="4"/>
+      <c r="C708" s="9" t="s">
+        <v>968</v>
+      </c>
+      <c r="D708" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E708" s="4"/>
+      <c r="F708" s="4"/>
+      <c r="G708" s="4"/>
+      <c r="H708" s="4"/>
+    </row>
+    <row r="709" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A709" s="4"/>
+      <c r="B709" s="4"/>
+      <c r="C709" s="9" t="s">
+        <v>969</v>
+      </c>
+      <c r="D709" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E709" s="4"/>
+      <c r="F709" s="4"/>
+      <c r="G709" s="4"/>
+      <c r="H709" s="4"/>
+    </row>
+    <row r="710" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A710" s="4"/>
+      <c r="B710" s="4"/>
+      <c r="C710" s="9" t="s">
+        <v>970</v>
+      </c>
+      <c r="D710" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E710" s="4"/>
+      <c r="F710" s="4"/>
+      <c r="G710" s="4"/>
+      <c r="H710" s="4"/>
+    </row>
+    <row r="711" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A711" s="4"/>
+      <c r="B711" s="4"/>
+      <c r="C711" s="9" t="s">
+        <v>971</v>
+      </c>
+      <c r="D711" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="E711" s="4"/>
+      <c r="F711" s="4"/>
+      <c r="G711" s="4"/>
+      <c r="H711" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7025FC-9286-0B43-B4EC-8A580A41291C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C7E372-34AE-8940-908D-6DBEB744030F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="580" windowWidth="23360" windowHeight="16220" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23360" windowHeight="16220" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
   <sheets>
     <sheet name="LIST OF COMPLAIN 2021" sheetId="1" r:id="rId1"/>
@@ -3276,10 +3276,10 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3598,7 +3598,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A705" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E717" sqref="E717"/>
+      <selection pane="bottomLeft" activeCell="E711" sqref="E711"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13004,7 +13004,7 @@
       <c r="H594" s="4"/>
     </row>
     <row r="595" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A595" s="44">
+      <c r="A595" s="43">
         <v>44383</v>
       </c>
       <c r="B595" s="4"/>
@@ -14669,10 +14669,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="23" t="s">
         <v>296</v>
       </c>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C7E372-34AE-8940-908D-6DBEB744030F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BA4A07-5189-B24B-8A37-BABCEF228D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23360" windowHeight="16220" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
@@ -3597,8 +3597,8 @@
   <dimension ref="A1:J711"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A705" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E711" sqref="E711"/>
+      <pane ySplit="1" topLeftCell="A369" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F383" sqref="F383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/LIST-OF-COMPLAINT-2021.xlsx
+++ b/LIST-OF-COMPLAINT-2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/List of Complaints/List-of-Complaints/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\List-of-Complaints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BA4A07-5189-B24B-8A37-BABCEF228D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E508038-5566-4853-B857-1F1AE88540C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23360" windowHeight="16220" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{8BEA5397-A25C-5F44-93A9-4720CE40D41A}"/>
   </bookViews>
   <sheets>
     <sheet name="LIST OF COMPLAIN 2021" sheetId="1" r:id="rId1"/>
@@ -3597,22 +3597,22 @@
   <dimension ref="A1:J711"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A369" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F383" sqref="F383"/>
+      <pane ySplit="1" topLeftCell="A456" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F458" sqref="F458"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.296875" customWidth="1"/>
+    <col min="4" max="4" width="29.19921875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="33.5" customWidth="1"/>
-    <col min="7" max="7" width="25.83203125" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.796875" customWidth="1"/>
+    <col min="8" max="8" width="26.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>387</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>179</v>
@@ -3654,7 +3654,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="61" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>233</v>
@@ -3670,7 +3670,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="6" t="s">
@@ -3682,7 +3682,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>233</v>
@@ -3698,7 +3698,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>233</v>
@@ -3714,7 +3714,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>233</v>
@@ -3730,7 +3730,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>233</v>
@@ -3746,7 +3746,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>233</v>
@@ -3762,7 +3762,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>233</v>
@@ -3778,7 +3778,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>233</v>
@@ -3794,7 +3794,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>233</v>
@@ -3810,7 +3810,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>179</v>
@@ -3826,7 +3826,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>179</v>
@@ -3842,7 +3842,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>179</v>
@@ -3858,7 +3858,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>233</v>
@@ -3874,7 +3874,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="6" t="s">
@@ -3888,7 +3888,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="6" t="s">
@@ -3902,7 +3902,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="6" t="s">
@@ -3916,7 +3916,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="6" t="s">
@@ -3930,7 +3930,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="6" t="s">
@@ -3944,7 +3944,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="46" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>233</v>
@@ -3960,7 +3960,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="46" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>233</v>
@@ -3976,7 +3976,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="46" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>233</v>
@@ -3992,7 +3992,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="46" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>233</v>
@@ -4008,7 +4008,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="46" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>233</v>
@@ -4024,7 +4024,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="46" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>233</v>
@@ -4040,7 +4040,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="46" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>233</v>
@@ -4056,7 +4056,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="46" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>233</v>
@@ -4072,7 +4072,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="46" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>233</v>
@@ -4088,7 +4088,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" ht="46" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>233</v>
@@ -4104,7 +4104,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" ht="46" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>233</v>
@@ -4120,7 +4120,7 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="46" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>233</v>
@@ -4136,7 +4136,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" ht="46" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>233</v>
@@ -4152,7 +4152,7 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" ht="46" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>233</v>
@@ -4168,7 +4168,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="46" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>233</v>
@@ -4184,7 +4184,7 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>179</v>
@@ -4198,7 +4198,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>179</v>
@@ -4212,7 +4212,7 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>179</v>
@@ -4226,7 +4226,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>179</v>
@@ -4240,7 +4240,7 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>179</v>
@@ -4254,7 +4254,7 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>179</v>
@@ -4268,7 +4268,7 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>179</v>
@@ -4282,7 +4282,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>179</v>
@@ -4296,7 +4296,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
         <v>179</v>
@@ -4310,7 +4310,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>179</v>
@@ -4324,7 +4324,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>179</v>
@@ -4338,7 +4338,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>179</v>
@@ -4352,7 +4352,7 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>179</v>
@@ -4366,7 +4366,7 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>179</v>
@@ -4380,7 +4380,7 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
         <v>179</v>
@@ -4394,7 +4394,7 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>179</v>
@@ -4408,7 +4408,7 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>179</v>
@@ -4422,7 +4422,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>179</v>
@@ -4436,7 +4436,7 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>179</v>
@@ -4450,7 +4450,7 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>179</v>
@@ -4464,7 +4464,7 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
         <v>179</v>
@@ -4478,7 +4478,7 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
         <v>179</v>
@@ -4492,7 +4492,7 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
         <v>179</v>
@@ -4506,7 +4506,7 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4" t="s">
         <v>179</v>
@@ -4520,7 +4520,7 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
         <v>179</v>
@@ -4534,7 +4534,7 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="4" t="s">
         <v>179</v>
@@ -4548,7 +4548,7 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
         <v>179</v>
@@ -4562,7 +4562,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
         <v>179</v>
@@ -4576,7 +4576,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
         <v>179</v>
@@ -4590,7 +4590,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
         <v>179</v>
@@ -4604,7 +4604,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>26</v>
       </c>
@@ -4620,7 +4620,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>27</v>
       </c>
@@ -4636,7 +4636,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>28</v>
       </c>
@@ -4652,7 +4652,7 @@
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>29</v>
       </c>
@@ -4668,7 +4668,7 @@
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>30</v>
       </c>
@@ -4684,7 +4684,7 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>31</v>
       </c>
@@ -4700,7 +4700,7 @@
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>32</v>
       </c>
@@ -4716,7 +4716,7 @@
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>33</v>
       </c>
@@ -4732,7 +4732,7 @@
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>34</v>
       </c>
@@ -4748,7 +4748,7 @@
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>35</v>
       </c>
@@ -4764,7 +4764,7 @@
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>36</v>
       </c>
@@ -4780,7 +4780,7 @@
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>37</v>
       </c>
@@ -4796,7 +4796,7 @@
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>38</v>
       </c>
@@ -4812,7 +4812,7 @@
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>39</v>
       </c>
@@ -4828,7 +4828,7 @@
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
     </row>
-    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>40</v>
       </c>
@@ -4844,7 +4844,7 @@
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>41</v>
       </c>
@@ -4860,7 +4860,7 @@
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>42</v>
       </c>
@@ -4876,7 +4876,7 @@
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>43</v>
       </c>
@@ -4892,7 +4892,7 @@
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>44</v>
       </c>
@@ -4908,7 +4908,7 @@
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>45</v>
       </c>
@@ -4924,7 +4924,7 @@
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>46</v>
       </c>
@@ -4940,7 +4940,7 @@
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>47</v>
       </c>
@@ -4956,7 +4956,7 @@
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>48</v>
       </c>
@@ -4972,7 +4972,7 @@
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>49</v>
       </c>
@@ -4988,7 +4988,7 @@
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>247</v>
       </c>
@@ -5004,7 +5004,7 @@
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>247</v>
       </c>
@@ -5020,7 +5020,7 @@
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>247</v>
       </c>
@@ -5036,7 +5036,7 @@
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>247</v>
       </c>
@@ -5052,7 +5052,7 @@
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>247</v>
       </c>
@@ -5068,7 +5068,7 @@
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>247</v>
       </c>
@@ -5084,7 +5084,7 @@
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
     </row>
-    <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>247</v>
       </c>
@@ -5100,7 +5100,7 @@
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
     </row>
-    <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>247</v>
       </c>
@@ -5116,7 +5116,7 @@
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>247</v>
       </c>
@@ -5132,7 +5132,7 @@
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>247</v>
       </c>
@@ -5148,7 +5148,7 @@
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>247</v>
       </c>
@@ -5164,7 +5164,7 @@
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
     </row>
-    <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>247</v>
       </c>
@@ -5180,7 +5180,7 @@
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>247</v>
       </c>
@@ -5196,7 +5196,7 @@
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>247</v>
       </c>
@@ -5212,7 +5212,7 @@
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="6" t="s">
@@ -5226,7 +5226,7 @@
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
     </row>
-    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>178</v>
       </c>
@@ -5242,7 +5242,7 @@
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
     </row>
-    <row r="107" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="6" t="s">
@@ -5256,7 +5256,7 @@
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="6" t="s">
@@ -5270,7 +5270,7 @@
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="6" t="s">
@@ -5290,7 +5290,7 @@
       </c>
       <c r="H109" s="4"/>
     </row>
-    <row r="110" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
       <c r="B110" s="4" t="s">
         <v>300</v>
@@ -5310,7 +5310,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A111" s="4"/>
       <c r="B111" s="4">
         <v>2</v>
@@ -5334,7 +5334,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A112" s="4"/>
       <c r="B112" s="4">
         <v>2</v>
@@ -5356,7 +5356,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="6" t="s">
@@ -5370,7 +5370,7 @@
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
     </row>
-    <row r="114" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" ht="50.4" x14ac:dyDescent="0.6">
       <c r="A114" s="4"/>
       <c r="B114" s="7" t="s">
         <v>179</v>
@@ -5386,7 +5386,7 @@
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
     </row>
-    <row r="115" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" ht="50.4" x14ac:dyDescent="0.6">
       <c r="A115" s="4"/>
       <c r="B115" s="7" t="s">
         <v>179</v>
@@ -5402,7 +5402,7 @@
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
     </row>
-    <row r="116" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" ht="50.4" x14ac:dyDescent="0.6">
       <c r="A116" s="4"/>
       <c r="B116" s="7" t="s">
         <v>179</v>
@@ -5418,7 +5418,7 @@
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
     </row>
-    <row r="117" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" ht="50.4" x14ac:dyDescent="0.6">
       <c r="A117" s="4"/>
       <c r="B117" s="7" t="s">
         <v>179</v>
@@ -5434,7 +5434,7 @@
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
     </row>
-    <row r="118" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" ht="50.4" x14ac:dyDescent="0.6">
       <c r="A118" s="4"/>
       <c r="B118" s="7" t="s">
         <v>179</v>
@@ -5450,7 +5450,7 @@
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
     </row>
-    <row r="119" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" ht="50.4" x14ac:dyDescent="0.6">
       <c r="A119" s="4"/>
       <c r="B119" s="7" t="s">
         <v>179</v>
@@ -5466,7 +5466,7 @@
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
     </row>
-    <row r="120" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" ht="50.4" x14ac:dyDescent="0.6">
       <c r="A120" s="4"/>
       <c r="B120" s="7" t="s">
         <v>179</v>
@@ -5482,7 +5482,7 @@
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
     </row>
-    <row r="121" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" ht="50.4" x14ac:dyDescent="0.6">
       <c r="A121" s="4"/>
       <c r="B121" s="7" t="s">
         <v>179</v>
@@ -5498,7 +5498,7 @@
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
     </row>
-    <row r="122" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A122" s="4"/>
       <c r="B122" s="4" t="s">
         <v>233</v>
@@ -5522,7 +5522,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A123" s="4"/>
       <c r="B123" s="4" t="s">
         <v>233</v>
@@ -5546,7 +5546,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A124" s="4"/>
       <c r="B124" s="4" t="s">
         <v>233</v>
@@ -5570,7 +5570,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A125" s="4"/>
       <c r="B125" s="4" t="s">
         <v>233</v>
@@ -5594,7 +5594,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A126" s="4"/>
       <c r="B126" s="4" t="s">
         <v>233</v>
@@ -5618,7 +5618,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A127" s="4"/>
       <c r="B127" s="4" t="s">
         <v>233</v>
@@ -5642,7 +5642,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A128" s="4"/>
       <c r="B128" s="4" t="s">
         <v>233</v>
@@ -5664,7 +5664,7 @@
       </c>
       <c r="H128" s="4"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>185</v>
       </c>
@@ -5678,7 +5678,7 @@
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>185</v>
       </c>
@@ -5692,7 +5692,7 @@
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>185</v>
       </c>
@@ -5706,7 +5706,7 @@
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>185</v>
       </c>
@@ -5720,7 +5720,7 @@
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>185</v>
       </c>
@@ -5734,7 +5734,7 @@
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>185</v>
       </c>
@@ -5748,7 +5748,7 @@
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>185</v>
       </c>
@@ -5762,7 +5762,7 @@
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>185</v>
       </c>
@@ -5776,7 +5776,7 @@
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>185</v>
       </c>
@@ -5790,7 +5790,7 @@
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>185</v>
       </c>
@@ -5804,7 +5804,7 @@
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>185</v>
       </c>
@@ -5818,7 +5818,7 @@
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>185</v>
       </c>
@@ -5832,7 +5832,7 @@
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>185</v>
       </c>
@@ -5846,7 +5846,7 @@
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
         <v>185</v>
       </c>
@@ -5860,7 +5860,7 @@
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
         <v>185</v>
       </c>
@@ -5874,7 +5874,7 @@
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>185</v>
       </c>
@@ -5888,7 +5888,7 @@
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>185</v>
       </c>
@@ -5902,7 +5902,7 @@
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>185</v>
       </c>
@@ -5916,7 +5916,7 @@
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>185</v>
       </c>
@@ -5930,7 +5930,7 @@
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>185</v>
       </c>
@@ -5944,7 +5944,7 @@
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>185</v>
       </c>
@@ -5958,7 +5958,7 @@
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>185</v>
       </c>
@@ -5972,7 +5972,7 @@
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>185</v>
       </c>
@@ -5986,7 +5986,7 @@
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>185</v>
       </c>
@@ -6000,7 +6000,7 @@
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>185</v>
       </c>
@@ -6014,7 +6014,7 @@
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
     </row>
-    <row r="154" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A154" s="4"/>
       <c r="B154" s="4" t="s">
         <v>233</v>
@@ -6038,7 +6038,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A155" s="4"/>
       <c r="B155" s="4" t="s">
         <v>179</v>
@@ -6060,7 +6060,7 @@
       </c>
       <c r="H155" s="4"/>
     </row>
-    <row r="156" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="4"/>
       <c r="B156" s="4" t="s">
         <v>233</v>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="H156" s="4"/>
     </row>
-    <row r="157" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A157" s="4"/>
       <c r="B157" s="4" t="s">
         <v>233</v>
@@ -6104,7 +6104,7 @@
       </c>
       <c r="H157" s="4"/>
     </row>
-    <row r="158" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A158" s="4"/>
       <c r="B158" s="4" t="s">
         <v>179</v>
@@ -6126,7 +6126,7 @@
       </c>
       <c r="H158" s="4"/>
     </row>
-    <row r="159" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A159" s="4"/>
       <c r="B159" s="4" t="s">
         <v>300</v>
@@ -6150,7 +6150,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A160" s="4"/>
       <c r="B160" s="4" t="s">
         <v>233</v>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="H160" s="4"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="6" t="s">
@@ -6182,7 +6182,7 @@
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="6" t="s">
@@ -6194,7 +6194,7 @@
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="6" t="s">
@@ -6206,7 +6206,7 @@
       <c r="G163" s="4"/>
       <c r="H163" s="4"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="6" t="s">
@@ -6218,7 +6218,7 @@
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="6" t="s">
@@ -6230,7 +6230,7 @@
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="6" t="s">
@@ -6242,7 +6242,7 @@
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
     </row>
-    <row r="167" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A167" s="4"/>
       <c r="B167" s="4" t="s">
         <v>233</v>
@@ -6262,7 +6262,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A168" s="4"/>
       <c r="B168" s="4" t="s">
         <v>233</v>
@@ -6282,7 +6282,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A169" s="4"/>
       <c r="B169" s="4" t="s">
         <v>233</v>
@@ -6302,7 +6302,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A170" s="4"/>
       <c r="B170" s="4" t="s">
         <v>233</v>
@@ -6322,7 +6322,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A171" s="4"/>
       <c r="B171" s="4" t="s">
         <v>233</v>
@@ -6342,7 +6342,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>1</v>
       </c>
@@ -6356,7 +6356,7 @@
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>2</v>
       </c>
@@ -6370,7 +6370,7 @@
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>3</v>
       </c>
@@ -6384,7 +6384,7 @@
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>4</v>
       </c>
@@ -6398,7 +6398,7 @@
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>5</v>
       </c>
@@ -6412,7 +6412,7 @@
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>6</v>
       </c>
@@ -6426,7 +6426,7 @@
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>7</v>
       </c>
@@ -6440,7 +6440,7 @@
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>8</v>
       </c>
@@ -6454,7 +6454,7 @@
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>9</v>
       </c>
@@ -6468,7 +6468,7 @@
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>10</v>
       </c>
@@ -6482,7 +6482,7 @@
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>11</v>
       </c>
@@ -6496,7 +6496,7 @@
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>12</v>
       </c>
@@ -6510,7 +6510,7 @@
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>13</v>
       </c>
@@ -6524,7 +6524,7 @@
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>14</v>
       </c>
@@ -6538,7 +6538,7 @@
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <v>15</v>
       </c>
@@ -6552,7 +6552,7 @@
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>16</v>
       </c>
@@ -6566,7 +6566,7 @@
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
         <v>17</v>
       </c>
@@ -6580,7 +6580,7 @@
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <v>18</v>
       </c>
@@ -6594,7 +6594,7 @@
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
         <v>19</v>
       </c>
@@ -6608,7 +6608,7 @@
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
         <v>20</v>
       </c>
@@ -6622,7 +6622,7 @@
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
         <v>21</v>
       </c>
@@ -6636,7 +6636,7 @@
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
         <v>22</v>
       </c>
@@ -6650,7 +6650,7 @@
       <c r="G193" s="4"/>
       <c r="H193" s="4"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
         <v>23</v>
       </c>
@@ -6664,7 +6664,7 @@
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
         <v>24</v>
       </c>
@@ -6678,7 +6678,7 @@
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
         <v>25</v>
       </c>
@@ -6692,7 +6692,7 @@
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
         <v>26</v>
       </c>
@@ -6706,7 +6706,7 @@
       <c r="G197" s="4"/>
       <c r="H197" s="4"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
         <v>27</v>
       </c>
@@ -6720,7 +6720,7 @@
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
         <v>28</v>
       </c>
@@ -6734,7 +6734,7 @@
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
         <v>29</v>
       </c>
@@ -6748,7 +6748,7 @@
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
         <v>30</v>
       </c>
@@ -6762,7 +6762,7 @@
       <c r="G201" s="4"/>
       <c r="H201" s="4"/>
     </row>
-    <row r="202" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
         <v>278</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A203" s="4"/>
       <c r="B203" s="4" t="s">
         <v>179</v>
@@ -6808,7 +6808,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A204" s="4"/>
       <c r="B204" s="4" t="s">
         <v>179</v>
@@ -6830,7 +6830,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A205" s="4"/>
       <c r="B205" s="4" t="s">
         <v>179</v>
@@ -6852,7 +6852,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A206" s="4"/>
       <c r="B206" s="4" t="s">
         <v>179</v>
@@ -6874,7 +6874,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A207" s="4"/>
       <c r="B207" s="4" t="s">
         <v>179</v>
@@ -6896,7 +6896,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A208" s="4"/>
       <c r="B208" s="4" t="s">
         <v>179</v>
@@ -6918,7 +6918,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A209" s="4"/>
       <c r="B209" s="4" t="s">
         <v>179</v>
@@ -6940,7 +6940,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A210" s="4"/>
       <c r="B210" s="4" t="s">
         <v>179</v>
@@ -6962,7 +6962,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A211" s="4"/>
       <c r="B211" s="4" t="s">
         <v>179</v>
@@ -6984,7 +6984,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A212" s="4"/>
       <c r="B212" s="4" t="s">
         <v>179</v>
@@ -7006,7 +7006,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A213" s="4"/>
       <c r="B213" s="4" t="s">
         <v>179</v>
@@ -7028,7 +7028,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A214" s="4"/>
       <c r="B214" s="4" t="s">
         <v>179</v>
@@ -7050,7 +7050,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A215" s="4"/>
       <c r="B215" s="4" t="s">
         <v>179</v>
@@ -7072,7 +7072,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="4"/>
       <c r="B216" s="4" t="s">
         <v>179</v>
@@ -7088,7 +7088,7 @@
       <c r="G216" s="4"/>
       <c r="H216" s="4"/>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="4"/>
       <c r="B217" s="4" t="s">
         <v>179</v>
@@ -7104,7 +7104,7 @@
       <c r="G217" s="4"/>
       <c r="H217" s="4"/>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="4"/>
       <c r="B218" s="4" t="s">
         <v>179</v>
@@ -7120,7 +7120,7 @@
       <c r="G218" s="4"/>
       <c r="H218" s="4"/>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="4"/>
       <c r="B219" s="4" t="s">
         <v>179</v>
@@ -7136,7 +7136,7 @@
       <c r="G219" s="4"/>
       <c r="H219" s="4"/>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="4"/>
       <c r="B220" s="4" t="s">
         <v>179</v>
@@ -7160,7 +7160,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A221" s="4"/>
       <c r="B221" s="4" t="s">
         <v>179</v>
@@ -7176,7 +7176,7 @@
       <c r="G221" s="4"/>
       <c r="H221" s="4"/>
     </row>
-    <row r="222" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A222" s="4"/>
       <c r="B222" s="4" t="s">
         <v>179</v>
@@ -7192,7 +7192,7 @@
       <c r="G222" s="4"/>
       <c r="H222" s="4"/>
     </row>
-    <row r="223" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A223" s="35">
         <v>44260</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A224" s="35">
         <v>44266</v>
       </c>
@@ -7236,7 +7236,7 @@
       <c r="G224" s="4"/>
       <c r="H224" s="4"/>
     </row>
-    <row r="225" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A225" s="4"/>
       <c r="B225" s="4" t="s">
         <v>179</v>
@@ -7252,7 +7252,7 @@
       <c r="G225" s="4"/>
       <c r="H225" s="4"/>
     </row>
-    <row r="226" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A226" s="4"/>
       <c r="B226" s="4" t="s">
         <v>233</v>
@@ -7268,7 +7268,7 @@
       <c r="G226" s="4"/>
       <c r="H226" s="4"/>
     </row>
-    <row r="227" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A227" s="4"/>
       <c r="B227" s="4" t="s">
         <v>233</v>
@@ -7284,7 +7284,7 @@
       <c r="G227" s="4"/>
       <c r="H227" s="4"/>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="4">
         <v>1</v>
       </c>
@@ -7300,7 +7300,7 @@
       <c r="G228" s="4"/>
       <c r="H228" s="4"/>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="4">
         <v>2</v>
       </c>
@@ -7314,7 +7314,7 @@
       <c r="G229" s="4"/>
       <c r="H229" s="4"/>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="4">
         <v>3</v>
       </c>
@@ -7328,7 +7328,7 @@
       <c r="G230" s="4"/>
       <c r="H230" s="4"/>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="4">
         <v>4</v>
       </c>
@@ -7342,7 +7342,7 @@
       <c r="G231" s="4"/>
       <c r="H231" s="4"/>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="4">
         <v>5</v>
       </c>
@@ -7356,7 +7356,7 @@
       <c r="G232" s="4"/>
       <c r="H232" s="4"/>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="4">
         <v>6</v>
       </c>
@@ -7370,7 +7370,7 @@
       <c r="G233" s="4"/>
       <c r="H233" s="4"/>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
         <v>7</v>
       </c>
@@ -7384,7 +7384,7 @@
       <c r="G234" s="4"/>
       <c r="H234" s="4"/>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="4">
         <v>8</v>
       </c>
@@ -7398,7 +7398,7 @@
       <c r="G235" s="4"/>
       <c r="H235" s="4"/>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="4">
         <v>9</v>
       </c>
@@ -7412,7 +7412,7 @@
       <c r="G236" s="4"/>
       <c r="H236" s="4"/>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="4">
         <v>10</v>
       </c>
@@ -7426,7 +7426,7 @@
       <c r="G237" s="4"/>
       <c r="H237" s="4"/>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="4">
         <v>11</v>
       </c>
@@ -7440,7 +7440,7 @@
       <c r="G238" s="4"/>
       <c r="H238" s="4"/>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="4">
         <v>12</v>
       </c>
@@ -7454,7 +7454,7 @@
       <c r="G239" s="4"/>
       <c r="H239" s="4"/>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
         <v>13</v>
       </c>
@@ -7468,7 +7468,7 @@
       <c r="G240" s="4"/>
       <c r="H240" s="4"/>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="4">
         <v>14</v>
       </c>
@@ -7482,7 +7482,7 @@
       <c r="G241" s="4"/>
       <c r="H241" s="4"/>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
         <v>15</v>
       </c>
@@ -7496,7 +7496,7 @@
       <c r="G242" s="4"/>
       <c r="H242" s="4"/>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
         <v>16</v>
       </c>
@@ -7510,7 +7510,7 @@
       <c r="G243" s="4"/>
       <c r="H243" s="4"/>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="4">
         <v>17</v>
       </c>
@@ -7524,7 +7524,7 @@
       <c r="G244" s="4"/>
       <c r="H244" s="4"/>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="4">
         <v>18</v>
       </c>
@@ -7538,7 +7538,7 @@
       <c r="G245" s="4"/>
       <c r="H245" s="4"/>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="4">
         <v>19</v>
       </c>
@@ -7552,7 +7552,7 @@
       <c r="G246" s="4"/>
       <c r="H246" s="4"/>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="4">
         <v>20</v>
       </c>
@@ -7566,7 +7566,7 @@
       <c r="G247" s="4"/>
       <c r="H247" s="4"/>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
         <v>21</v>
       </c>
@@ -7580,7 +7580,7 @@
       <c r="G248" s="4"/>
       <c r="H248" s="4"/>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
         <v>22</v>
       </c>
@@ -7594,7 +7594,7 @@
       <c r="G249" s="4"/>
       <c r="H249" s="4"/>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
         <v>23</v>
       </c>
@@ -7608,7 +7608,7 @@
       <c r="G250" s="4"/>
       <c r="H250" s="4"/>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="4">
         <v>24</v>
       </c>
@@ -7622,7 +7622,7 @@
       <c r="G251" s="4"/>
       <c r="H251" s="4"/>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="4">
         <v>25</v>
       </c>
@@ -7636,7 +7636,7 @@
       <c r="G252" s="4"/>
       <c r="H252" s="4"/>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="4">
         <v>26</v>
       </c>
@@ -7650,7 +7650,7 @@
       <c r="G253" s="4"/>
       <c r="H253" s="4"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="4">
         <v>27</v>
       </c>
@@ -7664,7 +7664,7 @@
       <c r="G254" s="4"/>
       <c r="H254" s="4"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="4">
         <v>28</v>
       </c>
@@ -7678,7 +7678,7 @@
       <c r="G255" s="4"/>
       <c r="H255" s="4"/>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="4">
         <v>29</v>
       </c>
@@ -7692,7 +7692,7 @@
       <c r="G256" s="4"/>
       <c r="H256" s="4"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="4">
         <v>30</v>
       </c>
@@ -7706,7 +7706,7 @@
       <c r="G257" s="4"/>
       <c r="H257" s="4"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="4">
         <v>31</v>
       </c>
@@ -7720,7 +7720,7 @@
       <c r="G258" s="4"/>
       <c r="H258" s="4"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="4">
         <v>32</v>
       </c>
@@ -7734,7 +7734,7 @@
       <c r="G259" s="4"/>
       <c r="H259" s="4"/>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="4">
         <v>33</v>
       </c>
@@ -7748,7 +7748,7 @@
       <c r="G260" s="4"/>
       <c r="H260" s="4"/>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="4">
         <v>34</v>
       </c>
@@ -7762,7 +7762,7 @@
       <c r="G261" s="4"/>
       <c r="H261" s="4"/>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="4">
         <v>35</v>
       </c>
@@ -7776,7 +7776,7 @@
       <c r="G262" s="4"/>
       <c r="H262" s="4"/>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="4">
         <v>1</v>
       </c>
@@ -7792,7 +7792,7 @@
       <c r="G263" s="4"/>
       <c r="H263" s="4"/>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="4">
         <v>2</v>
       </c>
@@ -7808,7 +7808,7 @@
       <c r="G264" s="4"/>
       <c r="H264" s="4"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="4">
         <v>3</v>
       </c>
@@ -7824,7 +7824,7 @@
       <c r="G265" s="4"/>
       <c r="H265" s="4"/>
     </row>
-    <row r="266" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A266" s="4">
         <v>4</v>
       </c>
@@ -7840,7 +7840,7 @@
       <c r="G266" s="4"/>
       <c r="H266" s="4"/>
     </row>
-    <row r="267" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A267" s="4">
         <v>5</v>
       </c>
@@ -7856,7 +7856,7 @@
       <c r="G267" s="4"/>
       <c r="H267" s="4"/>
     </row>
-    <row r="268" spans="1:8" ht="33" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A268" s="4">
         <v>6</v>
       </c>
@@ -7872,7 +7872,7 @@
       <c r="G268" s="4"/>
       <c r="H268" s="4"/>
     </row>
-    <row r="269" spans="1:8" ht="33" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A269" s="4">
         <v>7</v>
       </c>
@@ -7888,7 +7888,7 @@
       <c r="G269" s="4"/>
       <c r="H269" s="4"/>
     </row>
-    <row r="270" spans="1:8" ht="33" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A270" s="4">
         <v>8</v>
       </c>
@@ -7904,7 +7904,7 @@
       <c r="G270" s="4"/>
       <c r="H270" s="4"/>
     </row>
-    <row r="271" spans="1:8" ht="33" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A271" s="4">
         <v>9</v>
       </c>
@@ -7920,7 +7920,7 @@
       <c r="G271" s="4"/>
       <c r="H271" s="4"/>
     </row>
-    <row r="272" spans="1:8" ht="33" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A272" s="4">
         <v>10</v>
       </c>
@@ -7936,7 +7936,7 @@
       <c r="G272" s="4"/>
       <c r="H272" s="4"/>
     </row>
-    <row r="273" spans="1:10" ht="33" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A273" s="4">
         <v>11</v>
       </c>
@@ -7952,7 +7952,7 @@
       <c r="G273" s="4"/>
       <c r="H273" s="4"/>
     </row>
-    <row r="274" spans="1:10" ht="33" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A274" s="4">
         <v>12</v>
       </c>
@@ -7968,7 +7968,7 @@
       <c r="G274" s="4"/>
       <c r="H274" s="4"/>
     </row>
-    <row r="275" spans="1:10" ht="33" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A275" s="4">
         <v>13</v>
       </c>
@@ -7984,7 +7984,7 @@
       <c r="G275" s="4"/>
       <c r="H275" s="4"/>
     </row>
-    <row r="276" spans="1:10" ht="33" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A276" s="4">
         <v>14</v>
       </c>
@@ -8000,7 +8000,7 @@
       <c r="G276" s="4"/>
       <c r="H276" s="4"/>
     </row>
-    <row r="277" spans="1:10" ht="33" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A277" s="4">
         <v>15</v>
       </c>
@@ -8016,7 +8016,7 @@
       <c r="G277" s="4"/>
       <c r="H277" s="4"/>
     </row>
-    <row r="278" spans="1:10" ht="33" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A278" s="4">
         <v>16</v>
       </c>
@@ -8032,7 +8032,7 @@
       <c r="G278" s="4"/>
       <c r="H278" s="4"/>
     </row>
-    <row r="279" spans="1:10" ht="33" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A279" s="4">
         <v>17</v>
       </c>
@@ -8048,7 +8048,7 @@
       <c r="G279" s="4"/>
       <c r="H279" s="4"/>
     </row>
-    <row r="280" spans="1:10" ht="33" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A280" s="4">
         <v>18</v>
       </c>
@@ -8064,7 +8064,7 @@
       <c r="G280" s="4"/>
       <c r="H280" s="4"/>
     </row>
-    <row r="281" spans="1:10" ht="33" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A281" s="4">
         <v>19</v>
       </c>
@@ -8080,7 +8080,7 @@
       <c r="G281" s="4"/>
       <c r="H281" s="4"/>
     </row>
-    <row r="282" spans="1:10" ht="33" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A282" s="4">
         <v>20</v>
       </c>
@@ -8096,7 +8096,7 @@
       <c r="G282" s="4"/>
       <c r="H282" s="4"/>
     </row>
-    <row r="283" spans="1:10" ht="33" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A283" s="4">
         <v>21</v>
       </c>
@@ -8112,7 +8112,7 @@
       <c r="G283" s="4"/>
       <c r="H283" s="4"/>
     </row>
-    <row r="284" spans="1:10" ht="33" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A284" s="4">
         <v>22</v>
       </c>
@@ -8128,7 +8128,7 @@
       <c r="G284" s="22"/>
       <c r="H284" s="22"/>
     </row>
-    <row r="285" spans="1:10" ht="33" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A285" s="4">
         <v>23</v>
       </c>
@@ -8146,7 +8146,7 @@
       <c r="I285" s="4"/>
       <c r="J285" s="4"/>
     </row>
-    <row r="286" spans="1:10" ht="33" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A286" s="4">
         <v>24</v>
       </c>
@@ -8164,7 +8164,7 @@
       <c r="I286" s="4"/>
       <c r="J286" s="4"/>
     </row>
-    <row r="287" spans="1:10" ht="33" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A287" s="4">
         <v>25</v>
       </c>
@@ -8182,7 +8182,7 @@
       <c r="I287" s="4"/>
       <c r="J287" s="4"/>
     </row>
-    <row r="288" spans="1:10" ht="33" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A288" s="4">
         <v>26</v>
       </c>
@@ -8200,7 +8200,7 @@
       <c r="I288" s="4"/>
       <c r="J288" s="4"/>
     </row>
-    <row r="289" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="4">
         <v>27</v>
       </c>
@@ -8218,7 +8218,7 @@
       <c r="I289" s="4"/>
       <c r="J289" s="4"/>
     </row>
-    <row r="290" spans="1:10" ht="33" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A290" s="4">
         <v>28</v>
       </c>
@@ -8236,7 +8236,7 @@
       <c r="I290" s="4"/>
       <c r="J290" s="4"/>
     </row>
-    <row r="291" spans="1:10" ht="33" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A291" s="4">
         <v>29</v>
       </c>
@@ -8254,7 +8254,7 @@
       <c r="I291" s="4"/>
       <c r="J291" s="4"/>
     </row>
-    <row r="292" spans="1:10" ht="33" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A292" s="4">
         <v>30</v>
       </c>
@@ -8272,7 +8272,7 @@
       <c r="I292" s="4"/>
       <c r="J292" s="4"/>
     </row>
-    <row r="293" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A293" s="4"/>
       <c r="B293" s="4">
         <v>1</v>
@@ -8290,7 +8290,7 @@
       <c r="I293" s="4"/>
       <c r="J293" s="4"/>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="9" t="s">
@@ -8306,7 +8306,7 @@
       <c r="I294" s="4"/>
       <c r="J294" s="4"/>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="9" t="s">
@@ -8322,7 +8322,7 @@
       <c r="I295" s="4"/>
       <c r="J295" s="4"/>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="9" t="s">
@@ -8338,7 +8338,7 @@
       <c r="I296" s="4"/>
       <c r="J296" s="4"/>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="9" t="s">
@@ -8354,7 +8354,7 @@
       <c r="I297" s="4"/>
       <c r="J297" s="4"/>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" s="4">
         <v>1</v>
       </c>
@@ -8374,7 +8374,7 @@
       <c r="I298" s="4"/>
       <c r="J298" s="4"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" s="4">
         <v>2</v>
       </c>
@@ -8394,7 +8394,7 @@
       <c r="I299" s="4"/>
       <c r="J299" s="4"/>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" s="4">
         <v>3</v>
       </c>
@@ -8414,7 +8414,7 @@
       <c r="I300" s="4"/>
       <c r="J300" s="4"/>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" s="4">
         <v>4</v>
       </c>
@@ -8434,7 +8434,7 @@
       <c r="I301" s="4"/>
       <c r="J301" s="4"/>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="4">
         <v>5</v>
       </c>
@@ -8454,7 +8454,7 @@
       <c r="I302" s="4"/>
       <c r="J302" s="4"/>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" s="4">
         <v>6</v>
       </c>
@@ -8474,7 +8474,7 @@
       <c r="I303" s="4"/>
       <c r="J303" s="4"/>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" s="4">
         <v>7</v>
       </c>
@@ -8494,7 +8494,7 @@
       <c r="I304" s="4"/>
       <c r="J304" s="4"/>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" s="4">
         <v>8</v>
       </c>
@@ -8514,7 +8514,7 @@
       <c r="I305" s="4"/>
       <c r="J305" s="4"/>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" s="4">
         <v>9</v>
       </c>
@@ -8534,7 +8534,7 @@
       <c r="I306" s="4"/>
       <c r="J306" s="4"/>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" s="4">
         <v>10</v>
       </c>
@@ -8554,7 +8554,7 @@
       <c r="I307" s="4"/>
       <c r="J307" s="4"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" s="4">
         <v>11</v>
       </c>
@@ -8574,7 +8574,7 @@
       <c r="I308" s="4"/>
       <c r="J308" s="4"/>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" s="4">
         <v>12</v>
       </c>
@@ -8594,7 +8594,7 @@
       <c r="I309" s="4"/>
       <c r="J309" s="4"/>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" s="4">
         <v>13</v>
       </c>
@@ -8614,7 +8614,7 @@
       <c r="I310" s="4"/>
       <c r="J310" s="4"/>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" s="4">
         <v>14</v>
       </c>
@@ -8634,7 +8634,7 @@
       <c r="I311" s="4"/>
       <c r="J311" s="4"/>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" s="4">
         <v>15</v>
       </c>
@@ -8654,7 +8654,7 @@
       <c r="I312" s="4"/>
       <c r="J312" s="4"/>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" s="4">
         <v>16</v>
       </c>
@@ -8674,7 +8674,7 @@
       <c r="I313" s="4"/>
       <c r="J313" s="4"/>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" s="4">
         <v>17</v>
       </c>
@@ -8694,7 +8694,7 @@
       <c r="I314" s="4"/>
       <c r="J314" s="4"/>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" s="4">
         <v>18</v>
       </c>
@@ -8714,7 +8714,7 @@
       <c r="I315" s="4"/>
       <c r="J315" s="4"/>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" s="4">
         <v>19</v>
       </c>
@@ -8734,7 +8734,7 @@
       <c r="I316" s="4"/>
       <c r="J316" s="4"/>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" s="4">
         <v>20</v>
       </c>
@@ -8754,7 +8754,7 @@
       <c r="I317" s="4"/>
       <c r="J317" s="4"/>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" s="4">
         <v>21</v>
       </c>
@@ -8774,7 +8774,7 @@
       <c r="I318" s="4"/>
       <c r="J318" s="4"/>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" s="4">
         <v>22</v>
       </c>
@@ -8794,7 +8794,7 @@
       <c r="I319" s="4"/>
       <c r="J319" s="4"/>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" s="4">
         <v>23</v>
       </c>
@@ -8814,7 +8814,7 @@
       <c r="I320" s="4"/>
       <c r="J320" s="4"/>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" s="4">
         <v>24</v>
       </c>
@@ -8834,7 +8834,7 @@
       <c r="I321" s="4"/>
       <c r="J321" s="4"/>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" s="4">
         <v>25</v>
       </c>
@@ -8854,7 +8854,7 @@
       <c r="I322" s="4"/>
       <c r="J322" s="4"/>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" s="4">
         <v>26</v>
       </c>
@@ -8874,7 +8874,7 @@
       <c r="I323" s="4"/>
       <c r="J323" s="4"/>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" s="4">
         <v>27</v>
       </c>
@@ -8894,7 +8894,7 @@
       <c r="I324" s="4"/>
       <c r="J324" s="4"/>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" s="4">
         <v>28</v>
       </c>
@@ -8914,7 +8914,7 @@
       <c r="I325" s="4"/>
       <c r="J325" s="4"/>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" s="4">
         <v>29</v>
       </c>
@@ -8934,7 +8934,7 @@
       <c r="I326" s="4"/>
       <c r="J326" s="4"/>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" s="4">
         <v>30</v>
       </c>
@@ -8954,7 +8954,7 @@
       <c r="I327" s="4"/>
       <c r="J327" s="4"/>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" s="4"/>
       <c r="B328" s="6" t="s">
         <v>179</v>
@@ -8972,7 +8972,7 @@
       <c r="I328" s="4"/>
       <c r="J328" s="4"/>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" s="4"/>
       <c r="B329" s="6" t="s">
         <v>179</v>
@@ -8990,7 +8990,7 @@
       <c r="I329" s="4"/>
       <c r="J329" s="4"/>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" s="4"/>
       <c r="B330" s="6" t="s">
         <v>179</v>
@@ -9008,7 +9008,7 @@
       <c r="I330" s="4"/>
       <c r="J330" s="4"/>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" s="4">
         <v>1</v>
       </c>
@@ -9028,7 +9028,7 @@
       <c r="I331" s="4"/>
       <c r="J331" s="4"/>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" s="4">
         <v>2</v>
       </c>
@@ -9046,7 +9046,7 @@
       <c r="I332" s="4"/>
       <c r="J332" s="4"/>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" s="4">
         <v>3</v>
       </c>
@@ -9064,7 +9064,7 @@
       <c r="I333" s="4"/>
       <c r="J333" s="4"/>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" s="4">
         <v>4</v>
       </c>
@@ -9082,7 +9082,7 @@
       <c r="I334" s="4"/>
       <c r="J334" s="4"/>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" s="4">
         <v>5</v>
       </c>
@@ -9100,7 +9100,7 @@
       <c r="I335" s="4"/>
       <c r="J335" s="4"/>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" s="4">
         <v>6</v>
       </c>
@@ -9118,7 +9118,7 @@
       <c r="I336" s="4"/>
       <c r="J336" s="4"/>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" s="4">
         <v>7</v>
       </c>
@@ -9136,7 +9136,7 @@
       <c r="I337" s="4"/>
       <c r="J337" s="4"/>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" s="4">
         <v>8</v>
       </c>
@@ -9154,7 +9154,7 @@
       <c r="I338" s="4"/>
       <c r="J338" s="4"/>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" s="4">
         <v>9</v>
       </c>
@@ -9172,7 +9172,7 @@
       <c r="I339" s="4"/>
       <c r="J339" s="4"/>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" s="4">
         <v>10</v>
       </c>
@@ -9190,7 +9190,7 @@
       <c r="I340" s="4"/>
       <c r="J340" s="4"/>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" s="4">
         <v>11</v>
       </c>
@@ -9208,7 +9208,7 @@
       <c r="I341" s="4"/>
       <c r="J341" s="4"/>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" s="4">
         <v>12</v>
       </c>
@@ -9226,7 +9226,7 @@
       <c r="I342" s="4"/>
       <c r="J342" s="4"/>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" s="4">
         <v>13</v>
       </c>
@@ -9244,7 +9244,7 @@
       <c r="I343" s="4"/>
       <c r="J343" s="4"/>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" s="4">
         <v>14</v>
       </c>
@@ -9262,7 +9262,7 @@
       <c r="I344" s="4"/>
       <c r="J344" s="4"/>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" s="4">
         <v>15</v>
       </c>
@@ -9280,7 +9280,7 @@
       <c r="I345" s="4"/>
       <c r="J345" s="4"/>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" s="4">
         <v>16</v>
       </c>
@@ -9298,7 +9298,7 @@
       <c r="I346" s="4"/>
       <c r="J346" s="4"/>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" s="4">
         <v>17</v>
       </c>
@@ -9316,7 +9316,7 @@
       <c r="I347" s="4"/>
       <c r="J347" s="4"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" s="4">
         <v>18</v>
       </c>
@@ -9334,7 +9334,7 @@
       <c r="I348" s="4"/>
       <c r="J348" s="4"/>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" s="4">
         <v>19</v>
       </c>
@@ -9352,7 +9352,7 @@
       <c r="I349" s="4"/>
       <c r="J349" s="4"/>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" s="4">
         <v>20</v>
       </c>
@@ -9370,7 +9370,7 @@
       <c r="I350" s="4"/>
       <c r="J350" s="4"/>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" s="4">
         <v>21</v>
       </c>
@@ -9388,7 +9388,7 @@
       <c r="I351" s="4"/>
       <c r="J351" s="4"/>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" s="4">
         <v>22</v>
       </c>
@@ -9406,7 +9406,7 @@
       <c r="I352" s="4"/>
       <c r="J352" s="4"/>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" s="4">
         <v>23</v>
       </c>
@@ -9424,7 +9424,7 @@
       <c r="I353" s="4"/>
       <c r="J353" s="4"/>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" s="4">
         <v>24</v>
       </c>
@@ -9442,7 +9442,7 @@
       <c r="I354" s="4"/>
       <c r="J354" s="4"/>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" s="4">
         <v>25</v>
       </c>
@@ -9460,7 +9460,7 @@
       <c r="I355" s="4"/>
       <c r="J355" s="4"/>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" s="4">
         <v>26</v>
       </c>
@@ -9478,7 +9478,7 @@
       <c r="I356" s="4"/>
       <c r="J356" s="4"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" s="4">
         <v>27</v>
       </c>
@@ -9496,7 +9496,7 @@
       <c r="I357" s="4"/>
       <c r="J357" s="4"/>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" s="4">
         <v>28</v>
       </c>
@@ -9514,7 +9514,7 @@
       <c r="I358" s="4"/>
       <c r="J358" s="4"/>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" s="4">
         <v>29</v>
       </c>
@@ -9532,7 +9532,7 @@
       <c r="I359" s="4"/>
       <c r="J359" s="4"/>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" s="4">
         <v>30</v>
       </c>
@@ -9550,7 +9550,7 @@
       <c r="I360" s="4"/>
       <c r="J360" s="4"/>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" s="4">
         <v>31</v>
       </c>
@@ -9568,7 +9568,7 @@
       <c r="I361" s="4"/>
       <c r="J361" s="4"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" s="4">
         <v>32</v>
       </c>
@@ -9586,7 +9586,7 @@
       <c r="I362" s="4"/>
       <c r="J362" s="4"/>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363" s="4">
         <v>33</v>
       </c>
@@ -9604,7 +9604,7 @@
       <c r="I363" s="4"/>
       <c r="J363" s="4"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364" s="4">
         <v>34</v>
       </c>
@@ -9622,7 +9622,7 @@
       <c r="I364" s="4"/>
       <c r="J364" s="4"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" s="4">
         <v>35</v>
       </c>
@@ -9640,7 +9640,7 @@
       <c r="I365" s="4"/>
       <c r="J365" s="4"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" s="4">
         <v>36</v>
       </c>
@@ -9658,7 +9658,7 @@
       <c r="I366" s="4"/>
       <c r="J366" s="4"/>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367" s="4">
         <v>37</v>
       </c>
@@ -9676,7 +9676,7 @@
       <c r="I367" s="4"/>
       <c r="J367" s="4"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368" s="4">
         <v>38</v>
       </c>
@@ -9694,7 +9694,7 @@
       <c r="I368" s="4"/>
       <c r="J368" s="4"/>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369" s="4">
         <v>39</v>
       </c>
@@ -9712,7 +9712,7 @@
       <c r="I369" s="4"/>
       <c r="J369" s="4"/>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" s="4">
         <v>40</v>
       </c>
@@ -9730,7 +9730,7 @@
       <c r="I370" s="4"/>
       <c r="J370" s="4"/>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371" s="4">
         <v>41</v>
       </c>
@@ -9748,7 +9748,7 @@
       <c r="I371" s="4"/>
       <c r="J371" s="4"/>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372" s="4">
         <v>42</v>
       </c>
@@ -9766,7 +9766,7 @@
       <c r="I372" s="4"/>
       <c r="J372" s="4"/>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373" s="4">
         <v>43</v>
       </c>
@@ -9784,7 +9784,7 @@
       <c r="I373" s="4"/>
       <c r="J373" s="4"/>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374" s="4"/>
       <c r="B374" s="37">
         <v>44317</v>
@@ -9800,7 +9800,7 @@
       <c r="G374" s="4"/>
       <c r="H374" s="4"/>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="9" t="s">
@@ -9814,7 +9814,7 @@
       <c r="G375" s="4"/>
       <c r="H375" s="4"/>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="9" t="s">
@@ -9828,7 +9828,7 @@
       <c r="G376" s="4"/>
       <c r="H376" s="4"/>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="9" t="s">
@@ -9840,7 +9840,7 @@
       <c r="G377" s="4"/>
       <c r="H377" s="4"/>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="9" t="s">
@@ -9852,7 +9852,7 @@
       <c r="G378" s="4"/>
       <c r="H378" s="4"/>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="9" t="s">
@@ -9864,7 +9864,7 @@
       <c r="G379" s="4"/>
       <c r="H379" s="4"/>
     </row>
-    <row r="380" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A380" s="6" t="s">
         <v>571</v>
       </c>
@@ -9882,7 +9882,7 @@
       <c r="G380" s="4"/>
       <c r="H380" s="4"/>
     </row>
-    <row r="381" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="9" t="s">
@@ -9896,7 +9896,7 @@
       <c r="G381" s="4"/>
       <c r="H381" s="4"/>
     </row>
-    <row r="382" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="9" t="s">
@@ -9910,7 +9910,7 @@
       <c r="G382" s="4"/>
       <c r="H382" s="4"/>
     </row>
-    <row r="383" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="9" t="s">
@@ -9924,7 +9924,7 @@
       <c r="G383" s="4"/>
       <c r="H383" s="4"/>
     </row>
-    <row r="384" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="9" t="s">
@@ -9938,7 +9938,7 @@
       <c r="G384" s="4"/>
       <c r="H384" s="4"/>
     </row>
-    <row r="385" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="9" t="s">
@@ -9952,7 +9952,7 @@
       <c r="G385" s="4"/>
       <c r="H385" s="4"/>
     </row>
-    <row r="386" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="9" t="s">
@@ -9966,7 +9966,7 @@
       <c r="G386" s="4"/>
       <c r="H386" s="4"/>
     </row>
-    <row r="387" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="9" t="s">
@@ -9980,7 +9980,7 @@
       <c r="G387" s="4"/>
       <c r="H387" s="4"/>
     </row>
-    <row r="388" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="9" t="s">
@@ -9994,7 +9994,7 @@
       <c r="G388" s="4"/>
       <c r="H388" s="4"/>
     </row>
-    <row r="389" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="9" t="s">
@@ -10008,7 +10008,7 @@
       <c r="G389" s="4"/>
       <c r="H389" s="4"/>
     </row>
-    <row r="390" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="9" t="s">
@@ -10022,7 +10022,7 @@
       <c r="G390" s="4"/>
       <c r="H390" s="4"/>
     </row>
-    <row r="391" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="9" t="s">
@@ -10036,7 +10036,7 @@
       <c r="G391" s="4"/>
       <c r="H391" s="4"/>
     </row>
-    <row r="392" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="9" t="s">
@@ -10050,7 +10050,7 @@
       <c r="G392" s="4"/>
       <c r="H392" s="4"/>
     </row>
-    <row r="393" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="9" t="s">
@@ -10064,7 +10064,7 @@
       <c r="G393" s="4"/>
       <c r="H393" s="4"/>
     </row>
-    <row r="394" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="9" t="s">
@@ -10078,7 +10078,7 @@
       <c r="G394" s="4"/>
       <c r="H394" s="4"/>
     </row>
-    <row r="395" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="9" t="s">
@@ -10092,7 +10092,7 @@
       <c r="G395" s="4"/>
       <c r="H395" s="4"/>
     </row>
-    <row r="396" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="9" t="s">
@@ -10106,7 +10106,7 @@
       <c r="G396" s="4"/>
       <c r="H396" s="4"/>
     </row>
-    <row r="397" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="9" t="s">
@@ -10120,7 +10120,7 @@
       <c r="G397" s="4"/>
       <c r="H397" s="4"/>
     </row>
-    <row r="398" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="9" t="s">
@@ -10134,7 +10134,7 @@
       <c r="G398" s="4"/>
       <c r="H398" s="4"/>
     </row>
-    <row r="399" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="9" t="s">
@@ -10148,7 +10148,7 @@
       <c r="G399" s="4"/>
       <c r="H399" s="4"/>
     </row>
-    <row r="400" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="9" t="s">
@@ -10162,7 +10162,7 @@
       <c r="G400" s="4"/>
       <c r="H400" s="4"/>
     </row>
-    <row r="401" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="9" t="s">
@@ -10176,7 +10176,7 @@
       <c r="G401" s="4"/>
       <c r="H401" s="4"/>
     </row>
-    <row r="402" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="9" t="s">
@@ -10190,7 +10190,7 @@
       <c r="G402" s="4"/>
       <c r="H402" s="4"/>
     </row>
-    <row r="403" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="9" t="s">
@@ -10204,7 +10204,7 @@
       <c r="G403" s="4"/>
       <c r="H403" s="4"/>
     </row>
-    <row r="404" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="9" t="s">
@@ -10218,7 +10218,7 @@
       <c r="G404" s="4"/>
       <c r="H404" s="4"/>
     </row>
-    <row r="405" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="9" t="s">
@@ -10232,7 +10232,7 @@
       <c r="G405" s="4"/>
       <c r="H405" s="4"/>
     </row>
-    <row r="406" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="9" t="s">
@@ -10246,7 +10246,7 @@
       <c r="G406" s="4"/>
       <c r="H406" s="4"/>
     </row>
-    <row r="407" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="9" t="s">
@@ -10260,7 +10260,7 @@
       <c r="G407" s="4"/>
       <c r="H407" s="4"/>
     </row>
-    <row r="408" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="9" t="s">
@@ -10274,7 +10274,7 @@
       <c r="G408" s="4"/>
       <c r="H408" s="4"/>
     </row>
-    <row r="409" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="9" t="s">
@@ -10288,7 +10288,7 @@
       <c r="G409" s="4"/>
       <c r="H409" s="4"/>
     </row>
-    <row r="410" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="9" t="s">
@@ -10302,7 +10302,7 @@
       <c r="G410" s="4"/>
       <c r="H410" s="4"/>
     </row>
-    <row r="411" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="9" t="s">
@@ -10316,7 +10316,7 @@
       <c r="G411" s="4"/>
       <c r="H411" s="4"/>
     </row>
-    <row r="412" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="9" t="s">
@@ -10330,7 +10330,7 @@
       <c r="G412" s="4"/>
       <c r="H412" s="4"/>
     </row>
-    <row r="413" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="9" t="s">
@@ -10344,7 +10344,7 @@
       <c r="G413" s="4"/>
       <c r="H413" s="4"/>
     </row>
-    <row r="414" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="9" t="s">
@@ -10358,7 +10358,7 @@
       <c r="G414" s="4"/>
       <c r="H414" s="4"/>
     </row>
-    <row r="415" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="9" t="s">
@@ -10372,7 +10372,7 @@
       <c r="G415" s="4"/>
       <c r="H415" s="4"/>
     </row>
-    <row r="416" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="9" t="s">
@@ -10386,7 +10386,7 @@
       <c r="G416" s="4"/>
       <c r="H416" s="4"/>
     </row>
-    <row r="417" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="9" t="s">
@@ -10400,7 +10400,7 @@
       <c r="G417" s="4"/>
       <c r="H417" s="4"/>
     </row>
-    <row r="418" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="9" t="s">
@@ -10414,7 +10414,7 @@
       <c r="G418" s="4"/>
       <c r="H418" s="4"/>
     </row>
-    <row r="419" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="9" t="s">
@@ -10428,7 +10428,7 @@
       <c r="G419" s="4"/>
       <c r="H419" s="4"/>
     </row>
-    <row r="420" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="9" t="s">
@@ -10442,7 +10442,7 @@
       <c r="G420" s="4"/>
       <c r="H420" s="4"/>
     </row>
-    <row r="421" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="9" t="s">
@@ -10456,7 +10456,7 @@
       <c r="G421" s="4"/>
       <c r="H421" s="4"/>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="9" t="s">
@@ -10468,7 +10468,7 @@
       <c r="G422" s="4"/>
       <c r="H422" s="4"/>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="9" t="s">
@@ -10480,7 +10480,7 @@
       <c r="G423" s="4"/>
       <c r="H423" s="4"/>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="9" t="s">
@@ -10494,7 +10494,7 @@
       <c r="G424" s="4"/>
       <c r="H424" s="4"/>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="9" t="s">
@@ -10508,7 +10508,7 @@
       <c r="G425" s="4"/>
       <c r="H425" s="4"/>
     </row>
-    <row r="426" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A426" s="4" t="s">
         <v>571</v>
       </c>
@@ -10526,7 +10526,7 @@
       <c r="G426" s="4"/>
       <c r="H426" s="4"/>
     </row>
-    <row r="427" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="9" t="s">
@@ -10540,7 +10540,7 @@
       <c r="G427" s="4"/>
       <c r="H427" s="4"/>
     </row>
-    <row r="428" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="9" t="s">
@@ -10554,7 +10554,7 @@
       <c r="G428" s="4"/>
       <c r="H428" s="4"/>
     </row>
-    <row r="429" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="9" t="s">
@@ -10568,7 +10568,7 @@
       <c r="G429" s="4"/>
       <c r="H429" s="4"/>
     </row>
-    <row r="430" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="9" t="s">
@@ -10582,7 +10582,7 @@
       <c r="G430" s="4"/>
       <c r="H430" s="4"/>
     </row>
-    <row r="431" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="9" t="s">
@@ -10596,7 +10596,7 @@
       <c r="G431" s="4"/>
       <c r="H431" s="4"/>
     </row>
-    <row r="432" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="9" t="s">
@@ -10610,7 +10610,7 @@
       <c r="G432" s="4"/>
       <c r="H432" s="4"/>
     </row>
-    <row r="433" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="9" t="s">
@@ -10624,7 +10624,7 @@
       <c r="G433" s="4"/>
       <c r="H433" s="4"/>
     </row>
-    <row r="434" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="9" t="s">
@@ -10638,7 +10638,7 @@
       <c r="G434" s="4"/>
       <c r="H434" s="4"/>
     </row>
-    <row r="435" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="9" t="s">
@@ -10652,7 +10652,7 @@
       <c r="G435" s="4"/>
       <c r="H435" s="4"/>
     </row>
-    <row r="436" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="9" t="s">
@@ -10666,7 +10666,7 @@
       <c r="G436" s="4"/>
       <c r="H436" s="4"/>
     </row>
-    <row r="437" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="9" t="s">
@@ -10680,7 +10680,7 @@
       <c r="G437" s="4"/>
       <c r="H437" s="4"/>
     </row>
-    <row r="438" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="9" t="s">
@@ -10694,7 +10694,7 @@
       <c r="G438" s="4"/>
       <c r="H438" s="4"/>
     </row>
-    <row r="439" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="9" t="s">
@@ -10708,7 +10708,7 @@
       <c r="G439" s="4"/>
       <c r="H439" s="4"/>
     </row>
-    <row r="440" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="9" t="s">
@@ -10722,7 +10722,7 @@
       <c r="G440" s="4"/>
       <c r="H440" s="4"/>
     </row>
-    <row r="441" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="9" t="s">
@@ -10736,7 +10736,7 @@
       <c r="G441" s="4"/>
       <c r="H441" s="4"/>
     </row>
-    <row r="442" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="9" t="s">
@@ -10750,7 +10750,7 @@
       <c r="G442" s="4"/>
       <c r="H442" s="4"/>
     </row>
-    <row r="443" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="9" t="s">
@@ -10764,7 +10764,7 @@
       <c r="G443" s="4"/>
       <c r="H443" s="4"/>
     </row>
-    <row r="444" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="9" t="s">
@@ -10778,7 +10778,7 @@
       <c r="G444" s="4"/>
       <c r="H444" s="4"/>
     </row>
-    <row r="445" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="9" t="s">
@@ -10792,7 +10792,7 @@
       <c r="G445" s="4"/>
       <c r="H445" s="4"/>
     </row>
-    <row r="446" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="9" t="s">
@@ -10806,7 +10806,7 @@
       <c r="G446" s="4"/>
       <c r="H446" s="4"/>
     </row>
-    <row r="447" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="9" t="s">
@@ -10820,7 +10820,7 @@
       <c r="G447" s="4"/>
       <c r="H447" s="4"/>
     </row>
-    <row r="448" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="9" t="s">
@@ -10834,7 +10834,7 @@
       <c r="G448" s="4"/>
       <c r="H448" s="4"/>
     </row>
-    <row r="449" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="9" t="s">
@@ -10848,7 +10848,7 @@
       <c r="G449" s="4"/>
       <c r="H449" s="4"/>
     </row>
-    <row r="450" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="9" t="s">
@@ -10862,7 +10862,7 @@
       <c r="G450" s="4"/>
       <c r="H450" s="4"/>
     </row>
-    <row r="451" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="9" t="s">
@@ -10876,7 +10876,7 @@
       <c r="G451" s="4"/>
       <c r="H451" s="4"/>
     </row>
-    <row r="452" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="9" t="s">
@@ -10890,7 +10890,7 @@
       <c r="G452" s="4"/>
       <c r="H452" s="4"/>
     </row>
-    <row r="453" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="9" t="s">
@@ -10904,7 +10904,7 @@
       <c r="G453" s="4"/>
       <c r="H453" s="4"/>
     </row>
-    <row r="454" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="9" t="s">
@@ -10918,7 +10918,7 @@
       <c r="G454" s="4"/>
       <c r="H454" s="4"/>
     </row>
-    <row r="455" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="9" t="s">
@@ -10932,7 +10932,7 @@
       <c r="G455" s="4"/>
       <c r="H455" s="4"/>
     </row>
-    <row r="456" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="9" t="s">
@@ -10946,7 +10946,7 @@
       <c r="G456" s="4"/>
       <c r="H456" s="4"/>
     </row>
-    <row r="457" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="9" t="s">
@@ -10960,7 +10960,7 @@
       <c r="G457" s="4"/>
       <c r="H457" s="4"/>
     </row>
-    <row r="458" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A458" s="4"/>
       <c r="B458" s="4" t="s">
         <v>787</v>
@@ -10976,7 +10976,7 @@
       <c r="G458" s="4"/>
       <c r="H458" s="4"/>
     </row>
-    <row r="459" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="9" t="s">
@@ -10990,7 +10990,7 @@
       <c r="G459" s="4"/>
       <c r="H459" s="4"/>
     </row>
-    <row r="460" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="9" t="s">
@@ -11004,7 +11004,7 @@
       <c r="G460" s="4"/>
       <c r="H460" s="4"/>
     </row>
-    <row r="461" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="9" t="s">
@@ -11018,7 +11018,7 @@
       <c r="G461" s="4"/>
       <c r="H461" s="4"/>
     </row>
-    <row r="462" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="9" t="s">
@@ -11032,7 +11032,7 @@
       <c r="G462" s="4"/>
       <c r="H462" s="4"/>
     </row>
-    <row r="463" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="9" t="s">
@@ -11046,7 +11046,7 @@
       <c r="G463" s="4"/>
       <c r="H463" s="4"/>
     </row>
-    <row r="464" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="9" t="s">
@@ -11060,7 +11060,7 @@
       <c r="G464" s="4"/>
       <c r="H464" s="4"/>
     </row>
-    <row r="465" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="9" t="s">
@@ -11074,7 +11074,7 @@
       <c r="G465" s="4"/>
       <c r="H465" s="4"/>
     </row>
-    <row r="466" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="9" t="s">
@@ -11088,7 +11088,7 @@
       <c r="G466" s="4"/>
       <c r="H466" s="4"/>
     </row>
-    <row r="467" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="9" t="s">
@@ -11102,7 +11102,7 @@
       <c r="G467" s="4"/>
       <c r="H467" s="4"/>
     </row>
-    <row r="468" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="9" t="s">
@@ -11116,7 +11116,7 @@
       <c r="G468" s="4"/>
       <c r="H468" s="4"/>
     </row>
-    <row r="469" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="9" t="s">
@@ -11130,7 +11130,7 @@
       <c r="G469" s="4"/>
       <c r="H469" s="4"/>
     </row>
-    <row r="470" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="9" t="s">
@@ -11144,7 +11144,7 @@
       <c r="G470" s="4"/>
       <c r="H470" s="4"/>
     </row>
-    <row r="471" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="9" t="s">
@@ -11158,7 +11158,7 @@
       <c r="G471" s="4"/>
       <c r="H471" s="4"/>
     </row>
-    <row r="472" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A472" s="4"/>
       <c r="B472" s="4" t="s">
         <v>572</v>
@@ -11174,7 +11174,7 @@
       <c r="G472" s="4"/>
       <c r="H472" s="4"/>
     </row>
-    <row r="473" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="9" t="s">
@@ -11188,7 +11188,7 @@
       <c r="G473" s="4"/>
       <c r="H473" s="4"/>
     </row>
-    <row r="474" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="9" t="s">
@@ -11202,7 +11202,7 @@
       <c r="G474" s="4"/>
       <c r="H474" s="4"/>
     </row>
-    <row r="475" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="9" t="s">
@@ -11216,7 +11216,7 @@
       <c r="G475" s="4"/>
       <c r="H475" s="4"/>
     </row>
-    <row r="476" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="9" t="s">
@@ -11230,7 +11230,7 @@
       <c r="G476" s="4"/>
       <c r="H476" s="4"/>
     </row>
-    <row r="477" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="9" t="s">
@@ -11244,7 +11244,7 @@
       <c r="G477" s="4"/>
       <c r="H477" s="4"/>
     </row>
-    <row r="478" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="9" t="s">
@@ -11258,7 +11258,7 @@
       <c r="G478" s="4"/>
       <c r="H478" s="4"/>
     </row>
-    <row r="479" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="9" t="s">
@@ -11272,7 +11272,7 @@
       <c r="G479" s="4"/>
       <c r="H479" s="4"/>
     </row>
-    <row r="480" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="9" t="s">
@@ -11286,7 +11286,7 @@
       <c r="G480" s="4"/>
       <c r="H480" s="4"/>
     </row>
-    <row r="481" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A481" s="4"/>
       <c r="B481" s="4" t="s">
         <v>798</v>
@@ -11302,7 +11302,7 @@
       <c r="G481" s="4"/>
       <c r="H481" s="4"/>
     </row>
-    <row r="482" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="9" t="s">
@@ -11316,7 +11316,7 @@
       <c r="G482" s="4"/>
       <c r="H482" s="4"/>
     </row>
-    <row r="483" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="9" t="s">
@@ -11330,7 +11330,7 @@
       <c r="G483" s="4"/>
       <c r="H483" s="4"/>
     </row>
-    <row r="484" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="9" t="s">
@@ -11344,7 +11344,7 @@
       <c r="G484" s="4"/>
       <c r="H484" s="4"/>
     </row>
-    <row r="485" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="9" t="s">
@@ -11358,7 +11358,7 @@
       <c r="G485" s="4"/>
       <c r="H485" s="4"/>
     </row>
-    <row r="486" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="9" t="s">
@@ -11372,7 +11372,7 @@
       <c r="G486" s="4"/>
       <c r="H486" s="4"/>
     </row>
-    <row r="487" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="9" t="s">
@@ -11386,7 +11386,7 @@
       <c r="G487" s="4"/>
       <c r="H487" s="4"/>
     </row>
-    <row r="488" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="9" t="s">
@@ -11400,7 +11400,7 @@
       <c r="G488" s="4"/>
       <c r="H488" s="4"/>
     </row>
-    <row r="489" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="9" t="s">
@@ -11414,7 +11414,7 @@
       <c r="G489" s="4"/>
       <c r="H489" s="4"/>
     </row>
-    <row r="490" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="9" t="s">
@@ -11428,7 +11428,7 @@
       <c r="G490" s="4"/>
       <c r="H490" s="4"/>
     </row>
-    <row r="491" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A491" s="4"/>
       <c r="B491" s="4" t="s">
         <v>572</v>
@@ -11444,7 +11444,7 @@
       <c r="G491" s="4"/>
       <c r="H491" s="4"/>
     </row>
-    <row r="492" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="9" t="s">
@@ -11458,7 +11458,7 @@
       <c r="G492" s="4"/>
       <c r="H492" s="4"/>
     </row>
-    <row r="493" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="9" t="s">
@@ -11472,7 +11472,7 @@
       <c r="G493" s="4"/>
       <c r="H493" s="4"/>
     </row>
-    <row r="494" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="9" t="s">
@@ -11486,7 +11486,7 @@
       <c r="G494" s="4"/>
       <c r="H494" s="4"/>
     </row>
-    <row r="495" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="9" t="s">
@@ -11500,7 +11500,7 @@
       <c r="G495" s="4"/>
       <c r="H495" s="4"/>
     </row>
-    <row r="496" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="9" t="s">
@@ -11514,7 +11514,7 @@
       <c r="G496" s="4"/>
       <c r="H496" s="4"/>
     </row>
-    <row r="497" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="9" t="s">
@@ -11528,7 +11528,7 @@
       <c r="G497" s="4"/>
       <c r="H497" s="4"/>
     </row>
-    <row r="498" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A498" s="4"/>
       <c r="B498" s="4" t="s">
         <v>787</v>
@@ -11544,7 +11544,7 @@
       <c r="G498" s="4"/>
       <c r="H498" s="4"/>
     </row>
-    <row r="499" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="9" t="s">
@@ -11558,7 +11558,7 @@
       <c r="G499" s="4"/>
       <c r="H499" s="4"/>
     </row>
-    <row r="500" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="9" t="s">
@@ -11572,7 +11572,7 @@
       <c r="G500" s="4"/>
       <c r="H500" s="4"/>
     </row>
-    <row r="501" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="9" t="s">
@@ -11586,7 +11586,7 @@
       <c r="G501" s="4"/>
       <c r="H501" s="4"/>
     </row>
-    <row r="502" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="9" t="s">
@@ -11600,7 +11600,7 @@
       <c r="G502" s="4"/>
       <c r="H502" s="4"/>
     </row>
-    <row r="503" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="9" t="s">
@@ -11614,7 +11614,7 @@
       <c r="G503" s="4"/>
       <c r="H503" s="4"/>
     </row>
-    <row r="504" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="9" t="s">
@@ -11628,7 +11628,7 @@
       <c r="G504" s="4"/>
       <c r="H504" s="4"/>
     </row>
-    <row r="505" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="9" t="s">
@@ -11642,7 +11642,7 @@
       <c r="G505" s="4"/>
       <c r="H505" s="4"/>
     </row>
-    <row r="506" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="9" t="s">
@@ -11656,7 +11656,7 @@
       <c r="G506" s="4"/>
       <c r="H506" s="4"/>
     </row>
-    <row r="507" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="9" t="s">
@@ -11670,7 +11670,7 @@
       <c r="G507" s="4"/>
       <c r="H507" s="4"/>
     </row>
-    <row r="508" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="9" t="s">
@@ -11684,7 +11684,7 @@
       <c r="G508" s="4"/>
       <c r="H508" s="4"/>
     </row>
-    <row r="509" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A509" s="4"/>
       <c r="B509" s="4" t="s">
         <v>787</v>
@@ -11700,7 +11700,7 @@
       <c r="G509" s="4"/>
       <c r="H509" s="4"/>
     </row>
-    <row r="510" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="9" t="s">
@@ -11714,7 +11714,7 @@
       <c r="G510" s="4"/>
       <c r="H510" s="4"/>
     </row>
-    <row r="511" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="9" t="s">
@@ -11728,7 +11728,7 @@
       <c r="G511" s="4"/>
       <c r="H511" s="4"/>
     </row>
-    <row r="512" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="9" t="s">
@@ -11742,7 +11742,7 @@
       <c r="G512" s="4"/>
       <c r="H512" s="4"/>
     </row>
-    <row r="513" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="9" t="s">
@@ -11756,7 +11756,7 @@
       <c r="G513" s="4"/>
       <c r="H513" s="4"/>
     </row>
-    <row r="514" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="9" t="s">
@@ -11770,7 +11770,7 @@
       <c r="G514" s="4"/>
       <c r="H514" s="4"/>
     </row>
-    <row r="515" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="9" t="s">
@@ -11784,7 +11784,7 @@
       <c r="G515" s="4"/>
       <c r="H515" s="4"/>
     </row>
-    <row r="516" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="9" t="s">
@@ -11798,7 +11798,7 @@
       <c r="G516" s="4"/>
       <c r="H516" s="4"/>
     </row>
-    <row r="517" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="9" t="s">
@@ -11812,7 +11812,7 @@
       <c r="G517" s="4"/>
       <c r="H517" s="4"/>
     </row>
-    <row r="518" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="9" t="s">
@@ -11826,7 +11826,7 @@
       <c r="G518" s="4"/>
       <c r="H518" s="4"/>
     </row>
-    <row r="519" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="9" t="s">
@@ -11840,7 +11840,7 @@
       <c r="G519" s="4"/>
       <c r="H519" s="4"/>
     </row>
-    <row r="520" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A520" s="4"/>
       <c r="B520" s="4" t="s">
         <v>787</v>
@@ -11856,7 +11856,7 @@
       <c r="G520" s="4"/>
       <c r="H520" s="4"/>
     </row>
-    <row r="521" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="9" t="s">
@@ -11870,7 +11870,7 @@
       <c r="G521" s="4"/>
       <c r="H521" s="4"/>
     </row>
-    <row r="522" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="9" t="s">
@@ -11884,7 +11884,7 @@
       <c r="G522" s="4"/>
       <c r="H522" s="4"/>
     </row>
-    <row r="523" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="9" t="s">
@@ -11898,7 +11898,7 @@
       <c r="G523" s="4"/>
       <c r="H523" s="4"/>
     </row>
-    <row r="524" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="9" t="s">
@@ -11912,7 +11912,7 @@
       <c r="G524" s="4"/>
       <c r="H524" s="4"/>
     </row>
-    <row r="525" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="9" t="s">
@@ -11926,7 +11926,7 @@
       <c r="G525" s="4"/>
       <c r="H525" s="4"/>
     </row>
-    <row r="526" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="9" t="s">
@@ -11940,7 +11940,7 @@
       <c r="G526" s="4"/>
       <c r="H526" s="4"/>
     </row>
-    <row r="527" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="9" t="s">
@@ -11954,7 +11954,7 @@
       <c r="G527" s="4"/>
       <c r="H527" s="4"/>
     </row>
-    <row r="528" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="9" t="s">
@@ -11968,7 +11968,7 @@
       <c r="G528" s="4"/>
       <c r="H528" s="4"/>
     </row>
-    <row r="529" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="9" t="s">
@@ -11982,7 +11982,7 @@
       <c r="G529" s="4"/>
       <c r="H529" s="4"/>
     </row>
-    <row r="530" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="9" t="s">
@@ -11996,7 +11996,7 @@
       <c r="G530" s="4"/>
       <c r="H530" s="4"/>
     </row>
-    <row r="531" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A531" s="4"/>
       <c r="B531" s="4" t="s">
         <v>787</v>
@@ -12012,7 +12012,7 @@
       <c r="G531" s="4"/>
       <c r="H531" s="4"/>
     </row>
-    <row r="532" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="9" t="s">
@@ -12026,7 +12026,7 @@
       <c r="G532" s="4"/>
       <c r="H532" s="4"/>
     </row>
-    <row r="533" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="9" t="s">
@@ -12040,7 +12040,7 @@
       <c r="G533" s="4"/>
       <c r="H533" s="4"/>
     </row>
-    <row r="534" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="9" t="s">
@@ -12054,7 +12054,7 @@
       <c r="G534" s="4"/>
       <c r="H534" s="4"/>
     </row>
-    <row r="535" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="9" t="s">
@@ -12068,7 +12068,7 @@
       <c r="G535" s="4"/>
       <c r="H535" s="4"/>
     </row>
-    <row r="536" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="9" t="s">
@@ -12082,7 +12082,7 @@
       <c r="G536" s="4"/>
       <c r="H536" s="4"/>
     </row>
-    <row r="537" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="9" t="s">
@@ -12096,7 +12096,7 @@
       <c r="G537" s="4"/>
       <c r="H537" s="4"/>
     </row>
-    <row r="538" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="9" t="s">
@@ -12110,7 +12110,7 @@
       <c r="G538" s="4"/>
       <c r="H538" s="4"/>
     </row>
-    <row r="539" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="9" t="s">
@@ -12124,7 +12124,7 @@
       <c r="G539" s="4"/>
       <c r="H539" s="4"/>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A540" s="4"/>
       <c r="B540" s="4" t="s">
         <v>787</v>
@@ -12140,7 +12140,7 @@
       <c r="G540" s="4"/>
       <c r="H540" s="4"/>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A541" s="4"/>
       <c r="B541" s="4" t="s">
         <v>787</v>
@@ -12156,7 +12156,7 @@
       <c r="G541" s="4"/>
       <c r="H541" s="4"/>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A542" s="4"/>
       <c r="B542" s="4" t="s">
         <v>787</v>
@@ -12172,7 +12172,7 @@
       <c r="G542" s="4"/>
       <c r="H542" s="4"/>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A543" s="4"/>
       <c r="B543" s="4" t="s">
         <v>787</v>
@@ -12188,7 +12188,7 @@
       <c r="G543" s="4"/>
       <c r="H543" s="4"/>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A544" s="4"/>
       <c r="B544" s="4" t="s">
         <v>787</v>
@@ -12204,7 +12204,7 @@
       <c r="G544" s="4"/>
       <c r="H544" s="4"/>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A545" s="4"/>
       <c r="B545" s="4" t="s">
         <v>787</v>
@@ -12220,7 +12220,7 @@
       <c r="G545" s="4"/>
       <c r="H545" s="4"/>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A546" s="4"/>
       <c r="B546" s="4" t="s">
         <v>787</v>
@@ -12236,7 +12236,7 @@
       <c r="G546" s="4"/>
       <c r="H546" s="4"/>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A547" s="4"/>
       <c r="B547" s="4" t="s">
         <v>787</v>
@@ -12252,7 +12252,7 @@
       <c r="G547" s="4"/>
       <c r="H547" s="4"/>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A548" s="4"/>
       <c r="B548" s="4" t="s">
         <v>787</v>
@@ -12268,7 +12268,7 @@
       <c r="G548" s="4"/>
       <c r="H548" s="4"/>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A549" s="4"/>
       <c r="B549" s="4" t="s">
         <v>787</v>
@@ -12284,7 +12284,7 @@
       <c r="G549" s="4"/>
       <c r="H549" s="4"/>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A550" s="4"/>
       <c r="B550" s="4" t="s">
         <v>787</v>
@@ -12300,7 +12300,7 @@
       <c r="G550" s="4"/>
       <c r="H550" s="4"/>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A551" s="4"/>
       <c r="B551" s="4" t="s">
         <v>787</v>
@@ -12316,7 +12316,7 @@
       <c r="G551" s="4"/>
       <c r="H551" s="4"/>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A552" s="4"/>
       <c r="B552" s="4" t="s">
         <v>787</v>
@@ -12332,7 +12332,7 @@
       <c r="G552" s="4"/>
       <c r="H552" s="4"/>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A553" s="4"/>
       <c r="B553" s="4" t="s">
         <v>787</v>
@@ -12348,7 +12348,7 @@
       <c r="G553" s="4"/>
       <c r="H553" s="4"/>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A554" s="4"/>
       <c r="B554" s="4" t="s">
         <v>787</v>
@@ -12364,7 +12364,7 @@
       <c r="G554" s="4"/>
       <c r="H554" s="4"/>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A555" s="4"/>
       <c r="B555" s="4" t="s">
         <v>787</v>
@@ -12380,7 +12380,7 @@
       <c r="G555" s="4"/>
       <c r="H555" s="4"/>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A556" s="4"/>
       <c r="B556" s="4" t="s">
         <v>787</v>
@@ -12396,7 +12396,7 @@
       <c r="G556" s="4"/>
       <c r="H556" s="4"/>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A557" s="4"/>
       <c r="B557" s="4" t="s">
         <v>787</v>
@@ -12412,7 +12412,7 @@
       <c r="G557" s="4"/>
       <c r="H557" s="4"/>
     </row>
-    <row r="558" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A558" s="4"/>
       <c r="B558" s="4" t="s">
         <v>787</v>
@@ -12428,7 +12428,7 @@
       <c r="G558" s="4"/>
       <c r="H558" s="4"/>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A559" s="4"/>
       <c r="B559" s="4" t="s">
         <v>787</v>
@@ -12444,7 +12444,7 @@
       <c r="G559" s="4"/>
       <c r="H559" s="4"/>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A560" s="4"/>
       <c r="B560" s="4" t="s">
         <v>787</v>
@@ -12460,7 +12460,7 @@
       <c r="G560" s="4"/>
       <c r="H560" s="4"/>
     </row>
-    <row r="561" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A561" s="4"/>
       <c r="B561" s="4" t="s">
         <v>787</v>
@@ -12476,7 +12476,7 @@
       <c r="G561" s="4"/>
       <c r="H561" s="4"/>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A562" s="4"/>
       <c r="B562" s="4" t="s">
         <v>787</v>
@@ -12492,7 +12492,7 @@
       <c r="G562" s="4"/>
       <c r="H562" s="4"/>
     </row>
-    <row r="563" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A563" s="4"/>
       <c r="B563" s="4" t="s">
         <v>787</v>
@@ -12508,7 +12508,7 @@
       <c r="G563" s="4"/>
       <c r="H563" s="4"/>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A564" s="4"/>
       <c r="B564" s="4" t="s">
         <v>787</v>
@@ -12524,7 +12524,7 @@
       <c r="G564" s="4"/>
       <c r="H564" s="4"/>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A565" s="4"/>
       <c r="B565" s="4" t="s">
         <v>787</v>
@@ -12540,7 +12540,7 @@
       <c r="G565" s="4"/>
       <c r="H565" s="4"/>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A566" s="4"/>
       <c r="B566" s="4" t="s">
         <v>787</v>
@@ -12556,7 +12556,7 @@
       <c r="G566" s="4"/>
       <c r="H566" s="4"/>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A567" s="4"/>
       <c r="B567" s="4" t="s">
         <v>787</v>
@@ -12572,7 +12572,7 @@
       <c r="G567" s="4"/>
       <c r="H567" s="4"/>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A568" s="4"/>
       <c r="B568" s="4" t="s">
         <v>787</v>
@@ -12588,7 +12588,7 @@
       <c r="G568" s="4"/>
       <c r="H568" s="4"/>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A569" s="4"/>
       <c r="B569" s="4" t="s">
         <v>787</v>
@@ -12604,7 +12604,7 @@
       <c r="G569" s="4"/>
       <c r="H569" s="4"/>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A570" s="4"/>
       <c r="B570" s="4" t="s">
         <v>787</v>
@@ -12620,7 +12620,7 @@
       <c r="G570" s="4"/>
       <c r="H570" s="4"/>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A571" s="4"/>
       <c r="B571" s="4" t="s">
         <v>787</v>
@@ -12636,7 +12636,7 @@
       <c r="G571" s="4"/>
       <c r="H571" s="4"/>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A572" s="4"/>
       <c r="B572" s="4" t="s">
         <v>787</v>
@@ -12652,7 +12652,7 @@
       <c r="G572" s="4"/>
       <c r="H572" s="4"/>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A573" s="4"/>
       <c r="B573" s="4" t="s">
         <v>787</v>
@@ -12668,7 +12668,7 @@
       <c r="G573" s="4"/>
       <c r="H573" s="4"/>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A574" s="4"/>
       <c r="B574" s="4" t="s">
         <v>787</v>
@@ -12684,7 +12684,7 @@
       <c r="G574" s="4"/>
       <c r="H574" s="4"/>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A575" s="4"/>
       <c r="B575" s="4" t="s">
         <v>787</v>
@@ -12700,7 +12700,7 @@
       <c r="G575" s="4"/>
       <c r="H575" s="4"/>
     </row>
-    <row r="576" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A576" s="4"/>
       <c r="B576" s="4" t="s">
         <v>787</v>
@@ -12716,7 +12716,7 @@
       <c r="G576" s="4"/>
       <c r="H576" s="4"/>
     </row>
-    <row r="577" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:8" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A577" s="4"/>
       <c r="B577" s="4" t="s">
         <v>787</v>
@@ -12732,7 +12732,7 @@
       <c r="G577" s="4"/>
       <c r="H577" s="4"/>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A578" s="4"/>
       <c r="B578" s="4" t="s">
         <v>787</v>
@@ -12748,7 +12748,7 @@
       <c r="G578" s="4"/>
       <c r="H578" s="4"/>
     </row>
-    <row r="579" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:8" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A579" s="4"/>
       <c r="B579" s="4" t="s">
         <v>787</v>
@@ -12764,7 +12764,7 @@
       <c r="G579" s="4"/>
       <c r="H579" s="4"/>
     </row>
-    <row r="580" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:8" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A580" s="4"/>
       <c r="B580" s="4" t="s">
         <v>787</v>
@@ -12780,7 +12780,7 @@
       <c r="G580" s="4"/>
       <c r="H580" s="4"/>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A581" s="4"/>
       <c r="B581" s="4" t="s">
         <v>787</v>
@@ -12796,7 +12796,7 @@
       <c r="G581" s="4"/>
       <c r="H581" s="4"/>
     </row>
-    <row r="582" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A582" s="4"/>
       <c r="B582" s="4" t="s">
         <v>787</v>
@@ -12812,7 +12812,7 @@
       <c r="G582" s="4"/>
       <c r="H582" s="4"/>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A583" s="4"/>
       <c r="B583" s="4" t="s">
         <v>787</v>
@@ -12828,7 +12828,7 @@
       <c r="G583" s="4"/>
       <c r="H583" s="4"/>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A584" s="4"/>
       <c r="B584" s="4" t="s">
         <v>787</v>
@@ -12844,7 +12844,7 @@
       <c r="G584" s="4"/>
       <c r="H584" s="4"/>
     </row>
-    <row r="585" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A585" s="4"/>
       <c r="B585" s="4" t="s">
         <v>787</v>
@@ -12860,7 +12860,7 @@
       <c r="G585" s="4"/>
       <c r="H585" s="4"/>
     </row>
-    <row r="586" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:8" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A586" s="4"/>
       <c r="B586" s="4" t="s">
         <v>787</v>
@@ -12876,7 +12876,7 @@
       <c r="G586" s="4"/>
       <c r="H586" s="4"/>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A587" s="4"/>
       <c r="B587" s="4" t="s">
         <v>787</v>
@@ -12892,7 +12892,7 @@
       <c r="G587" s="4"/>
       <c r="H587" s="4"/>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A588" s="4"/>
       <c r="B588" s="4" t="s">
         <v>787</v>
@@ -12906,7 +12906,7 @@
       <c r="G588" s="4"/>
       <c r="H588" s="4"/>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A589" s="4"/>
       <c r="B589" s="4" t="s">
         <v>787</v>
@@ -12920,7 +12920,7 @@
       <c r="G589" s="4"/>
       <c r="H589" s="4"/>
     </row>
-    <row r="590" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:8" ht="78" x14ac:dyDescent="0.3">
       <c r="A590" s="10" t="s">
         <v>788</v>
       </c>
@@ -12946,7 +12946,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="591" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A591" s="4" t="s">
         <v>848</v>
       </c>
@@ -12961,7 +12961,7 @@
       <c r="G591" s="4"/>
       <c r="H591" s="4"/>
     </row>
-    <row r="592" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="9" t="s">
@@ -12975,7 +12975,7 @@
       <c r="G592" s="4"/>
       <c r="H592" s="4"/>
     </row>
-    <row r="593" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="9" t="s">
@@ -12989,7 +12989,7 @@
       <c r="G593" s="4"/>
       <c r="H593" s="4"/>
     </row>
-    <row r="594" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="9" t="s">
@@ -13003,7 +13003,7 @@
       <c r="G594" s="4"/>
       <c r="H594" s="4"/>
     </row>
-    <row r="595" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A595" s="43">
         <v>44383</v>
       </c>
@@ -13019,7 +13019,7 @@
       <c r="G595" s="4"/>
       <c r="H595" s="4"/>
     </row>
-    <row r="596" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="9" t="s">
@@ -13033,7 +13033,7 @@
       <c r="G596" s="4"/>
       <c r="H596" s="4"/>
     </row>
-    <row r="597" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="9" t="s">
@@ -13047,7 +13047,7 @@
       <c r="G597" s="4"/>
       <c r="H597" s="4"/>
     </row>
-    <row r="598" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="9" t="s">
@@ -13061,7 +13061,7 @@
       <c r="G598" s="4"/>
       <c r="H598" s="4"/>
     </row>
-    <row r="599" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="9" t="s">
@@ -13075,7 +13075,7 @@
       <c r="G599" s="4"/>
       <c r="H599" s="4"/>
     </row>
-    <row r="600" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="9" t="s">
@@ -13089,7 +13089,7 @@
       <c r="G600" s="4"/>
       <c r="H600" s="4"/>
     </row>
-    <row r="601" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="9" t="s">
@@ -13103,7 +13103,7 @@
       <c r="G601" s="4"/>
       <c r="H601" s="4"/>
     </row>
-    <row r="602" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="9" t="s">
@@ -13117,7 +13117,7 @@
       <c r="G602" s="4"/>
       <c r="H602" s="4"/>
     </row>
-    <row r="603" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="9" t="s">
@@ -13131,7 +13131,7 @@
       <c r="G603" s="4"/>
       <c r="H603" s="4"/>
     </row>
-    <row r="604" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="9" t="s">
@@ -13145,7 +13145,7 @@
       <c r="G604" s="4"/>
       <c r="H604" s="4"/>
     </row>
-    <row r="605" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="9" t="s">
@@ -13159,7 +13159,7 @@
       <c r="G605" s="4"/>
       <c r="H605" s="4"/>
     </row>
-    <row r="606" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="9" t="s">
@@ -13173,7 +13173,7 @@
       <c r="G606" s="4"/>
       <c r="H606" s="4"/>
     </row>
-    <row r="607" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="9" t="s">
@@ -13187,7 +13187,7 @@
       <c r="G607" s="4"/>
       <c r="H607" s="4"/>
     </row>
-    <row r="608" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="9" t="s">
@@ -13201,7 +13201,7 @@
       <c r="G608" s="4"/>
       <c r="H608" s="4"/>
     </row>
-    <row r="609" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="9" t="s">
@@ -13215,7 +13215,7 @@
       <c r="G609" s="4"/>
       <c r="H609" s="4"/>
     </row>
-    <row r="610" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="9" t="s">
@@ -13229,7 +13229,7 @@
       <c r="G610" s="4"/>
       <c r="H610" s="4"/>
     </row>
-    <row r="611" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
       <c r="C611" s="9" t="s">
@@ -13243,7 +13243,7 @@
       <c r="G611" s="4"/>
       <c r="H611" s="4"/>
     </row>
-    <row r="612" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
       <c r="C612" s="9" t="s">
@@ -13257,7 +13257,7 @@
       <c r="G612" s="4"/>
       <c r="H612" s="4"/>
     </row>
-    <row r="613" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
       <c r="C613" s="9" t="s">
@@ -13271,7 +13271,7 @@
       <c r="G613" s="4"/>
       <c r="H613" s="4"/>
     </row>
-    <row r="614" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
       <c r="C614" s="9" t="s">
@@ -13285,7 +13285,7 @@
       <c r="G614" s="4"/>
       <c r="H614" s="4"/>
     </row>
-    <row r="615" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
       <c r="C615" s="9" t="s">
@@ -13299,7 +13299,7 @@
       <c r="G615" s="4"/>
       <c r="H615" s="4"/>
     </row>
-    <row r="616" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
       <c r="C616" s="9" t="s">
@@ -13313,7 +13313,7 @@
       <c r="G616" s="4"/>
       <c r="H616" s="4"/>
     </row>
-    <row r="617" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
       <c r="C617" s="9" t="s">
@@ -13327,7 +13327,7 @@
       <c r="G617" s="4"/>
       <c r="H617" s="4"/>
     </row>
-    <row r="618" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
       <c r="C618" s="9" t="s">
@@ -13341,7 +13341,7 @@
       <c r="G618" s="4"/>
       <c r="H618" s="4"/>
     </row>
-    <row r="619" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
       <c r="C619" s="9" t="s">
@@ -13355,7 +13355,7 @@
       <c r="G619" s="4"/>
       <c r="H619" s="4"/>
     </row>
-    <row r="620" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
       <c r="C620" s="9" t="s">
@@ -13369,7 +13369,7 @@
       <c r="G620" s="4"/>
       <c r="H620" s="4"/>
     </row>
-    <row r="621" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
       <c r="C621" s="9" t="s">
@@ -13383,7 +13383,7 @@
       <c r="G621" s="4"/>
       <c r="H621" s="4"/>
     </row>
-    <row r="622" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
       <c r="C622" s="9" t="s">
@@ -13397,7 +13397,7 @@
       <c r="G622" s="4"/>
       <c r="H622" s="4"/>
     </row>
-    <row r="623" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
       <c r="C623" s="9" t="s">
@@ -13411,7 +13411,7 @@
       <c r="G623" s="4"/>
       <c r="H623" s="4"/>
     </row>
-    <row r="624" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
       <c r="C624" s="9" t="s">
@@ -13425,7 +13425,7 @@
       <c r="G624" s="4"/>
       <c r="H624" s="4"/>
     </row>
-    <row r="625" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
       <c r="C625" s="9" t="s">
@@ -13439,7 +13439,7 @@
       <c r="G625" s="4"/>
       <c r="H625" s="4"/>
     </row>
-    <row r="626" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
       <c r="C626" s="9" t="s">
@@ -13453,7 +13453,7 @@
       <c r="G626" s="4"/>
       <c r="H626" s="4"/>
     </row>
-    <row r="627" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
       <c r="C627" s="9" t="s">
@@ -13467,7 +13467,7 @@
       <c r="G627" s="4"/>
       <c r="H627" s="4"/>
     </row>
-    <row r="628" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
       <c r="C628" s="9" t="s">
@@ -13481,7 +13481,7 @@
       <c r="G628" s="4"/>
       <c r="H628" s="4"/>
     </row>
-    <row r="629" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
       <c r="C629" s="9" t="s">
@@ -13495,7 +13495,7 @@
       <c r="G629" s="4"/>
       <c r="H629" s="4"/>
     </row>
-    <row r="630" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
       <c r="C630" s="9" t="s">
@@ -13509,7 +13509,7 @@
       <c r="G630" s="4"/>
       <c r="H630" s="4"/>
     </row>
-    <row r="631" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
       <c r="C631" s="9" t="s">
@@ -13523,7 +13523,7 @@
       <c r="G631" s="4"/>
       <c r="H631" s="4"/>
     </row>
-    <row r="632" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
       <c r="C632" s="9" t="s">
@@ -13537,7 +13537,7 @@
       <c r="G632" s="4"/>
       <c r="H632" s="4"/>
     </row>
-    <row r="633" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
       <c r="C633" s="9" t="s">
@@ -13551,7 +13551,7 @@
       <c r="G633" s="4"/>
       <c r="H633" s="4"/>
     </row>
-    <row r="634" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
       <c r="C634" s="9" t="s">
@@ -13565,7 +13565,7 @@
       <c r="G634" s="4"/>
       <c r="H634" s="4"/>
     </row>
-    <row r="635" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
       <c r="C635" s="9" t="s">
@@ -13579,7 +13579,7 @@
       <c r="G635" s="4"/>
       <c r="H635" s="4"/>
     </row>
-    <row r="636" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
       <c r="C636" s="9" t="s">
@@ -13593,7 +13593,7 @@
       <c r="G636" s="4"/>
       <c r="H636" s="4"/>
     </row>
-    <row r="637" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
       <c r="C637" s="9" t="s">
@@ -13607,7 +13607,7 @@
       <c r="G637" s="4"/>
       <c r="H637" s="4"/>
     </row>
-    <row r="638" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
       <c r="C638" s="9" t="s">
@@ -13621,7 +13621,7 @@
       <c r="G638" s="4"/>
       <c r="H638" s="4"/>
     </row>
-    <row r="639" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
       <c r="C639" s="9" t="s">
@@ -13635,7 +13635,7 @@
       <c r="G639" s="4"/>
       <c r="H639" s="4"/>
     </row>
-    <row r="640" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
       <c r="C640" s="9" t="s">
@@ -13649,7 +13649,7 @@
       <c r="G640" s="4"/>
       <c r="H640" s="4"/>
     </row>
-    <row r="641" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
       <c r="C641" s="9" t="s">
@@ -13663,7 +13663,7 @@
       <c r="G641" s="4"/>
       <c r="H641" s="4"/>
     </row>
-    <row r="642" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
       <c r="C642" s="9" t="s">
@@ -13677,7 +13677,7 @@
       <c r="G642" s="4"/>
       <c r="H642" s="4"/>
     </row>
-    <row r="643" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
       <c r="C643" s="9" t="s">
@@ -13691,7 +13691,7 @@
       <c r="G643" s="4"/>
       <c r="H643" s="4"/>
     </row>
-    <row r="644" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
       <c r="C644" s="9" t="s">
@@ -13705,7 +13705,7 @@
       <c r="G644" s="4"/>
       <c r="H644" s="4"/>
     </row>
-    <row r="645" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A645" s="4"/>
       <c r="B645" s="4"/>
       <c r="C645" s="9" t="s">
@@ -13719,7 +13719,7 @@
       <c r="G645" s="4"/>
       <c r="H645" s="4"/>
     </row>
-    <row r="646" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
       <c r="C646" s="9" t="s">
@@ -13733,7 +13733,7 @@
       <c r="G646" s="4"/>
       <c r="H646" s="4"/>
     </row>
-    <row r="647" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A647" s="4"/>
       <c r="B647" s="4"/>
       <c r="C647" s="9" t="s">
@@ -13747,7 +13747,7 @@
       <c r="G647" s="4"/>
       <c r="H647" s="4"/>
     </row>
-    <row r="648" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A648" s="4"/>
       <c r="B648" s="4"/>
       <c r="C648" s="9" t="s">
@@ -13761,7 +13761,7 @@
       <c r="G648" s="4"/>
       <c r="H648" s="4"/>
     </row>
-    <row r="649" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A649" s="4"/>
       <c r="B649" s="4"/>
       <c r="C649" s="9" t="s">
@@ -13775,7 +13775,7 @@
       <c r="G649" s="4"/>
       <c r="H649" s="4"/>
     </row>
-    <row r="650" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A650" s="4"/>
       <c r="B650" s="4"/>
       <c r="C650" s="9" t="s">
@@ -13789,7 +13789,7 @@
       <c r="G650" s="4"/>
       <c r="H650" s="4"/>
     </row>
-    <row r="651" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A651" s="4"/>
       <c r="B651" s="4"/>
       <c r="C651" s="9" t="s">
@@ -13803,7 +13803,7 @@
       <c r="G651" s="4"/>
       <c r="H651" s="4"/>
     </row>
-    <row r="652" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A652" s="4"/>
       <c r="B652" s="4"/>
       <c r="C652" s="9" t="s">
@@ -13817,7 +13817,7 @@
       <c r="G652" s="4"/>
       <c r="H652" s="4"/>
     </row>
-    <row r="653" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A653" s="4"/>
       <c r="B653" s="4"/>
       <c r="C653" s="9" t="s">
@@ -13831,7 +13831,7 @@
       <c r="G653" s="4"/>
       <c r="H653" s="4"/>
     </row>
-    <row r="654" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A654" s="4"/>
       <c r="B654" s="4"/>
       <c r="C654" s="9" t="s">
@@ -13845,7 +13845,7 @@
       <c r="G654" s="4"/>
       <c r="H654" s="4"/>
     </row>
-    <row r="655" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A655" s="4"/>
       <c r="B655" s="4"/>
       <c r="C655" s="9" t="s">
@@ -13859,7 +13859,7 @@
       <c r="G655" s="4"/>
       <c r="H655" s="4"/>
     </row>
-    <row r="656" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A656" s="4"/>
       <c r="B656" s="4"/>
       <c r="C656" s="9" t="s">
@@ -13873,7 +13873,7 @@
       <c r="G656" s="4"/>
       <c r="H656" s="4"/>
     </row>
-    <row r="657" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A657" s="4"/>
       <c r="B657" s="4"/>
       <c r="C657" s="9" t="s">
@@ -13887,7 +13887,7 @@
       <c r="G657" s="4"/>
       <c r="H657" s="4"/>
     </row>
-    <row r="658" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A658" s="4"/>
       <c r="B658" s="4"/>
       <c r="C658" s="9" t="s">
@@ -13901,7 +13901,7 @@
       <c r="G658" s="4"/>
       <c r="H658" s="4"/>
     </row>
-    <row r="659" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A659" s="4"/>
       <c r="B659" s="4"/>
       <c r="C659" s="9" t="s">
@@ -13915,7 +13915,7 @@
       <c r="G659" s="4"/>
       <c r="H659" s="4"/>
     </row>
-    <row r="660" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A660" s="4"/>
       <c r="B660" s="4"/>
       <c r="C660" s="9" t="s">
@@ -13929,7 +13929,7 @@
       <c r="G660" s="4"/>
       <c r="H660" s="4"/>
     </row>
-    <row r="661" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A661" s="4"/>
       <c r="B661" s="4"/>
       <c r="C661" s="9" t="s">
@@ -13943,7 +13943,7 @@
       <c r="G661" s="4"/>
       <c r="H661" s="4"/>
     </row>
-    <row r="662" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A662" s="4"/>
       <c r="B662" s="4"/>
       <c r="C662" s="9" t="s">
@@ -13957,7 +13957,7 @@
       <c r="G662" s="4"/>
       <c r="H662" s="4"/>
     </row>
-    <row r="663" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A663" s="4"/>
       <c r="B663" s="4"/>
       <c r="C663" s="9" t="s">
@@ -13971,7 +13971,7 @@
       <c r="G663" s="4"/>
       <c r="H663" s="4"/>
     </row>
-    <row r="664" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A664" s="4"/>
       <c r="B664" s="4"/>
       <c r="C664" s="9" t="s">
@@ -13985,7 +13985,7 @@
       <c r="G664" s="4"/>
       <c r="H664" s="4"/>
     </row>
-    <row r="665" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A665" s="4"/>
       <c r="B665" s="4"/>
       <c r="C665" s="9" t="s">
@@ -13999,7 +13999,7 @@
       <c r="G665" s="4"/>
       <c r="H665" s="4"/>
     </row>
-    <row r="666" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A666" s="4"/>
       <c r="B666" s="4"/>
       <c r="C666" s="9" t="s">
@@ -14013,7 +14013,7 @@
       <c r="G666" s="4"/>
       <c r="H666" s="4"/>
     </row>
-    <row r="667" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A667" s="4"/>
       <c r="B667" s="4"/>
       <c r="C667" s="9" t="s">
@@ -14027,7 +14027,7 @@
       <c r="G667" s="4"/>
       <c r="H667" s="4"/>
     </row>
-    <row r="668" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A668" s="4"/>
       <c r="B668" s="4"/>
       <c r="C668" s="9" t="s">
@@ -14041,7 +14041,7 @@
       <c r="G668" s="4"/>
       <c r="H668" s="4"/>
     </row>
-    <row r="669" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A669" s="4"/>
       <c r="B669" s="4"/>
       <c r="C669" s="9" t="s">
@@ -14055,7 +14055,7 @@
       <c r="G669" s="4"/>
       <c r="H669" s="4"/>
     </row>
-    <row r="670" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A670" s="4"/>
       <c r="B670" s="4"/>
       <c r="C670" s="9" t="s">
@@ -14069,7 +14069,7 @@
       <c r="G670" s="4"/>
       <c r="H670" s="4"/>
     </row>
-    <row r="671" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A671" s="4"/>
       <c r="B671" s="4"/>
       <c r="C671" s="9" t="s">
@@ -14083,7 +14083,7 @@
       <c r="G671" s="4"/>
       <c r="H671" s="4"/>
     </row>
-    <row r="672" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A672" s="4"/>
       <c r="B672" s="4"/>
       <c r="C672" s="9" t="s">
@@ -14097,7 +14097,7 @@
       <c r="G672" s="4"/>
       <c r="H672" s="4"/>
     </row>
-    <row r="673" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A673" s="4"/>
       <c r="B673" s="4"/>
       <c r="C673" s="9" t="s">
@@ -14111,7 +14111,7 @@
       <c r="G673" s="4"/>
       <c r="H673" s="4"/>
     </row>
-    <row r="674" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A674" s="4"/>
       <c r="B674" s="4"/>
       <c r="C674" s="9" t="s">
@@ -14125,7 +14125,7 @@
       <c r="G674" s="4"/>
       <c r="H674" s="4"/>
     </row>
-    <row r="675" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A675" s="4"/>
       <c r="B675" s="4"/>
       <c r="C675" s="9" t="s">
@@ -14139,7 +14139,7 @@
       <c r="G675" s="4"/>
       <c r="H675" s="4"/>
     </row>
-    <row r="676" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A676" s="4"/>
       <c r="B676" s="4"/>
       <c r="C676" s="9" t="s">
@@ -14153,7 +14153,7 @@
       <c r="G676" s="4"/>
       <c r="H676" s="4"/>
     </row>
-    <row r="677" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A677" s="4"/>
       <c r="B677" s="4"/>
       <c r="C677" s="9" t="s">
@@ -14167,7 +14167,7 @@
       <c r="G677" s="4"/>
       <c r="H677" s="4"/>
     </row>
-    <row r="678" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A678" s="4"/>
       <c r="B678" s="4"/>
       <c r="C678" s="9" t="s">
@@ -14181,7 +14181,7 @@
       <c r="G678" s="4"/>
       <c r="H678" s="4"/>
     </row>
-    <row r="679" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A679" s="4"/>
       <c r="B679" s="4"/>
       <c r="C679" s="9" t="s">
@@ -14195,7 +14195,7 @@
       <c r="G679" s="4"/>
       <c r="H679" s="4"/>
     </row>
-    <row r="680" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A680" s="4"/>
       <c r="B680" s="4"/>
       <c r="C680" s="9" t="s">
@@ -14209,7 +14209,7 @@
       <c r="G680" s="4"/>
       <c r="H680" s="4"/>
     </row>
-    <row r="681" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A681" s="4"/>
       <c r="B681" s="4"/>
       <c r="C681" s="9" t="s">
@@ -14223,7 +14223,7 @@
       <c r="G681" s="4"/>
       <c r="H681" s="4"/>
     </row>
-    <row r="682" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A682" s="4"/>
       <c r="B682" s="4"/>
       <c r="C682" s="9" t="s">
@@ -14237,7 +14237,7 @@
       <c r="G682" s="4"/>
       <c r="H682" s="4"/>
     </row>
-    <row r="683" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A683" s="4"/>
       <c r="B683" s="4"/>
       <c r="C683" s="9" t="s">
@@ -14251,7 +14251,7 @@
       <c r="G683" s="4"/>
       <c r="H683" s="4"/>
     </row>
-    <row r="684" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A684" s="4"/>
       <c r="B684" s="4"/>
       <c r="C684" s="9" t="s">
@@ -14265,7 +14265,7 @@
       <c r="G684" s="4"/>
       <c r="H684" s="4"/>
     </row>
-    <row r="685" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A685" s="4"/>
       <c r="B685" s="4"/>
       <c r="C685" s="9" t="s">
@@ -14279,7 +14279,7 @@
       <c r="G685" s="4"/>
       <c r="H685" s="4"/>
     </row>
-    <row r="686" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A686" s="4"/>
       <c r="B686" s="4"/>
       <c r="C686" s="9" t="s">
@@ -14293,7 +14293,7 @@
       <c r="G686" s="4"/>
       <c r="H686" s="4"/>
     </row>
-    <row r="687" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A687" s="4"/>
       <c r="B687" s="4"/>
       <c r="C687" s="9" t="s">
@@ -14307,7 +14307,7 @@
       <c r="G687" s="4"/>
       <c r="H687" s="4"/>
     </row>
-    <row r="688" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A688" s="4"/>
       <c r="B688" s="4"/>
       <c r="C688" s="9" t="s">
@@ -14321,7 +14321,7 @@
       <c r="G688" s="4"/>
       <c r="H688" s="4"/>
     </row>
-    <row r="689" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A689" s="4"/>
       <c r="B689" s="4"/>
       <c r="C689" s="9" t="s">
@@ -14335,7 +14335,7 @@
       <c r="G689" s="4"/>
       <c r="H689" s="4"/>
     </row>
-    <row r="690" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A690" s="4"/>
       <c r="B690" s="4"/>
       <c r="C690" s="9" t="s">
@@ -14349,7 +14349,7 @@
       <c r="G690" s="4"/>
       <c r="H690" s="4"/>
     </row>
-    <row r="691" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A691" s="4"/>
       <c r="B691" s="4"/>
       <c r="C691" s="9" t="s">
@@ -14363,7 +14363,7 @@
       <c r="G691" s="4"/>
       <c r="H691" s="4"/>
     </row>
-    <row r="692" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A692" s="4"/>
       <c r="B692" s="4"/>
       <c r="C692" s="9" t="s">
@@ -14377,7 +14377,7 @@
       <c r="G692" s="4"/>
       <c r="H692" s="4"/>
     </row>
-    <row r="693" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A693" s="4"/>
       <c r="B693" s="4"/>
       <c r="C693" s="9" t="s">
@@ -14391,7 +14391,7 @@
       <c r="G693" s="4"/>
       <c r="H693" s="4"/>
     </row>
-    <row r="694" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A694" s="4"/>
       <c r="B694" s="4"/>
       <c r="C694" s="9" t="s">
@@ -14405,7 +14405,7 @@
       <c r="G694" s="4"/>
       <c r="H694" s="4"/>
     </row>
-    <row r="695" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A695" s="4"/>
       <c r="B695" s="4"/>
       <c r="C695" s="9" t="s">
@@ -14419,7 +14419,7 @@
       <c r="G695" s="4"/>
       <c r="H695" s="4"/>
     </row>
-    <row r="696" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A696" s="4"/>
       <c r="B696" s="4"/>
       <c r="C696" s="9" t="s">
@@ -14433,7 +14433,7 @@
       <c r="G696" s="4"/>
       <c r="H696" s="4"/>
     </row>
-    <row r="697" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A697" s="4"/>
       <c r="B697" s="4"/>
       <c r="C697" s="9" t="s">
@@ -14447,7 +14447,7 @@
       <c r="G697" s="4"/>
       <c r="H697" s="4"/>
     </row>
-    <row r="698" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A698" s="4"/>
       <c r="B698" s="4"/>
       <c r="C698" s="9" t="s">
@@ -14461,7 +14461,7 @@
       <c r="G698" s="4"/>
       <c r="H698" s="4"/>
     </row>
-    <row r="699" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A699" s="4"/>
       <c r="B699" s="4"/>
       <c r="C699" s="9" t="s">
@@ -14475,7 +14475,7 @@
       <c r="G699" s="4"/>
       <c r="H699" s="4"/>
     </row>
-    <row r="700" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A700" s="4"/>
       <c r="B700" s="4"/>
       <c r="C700" s="9" t="s">
@@ -14489,7 +14489,7 @@
       <c r="G700" s="4"/>
       <c r="H700" s="4"/>
     </row>
-    <row r="701" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A701" s="4"/>
       <c r="B701" s="4"/>
       <c r="C701" s="9" t="s">
@@ -14503,7 +14503,7 @@
       <c r="G701" s="4"/>
       <c r="H701" s="4"/>
     </row>
-    <row r="702" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A702" s="4"/>
       <c r="B702" s="4"/>
       <c r="C702" s="9" t="s">
@@ -14517,7 +14517,7 @@
       <c r="G702" s="4"/>
       <c r="H702" s="4"/>
     </row>
-    <row r="703" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A703" s="4"/>
       <c r="B703" s="4"/>
       <c r="C703" s="9" t="s">
@@ -14531,7 +14531,7 @@
       <c r="G703" s="4"/>
       <c r="H703" s="4"/>
     </row>
-    <row r="704" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A704" s="4"/>
       <c r="B704" s="4"/>
       <c r="C704" s="9" t="s">
@@ -14545,7 +14545,7 @@
       <c r="G704" s="4"/>
       <c r="H704" s="4"/>
     </row>
-    <row r="705" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A705" s="4"/>
       <c r="B705" s="4"/>
       <c r="C705" s="9" t="s">
@@ -14559,7 +14559,7 @@
       <c r="G705" s="4"/>
       <c r="H705" s="4"/>
     </row>
-    <row r="706" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A706" s="4"/>
       <c r="B706" s="4"/>
       <c r="C706" s="9" t="s">
@@ -14573,7 +14573,7 @@
       <c r="G706" s="4"/>
       <c r="H706" s="4"/>
     </row>
-    <row r="707" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A707" s="4"/>
       <c r="B707" s="4"/>
       <c r="C707" s="9" t="s">
@@ -14587,7 +14587,7 @@
       <c r="G707" s="4"/>
       <c r="H707" s="4"/>
     </row>
-    <row r="708" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A708" s="4"/>
       <c r="B708" s="4"/>
       <c r="C708" s="9" t="s">
@@ -14601,7 +14601,7 @@
       <c r="G708" s="4"/>
       <c r="H708" s="4"/>
     </row>
-    <row r="709" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A709" s="4"/>
       <c r="B709" s="4"/>
       <c r="C709" s="9" t="s">
@@ -14615,7 +14615,7 @@
       <c r="G709" s="4"/>
       <c r="H709" s="4"/>
     </row>
-    <row r="710" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A710" s="4"/>
       <c r="B710" s="4"/>
       <c r="C710" s="9" t="s">
@@ -14629,7 +14629,7 @@
       <c r="G710" s="4"/>
       <c r="H710" s="4"/>
     </row>
-    <row r="711" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A711" s="4"/>
       <c r="B711" s="4"/>
       <c r="C711" s="9" t="s">
@@ -14657,18 +14657,18 @@
       <selection sqref="A1:E85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="44" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="43.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="37.5" style="17" customWidth="1"/>
     <col min="3" max="3" width="43" style="13" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.796875" customWidth="1"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="40.6640625" customWidth="1"/>
+    <col min="7" max="7" width="40.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>295</v>
       </c>
@@ -14683,7 +14683,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24">
         <v>1</v>
       </c>
@@ -14700,7 +14700,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24">
         <v>2</v>
       </c>
@@ -14717,7 +14717,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24">
         <v>3</v>
       </c>
@@ -14734,7 +14734,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24">
         <v>4</v>
       </c>
@@ -14751,7 +14751,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24">
         <v>5</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24">
         <v>6</v>
       </c>
@@ -14785,7 +14785,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24">
         <v>7</v>
       </c>
@@ -14802,7 +14802,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24">
         <v>8</v>
       </c>
@@ -14819,7 +14819,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24">
         <v>9</v>
       </c>
@@ -14836,7 +14836,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>10</v>
       </c>
@@ -14853,7 +14853,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>11</v>
       </c>
@@ -14870,7 +14870,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>12</v>
       </c>
@@ -14887,7 +14887,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>13</v>
       </c>
@@ -14904,7 +14904,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>14</v>
       </c>
@@ -14921,7 +14921,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>15</v>
       </c>
@@ -14938,7 +14938,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>16</v>
       </c>
@@ -14955,7 +14955,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>17</v>
       </c>
@@ -14972,7 +14972,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <v>18</v>
       </c>
@@ -14989,7 +14989,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <v>19</v>
       </c>
@@ -15006,7 +15006,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>20</v>
       </c>
@@ -15023,7 +15023,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>21</v>
       </c>
@@ -15040,7 +15040,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="24">
         <v>22</v>
       </c>
@@ -15057,7 +15057,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>23</v>
       </c>
@@ -15074,7 +15074,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <v>24</v>
       </c>
@@ -15091,7 +15091,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>25</v>
       </c>
@@ -15108,7 +15108,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>26</v>
       </c>
@@ -15125,7 +15125,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>27</v>
       </c>
@@ -15142,7 +15142,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <v>28</v>
       </c>
@@ -15159,7 +15159,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <v>29</v>
       </c>
@@ -15176,7 +15176,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <v>30</v>
       </c>
@@ -15193,7 +15193,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <v>31</v>
       </c>
@@ -15210,7 +15210,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <v>32</v>
       </c>
@@ -15227,7 +15227,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="24">
         <v>33</v>
       </c>
@@ -15244,7 +15244,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>34</v>
       </c>
@@ -15261,7 +15261,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="24">
         <v>35</v>
       </c>
@@ -15278,7 +15278,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <v>36</v>
       </c>
@@ -15295,7 +15295,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="24">
         <v>37</v>
       </c>
@@ -15312,7 +15312,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
         <v>38</v>
       </c>
@@ -15329,7 +15329,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <v>39</v>
       </c>
@@ -15346,7 +15346,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <v>40</v>
       </c>
@@ -15363,7 +15363,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <v>41</v>
       </c>
@@ -15380,7 +15380,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="24">
         <v>42</v>
       </c>
@@ -15397,7 +15397,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
         <v>43</v>
       </c>
@@ -15414,7 +15414,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="24">
         <v>44</v>
       </c>
@@ -15431,7 +15431,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="24">
         <v>45</v>
       </c>
@@ -15448,7 +15448,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="24">
         <v>46</v>
       </c>
@@ -15465,7 +15465,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="24">
         <v>47</v>
       </c>
@@ -15482,7 +15482,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="24">
         <v>48</v>
       </c>
@@ -15499,7 +15499,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="24">
         <v>49</v>
       </c>
@@ -15516,7 +15516,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
         <v>50</v>
       </c>
@@ -15533,7 +15533,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <v>51</v>
       </c>
@@ -15550,7 +15550,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="24">
         <v>52</v>
       </c>
@@ -15567,7 +15567,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="24">
         <v>53</v>
       </c>
@@ -15584,7 +15584,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <v>54</v>
       </c>
@@ -15601,7 +15601,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <v>55</v>
       </c>
@@ -15618,7 +15618,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="24">
         <v>56</v>
       </c>
@@ -15635,7 +15635,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="24">
         <v>57</v>
       </c>
@@ -15652,7 +15652,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="24">
         <v>58</v>
       </c>
@@ -15669,7 +15669,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
         <v>59</v>
       </c>
@@ -15686,7 +15686,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="24">
         <v>60</v>
       </c>
@@ -15703,7 +15703,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
         <v>61</v>
       </c>
@@ -15720,7 +15720,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
         <v>62</v>
       </c>
@@ -15737,7 +15737,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="24">
         <v>63</v>
       </c>
@@ -15754,7 +15754,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="24">
         <v>64</v>
       </c>
@@ -15771,7 +15771,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="24">
         <v>65</v>
       </c>
@@ -15788,7 +15788,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="24">
         <v>66</v>
       </c>
@@ -15805,7 +15805,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="24">
         <v>67</v>
       </c>
@@ -15822,7 +15822,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="24">
         <v>68</v>
       </c>
@@ -15839,7 +15839,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="24">
         <v>69</v>
       </c>
@@ -15856,7 +15856,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="24">
         <v>70</v>
       </c>
@@ -15873,7 +15873,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="24">
         <v>71</v>
       </c>
@@ -15890,7 +15890,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="24">
         <v>72</v>
       </c>
@@ -15907,7 +15907,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="24">
         <v>73</v>
       </c>
@@ -15924,7 +15924,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="24">
         <v>74</v>
       </c>
@@ -15941,7 +15941,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="24">
         <v>75</v>
       </c>
@@ -15958,7 +15958,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="24">
         <v>76</v>
       </c>
@@ -15975,7 +15975,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="24">
         <v>77</v>
       </c>
@@ -15992,7 +15992,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="24">
         <v>78</v>
       </c>
@@ -16009,7 +16009,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="24">
         <v>79</v>
       </c>
@@ -16026,7 +16026,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="24">
         <v>80</v>
       </c>
@@ -16043,7 +16043,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="24">
         <v>81</v>
       </c>
@@ -16060,7 +16060,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="24">
         <v>82</v>
       </c>
@@ -16077,7 +16077,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="24">
         <v>83</v>
       </c>
@@ -16094,7 +16094,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="24">
         <v>84</v>
       </c>
@@ -16111,7 +16111,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="4"/>
     </row>
   </sheetData>
